--- a/tools/example_framework.xlsx
+++ b/tools/example_framework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianDoloir\Desktop\Repos\intuitem\ciso-assistant-community\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9070214C-3B43-4FE0-B935-939739E98087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50ABFF37-62FE-4C8F-92DD-02077DC8FADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1788" yWindow="348" windowWidth="21060" windowHeight="12396" tabRatio="907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="6" r:id="rId1"/>
@@ -42,6 +42,40 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>.</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{2C98172B-B0DA-4AE6-AF43-2EF9F2ACCA97}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">.: About version :.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>If you want to update the framework, don't forget to increment the version number</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>.</author>
@@ -99,7 +133,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>.</author>
@@ -229,7 +263,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>.</author>
@@ -1801,7 +1835,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1892,78 +1926,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2024,6 +1986,120 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2033,66 +2109,25 @@
     <xf numFmtId="0" fontId="13" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="31">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2129,58 +2164,6 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
       </font>
@@ -2317,6 +2300,44 @@
           <color indexed="64"/>
         </left>
         <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -2615,10 +2636,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{549B97EC-A4EC-467D-95D4-C91A5E59F559}" name="Tableau1" displayName="Tableau1" ref="A1:N39" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="29" tableBorderDxfId="28" totalsRowBorderDxfId="27">
   <autoFilter ref="A1:N39" xr:uid="{549B97EC-A4EC-467D-95D4-C91A5E59F559}"/>
@@ -2631,33 +2648,33 @@
     <tableColumn id="6" xr3:uid="{552D82DF-7C98-4797-9A2D-D4FDA52D98AF}" name="annotation" dataDxfId="21"/>
     <tableColumn id="7" xr3:uid="{E61773D4-D778-4312-A49F-8A5758A995E8}" name="typical_evidence" dataDxfId="20"/>
     <tableColumn id="8" xr3:uid="{41549C1C-81F1-4DC9-AF3E-D66557AB55EA}" name="implementation_groups" dataDxfId="19"/>
-    <tableColumn id="14" xr3:uid="{AFF985E6-291A-441C-8DEF-8F4448E20722}" name="questions" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{22C6C123-59A8-4006-974A-AEC9BDF7B9C5}" name="answer" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{D92464D6-5A4E-46A6-B30C-5054FBC689EF}" name="name[fr]" dataDxfId="18"/>
-    <tableColumn id="10" xr3:uid="{582EF74A-B398-41A0-ACCF-D0452C1A56EF}" name="description[fr]" dataDxfId="17"/>
-    <tableColumn id="11" xr3:uid="{EA0E2718-3825-4A77-B686-8C594E64AC01}" name="annotation[fr]" dataDxfId="16"/>
-    <tableColumn id="12" xr3:uid="{CB66FA06-DCF3-44C6-A079-7B12A457972F}" name="typical_evidence[fr]" dataDxfId="15"/>
+    <tableColumn id="14" xr3:uid="{AFF985E6-291A-441C-8DEF-8F4448E20722}" name="questions" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{22C6C123-59A8-4006-974A-AEC9BDF7B9C5}" name="answer" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{D92464D6-5A4E-46A6-B30C-5054FBC689EF}" name="name[fr]" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{582EF74A-B398-41A0-ACCF-D0452C1A56EF}" name="description[fr]" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{EA0E2718-3825-4A77-B686-8C594E64AC01}" name="annotation[fr]" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{CB66FA06-DCF3-44C6-A079-7B12A457972F}" name="typical_evidence[fr]" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="Style de tableau 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{095154CE-6DE0-439C-B5AB-1118C37DCAF4}" name="Tableau2" displayName="Tableau2" ref="A1:E5" totalsRowShown="0" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{095154CE-6DE0-439C-B5AB-1118C37DCAF4}" name="Tableau2" displayName="Tableau2" ref="A1:E5" totalsRowShown="0" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <autoFilter ref="A1:E5" xr:uid="{095154CE-6DE0-439C-B5AB-1118C37DCAF4}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{BB7E1ECB-4B2B-4222-B69C-FDF7FCF7F451}" name="ref_id" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{AA129DE3-6969-4BE8-8FD1-B74529AF31A8}" name="name" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{7980BF69-F795-4B15-9518-5B07FE2675D7}" name="description" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{245E3F68-8E07-4115-ADB2-6D2D1DB60F36}" name="name[fr]" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{7C50CF1F-76A2-4CDB-B985-67AE9549E305}" name="description[fr]" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{BB7E1ECB-4B2B-4222-B69C-FDF7FCF7F451}" name="ref_id" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{AA129DE3-6969-4BE8-8FD1-B74529AF31A8}" name="name" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{7980BF69-F795-4B15-9518-5B07FE2675D7}" name="description" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{245E3F68-8E07-4115-ADB2-6D2D1DB60F36}" name="name[fr]" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{7C50CF1F-76A2-4CDB-B985-67AE9549E305}" name="description[fr]" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="Style de tableau 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C7B78881-4183-44AE-BDF4-F6BDECF9D936}" name="Tableau4" displayName="Tableau4" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C7B78881-4183-44AE-BDF4-F6BDECF9D936}" name="Tableau4" displayName="Tableau4" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:C1048576" xr:uid="{C7B78881-4183-44AE-BDF4-F6BDECF9D936}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F801AE0F-E094-475A-BBD2-F4BED2F83A76}" name="id"/>
@@ -2669,7 +2686,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8AB0205B-E51F-4004-809C-4673837E5B05}" name="Tableau5" displayName="Tableau5" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8AB0205B-E51F-4004-809C-4673837E5B05}" name="Tableau5" displayName="Tableau5" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:E1048576" xr:uid="{8AB0205B-E51F-4004-809C-4673837E5B05}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{881914C9-040C-42B4-91FE-05BC90988F70}" name="score"/>
@@ -2983,380 +3000,400 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="62.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="59"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="79"/>
     </row>
     <row r="2" spans="1:13" ht="42.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="80" t="s">
         <v>271</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="94"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="82"/>
     </row>
     <row r="3" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="50"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="85"/>
     </row>
     <row r="4" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="68" t="s">
         <v>259</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="39" t="s">
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="41"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="66"/>
     </row>
     <row r="5" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="73" t="s">
         <v>260</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="39" t="s">
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="64" t="s">
         <v>268</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="41"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="66"/>
     </row>
     <row r="6" spans="1:13" ht="19.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="76" t="s">
         <v>255</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="39" t="s">
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="64" t="s">
         <v>269</v>
       </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="41"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="66"/>
     </row>
     <row r="7" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="72" t="s">
         <v>256</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="39" t="s">
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="64" t="s">
         <v>281</v>
       </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="41"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="66"/>
     </row>
     <row r="8" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="71" t="s">
         <v>257</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="39" t="s">
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="64" t="s">
         <v>270</v>
       </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="41"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="66"/>
     </row>
     <row r="9" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="70" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="39" t="s">
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="64" t="s">
         <v>273</v>
       </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="41"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="66"/>
     </row>
     <row r="10" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="67" t="s">
         <v>278</v>
       </c>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="39" t="s">
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="64" t="s">
         <v>272</v>
       </c>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="41"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="66"/>
     </row>
     <row r="11" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="67" t="s">
         <v>279</v>
       </c>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="39" t="s">
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="64" t="s">
         <v>274</v>
       </c>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="41"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="66"/>
     </row>
     <row r="12" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="39" t="s">
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="64" t="s">
         <v>277</v>
       </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="41"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="66"/>
     </row>
     <row r="13" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="43" t="s">
+      <c r="B13" s="89"/>
+      <c r="C13" s="90" t="s">
         <v>267</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
     </row>
     <row r="14" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="50"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="85"/>
     </row>
     <row r="15" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="98" t="s">
         <v>261</v>
       </c>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="39" t="s">
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="64" t="s">
         <v>266</v>
       </c>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="41"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="66"/>
     </row>
     <row r="16" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="39" t="s">
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="64" t="s">
         <v>262</v>
       </c>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="41"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="66"/>
     </row>
     <row r="17" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39" t="s">
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="64" t="s">
         <v>263</v>
       </c>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="41"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="66"/>
     </row>
     <row r="18" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="39" t="s">
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="64" t="s">
         <v>264</v>
       </c>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="41"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="66"/>
     </row>
     <row r="19" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="39" t="s">
+      <c r="B19" s="87"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="41"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="66"/>
     </row>
     <row r="20" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="43" t="s">
+      <c r="B20" s="89"/>
+      <c r="C20" s="90" t="s">
         <v>265</v>
       </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="91"/>
     </row>
     <row r="21" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:M19"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:M13"/>
+    <mergeCell ref="A14:M14"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:M16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:M17"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:M15"/>
+    <mergeCell ref="G7:M7"/>
+    <mergeCell ref="G8:M8"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
     <mergeCell ref="G9:M9"/>
     <mergeCell ref="G12:M12"/>
     <mergeCell ref="G4:M4"/>
@@ -3373,26 +3410,6 @@
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="G5:M5"/>
     <mergeCell ref="G6:M6"/>
-    <mergeCell ref="G7:M7"/>
-    <mergeCell ref="G8:M8"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:M19"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:M13"/>
-    <mergeCell ref="A14:M14"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:M18"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:M16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:M17"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:M15"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:M20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3417,7 +3434,7 @@
     <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="55.33203125" customWidth="1"/>
     <col min="6" max="6" width="22.109375" customWidth="1"/>
-    <col min="7" max="7" width="49.77734375" style="75" customWidth="1"/>
+    <col min="7" max="7" width="49.77734375" style="51" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3436,124 +3453,124 @@
       <c r="E1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="78"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="69">
+      <c r="A2" s="45">
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="55" t="s">
         <v>227</v>
       </c>
-      <c r="E2" s="80" t="s">
+      <c r="E2" s="56" t="s">
         <v>238</v>
       </c>
-      <c r="F2" s="76"/>
-      <c r="G2" s="77"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="53"/>
     </row>
     <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="69">
+      <c r="A3" s="45">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="55" t="s">
         <v>235</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="F3" s="76"/>
-      <c r="G3" s="77"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
     </row>
     <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="69">
+      <c r="A4" s="45">
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="40" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="D4" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="F4" s="76"/>
-      <c r="G4" s="77"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="53"/>
     </row>
     <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="69">
+      <c r="A5" s="45">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="40" t="s">
         <v>247</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="E5" s="80" t="s">
+      <c r="E5" s="56" t="s">
         <v>240</v>
       </c>
-      <c r="F5" s="76"/>
-      <c r="G5" s="77"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="53"/>
     </row>
     <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="69">
+      <c r="A6" s="45">
         <v>4</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="40" t="s">
         <v>248</v>
       </c>
-      <c r="D6" s="79" t="s">
+      <c r="D6" s="55" t="s">
         <v>230</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="40" t="s">
         <v>242</v>
       </c>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
     </row>
     <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="69">
+      <c r="A7" s="45">
         <v>5</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="40" t="s">
         <v>249</v>
       </c>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E7" s="64" t="s">
+      <c r="E7" s="40" t="s">
         <v>243</v>
       </c>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C8" s="75"/>
+      <c r="C8" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3564,7 +3581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil2">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -3584,7 +3601,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="61" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3592,7 +3609,7 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="41" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3600,7 +3617,7 @@
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="41" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3608,7 +3625,7 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="41" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3616,7 +3633,7 @@
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="41" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3624,7 +3641,7 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="41" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3632,7 +3649,7 @@
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="42" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3640,7 +3657,7 @@
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="41" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3648,7 +3665,7 @@
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="41" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3656,7 +3673,7 @@
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="41" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3664,7 +3681,7 @@
       <c r="A11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="95" t="s">
+      <c r="B11" s="41" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3672,7 +3689,7 @@
       <c r="A12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="41" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3680,12 +3697,13 @@
       <c r="A13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="95" t="s">
+      <c r="B13" s="41" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3697,7 +3715,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3710,7 +3728,7 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="62" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3718,7 +3736,7 @@
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3726,7 +3744,7 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3734,7 +3752,7 @@
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3742,7 +3760,7 @@
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3750,7 +3768,7 @@
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="40" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3758,39 +3776,39 @@
       <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="99" t="s">
+      <c r="B7" s="58" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="59" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="59" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="57" t="s">
         <v>251</v>
       </c>
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="60" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="60" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3798,7 +3816,7 @@
       <c r="A12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3806,7 +3824,7 @@
       <c r="A13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3874,10 +3892,10 @@
       <c r="H1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="J1" s="67" t="s">
+      <c r="J1" s="43" t="s">
         <v>202</v>
       </c>
       <c r="K1" s="17" t="s">
@@ -3999,7 +4017,7 @@
       <c r="I5" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="J5" s="65" t="s">
+      <c r="J5" s="41" t="s">
         <v>192</v>
       </c>
       <c r="K5" s="7" t="s">
@@ -4012,74 +4030,74 @@
       <c r="N5" s="12"/>
     </row>
     <row r="6" spans="1:14" s="35" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69" t="s">
+      <c r="C6" s="45"/>
+      <c r="D6" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="69" t="s">
+      <c r="F6" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="70" t="s">
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="J6" s="65" t="s">
+      <c r="J6" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="K6" s="69" t="s">
+      <c r="K6" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="L6" s="69" t="s">
+      <c r="L6" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="M6" s="69" t="s">
+      <c r="M6" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="N6" s="71"/>
+      <c r="N6" s="47"/>
     </row>
     <row r="7" spans="1:14" s="35" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69" t="s">
+      <c r="C7" s="45"/>
+      <c r="D7" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69" t="s">
+      <c r="F7" s="45"/>
+      <c r="G7" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="69"/>
-      <c r="I7" s="70" t="s">
+      <c r="H7" s="45"/>
+      <c r="I7" s="46" t="s">
         <v>206</v>
       </c>
-      <c r="J7" s="70" t="s">
+      <c r="J7" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="69" t="s">
+      <c r="K7" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="L7" s="69" t="s">
+      <c r="L7" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69" t="s">
+      <c r="M7" s="45"/>
+      <c r="N7" s="45" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4796,68 +4814,68 @@
       <c r="N33" s="21"/>
     </row>
     <row r="34" spans="1:14" s="35" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="72" t="s">
+      <c r="A34" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="73" t="s">
+      <c r="B34" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69" t="s">
+      <c r="C34" s="45"/>
+      <c r="D34" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="73" t="s">
+      <c r="E34" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="F34" s="69"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="74" t="s">
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="50" t="s">
         <v>283</v>
       </c>
-      <c r="J34" s="70" t="s">
+      <c r="J34" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="K34" s="69" t="s">
+      <c r="K34" s="45" t="s">
         <v>132</v>
       </c>
       <c r="L34" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="M34" s="69"/>
-      <c r="N34" s="71"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="47"/>
     </row>
     <row r="35" spans="1:14" s="35" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="72" t="s">
+      <c r="A35" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="73" t="s">
+      <c r="B35" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="69"/>
-      <c r="D35" s="69" t="s">
+      <c r="C35" s="45"/>
+      <c r="D35" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="73" t="s">
+      <c r="E35" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="F35" s="69"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="70" t="s">
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="J35" s="69" t="s">
+      <c r="J35" s="45" t="s">
         <v>216</v>
       </c>
-      <c r="K35" s="69" t="s">
+      <c r="K35" s="45" t="s">
         <v>133</v>
       </c>
       <c r="L35" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="M35" s="69"/>
-      <c r="N35" s="71"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="47"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="19"/>
@@ -4998,7 +5016,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="63" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5006,7 +5024,7 @@
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="36" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5143,7 +5161,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="63" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5151,7 +5169,7 @@
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="36" t="s">
         <v>253</v>
       </c>
     </row>
@@ -5180,24 +5198,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="39" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="42" t="s">
         <v>194</v>
       </c>
     </row>
@@ -5208,7 +5226,7 @@
       <c r="B3" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="40" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5219,7 +5237,7 @@
       <c r="B4" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="40" t="s">
         <v>214</v>
       </c>
     </row>
@@ -5227,30 +5245,30 @@
       <c r="A5" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="40" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="C6" s="65"/>
+      <c r="C6" s="41"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="C7" s="65"/>
+      <c r="C7" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5278,7 +5296,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="63" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5286,7 +5304,7 @@
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="36" t="s">
         <v>254</v>
       </c>
     </row>

--- a/tools/example_framework.xlsx
+++ b/tools/example_framework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianDoloir\Desktop\Repos\intuitem\ciso-assistant-community\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50ABFF37-62FE-4C8F-92DD-02077DC8FADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBAD4A4-83D5-49FD-8E14-867595C35F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1788" yWindow="348" windowWidth="21060" windowHeight="12396" tabRatio="907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1485" yWindow="-15870" windowWidth="25440" windowHeight="15990" tabRatio="907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="6" r:id="rId1"/>
@@ -1359,16 +1359,10 @@
     <t>Scores description</t>
   </si>
   <si>
-    <t>Reference Controls descriptions</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
     <t>multiple_choice</t>
-  </si>
-  <si>
-    <t>URN Prefix descriptions</t>
   </si>
   <si>
     <t>thrt_meta | thrt_content</t>
@@ -1388,6 +1382,12 @@
   <si>
     <t>What is the name of the elements?
 Will it be further improved in the future?</t>
+  </si>
+  <si>
+    <t>Reference Controls description</t>
+  </si>
+  <si>
+    <t>URN Prefix description</t>
   </si>
 </sst>
 </file>
@@ -1998,6 +1998,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2007,6 +2025,69 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2025,88 +2106,7 @@
     <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3000,400 +3000,380 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="62.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="79"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="90"/>
     </row>
     <row r="2" spans="1:13" ht="42.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="91" t="s">
         <v>271</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="82"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="93"/>
     </row>
     <row r="3" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="85"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="75"/>
     </row>
     <row r="4" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="95" t="s">
         <v>259</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="64" t="s">
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="66"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
     </row>
     <row r="5" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="79" t="s">
         <v>260</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="64" t="s">
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="70" t="s">
         <v>268</v>
       </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="66"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="72"/>
     </row>
     <row r="6" spans="1:13" ht="19.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="100" t="s">
         <v>255</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="64" t="s">
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="70" t="s">
         <v>269</v>
       </c>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="66"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="72"/>
     </row>
     <row r="7" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="99" t="s">
         <v>256</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="64" t="s">
-        <v>281</v>
-      </c>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="66"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="70" t="s">
+        <v>279</v>
+      </c>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="72"/>
     </row>
     <row r="8" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="98" t="s">
         <v>257</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="64" t="s">
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="70" t="s">
         <v>270</v>
       </c>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="66"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="72"/>
     </row>
     <row r="9" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="97" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="64" t="s">
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="70" t="s">
         <v>273</v>
       </c>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="66"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="72"/>
     </row>
     <row r="10" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="94" t="s">
+        <v>276</v>
+      </c>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="70" t="s">
+        <v>272</v>
+      </c>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="72"/>
+    </row>
+    <row r="11" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="94" t="s">
+        <v>277</v>
+      </c>
+      <c r="B11" s="94"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="70" t="s">
+        <v>282</v>
+      </c>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="72"/>
+    </row>
+    <row r="12" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="94" t="s">
         <v>278</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="64" t="s">
-        <v>272</v>
-      </c>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="66"/>
-    </row>
-    <row r="11" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="67" t="s">
-        <v>279</v>
-      </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="64" t="s">
-        <v>274</v>
-      </c>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="66"/>
-    </row>
-    <row r="12" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="67" t="s">
-        <v>280</v>
-      </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="64" t="s">
-        <v>277</v>
-      </c>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="66"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="70" t="s">
+        <v>283</v>
+      </c>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="72"/>
     </row>
     <row r="13" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="89"/>
-      <c r="C13" s="90" t="s">
+      <c r="B13" s="64"/>
+      <c r="C13" s="65" t="s">
         <v>267</v>
       </c>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
     </row>
     <row r="14" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="83" t="s">
+      <c r="A14" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="85"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="75"/>
     </row>
     <row r="15" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="98" t="s">
+      <c r="A15" s="85" t="s">
         <v>261</v>
       </c>
-      <c r="B15" s="99"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="64" t="s">
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="70" t="s">
         <v>266</v>
       </c>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="66"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="72"/>
     </row>
     <row r="16" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="64" t="s">
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="70" t="s">
         <v>262</v>
       </c>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="66"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="72"/>
     </row>
     <row r="17" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="95" t="s">
+      <c r="A17" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="64" t="s">
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="70" t="s">
         <v>263</v>
       </c>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="66"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="72"/>
     </row>
     <row r="18" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="92" t="s">
+      <c r="A18" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="64" t="s">
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="70" t="s">
         <v>264</v>
       </c>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="66"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="72"/>
     </row>
     <row r="19" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="86" t="s">
+      <c r="A19" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="87"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="64" t="s">
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="66"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="72"/>
     </row>
     <row r="20" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="89" t="s">
+      <c r="A20" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="89"/>
-      <c r="C20" s="90" t="s">
+      <c r="B20" s="64"/>
+      <c r="C20" s="65" t="s">
         <v>265</v>
       </c>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="91"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
     </row>
     <row r="21" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:M19"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:M13"/>
-    <mergeCell ref="A14:M14"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:M18"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:M16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:M17"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:M15"/>
-    <mergeCell ref="G7:M7"/>
-    <mergeCell ref="G8:M8"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:M3"/>
     <mergeCell ref="G9:M9"/>
     <mergeCell ref="G12:M12"/>
     <mergeCell ref="G4:M4"/>
@@ -3410,6 +3390,26 @@
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="G5:M5"/>
     <mergeCell ref="G6:M6"/>
+    <mergeCell ref="G7:M7"/>
+    <mergeCell ref="G8:M8"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:M19"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:M13"/>
+    <mergeCell ref="A14:M14"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:M16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:M17"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3715,7 +3715,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3801,7 +3801,7 @@
         <v>251</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -4799,7 +4799,7 @@
       <c r="G33" s="20"/>
       <c r="H33" s="20"/>
       <c r="I33" s="20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J33" s="20" t="s">
         <v>213</v>
@@ -4831,7 +4831,7 @@
       <c r="G34" s="45"/>
       <c r="H34" s="45"/>
       <c r="I34" s="50" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J34" s="46" t="s">
         <v>215</v>
@@ -5224,7 +5224,7 @@
         <v>199</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>200</v>
@@ -5235,7 +5235,7 @@
         <v>213</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>214</v>

--- a/tools/example_framework.xlsx
+++ b/tools/example_framework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianDoloir\Desktop\Repos\intuitem\ciso-assistant-community\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBAD4A4-83D5-49FD-8E14-867595C35F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC95E573-CA92-41FF-A87C-6265055E57BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="-15870" windowWidth="25440" windowHeight="15990" tabRatio="907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="6" r:id="rId1"/>
@@ -23,6 +23,12 @@
     <sheet name="answ_content" sheetId="8" r:id="rId8"/>
     <sheet name="scr_meta" sheetId="9" r:id="rId9"/>
     <sheet name="scr_content" sheetId="10" r:id="rId10"/>
+    <sheet name="thrt_meta" sheetId="12" r:id="rId11"/>
+    <sheet name="thrt_content" sheetId="11" r:id="rId12"/>
+    <sheet name="ref_ctrl_meta" sheetId="15" r:id="rId13"/>
+    <sheet name="ref_ctrl_content" sheetId="16" r:id="rId14"/>
+    <sheet name="urn_pref_meta" sheetId="13" r:id="rId15"/>
+    <sheet name="urn_pref_content" sheetId="14" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +61,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">.: About version :.
 </t>
@@ -68,6 +74,30 @@
             <family val="2"/>
           </rPr>
           <t>If you want to update the framework, don't forget to increment the version number</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{8377CD80-173C-4910-ABAF-16B301C42544}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.: About dependencies :.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>List of URNs of other libraries referenced in this library. This field is used in very specific cases, you'll most likely never have to use it.</t>
         </r>
       </text>
     </comment>
@@ -195,7 +225,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>.: About implementation_groups :.</t>
         </r>
@@ -204,7 +234,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Comma-separated list of reference to "imp_grp"</t>
@@ -219,7 +249,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">.: About questions :.
 </t>
@@ -256,6 +286,54 @@
             <family val="2"/>
           </rPr>
           <t>1 (same for all questions) or n (one answer per question) answers, separated by line break</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{9DF94410-D1CA-448F-BD60-59EAD2557609}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.: About threats :.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>"blank"/"comma"/"LF" separated list of references to "thrt"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{781B3B90-5C6F-4C56-B7DD-C93B8542FECF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.: About threats :.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>"blank"/"comma"/"LF" separated list of references to "ref_ctrl"</t>
         </r>
       </text>
     </comment>
@@ -321,8 +399,169 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>.</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{E03FFCD3-6DD7-4C5A-BF15-1A42212B37F7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.: About category :.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>One of "policy", "process", "technical", "physical", "procedure"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{035FED0A-B653-49AA-B537-D702E0D5BB64}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.: About csf_function :.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>One among "govern", "identify", "protect", "detect", "respond", "recover"</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>.</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{08AB1420-44E8-4B9A-A68E-0317A9DFB699}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.: About this URN Prefix :.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This URN Prefix corresponds to the "base_urn" of "threats" in the "thrt_meta" sheet. It will allow us to use the prefix "1" in the "fwk_content" sheet, so we don't have to write the whole URN Prefix followed by the desired threat.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{C20E37D4-EFDE-487A-AF17-85F10DB304A5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.: About this URN Prefix :.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This URN Prefix corresponds to the "base_urn" of "reference_controls" in the "ref_ctrl_meta" sheet. It will allow us to use the prefix "2" in the "fwk_content" sheet, so we don't have to write the whole URN Prefix followed by the desired reference control.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{C67681B2-6D92-4B47-9C88-A10DFEF97229}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.: About this URN Prefix :.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This URN Prefix corresponds to the "base_urn" of a "reference_controls" in an </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>external library</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>. The library concerned has been referenced in the "dependencies" field of the "library_meta" sheet. This may happen in very specific cases, but you'll most likely never have to do that.
+It will allow us to use the prefix "3" in the "fwk_content" sheet, so we don't have to write the whole URN Prefix followed by the desired reference control.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="548">
   <si>
     <t>type</t>
   </si>
@@ -1039,9 +1278,6 @@
   <si>
     <t>Q2
 YNNA</t>
-  </si>
-  <si>
-    <t>DEPART_NAME</t>
   </si>
   <si>
     <t>SAC-V1
@@ -1293,9 +1529,6 @@
       </rPr>
       <t xml:space="preserve"> whatever the situation.</t>
     </r>
-  </si>
-  <si>
-    <t>???</t>
   </si>
   <si>
     <r>
@@ -1389,12 +1622,810 @@
   <si>
     <t>URN Prefix description</t>
   </si>
+  <si>
+    <t>threats</t>
+  </si>
+  <si>
+    <t>my-framework_example.1</t>
+  </si>
+  <si>
+    <t>urn:intuitem:risk:threat:my-framework_example.1</t>
+  </si>
+  <si>
+    <t>T001</t>
+  </si>
+  <si>
+    <t>T002</t>
+  </si>
+  <si>
+    <t>T003</t>
+  </si>
+  <si>
+    <t>T004</t>
+  </si>
+  <si>
+    <t>T005</t>
+  </si>
+  <si>
+    <t>BAD1</t>
+  </si>
+  <si>
+    <t>BAD2.01</t>
+  </si>
+  <si>
+    <t>BAD2.02</t>
+  </si>
+  <si>
+    <t>BAD2.03</t>
+  </si>
+  <si>
+    <t>BAD2.04</t>
+  </si>
+  <si>
+    <t>BAD2.05</t>
+  </si>
+  <si>
+    <t>BAD2.06</t>
+  </si>
+  <si>
+    <t>BAD2.07</t>
+  </si>
+  <si>
+    <t>BAD2.08</t>
+  </si>
+  <si>
+    <t>BAD2.09</t>
+  </si>
+  <si>
+    <t>BAD2.10</t>
+  </si>
+  <si>
+    <t>T006</t>
+  </si>
+  <si>
+    <t>T007</t>
+  </si>
+  <si>
+    <t>RISKY_01</t>
+  </si>
+  <si>
+    <t>RISKY_02</t>
+  </si>
+  <si>
+    <t>RISKY_03</t>
+  </si>
+  <si>
+    <t>RISKY_04</t>
+  </si>
+  <si>
+    <t>RISKY_05</t>
+  </si>
+  <si>
+    <t>RISKY_06</t>
+  </si>
+  <si>
+    <t>RISKY_07</t>
+  </si>
+  <si>
+    <t>Threat 001</t>
+  </si>
+  <si>
+    <t>Threat 002</t>
+  </si>
+  <si>
+    <t>Threat 003</t>
+  </si>
+  <si>
+    <t>Threat 004</t>
+  </si>
+  <si>
+    <t>Threat 006</t>
+  </si>
+  <si>
+    <t>Threat 007</t>
+  </si>
+  <si>
+    <t>Very Bad Threat 1</t>
+  </si>
+  <si>
+    <t>Very Bad Threat 2.02</t>
+  </si>
+  <si>
+    <t>Very Bad Threat 2.01</t>
+  </si>
+  <si>
+    <t>Very Bad Threat 2.03</t>
+  </si>
+  <si>
+    <t>Very Bad Threat 2.04</t>
+  </si>
+  <si>
+    <t>Very Bad Threat 2.05</t>
+  </si>
+  <si>
+    <t>Very Bad Threat 2.06</t>
+  </si>
+  <si>
+    <t>Very Bad Threat 2.07</t>
+  </si>
+  <si>
+    <t>Very Bad Threat 2.08</t>
+  </si>
+  <si>
+    <t>Very Bad Threat 2.09</t>
+  </si>
+  <si>
+    <t>Very Bad Threat 2.10</t>
+  </si>
+  <si>
+    <t>Threat 001 Description</t>
+  </si>
+  <si>
+    <t>Very Bad Threat 2.05 Description</t>
+  </si>
+  <si>
+    <t>Very Bad Threat 2.06 Description</t>
+  </si>
+  <si>
+    <t>Very Bad Threat 2.07 Description</t>
+  </si>
+  <si>
+    <t>Very Bad Threat 2.08 Description</t>
+  </si>
+  <si>
+    <t>Very Bad Threat 2.09 Description</t>
+  </si>
+  <si>
+    <t>Threat 001 Annotation</t>
+  </si>
+  <si>
+    <t>Very Bad Threat 2.01 Annotation</t>
+  </si>
+  <si>
+    <t>Very Bad Threat 2.02 Annotation</t>
+  </si>
+  <si>
+    <t>Very Bad Threat 2.03 Annotation</t>
+  </si>
+  <si>
+    <t>Very Bad Threat 2.04 Annotation</t>
+  </si>
+  <si>
+    <t>Special Threat 01 Description</t>
+  </si>
+  <si>
+    <t>Special Threat 02 Description</t>
+  </si>
+  <si>
+    <t>Special Threat 01 Annotation</t>
+  </si>
+  <si>
+    <t>Special Threat 03 Annotation</t>
+  </si>
+  <si>
+    <t>Menace 001</t>
+  </si>
+  <si>
+    <t>Annotation de la menace 001</t>
+  </si>
+  <si>
+    <t>Menace 002</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Menace 003</t>
+  </si>
+  <si>
+    <t>Menace 004</t>
+  </si>
+  <si>
+    <t>Menace 006</t>
+  </si>
+  <si>
+    <t>Menace 007</t>
+  </si>
+  <si>
+    <t>Annotation Menace Spéciale 01</t>
+  </si>
+  <si>
+    <t>Annotation Menace Spéciale 03</t>
+  </si>
+  <si>
+    <t>Annotation Très Mauvaise Menace 2.04</t>
+  </si>
+  <si>
+    <t>Annotation Très Mauvaise Menace 2.02</t>
+  </si>
+  <si>
+    <t>Annotation Très Mauvaise Menace 2.03</t>
+  </si>
+  <si>
+    <t>Annotation Très Mauvaise Menace 2.01</t>
+  </si>
+  <si>
+    <t>Description Très Mauvaise Menace 2.05</t>
+  </si>
+  <si>
+    <t>Description Très Mauvaise Menace 2.06</t>
+  </si>
+  <si>
+    <t>Description Très Mauvaise Menace 2.07</t>
+  </si>
+  <si>
+    <t>Description Très Mauvaise Menace 2.08</t>
+  </si>
+  <si>
+    <t>Description Très Mauvaise Menace 2.09</t>
+  </si>
+  <si>
+    <t>Description Menace Spéciale 01</t>
+  </si>
+  <si>
+    <t>Description Menace Spéciale 02</t>
+  </si>
+  <si>
+    <t>Description Menace 001</t>
+  </si>
+  <si>
+    <t>Très Mauvaise Menace 1</t>
+  </si>
+  <si>
+    <t>Très Mauvaise Menace 2.01</t>
+  </si>
+  <si>
+    <t>Très Mauvaise Menace 2.02</t>
+  </si>
+  <si>
+    <t>Très Mauvaise Menace 2.03</t>
+  </si>
+  <si>
+    <t>Très Mauvaise Menace 2.04</t>
+  </si>
+  <si>
+    <t>Très Mauvaise Menace 2.05</t>
+  </si>
+  <si>
+    <t>Très Mauvaise Menace 2.06</t>
+  </si>
+  <si>
+    <t>Très Mauvaise Menace 2.07</t>
+  </si>
+  <si>
+    <t>Très Mauvaise Menace 2.08</t>
+  </si>
+  <si>
+    <t>Très Mauvaise Menace 2.09</t>
+  </si>
+  <si>
+    <t>Très Mauvaise Menace 2.10</t>
+  </si>
+  <si>
+    <t>urn_prefix</t>
+  </si>
+  <si>
+    <t>prefix_id</t>
+  </si>
+  <si>
+    <t>prefix_value</t>
+  </si>
+  <si>
+    <t>1:T001</t>
+  </si>
+  <si>
+    <t>1:BAD2.01</t>
+  </si>
+  <si>
+    <t>1:BAD2.05, 1:BAD2.06, 1:RISKY_01</t>
+  </si>
+  <si>
+    <t>1:BAD2.08</t>
+  </si>
+  <si>
+    <t>1:T005, 1:T001, 1:RISKY_06</t>
+  </si>
+  <si>
+    <t>1:BAD1</t>
+  </si>
+  <si>
+    <t>Threat 005</t>
+  </si>
+  <si>
+    <t>Special Threat 01</t>
+  </si>
+  <si>
+    <t>Special Threat 02</t>
+  </si>
+  <si>
+    <t>Special Threat 03</t>
+  </si>
+  <si>
+    <t>Special Threat 04</t>
+  </si>
+  <si>
+    <t>Special Threat 05</t>
+  </si>
+  <si>
+    <t>Special Threat 06</t>
+  </si>
+  <si>
+    <t>Special Threat 07</t>
+  </si>
+  <si>
+    <t>reference_controls</t>
+  </si>
+  <si>
+    <t>csf_function</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>detect</t>
+  </si>
+  <si>
+    <t>technical</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>govern</t>
+  </si>
+  <si>
+    <t>recover</t>
+  </si>
+  <si>
+    <t>REF001</t>
+  </si>
+  <si>
+    <t>REF002</t>
+  </si>
+  <si>
+    <t>REF003</t>
+  </si>
+  <si>
+    <t>REF004</t>
+  </si>
+  <si>
+    <t>REF005</t>
+  </si>
+  <si>
+    <t>REF006</t>
+  </si>
+  <si>
+    <t>REF007</t>
+  </si>
+  <si>
+    <t>Reference 001</t>
+  </si>
+  <si>
+    <t>Reference 002</t>
+  </si>
+  <si>
+    <t>Reference 003</t>
+  </si>
+  <si>
+    <t>Reference 004</t>
+  </si>
+  <si>
+    <t>Reference 005</t>
+  </si>
+  <si>
+    <t>Reference 006</t>
+  </si>
+  <si>
+    <t>Reference 007</t>
+  </si>
+  <si>
+    <t>Référence 001</t>
+  </si>
+  <si>
+    <t>Référence 005</t>
+  </si>
+  <si>
+    <t>Référence 002</t>
+  </si>
+  <si>
+    <t>Référence 003</t>
+  </si>
+  <si>
+    <t>Référence 004</t>
+  </si>
+  <si>
+    <t>Référence 006</t>
+  </si>
+  <si>
+    <t>Référence 007</t>
+  </si>
+  <si>
+    <t>Menace 005</t>
+  </si>
+  <si>
+    <t>IMPORTANT.R1</t>
+  </si>
+  <si>
+    <t>Important Reference 1</t>
+  </si>
+  <si>
+    <t>IMPORTANT.R2.01</t>
+  </si>
+  <si>
+    <t>Important Reference 2.01</t>
+  </si>
+  <si>
+    <t>Important Reference 2.02</t>
+  </si>
+  <si>
+    <t>Important Reference 2.03</t>
+  </si>
+  <si>
+    <t>Important Reference 2.04</t>
+  </si>
+  <si>
+    <t>Important Reference 2.05</t>
+  </si>
+  <si>
+    <t>Important Reference 2.06</t>
+  </si>
+  <si>
+    <t>Important Reference 2.07</t>
+  </si>
+  <si>
+    <t>Important Reference 2.08</t>
+  </si>
+  <si>
+    <t>Important Reference 2.09</t>
+  </si>
+  <si>
+    <t>Important Reference 2.10</t>
+  </si>
+  <si>
+    <t>IMPORTANT.R2.02</t>
+  </si>
+  <si>
+    <t>IMPORTANT.R2.03</t>
+  </si>
+  <si>
+    <t>IMPORTANT.R2.04</t>
+  </si>
+  <si>
+    <t>IMPORTANT.R2.05</t>
+  </si>
+  <si>
+    <t>IMPORTANT.R2.06</t>
+  </si>
+  <si>
+    <t>IMPORTANT.R2.07</t>
+  </si>
+  <si>
+    <t>IMPORTANT.R2.08</t>
+  </si>
+  <si>
+    <t>IMPORTANT.R2.09</t>
+  </si>
+  <si>
+    <t>IMPORTANT.R2.10</t>
+  </si>
+  <si>
+    <t>Reference 001 Description</t>
+  </si>
+  <si>
+    <t>Reference 002 Description</t>
+  </si>
+  <si>
+    <t>Threat 002 Description</t>
+  </si>
+  <si>
+    <t>Threat 003 Annotation</t>
+  </si>
+  <si>
+    <t>Description Menace 002</t>
+  </si>
+  <si>
+    <t>Annotation de la menace 003</t>
+  </si>
+  <si>
+    <t>INFO_REF_01</t>
+  </si>
+  <si>
+    <t>INFO_REF_02</t>
+  </si>
+  <si>
+    <t>INFO_REF_03</t>
+  </si>
+  <si>
+    <t>INFO_REF_04</t>
+  </si>
+  <si>
+    <t>INFO_REF_05</t>
+  </si>
+  <si>
+    <t>INFO_REF_06</t>
+  </si>
+  <si>
+    <t>INFO_REF_07</t>
+  </si>
+  <si>
+    <t>Informative Reference 01</t>
+  </si>
+  <si>
+    <t>Informative Reference 02</t>
+  </si>
+  <si>
+    <t>Informative Reference 03</t>
+  </si>
+  <si>
+    <t>Informative Reference 04</t>
+  </si>
+  <si>
+    <t>Informative Reference 05</t>
+  </si>
+  <si>
+    <t>Informative Reference 07</t>
+  </si>
+  <si>
+    <t>Menace Spéciale 01</t>
+  </si>
+  <si>
+    <t>Menace Spéciale 02</t>
+  </si>
+  <si>
+    <t>Menace Spéciale 03</t>
+  </si>
+  <si>
+    <t>Menace Spéciale 04</t>
+  </si>
+  <si>
+    <t>Menace Spéciale 05</t>
+  </si>
+  <si>
+    <t>Menace Spéciale 06</t>
+  </si>
+  <si>
+    <t>Menace Spéciale 07</t>
+  </si>
+  <si>
+    <t>Référence Informative 01</t>
+  </si>
+  <si>
+    <t>Référence Informative 02</t>
+  </si>
+  <si>
+    <t>Référence Informative 03</t>
+  </si>
+  <si>
+    <t>Référence Informative 04</t>
+  </si>
+  <si>
+    <t>Référence Informative 05</t>
+  </si>
+  <si>
+    <t>Référence Informative 07</t>
+  </si>
+  <si>
+    <t>Description Référence Informative 01</t>
+  </si>
+  <si>
+    <t>Description Référence Informative 02</t>
+  </si>
+  <si>
+    <t>Annotation Référence Informative 01</t>
+  </si>
+  <si>
+    <t>Annotation Référence Informative 03</t>
+  </si>
+  <si>
+    <t>Référence Importante 1</t>
+  </si>
+  <si>
+    <t>Référence Importante 2.01</t>
+  </si>
+  <si>
+    <t>Référence Importante 2.02</t>
+  </si>
+  <si>
+    <t>Référence Importante 2.03</t>
+  </si>
+  <si>
+    <t>Référence Importante 2.04</t>
+  </si>
+  <si>
+    <t>Référence Importante 2.05</t>
+  </si>
+  <si>
+    <t>Référence Importante 2.06</t>
+  </si>
+  <si>
+    <t>Référence Importante 2.07</t>
+  </si>
+  <si>
+    <t>Référence Importante 2.08</t>
+  </si>
+  <si>
+    <t>Référence Importante 2.09</t>
+  </si>
+  <si>
+    <t>Référence Importante 2.10</t>
+  </si>
+  <si>
+    <t>Description Référence Importante 2.05</t>
+  </si>
+  <si>
+    <t>Description Référence Importante 2.06</t>
+  </si>
+  <si>
+    <t>Description Référence Importante 2.07</t>
+  </si>
+  <si>
+    <t>Description Référence Importante 2.08</t>
+  </si>
+  <si>
+    <t>Description Référence Importante 2.09</t>
+  </si>
+  <si>
+    <t>Annotation Référence Importante 2.01</t>
+  </si>
+  <si>
+    <t>Annotation Référence Importante 2.02</t>
+  </si>
+  <si>
+    <t>Annotation Référence Importante 2.03</t>
+  </si>
+  <si>
+    <t>Annotation Référence Importante 2.04</t>
+  </si>
+  <si>
+    <t>Description Référence 001</t>
+  </si>
+  <si>
+    <t>Description Référence 002</t>
+  </si>
+  <si>
+    <t>Annotation de la référence 001</t>
+  </si>
+  <si>
+    <t>Annotation de la référence 003</t>
+  </si>
+  <si>
+    <t>Important Reference 2.05 Description</t>
+  </si>
+  <si>
+    <t>Important Reference 2.06 Description</t>
+  </si>
+  <si>
+    <t>Important Reference 2.07 Description</t>
+  </si>
+  <si>
+    <t>Important Reference 2.09 Description</t>
+  </si>
+  <si>
+    <t>Important Reference 2.08 Description</t>
+  </si>
+  <si>
+    <t>Important Reference 2.01 Annotation</t>
+  </si>
+  <si>
+    <t>Important Reference 2.02 Annotation</t>
+  </si>
+  <si>
+    <t>Important Reference 2.03 Annotation</t>
+  </si>
+  <si>
+    <t>Important Reference 2.04 Annotation</t>
+  </si>
+  <si>
+    <t>Reference 001 Annotation</t>
+  </si>
+  <si>
+    <t>Reference 003 Annotation</t>
+  </si>
+  <si>
+    <t>Informative Reference 01 Description</t>
+  </si>
+  <si>
+    <t>Informative Reference 02 Description</t>
+  </si>
+  <si>
+    <t>Informative Reference 01 Annotation</t>
+  </si>
+  <si>
+    <t>Informative Reference 03 Annotation</t>
+  </si>
+  <si>
+    <t>policy</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>physical</t>
+  </si>
+  <si>
+    <t>procedure</t>
+  </si>
+  <si>
+    <t>REF008</t>
+  </si>
+  <si>
+    <t>Reference 008</t>
+  </si>
+  <si>
+    <t>Référence 008</t>
+  </si>
+  <si>
+    <t>identify</t>
+  </si>
+  <si>
+    <t>respond</t>
+  </si>
+  <si>
+    <t>DEP_NAME</t>
+  </si>
+  <si>
+    <t>urn:intuitem:risk:function:my-framework_example.1</t>
+  </si>
+  <si>
+    <t>2:REF002</t>
+  </si>
+  <si>
+    <t>2:IMPORTANT.R2.01</t>
+  </si>
+  <si>
+    <t>2:INFO_REF_03</t>
+  </si>
+  <si>
+    <t>2:INFO_REF_06, 2:IMPORTANT.R2.03, 2:REF003, 2:REF008, 2:REF001</t>
+  </si>
+  <si>
+    <t>2:IMPORTANT.R2.10, 2:REF007</t>
+  </si>
+  <si>
+    <t>1:BAD2.06, 1:RISKY_05</t>
+  </si>
+  <si>
+    <t>2:IMPORTANT.R2.09, 2:REF001, 2:REF002, 2:REF005</t>
+  </si>
+  <si>
+    <t>Référence Informative 06</t>
+  </si>
+  <si>
+    <t>Informative Reference 06</t>
+  </si>
+  <si>
+    <t>dependencies</t>
+  </si>
+  <si>
+    <t>urn:intuitem:risk:library:doc-pol</t>
+  </si>
+  <si>
+    <t>urn:intuitem:risk:function:doc-pol</t>
+  </si>
+  <si>
+    <t>3:POL.EDUC</t>
+  </si>
+  <si>
+    <t>3:DOC.MGMT_REVIEW, 3:DOC.COMPETENCY, 3:DOC.CONTROLS</t>
+  </si>
+  <si>
+    <t>3:DOC.MGMT_REVIEW, 2:REF007</t>
+  </si>
+  <si>
+    <t>2:INFO_REF_06, 3:DOC.AUDIT_PLAN</t>
+  </si>
+  <si>
+    <t>2:INFO_REF_06, 2:REF006, 2:IMPORTANT.R2.03, 2:REF007, 3:DOC.AUDIT_PLAN, 3:POL.MAIN</t>
+  </si>
+  <si>
+    <t>Not all sheets are needed to create a framework. Just use the ones you need when creating a framework.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1534,19 +2565,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1573,8 +2591,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1656,6 +2682,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC3399"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1835,7 +2879,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1853,7 +2897,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1863,8 +2906,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1884,8 +2925,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1970,27 +3009,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1998,6 +3037,130 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2016,24 +3179,6 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2043,15 +3188,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2068,52 +3204,499 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="65">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -2295,11 +3878,84 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -2312,7 +3968,8 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2325,13 +3982,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2344,13 +4000,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2363,13 +4018,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2382,13 +4036,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2401,13 +4054,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2420,13 +4072,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2439,13 +4090,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2458,13 +4108,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2477,13 +4126,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2496,16 +4144,13 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -2515,44 +4160,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2577,6 +4184,9 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -2625,6 +4235,11 @@
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Style de tableau 1" pivot="0" count="0" xr9:uid="{9511F623-AF5D-4BF3-BC18-F1E7BA46C7DF}"/>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC3399"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2637,44 +4252,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{549B97EC-A4EC-467D-95D4-C91A5E59F559}" name="Tableau1" displayName="Tableau1" ref="A1:N39" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="29" tableBorderDxfId="28" totalsRowBorderDxfId="27">
-  <autoFilter ref="A1:N39" xr:uid="{549B97EC-A4EC-467D-95D4-C91A5E59F559}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{D7929412-2C04-48B2-B421-6EC19B1F374C}" name="assessable" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{BAC0F5CA-29D7-460A-BD72-3F9E24C9732F}" name="depth" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{92C5BE2B-42CA-458E-8D3C-CC37002D48BD}" name="ref_id" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{9F7C5816-5FCC-476D-B6FA-AE433ADEABCC}" name="name" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{2650FBAE-CAA9-4751-AB1F-D901BDE6D752}" name="description" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{552D82DF-7C98-4797-9A2D-D4FDA52D98AF}" name="annotation" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{E61773D4-D778-4312-A49F-8A5758A995E8}" name="typical_evidence" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{41549C1C-81F1-4DC9-AF3E-D66557AB55EA}" name="implementation_groups" dataDxfId="19"/>
-    <tableColumn id="14" xr3:uid="{AFF985E6-291A-441C-8DEF-8F4448E20722}" name="questions" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{22C6C123-59A8-4006-974A-AEC9BDF7B9C5}" name="answer" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{D92464D6-5A4E-46A6-B30C-5054FBC689EF}" name="name[fr]" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{582EF74A-B398-41A0-ACCF-D0452C1A56EF}" name="description[fr]" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{EA0E2718-3825-4A77-B686-8C594E64AC01}" name="annotation[fr]" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{CB66FA06-DCF3-44C6-A079-7B12A457972F}" name="typical_evidence[fr]" dataDxfId="13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{549B97EC-A4EC-467D-95D4-C91A5E59F559}" name="Tableau1" displayName="Tableau1" ref="A1:P39" totalsRowShown="0" headerRowDxfId="64" dataDxfId="62" headerRowBorderDxfId="63" tableBorderDxfId="61" totalsRowBorderDxfId="60">
+  <autoFilter ref="A1:P39" xr:uid="{549B97EC-A4EC-467D-95D4-C91A5E59F559}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{D7929412-2C04-48B2-B421-6EC19B1F374C}" name="assessable" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{BAC0F5CA-29D7-460A-BD72-3F9E24C9732F}" name="depth" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{92C5BE2B-42CA-458E-8D3C-CC37002D48BD}" name="ref_id" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{9F7C5816-5FCC-476D-B6FA-AE433ADEABCC}" name="name" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{2650FBAE-CAA9-4751-AB1F-D901BDE6D752}" name="description" dataDxfId="55"/>
+    <tableColumn id="6" xr3:uid="{552D82DF-7C98-4797-9A2D-D4FDA52D98AF}" name="annotation" dataDxfId="54"/>
+    <tableColumn id="7" xr3:uid="{E61773D4-D778-4312-A49F-8A5758A995E8}" name="typical_evidence" dataDxfId="53"/>
+    <tableColumn id="8" xr3:uid="{41549C1C-81F1-4DC9-AF3E-D66557AB55EA}" name="implementation_groups" dataDxfId="52"/>
+    <tableColumn id="14" xr3:uid="{AFF985E6-291A-441C-8DEF-8F4448E20722}" name="questions" dataDxfId="51"/>
+    <tableColumn id="13" xr3:uid="{22C6C123-59A8-4006-974A-AEC9BDF7B9C5}" name="answer" dataDxfId="50"/>
+    <tableColumn id="15" xr3:uid="{98B369E5-A92E-4F40-ABC5-965BF81E342E}" name="threats" dataDxfId="49"/>
+    <tableColumn id="16" xr3:uid="{12E0FCEA-DE2D-4475-972C-17BB204562B1}" name="reference_controls" dataDxfId="48"/>
+    <tableColumn id="9" xr3:uid="{D92464D6-5A4E-46A6-B30C-5054FBC689EF}" name="name[fr]" dataDxfId="47"/>
+    <tableColumn id="10" xr3:uid="{582EF74A-B398-41A0-ACCF-D0452C1A56EF}" name="description[fr]" dataDxfId="46"/>
+    <tableColumn id="11" xr3:uid="{EA0E2718-3825-4A77-B686-8C594E64AC01}" name="annotation[fr]" dataDxfId="45"/>
+    <tableColumn id="12" xr3:uid="{CB66FA06-DCF3-44C6-A079-7B12A457972F}" name="typical_evidence[fr]" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="Style de tableau 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{095154CE-6DE0-439C-B5AB-1118C37DCAF4}" name="Tableau2" displayName="Tableau2" ref="A1:E5" totalsRowShown="0" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{095154CE-6DE0-439C-B5AB-1118C37DCAF4}" name="Tableau2" displayName="Tableau2" ref="A1:E5" totalsRowShown="0" dataDxfId="42" headerRowBorderDxfId="43" tableBorderDxfId="41" totalsRowBorderDxfId="40">
   <autoFilter ref="A1:E5" xr:uid="{095154CE-6DE0-439C-B5AB-1118C37DCAF4}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{BB7E1ECB-4B2B-4222-B69C-FDF7FCF7F451}" name="ref_id" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{AA129DE3-6969-4BE8-8FD1-B74529AF31A8}" name="name" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{7980BF69-F795-4B15-9518-5B07FE2675D7}" name="description" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{245E3F68-8E07-4115-ADB2-6D2D1DB60F36}" name="name[fr]" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{7C50CF1F-76A2-4CDB-B985-67AE9549E305}" name="description[fr]" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{BB7E1ECB-4B2B-4222-B69C-FDF7FCF7F451}" name="ref_id" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{AA129DE3-6969-4BE8-8FD1-B74529AF31A8}" name="name" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{7980BF69-F795-4B15-9518-5B07FE2675D7}" name="description" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{245E3F68-8E07-4115-ADB2-6D2D1DB60F36}" name="name[fr]" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{7C50CF1F-76A2-4CDB-B985-67AE9549E305}" name="description[fr]" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="Style de tableau 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C7B78881-4183-44AE-BDF4-F6BDECF9D936}" name="Tableau4" displayName="Tableau4" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C7B78881-4183-44AE-BDF4-F6BDECF9D936}" name="Tableau4" displayName="Tableau4" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="34">
   <autoFilter ref="A1:C1048576" xr:uid="{C7B78881-4183-44AE-BDF4-F6BDECF9D936}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F801AE0F-E094-475A-BBD2-F4BED2F83A76}" name="id"/>
@@ -2686,7 +4303,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8AB0205B-E51F-4004-809C-4673837E5B05}" name="Tableau5" displayName="Tableau5" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8AB0205B-E51F-4004-809C-4673837E5B05}" name="Tableau5" displayName="Tableau5" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32" tableBorderDxfId="31">
   <autoFilter ref="A1:E1048576" xr:uid="{8AB0205B-E51F-4004-809C-4673837E5B05}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{881914C9-040C-42B4-91FE-05BC90988F70}" name="score"/>
@@ -2694,6 +4311,51 @@
     <tableColumn id="3" xr3:uid="{DE888702-0B73-4EA8-98CC-C67869A6EEB7}" name="description"/>
     <tableColumn id="4" xr3:uid="{013B5CA2-08F9-49C5-B3C9-C1F6E9E60E49}" name="name[fr]"/>
     <tableColumn id="5" xr3:uid="{76045B5B-822D-4B7F-9B5E-9F35FA9EE25B}" name="description[fr]"/>
+  </tableColumns>
+  <tableStyleInfo name="Style de tableau 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{21DED0C8-7237-47BF-8873-738C4400D3DB}" name="Tableau14" displayName="Tableau14" ref="A1:G26" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="29" tableBorderDxfId="28" totalsRowBorderDxfId="27">
+  <autoFilter ref="A1:G26" xr:uid="{32B00483-E3F9-4C14-B125-41886D9D0F23}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{2F9E1637-D442-4022-8B78-23492F1B2FD4}" name="ref_id" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{1990900A-E9A9-4853-8F63-DC439067075E}" name="name" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{E03E16C2-E13E-458D-A24A-3C34A91E3DF2}" name="description" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{5ECFEFFA-B045-45BD-A6D7-4E11C3283380}" name="annotation" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{4F645D7B-245A-416B-9E6F-06323318E6E2}" name="name[fr]" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{E7094BA8-F77D-4F12-A3F8-7928936A0D2E}" name="description[fr]" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{B9C14FC4-B603-427E-A7F4-CACF10F7A085}" name="annotation[fr]" dataDxfId="20"/>
+  </tableColumns>
+  <tableStyleInfo name="Style de tableau 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6DCAA1FD-DB86-4E15-8E31-AC99AB9F45D4}" name="Tableau3" displayName="Tableau3" ref="A1:I27" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="A1:I27" xr:uid="{4748F8BA-F2F9-4976-90F0-1D6F9F26191B}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{15A5B4EF-24CA-4813-9A39-8D55A540B838}" name="ref_id" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{541E38F3-C3CB-49DA-B177-2A1749008A5B}" name="name" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{F2BC8545-6F89-4E86-8E77-5E4AA7C0033E}" name="category" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{2D6C7622-7C26-46E8-BA06-DC874E602ECA}" name="csf_function" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{8B114798-8119-45A5-AC98-80691A7F5743}" name="description" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{3B24CD29-2024-4E6C-8EA8-A2A27F71DB45}" name="annotation" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{6D87C08C-7195-4695-A258-EC8C5FBA7769}" name="name[fr]" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{05DA7DF2-5885-4810-9061-18E2243F317E}" name="description[fr]" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{4E63784C-6489-4DCD-AFDF-2126BE436F13}" name="annotation[fr]" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="Style de tableau 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D16BDFCB-B8D2-4F9D-906C-2230193C4279}" name="Tableau7" displayName="Tableau7" ref="A1:B4" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="A1:B4" xr:uid="{D16BDFCB-B8D2-4F9D-906C-2230193C4279}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{438C028E-BBB1-42A6-99B2-250AC16AFAC2}" name="prefix_id" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{A29B1659-A5F7-4CB7-96A6-4F3536BCB6B5}" name="prefix_value" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Style de tableau 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3000,380 +4662,400 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="62.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="90"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="96"/>
     </row>
     <row r="2" spans="1:13" ht="42.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="97" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="99"/>
+    </row>
+    <row r="3" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="100" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="102"/>
+    </row>
+    <row r="4" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="85" t="s">
+        <v>258</v>
+      </c>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="81"/>
+    </row>
+    <row r="5" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="90" t="s">
+        <v>259</v>
+      </c>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="79" t="s">
+        <v>266</v>
+      </c>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="81"/>
+    </row>
+    <row r="6" spans="1:13" ht="19.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="93" t="s">
+        <v>254</v>
+      </c>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="79" t="s">
+        <v>267</v>
+      </c>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="81"/>
+    </row>
+    <row r="7" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="89" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="79" t="s">
+        <v>277</v>
+      </c>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="81"/>
+    </row>
+    <row r="8" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="88" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="79" t="s">
+        <v>268</v>
+      </c>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="81"/>
+    </row>
+    <row r="9" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="87" t="s">
+        <v>257</v>
+      </c>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="79" t="s">
         <v>271</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="93"/>
-    </row>
-    <row r="3" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="73" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="75"/>
-    </row>
-    <row r="4" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="95" t="s">
-        <v>259</v>
-      </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="72"/>
-    </row>
-    <row r="5" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="79" t="s">
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="81"/>
+    </row>
+    <row r="10" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="82" t="s">
+        <v>274</v>
+      </c>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="79" t="s">
+        <v>270</v>
+      </c>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="81"/>
+    </row>
+    <row r="11" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="83" t="s">
+        <v>275</v>
+      </c>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="79" t="s">
+        <v>280</v>
+      </c>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="81"/>
+    </row>
+    <row r="12" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="84" t="s">
+        <v>276</v>
+      </c>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="79" t="s">
+        <v>281</v>
+      </c>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="81"/>
+    </row>
+    <row r="13" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="103" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="103"/>
+      <c r="C13" s="104" t="s">
+        <v>547</v>
+      </c>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="105"/>
+    </row>
+    <row r="14" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="102"/>
+    </row>
+    <row r="15" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="115" t="s">
         <v>260</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="70" t="s">
-        <v>268</v>
-      </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="72"/>
-    </row>
-    <row r="6" spans="1:13" ht="19.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="100" t="s">
-        <v>255</v>
-      </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="70" t="s">
-        <v>269</v>
-      </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="72"/>
-    </row>
-    <row r="7" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="99" t="s">
-        <v>256</v>
-      </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="70" t="s">
-        <v>279</v>
-      </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="72"/>
-    </row>
-    <row r="8" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="98" t="s">
-        <v>257</v>
-      </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="70" t="s">
-        <v>270</v>
-      </c>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="72"/>
-    </row>
-    <row r="9" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="97" t="s">
-        <v>258</v>
-      </c>
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="70" t="s">
-        <v>273</v>
-      </c>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="72"/>
-    </row>
-    <row r="10" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="94" t="s">
-        <v>276</v>
-      </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="70" t="s">
-        <v>272</v>
-      </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="72"/>
-    </row>
-    <row r="11" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="94" t="s">
-        <v>277</v>
-      </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="70" t="s">
-        <v>282</v>
-      </c>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="72"/>
-    </row>
-    <row r="12" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="94" t="s">
-        <v>278</v>
-      </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="70" t="s">
-        <v>283</v>
-      </c>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="72"/>
-    </row>
-    <row r="13" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-    </row>
-    <row r="14" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="73" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="75"/>
-    </row>
-    <row r="15" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="85" t="s">
+      <c r="B15" s="116"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="79" t="s">
+        <v>265</v>
+      </c>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="81"/>
+    </row>
+    <row r="16" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="90" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="79" t="s">
         <v>261</v>
       </c>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="70" t="s">
-        <v>266</v>
-      </c>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="72"/>
-    </row>
-    <row r="16" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="79" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="70" t="s">
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="81"/>
+    </row>
+    <row r="17" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="112" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="79" t="s">
         <v>262</v>
       </c>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="72"/>
-    </row>
-    <row r="17" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="82" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="70" t="s">
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="81"/>
+    </row>
+    <row r="18" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="109" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="110"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="79" t="s">
         <v>263</v>
       </c>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="72"/>
-    </row>
-    <row r="18" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="70" t="s">
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="81"/>
+    </row>
+    <row r="19" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="106" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="107"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="81"/>
+    </row>
+    <row r="20" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="103" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="103"/>
+      <c r="C20" s="104" t="s">
         <v>264</v>
       </c>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="72"/>
-    </row>
-    <row r="19" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="70" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="72"/>
-    </row>
-    <row r="20" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="65" t="s">
-        <v>265</v>
-      </c>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="105"/>
+      <c r="L20" s="105"/>
+      <c r="M20" s="105"/>
     </row>
     <row r="21" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:M19"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:M13"/>
+    <mergeCell ref="A14:M14"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:M16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:M17"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:M15"/>
+    <mergeCell ref="G7:M7"/>
+    <mergeCell ref="G8:M8"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
     <mergeCell ref="G9:M9"/>
     <mergeCell ref="G12:M12"/>
     <mergeCell ref="G4:M4"/>
@@ -3390,26 +5072,6 @@
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="G5:M5"/>
     <mergeCell ref="G6:M6"/>
-    <mergeCell ref="G7:M7"/>
-    <mergeCell ref="G8:M8"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:M19"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:M13"/>
-    <mergeCell ref="A14:M14"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:M18"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:M16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:M17"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3434,148 +5096,1605 @@
     <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="55.33203125" customWidth="1"/>
     <col min="6" max="6" width="22.109375" customWidth="1"/>
-    <col min="7" max="7" width="49.77734375" style="51" customWidth="1"/>
+    <col min="7" max="7" width="49.77734375" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="49"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="40">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="54"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="45">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="E2" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2" s="47"/>
+      <c r="G2" s="48"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="40">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" s="47"/>
+      <c r="G3" s="48"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="40">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C2" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="D2" s="55" t="s">
+      <c r="C4" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="D4" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="E2" s="56" t="s">
-        <v>238</v>
-      </c>
-      <c r="F2" s="52"/>
-      <c r="G2" s="53"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="45">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="D3" s="55" t="s">
+      <c r="E4" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="40">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="C5" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="E5" s="51" t="s">
         <v>239</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="45">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>246</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>228</v>
-      </c>
-      <c r="E4" s="36" t="s">
+      <c r="F5" s="47"/>
+      <c r="G5" s="48"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="40">
+        <v>4</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>229</v>
+      </c>
+      <c r="E6" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="45">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>247</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>229</v>
-      </c>
-      <c r="E5" s="56" t="s">
-        <v>240</v>
-      </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="53"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="45">
-        <v>4</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="C6" s="40" t="s">
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="40">
+        <v>5</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D7" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E7" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="45">
-        <v>5</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>231</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="D7" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C8" s="51"/>
+      <c r="C8" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD71419-E054-485A-A887-394E5DBCB65C}">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>284</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3562A66A-CB45-4851-A90A-1FD717B4CCDD}">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="46" customWidth="1"/>
+    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="17.109375" style="46" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="65" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="63" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>342</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="63" t="s">
+        <v>286</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>311</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>446</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="60" t="s">
+        <v>344</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>448</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="63" t="s">
+        <v>287</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>312</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="63" t="s">
+        <v>288</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="60" t="s">
+        <v>347</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="63" t="s">
+        <v>289</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="60" t="s">
+        <v>421</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="63" t="s">
+        <v>301</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>314</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="60" t="s">
+        <v>348</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="63" t="s">
+        <v>302</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>315</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="60" t="s">
+        <v>349</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="63" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>316</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="60" t="s">
+        <v>364</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="63" t="s">
+        <v>293</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="I12"/>
+      <c r="J12"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="63" t="s">
+        <v>294</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="I13"/>
+      <c r="J13"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="63" t="s">
+        <v>295</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="I14"/>
+      <c r="J14"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="63" t="s">
+        <v>296</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>357</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="I15"/>
+      <c r="J15"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="63" t="s">
+        <v>297</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31" t="s">
+        <v>371</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>358</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="I16"/>
+      <c r="J16"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="63" t="s">
+        <v>298</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="I17"/>
+      <c r="J17"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="63" t="s">
+        <v>299</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="I18"/>
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="63" t="s">
+        <v>300</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="I19"/>
+      <c r="J19"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="63" t="s">
+        <v>303</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>385</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="E20" s="60" t="s">
+        <v>463</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="I20"/>
+      <c r="J20"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="B21" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="60" t="s">
+        <v>464</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="I21"/>
+      <c r="J21"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="63" t="s">
+        <v>305</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="C22" s="66"/>
+      <c r="D22" s="31" t="s">
+        <v>341</v>
+      </c>
+      <c r="E22" s="60" t="s">
+        <v>465</v>
+      </c>
+      <c r="F22" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="G22" s="66" t="s">
+        <v>351</v>
+      </c>
+      <c r="I22"/>
+      <c r="J22"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="63" t="s">
+        <v>306</v>
+      </c>
+      <c r="B23" s="60" t="s">
+        <v>388</v>
+      </c>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="60" t="s">
+        <v>466</v>
+      </c>
+      <c r="F23" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="G23" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="I23"/>
+      <c r="J23"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="63" t="s">
+        <v>307</v>
+      </c>
+      <c r="B24" s="60" t="s">
+        <v>389</v>
+      </c>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="60" t="s">
+        <v>467</v>
+      </c>
+      <c r="F24" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="G24" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="I24"/>
+      <c r="J24"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="63" t="s">
+        <v>308</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="60" t="s">
+        <v>468</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="I25"/>
+      <c r="J25"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="63" t="s">
+        <v>309</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="60" t="s">
+        <v>469</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="I26"/>
+      <c r="J26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9510DE6F-02E3-48B0-B236-DBBFDDCFD877}">
+  <sheetPr>
+    <tabColor rgb="FFCC3399"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="45.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>529</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CDAE93E-89E6-4E58-8964-43372613797F}">
+  <sheetPr>
+    <tabColor rgb="FFCC3399"/>
+  </sheetPr>
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+    <col min="5" max="5" width="33.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="59" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>394</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>393</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="65" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>407</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31" t="s">
+        <v>444</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>513</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>414</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
+        <v>401</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31" t="s">
+        <v>416</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>501</v>
+      </c>
+      <c r="I3" s="31"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>409</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31" t="s">
+        <v>514</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="31" t="s">
+        <v>403</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>410</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>519</v>
+      </c>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31" t="s">
+        <v>418</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>411</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>520</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31" t="s">
+        <v>415</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
+        <v>405</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>412</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>396</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31" t="s">
+        <v>419</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="31" t="s">
+        <v>406</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>521</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31" t="s">
+        <v>420</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="31" t="s">
+        <v>523</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>524</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>522</v>
+      </c>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="31" t="s">
+        <v>525</v>
+      </c>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="31" t="s">
+        <v>422</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>423</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31" t="s">
+        <v>398</v>
+      </c>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31" t="s">
+        <v>480</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="31" t="s">
+        <v>424</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>425</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31" t="s">
+        <v>526</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31" t="s">
+        <v>509</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>481</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
+        <v>435</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>426</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>482</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>427</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31" t="s">
+        <v>395</v>
+      </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31" t="s">
+        <v>511</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>483</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="31" t="s">
+        <v>437</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>428</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31" t="s">
+        <v>527</v>
+      </c>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31" t="s">
+        <v>512</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>484</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="31" t="s">
+        <v>438</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>429</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>504</v>
+      </c>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31" t="s">
+        <v>485</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>491</v>
+      </c>
+      <c r="I15" s="31" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="31" t="s">
+        <v>439</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>430</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>519</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>526</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>505</v>
+      </c>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31" t="s">
+        <v>486</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>492</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="31" t="s">
+        <v>440</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>431</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>521</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>506</v>
+      </c>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31" t="s">
+        <v>487</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="31" t="s">
+        <v>441</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>432</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>520</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31" t="s">
+        <v>508</v>
+      </c>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31" t="s">
+        <v>488</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="31" t="s">
+        <v>442</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31" t="s">
+        <v>507</v>
+      </c>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31" t="s">
+        <v>489</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>495</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="31" t="s">
+        <v>443</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>434</v>
+      </c>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31" t="s">
+        <v>490</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="31" t="s">
+        <v>450</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>457</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>522</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>395</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>515</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>517</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>470</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>476</v>
+      </c>
+      <c r="I21" s="31" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="31" t="s">
+        <v>451</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>458</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31" t="s">
+        <v>516</v>
+      </c>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31" t="s">
+        <v>471</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>477</v>
+      </c>
+      <c r="I22" s="31"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="31" t="s">
+        <v>452</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>459</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>396</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31" t="s">
+        <v>518</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>472</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="31" t="s">
+        <v>453</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>460</v>
+      </c>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31" t="s">
+        <v>473</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="I24" s="31" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="31" t="s">
+        <v>454</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>461</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31" t="s">
+        <v>474</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="I25" s="31" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="31" t="s">
+        <v>455</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>538</v>
+      </c>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31" t="s">
+        <v>537</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="I26" s="31" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="31" t="s">
+        <v>456</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>462</v>
+      </c>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31" t="s">
+        <v>475</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="I27" s="31" t="s">
+        <v>345</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E4A52A-B9AA-4A61-A62C-BB71C492A5A4}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913EAE6C-9081-4E9E-998E-3033EE85D0D7}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="67" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>541</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <ignoredErrors>
+    <ignoredError sqref="A2:A3" numberStoredAsText="1"/>
+  </ignoredErrors>
+  <legacyDrawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3585,10 +6704,10 @@
   <sheetPr codeName="Feuil2">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3601,7 +6720,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3609,7 +6728,7 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="36" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3617,7 +6736,7 @@
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="36" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3625,7 +6744,7 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="36" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3633,7 +6752,7 @@
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="36" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3641,7 +6760,7 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="36" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3649,7 +6768,7 @@
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="37" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3657,7 +6776,7 @@
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="36" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3665,7 +6784,7 @@
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="36" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3673,31 +6792,39 @@
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="36" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="78" t="s">
+        <v>539</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B12" s="36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B13" s="36" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B14" s="36" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3728,7 +6855,7 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="57" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3736,7 +6863,7 @@
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3744,7 +6871,7 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3752,15 +6879,15 @@
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>9</v>
+      <c r="B4" s="7" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3768,7 +6895,7 @@
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="35" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3776,55 +6903,55 @@
       <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="53" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="54" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="52" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9" s="54" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="57" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="52" t="s">
         <v>250</v>
       </c>
-      <c r="B9" s="59" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="57" t="s">
+      <c r="B10" s="55" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="B10" s="60" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="57" t="s">
-        <v>252</v>
-      </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="55" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3842,1146 +6969,1270 @@
   <sheetPr codeName="Feuil4">
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13" style="34" customWidth="1"/>
-    <col min="2" max="2" width="10" style="34" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28" style="34" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="41.109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" style="34" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" style="34" customWidth="1"/>
-    <col min="12" max="12" width="31.88671875" style="34" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.21875" style="34" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="37" style="34" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5546875" style="29" customWidth="1"/>
+    <col min="9" max="9" width="43" style="29" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" style="71" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.109375" style="71" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" style="29" customWidth="1"/>
+    <col min="14" max="14" width="31.88671875" style="29" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21" style="29" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="39.21875" style="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="69" t="s">
+        <v>282</v>
+      </c>
+      <c r="L1" s="75" t="s">
+        <v>392</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="N1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="O1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="P1" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="7">
+    <row r="2" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="39"/>
+      <c r="B2" s="40">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="40"/>
+      <c r="E2" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7" t="s">
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="12"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="7" t="s">
+      <c r="O2" s="40"/>
+      <c r="P2" s="42"/>
+    </row>
+    <row r="3" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="39"/>
+      <c r="B3" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7" t="s">
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="N3" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="O3" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="P3" s="40" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="39"/>
+      <c r="B4" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7" t="s">
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="N4" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="12"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="O4" s="40"/>
+      <c r="P4" s="42"/>
+    </row>
+    <row r="5" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7" t="s">
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="J5" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="N5" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="12"/>
-    </row>
-    <row r="6" spans="1:14" s="35" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="O5" s="40"/>
+      <c r="P5" s="42"/>
+    </row>
+    <row r="6" spans="1:16" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45" t="s">
+      <c r="C6" s="40"/>
+      <c r="D6" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46" t="s">
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="J6" s="41" t="s">
+      <c r="J6" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="K6" s="45" t="s">
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="L6" s="45" t="s">
+      <c r="N6" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="M6" s="45" t="s">
+      <c r="O6" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="N6" s="47"/>
-    </row>
-    <row r="7" spans="1:14" s="35" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
+      <c r="P6" s="42"/>
+    </row>
+    <row r="7" spans="1:16" s="30" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45" t="s">
+      <c r="C7" s="40"/>
+      <c r="D7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45" t="s">
+      <c r="F7" s="40"/>
+      <c r="G7" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="46" t="s">
+      <c r="H7" s="40"/>
+      <c r="I7" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="J7" s="46" t="s">
+      <c r="J7" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="45" t="s">
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="L7" s="45" t="s">
+      <c r="N7" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45" t="s">
+      <c r="O7" s="40"/>
+      <c r="P7" s="40" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="40"/>
+      <c r="D8" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7" t="s">
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="N8" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="O8" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="P8" s="40" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="40"/>
+      <c r="D9" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7" t="s">
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="12"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="42"/>
+    </row>
+    <row r="10" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="40"/>
+      <c r="D10" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7" t="s">
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="12"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="42"/>
+    </row>
+    <row r="11" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="40"/>
+      <c r="D11" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7" t="s">
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="N11" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="M11" s="7"/>
-      <c r="N11" s="12"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="O11" s="40"/>
+      <c r="P11" s="42"/>
+    </row>
+    <row r="12" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="40"/>
+      <c r="D12" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7" t="s">
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="N12" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="12"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="O12" s="40"/>
+      <c r="P12" s="42"/>
+    </row>
+    <row r="13" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7" t="s">
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="N13" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="12"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="7" t="s">
+      <c r="O13" s="40"/>
+      <c r="P13" s="42"/>
+    </row>
+    <row r="14" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="39"/>
+      <c r="B14" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="40"/>
+      <c r="D14" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7" t="s">
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41" t="s">
+        <v>532</v>
+      </c>
+      <c r="M14" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="12"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="42"/>
+    </row>
+    <row r="15" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="40"/>
+      <c r="D15" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7" t="s">
+      <c r="E15" s="40"/>
+      <c r="F15" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="22" t="s">
+      <c r="G15" s="40"/>
+      <c r="H15" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="7" t="s">
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="76" t="s">
+        <v>530</v>
+      </c>
+      <c r="M15" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7" t="s">
+      <c r="N15" s="40"/>
+      <c r="O15" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="N15" s="12"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="P15" s="42"/>
+    </row>
+    <row r="16" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7" t="s">
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="7" t="s">
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70" t="s">
+        <v>531</v>
+      </c>
+      <c r="M16" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7" t="s">
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:16" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7" t="s">
+      <c r="E17" s="40"/>
+      <c r="F17" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="7" t="s">
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70" t="s">
+        <v>533</v>
+      </c>
+      <c r="M17" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7" t="s">
+      <c r="N17" s="40"/>
+      <c r="O17" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="P17" s="40" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:16" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7" t="s">
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7" t="s">
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="70" t="s">
+        <v>534</v>
+      </c>
+      <c r="M18" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="12"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="42"/>
+    </row>
+    <row r="19" spans="1:16" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="22" t="s">
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="7" t="s">
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="45" t="s">
+        <v>535</v>
+      </c>
+      <c r="L19" s="70" t="s">
+        <v>536</v>
+      </c>
+      <c r="M19" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="12"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="42"/>
+    </row>
+    <row r="20" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="22" t="s">
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="7" t="s">
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70" t="s">
+        <v>542</v>
+      </c>
+      <c r="M20" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="12"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="42"/>
+    </row>
+    <row r="21" spans="1:16" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7" t="s">
+      <c r="C21" s="40"/>
+      <c r="D21" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7" t="s">
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41" t="s">
+        <v>543</v>
+      </c>
+      <c r="M21" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="12"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="7" t="s">
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="42"/>
+    </row>
+    <row r="22" spans="1:16" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="39"/>
+      <c r="B22" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7" t="s">
+      <c r="C22" s="40"/>
+      <c r="D22" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7" t="s">
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7" t="s">
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41" t="s">
+        <v>545</v>
+      </c>
+      <c r="M22" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="N22" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="M22" s="7"/>
-      <c r="N22" s="12"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
+      <c r="O22" s="40"/>
+      <c r="P22" s="42"/>
+    </row>
+    <row r="23" spans="1:16" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7" t="s">
+      <c r="C23" s="40"/>
+      <c r="D23" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7" t="s">
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="L23" s="41" t="s">
+        <v>544</v>
+      </c>
+      <c r="M23" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="12"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="42"/>
+    </row>
+    <row r="24" spans="1:16" s="30" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A24" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="40"/>
+      <c r="D24" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7" t="s">
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41" t="s">
+        <v>546</v>
+      </c>
+      <c r="M24" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="12"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="42"/>
+    </row>
+    <row r="25" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7" t="s">
+      <c r="C25" s="40"/>
+      <c r="D25" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7" t="s">
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="12"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="42"/>
+    </row>
+    <row r="26" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7" t="s">
+      <c r="C26" s="40"/>
+      <c r="D26" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7" t="s">
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="12"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="42"/>
+    </row>
+    <row r="27" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7" t="s">
+      <c r="C27" s="40"/>
+      <c r="D27" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7" t="s">
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="12"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="7" t="s">
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="42"/>
+    </row>
+    <row r="28" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="39"/>
+      <c r="B28" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7" t="s">
+      <c r="C28" s="40"/>
+      <c r="D28" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7" t="s">
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7" t="s">
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="N28" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="M28" s="7"/>
-      <c r="N28" s="12"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="7" t="s">
+      <c r="O28" s="40"/>
+      <c r="P28" s="42"/>
+    </row>
+    <row r="29" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="39"/>
+      <c r="B29" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7" t="s">
+      <c r="C29" s="40"/>
+      <c r="D29" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7" t="s">
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7" t="s">
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="N29" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="M29" s="7"/>
-      <c r="N29" s="12"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="7" t="s">
+      <c r="O29" s="40"/>
+      <c r="P29" s="42"/>
+    </row>
+    <row r="30" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="39"/>
+      <c r="B30" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7" t="s">
+      <c r="C30" s="40"/>
+      <c r="D30" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7" t="s">
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7" t="s">
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="L30" s="41"/>
+      <c r="M30" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="N30" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="M30" s="7"/>
-      <c r="N30" s="12"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
-      <c r="B31" s="20" t="s">
+      <c r="O30" s="40"/>
+      <c r="P30" s="42"/>
+    </row>
+    <row r="31" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="43"/>
+      <c r="B31" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20" t="s">
+      <c r="C31" s="44"/>
+      <c r="D31" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20" t="s">
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20" t="s">
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="45" t="s">
+        <v>379</v>
+      </c>
+      <c r="L31" s="45"/>
+      <c r="M31" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="N31" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="M31" s="20"/>
-      <c r="N31" s="21"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
-      <c r="B32" s="20" t="s">
+      <c r="O31" s="44"/>
+      <c r="P31" s="72"/>
+    </row>
+    <row r="32" spans="1:16" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="43"/>
+      <c r="B32" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20" t="s">
+      <c r="C32" s="44"/>
+      <c r="D32" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20" t="s">
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="L32" s="45"/>
+      <c r="M32" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="21"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="19" t="s">
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="72"/>
+    </row>
+    <row r="33" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="7" t="s">
+      <c r="C33" s="44"/>
+      <c r="D33" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="J33" s="20" t="s">
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="J33" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="K33" s="45" t="s">
+        <v>381</v>
+      </c>
+      <c r="L33" s="45"/>
+      <c r="M33" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="L33" s="20" t="s">
+      <c r="N33" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="O33" s="44"/>
+      <c r="P33" s="72"/>
+    </row>
+    <row r="34" spans="1:16" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="45" t="s">
+        <v>279</v>
+      </c>
+      <c r="J34" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="N34" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="M33" s="20"/>
-      <c r="N33" s="21"/>
-    </row>
-    <row r="34" spans="1:14" s="35" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="48" t="s">
+      <c r="O34" s="40"/>
+      <c r="P34" s="42"/>
+    </row>
+    <row r="35" spans="1:16" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="B35" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45" t="s">
+      <c r="C35" s="40"/>
+      <c r="D35" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="J35" s="40" t="s">
+        <v>528</v>
+      </c>
+      <c r="K35" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="L35" s="45"/>
+      <c r="M35" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="N35" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="O35" s="40"/>
+      <c r="P35" s="42"/>
+    </row>
+    <row r="36" spans="1:16" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="43"/>
+      <c r="B36" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="45" t="s">
+        <v>382</v>
+      </c>
+      <c r="L36" s="45"/>
+      <c r="M36" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="42"/>
+    </row>
+    <row r="37" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="45" t="s">
+        <v>383</v>
+      </c>
+      <c r="L37" s="45"/>
+      <c r="M37" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="N37" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="O37" s="40"/>
+      <c r="P37" s="42"/>
+    </row>
+    <row r="38" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="49" t="s">
-        <v>208</v>
-      </c>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="50" t="s">
-        <v>281</v>
-      </c>
-      <c r="J34" s="46" t="s">
-        <v>215</v>
-      </c>
-      <c r="K34" s="45" t="s">
+      <c r="E38" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="L34" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="M34" s="45"/>
-      <c r="N34" s="47"/>
-    </row>
-    <row r="35" spans="1:14" s="35" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="48" t="s">
+      <c r="N38" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="O38" s="40"/>
+      <c r="P38" s="42"/>
+    </row>
+    <row r="39" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="49" t="s">
+      <c r="B39" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45" t="s">
+      <c r="C39" s="44"/>
+      <c r="D39" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="49" t="s">
-        <v>209</v>
-      </c>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="46" t="s">
-        <v>218</v>
-      </c>
-      <c r="J35" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="K35" s="45" t="s">
+      <c r="E39" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="L35" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="M35" s="45"/>
-      <c r="N35" s="47"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="19"/>
-      <c r="B36" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="12"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L37" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="M37" s="7"/>
-      <c r="N37" s="12"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L38" s="20" t="s">
+      <c r="N39" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="M38" s="7"/>
-      <c r="N38" s="12"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L39" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="M39" s="20"/>
-      <c r="N39" s="21"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="72"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
@@ -5016,7 +8267,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="58" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5024,7 +8275,7 @@
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="31" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5047,91 +8298,91 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" style="35" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.88671875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="11" style="30" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="30" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" style="30" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.88671875" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="23" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="18" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="23"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="26" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5161,7 +8412,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="58" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5169,8 +8420,8 @@
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>253</v>
+      <c r="B2" s="31" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -5187,88 +8438,88 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.21875" customWidth="1"/>
     <col min="3" max="3" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="37" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C3" s="40" t="s">
+      <c r="B3" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="35" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:3" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C4" s="40" t="s">
+      <c r="B4" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C4" s="35" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="35" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:3" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="B5" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>217</v>
-      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="C6" s="41"/>
+      <c r="C6" s="36"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="C7" s="41"/>
+      <c r="C7" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5296,16 +8547,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
-        <v>225</v>
+      <c r="B1" s="58" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>254</v>
+      <c r="B2" s="31" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/tools/example_framework.xlsx
+++ b/tools/example_framework.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianDoloir\Desktop\Repos\intuitem\ciso-assistant-community\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC95E573-CA92-41FF-A87C-6265055E57BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5479025A-69C5-4707-88FE-501C490C8E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2418,7 +2418,7 @@
     <t>2:INFO_REF_06, 2:REF006, 2:IMPORTANT.R2.03, 2:REF007, 3:DOC.AUDIT_PLAN, 3:POL.MAIN</t>
   </si>
   <si>
-    <t>Not all sheets are needed to create a framework. Just use the ones you need when creating a framework.</t>
+    <t>When creating a library, keep only the tabs that are necessary. For example, if no implementation groups are used, remove the corresponding tabs.</t>
   </si>
 </sst>
 </file>
@@ -3089,6 +3089,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3098,6 +3116,69 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3122,88 +3203,7 @@
     <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4662,400 +4662,380 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="62.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="96"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="105"/>
     </row>
     <row r="2" spans="1:13" ht="42.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="106" t="s">
         <v>269</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="99"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="108"/>
     </row>
     <row r="3" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="102"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="90"/>
     </row>
     <row r="4" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="112" t="s">
         <v>258</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="79" t="s">
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="81"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="87"/>
     </row>
     <row r="5" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="94" t="s">
         <v>259</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="79" t="s">
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="85" t="s">
         <v>266</v>
       </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="81"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="87"/>
     </row>
     <row r="6" spans="1:13" ht="19.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="117" t="s">
         <v>254</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="79" t="s">
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="85" t="s">
         <v>267</v>
       </c>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="81"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="87"/>
     </row>
     <row r="7" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="116" t="s">
         <v>255</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="79" t="s">
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="85" t="s">
         <v>277</v>
       </c>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="81"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="87"/>
     </row>
     <row r="8" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="115" t="s">
         <v>256</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="79" t="s">
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="85" t="s">
         <v>268</v>
       </c>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="81"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="87"/>
     </row>
     <row r="9" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="114" t="s">
         <v>257</v>
       </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="79" t="s">
+      <c r="B9" s="114"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="85" t="s">
         <v>271</v>
       </c>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="81"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="87"/>
     </row>
     <row r="10" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="82" t="s">
+      <c r="A10" s="109" t="s">
         <v>274</v>
       </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="79" t="s">
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="85" t="s">
         <v>270</v>
       </c>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="81"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="87"/>
     </row>
     <row r="11" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="110" t="s">
         <v>275</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="79" t="s">
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="85" t="s">
         <v>280</v>
       </c>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="81"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="87"/>
     </row>
     <row r="12" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="111" t="s">
         <v>276</v>
       </c>
-      <c r="B12" s="84"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="79" t="s">
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="85" t="s">
         <v>281</v>
       </c>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="81"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="87"/>
     </row>
     <row r="13" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="103" t="s">
+      <c r="A13" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="103"/>
-      <c r="C13" s="104" t="s">
+      <c r="B13" s="79"/>
+      <c r="C13" s="80" t="s">
         <v>547</v>
       </c>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="105"/>
-      <c r="L13" s="105"/>
-      <c r="M13" s="105"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
     </row>
     <row r="14" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="100" t="s">
+      <c r="A14" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="101"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="102"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="90"/>
     </row>
     <row r="15" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="115" t="s">
+      <c r="A15" s="100" t="s">
         <v>260</v>
       </c>
-      <c r="B15" s="116"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="79" t="s">
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="85" t="s">
         <v>265</v>
       </c>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="81"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="87"/>
     </row>
     <row r="16" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="79" t="s">
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="85" t="s">
         <v>261</v>
       </c>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="81"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="87"/>
     </row>
     <row r="17" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="112" t="s">
+      <c r="A17" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="113"/>
-      <c r="C17" s="113"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="79" t="s">
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="85" t="s">
         <v>262</v>
       </c>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="81"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="87"/>
     </row>
     <row r="18" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="109" t="s">
+      <c r="A18" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="110"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="79" t="s">
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="85" t="s">
         <v>263</v>
       </c>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="81"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="87"/>
     </row>
     <row r="19" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="106" t="s">
+      <c r="A19" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="107"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="79" t="s">
+      <c r="B19" s="83"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="81"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="87"/>
     </row>
     <row r="20" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="103" t="s">
+      <c r="A20" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="103"/>
-      <c r="C20" s="104" t="s">
+      <c r="B20" s="79"/>
+      <c r="C20" s="80" t="s">
         <v>264</v>
       </c>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="105"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="105"/>
-      <c r="L20" s="105"/>
-      <c r="M20" s="105"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="81"/>
     </row>
     <row r="21" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:M19"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:M13"/>
-    <mergeCell ref="A14:M14"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:M18"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:M16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:M17"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:M15"/>
-    <mergeCell ref="G7:M7"/>
-    <mergeCell ref="G8:M8"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:M3"/>
     <mergeCell ref="G9:M9"/>
     <mergeCell ref="G12:M12"/>
     <mergeCell ref="G4:M4"/>
@@ -5072,6 +5052,26 @@
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="G5:M5"/>
     <mergeCell ref="G6:M6"/>
+    <mergeCell ref="G7:M7"/>
+    <mergeCell ref="G8:M8"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:M19"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:M13"/>
+    <mergeCell ref="A14:M14"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:M16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:M17"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tools/example_framework.xlsx
+++ b/tools/example_framework.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianDoloir\Desktop\Repos\intuitem\ciso-assistant-community\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tarkadia\projects\intuitem\ciso-assistant-community\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5479025A-69C5-4707-88FE-501C490C8E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F2B591-24A0-474F-BEAA-028420016CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1485" yWindow="-15870" windowWidth="25440" windowHeight="15990" tabRatio="907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="6" r:id="rId1"/>
@@ -169,6 +169,30 @@
     <author>.</author>
   </authors>
   <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{63F3DD49-AC84-4453-83B9-904214676A75}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.: About assessable :.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Must be "x" or empty. If "x", the requirement will be assessable. </t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C1" authorId="0" shapeId="0" xr:uid="{D9836FA5-3AEC-4395-A2F8-F1B7C26BF91B}">
       <text>
         <r>
@@ -189,7 +213,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The "ref_id" value can be left empty, but only if "name" is not empty.</t>
+          <t>The "ref_id" value can be left empty, but only if "name" and/or "description" is not empty.</t>
         </r>
       </text>
     </comment>
@@ -213,11 +237,83 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The "name" value can be left empty, but only if "ref_id" is not empty.</t>
+          <t>The "name" value can be left empty, but only if "ref_id" and/or "description" is not empty.</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{347BCED0-BF7D-4AC6-B110-E741C99D2332}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{ABA1387F-AC1B-4F67-88A8-C88D9838F6BE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.: About description :.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+The "name" value can be left empty, but only if "ref_id" and/or "name" is not empty.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{436E4881-F554-4666-9FED-63D11D71ADAB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.: About importance :.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+One among "mandatory"/"recommended"/"nice to have"/"undefined" or empty (= "undefined"). Default value is "undefined".</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{47BB6C26-1C2C-476B-B204-9DEB3EA261AE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.: About weight :.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Positive integer "&gt;= 1". Used for score weighting. The default weight (if undefined) is "1".</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{347BCED0-BF7D-4AC6-B110-E741C99D2332}">
       <text>
         <r>
           <rPr>
@@ -241,7 +337,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{79FD3605-3568-455D-9CFD-FA756BC48EBD}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{79FD3605-3568-455D-9CFD-FA756BC48EBD}">
       <text>
         <r>
           <rPr>
@@ -265,7 +361,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{6C4C16E2-0266-48C9-A7E3-FE00882B887F}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{6C4C16E2-0266-48C9-A7E3-FE00882B887F}">
       <text>
         <r>
           <rPr>
@@ -289,7 +385,89 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{9DF94410-D1CA-448F-BD60-59EAD2557609}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{C45248D8-529C-468A-A61B-363749C41ACC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.: About depends_on :.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Format: "line_where_the_requirement_containing_the_question_is</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>question_line</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">choice_lines"
+Set "undefined" if the question depends on nothing. See cell notes at </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>lines 41 and 43</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> of this column for better understanding.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{9DF94410-D1CA-448F-BD60-59EAD2557609}">
       <text>
         <r>
           <rPr>
@@ -313,7 +491,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{781B3B90-5C6F-4C56-B7DD-C93B8542FECF}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{781B3B90-5C6F-4C56-B7DD-C93B8542FECF}">
       <text>
         <r>
           <rPr>
@@ -334,6 +512,638 @@
             <family val="2"/>
           </rPr>
           <t>"blank"/"comma"/"LF" separated list of references to "ref_ctrl"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M41" authorId="0" shapeId="0" xr:uid="{9ED5C739-3B16-4DDF-A345-DAEEB2310E3C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.: 1st Line :.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Means that the </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1st question</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Where is it?</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">) depends on nothing.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.: 2nd Line :.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Means that the </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2nd question</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Who is it?</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">) depends on the questions of the requirement at </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Line 7 -</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">&gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Question 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Is the Exception respected?</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">) -&gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Choice 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> of the question (</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Yes</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">).
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.: 3rd Line :.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Means that the </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3rd question</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>What is it?</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">) depends on the questions of the requirement at </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Line 35</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> -&gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Question 2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Name of 2nd department?</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">) -&gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Choice 3 or 4</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> of the question (</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SUZ-DQ</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> or </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>COR-A9</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M43" authorId="0" shapeId="0" xr:uid="{9A8B5413-B6B8-4CA6-B461-03079E5EAE3E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">.: Line 1,2 &amp; 3 :.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Means that the </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1st, 2nd and 3rd Questions</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Question 4?</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> ; </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Question 5?</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> ; </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Question 6?</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">) depends on the questions of the requirement at </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Line 5</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> -&gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Question 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Is it true?</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">) -&gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Choice 1, 2 or 3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> of the question (</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Yes</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> ; </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>No</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> ; </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>N/A</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -347,7 +1157,7 @@
     <author>.</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{1E8C07CD-868F-454F-83B7-DB669039C1E5}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{528F70AA-3317-4E0C-99F6-00A856BC63D0}">
       <text>
         <r>
           <rPr>
@@ -357,41 +1167,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">.: About question_type :.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>One of "unique_choice", "multiple_choice", "text", "date"</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{4BC47C71-D2BE-4103-BA64-441CC8B5F3E0}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">.: About question_choices :.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Necessary if question_type is "unique_choice" or "multiple_choice"</t>
+          <t>.: About default_selected :.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Must be "x" or empty. If "x", the implementation group is selected by default when creating an audit with the framework.</t>
         </r>
       </text>
     </comment>
@@ -405,7 +1191,7 @@
     <author>.</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{E03FFCD3-6DD7-4C5A-BF15-1A42212B37F7}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{1E8C07CD-868F-454F-83B7-DB669039C1E5}">
       <text>
         <r>
           <rPr>
@@ -415,7 +1201,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">.: About category :.
+          <t xml:space="preserve">.: About question_type :.
 </t>
         </r>
         <r>
@@ -425,11 +1211,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>One of "policy", "process", "technical", "physical", "procedure"</t>
+          <t>One of "unique_choice", "multiple_choice", "text", "date"</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{035FED0A-B653-49AA-B537-D702E0D5BB64}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{4BC47C71-D2BE-4103-BA64-441CC8B5F3E0}">
       <text>
         <r>
           <rPr>
@@ -439,7 +1225,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">.: About csf_function :.
+          <t xml:space="preserve">.: About question_choices :.
 </t>
         </r>
         <r>
@@ -449,7 +1235,149 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>One among "govern", "identify", "protect", "detect", "respond", "recover"</t>
+          <t>Necessary if question_type is "unique_choice" or "multiple_choice". Each choice is separated by line breaks. To make a choice written on several lines, start the next line with a "|".</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{A9E4409E-42F7-4B20-A435-566D8695840C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.: About description :.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Usable if question_type is "unique_choice" or "multiple_choice".
+Each description is separated by line breaks. To make a description written on several lines, start the next line with a "|".</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{EB4FB77D-3033-4671-B0DF-7B3CD8887562}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.:  About select_implementation_groups :.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Usable if question_type is "unique_choice" or "multiple_choice".
+A choice provokes the selection of the indicated Implementation Groups (IG). For the same choice, separate IGs with commas. To define IGs for each choice, separate IG groups with line breaks. Set "/undefined" or an empty cell for no IG.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{B1BF6062-D04D-48C0-98D0-C1380202D75F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.: About add_score :.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Usable if question_type is "unique_choice" or "multiple_choice".
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Positive or negative integer. The score is calculated based on this choice. All values selected within a requirement assessment are summed, and the sum is clipped by the scale. Each score is separated by line breaks.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{764BF123-22CA-46E9-8EAE-45D094A28C7E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.: Aboout compute_result :.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Usable if question_type is "unique_choice" or "multiple_choice".
+Boolean/None. True = "true" ; False = "false" ; None = "undefined" or empty cell. If true, this choice contributes to compliance. If false, this choice contributes to non-compliance. If empty, the choice contributes to nothing. Each boolean is separated by line breaks.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{61FB1504-7F3D-4363-831E-3E126EF71EE7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.: About color :.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Hexadecimal value. Format = "#xxxxxx" ; None = "undefined" or empty cell. Each choice color is separated by line breaks.</t>
         </r>
       </text>
     </comment>
@@ -463,6 +1391,64 @@
     <author>.</author>
   </authors>
   <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{E03FFCD3-6DD7-4C5A-BF15-1A42212B37F7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.: About category :.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>One of "policy", "process", "technical", "physical", "procedure"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{035FED0A-B653-49AA-B537-D702E0D5BB64}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.: About csf_function :.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>One among "govern", "identify", "protect", "detect", "respond", "recover"</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>.</author>
+  </authors>
+  <commentList>
     <comment ref="B2" authorId="0" shapeId="0" xr:uid="{08AB1420-44E8-4B9A-A68E-0317A9DFB699}">
       <text>
         <r>
@@ -561,7 +1547,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="683">
   <si>
     <t>type</t>
   </si>
@@ -1226,9 +2212,6 @@
   </si>
   <si>
     <t>answer</t>
-  </si>
-  <si>
-    <t>Is it true ?</t>
   </si>
   <si>
     <t>Is a) respected?
@@ -2420,12 +3403,544 @@
   <si>
     <t>When creating a library, keep only the tabs that are necessary. For example, if no implementation groups are used, remove the corresponding tabs.</t>
   </si>
+  <si>
+    <t>default_selected</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>importance</t>
+  </si>
+  <si>
+    <t>mandatory</t>
+  </si>
+  <si>
+    <t>nice to have</t>
+  </si>
+  <si>
+    <t>undefined</t>
+  </si>
+  <si>
+    <t>recommended</t>
+  </si>
+  <si>
+    <t>add_score</t>
+  </si>
+  <si>
+    <t>select_implementation_groups</t>
+  </si>
+  <si>
+    <t>compute_result</t>
+  </si>
+  <si>
+    <t>TEST1</t>
+  </si>
+  <si>
+    <t>TEST2</t>
+  </si>
+  <si>
+    <t>TEST3</t>
+  </si>
+  <si>
+    <t>testgrp1</t>
+  </si>
+  <si>
+    <t>testgrp2</t>
+  </si>
+  <si>
+    <t>testgrp3</t>
+  </si>
+  <si>
+    <t>Test Group 1</t>
+  </si>
+  <si>
+    <t>Test Group 2</t>
+  </si>
+  <si>
+    <t>Test Group 3</t>
+  </si>
+  <si>
+    <t>Groupe de Test 1</t>
+  </si>
+  <si>
+    <t>Groupe de Test 2</t>
+  </si>
+  <si>
+    <t>Groupe de Test 3</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>TEST4</t>
+  </si>
+  <si>
+    <t>TEST5</t>
+  </si>
+  <si>
+    <t>TEST6</t>
+  </si>
+  <si>
+    <t>TEST7</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>TEST8</t>
+  </si>
+  <si>
+    <t>TEST9</t>
+  </si>
+  <si>
+    <t>TEST10</t>
+  </si>
+  <si>
+    <t>TEST11</t>
+  </si>
+  <si>
+    <t>TEST12</t>
+  </si>
+  <si>
+    <t>TEST13</t>
+  </si>
+  <si>
+    <t>TEST14</t>
+  </si>
+  <si>
+    <t>TEST15</t>
+  </si>
+  <si>
+    <t>TEST16</t>
+  </si>
+  <si>
+    <t>TEST17</t>
+  </si>
+  <si>
+    <t>TEST18</t>
+  </si>
+  <si>
+    <t>TEST19</t>
+  </si>
+  <si>
+    <t>TEST20</t>
+  </si>
+  <si>
+    <t>TEST21</t>
+  </si>
+  <si>
+    <t>TEST22</t>
+  </si>
+  <si>
+    <t>TEST23</t>
+  </si>
+  <si>
+    <t>TEST24</t>
+  </si>
+  <si>
+    <t>TEST25</t>
+  </si>
+  <si>
+    <t>A1
+B1
+C1</t>
+  </si>
+  <si>
+    <t>A2
+B2
+C2</t>
+  </si>
+  <si>
+    <t>A3
+B3
+C3</t>
+  </si>
+  <si>
+    <t>A4
+B4
+C4</t>
+  </si>
+  <si>
+    <t>A15
+B15
+C15</t>
+  </si>
+  <si>
+    <t>A16
+B16
+C16</t>
+  </si>
+  <si>
+    <t>A17
+B17
+C17</t>
+  </si>
+  <si>
+    <t>A18
+B18
+C18</t>
+  </si>
+  <si>
+    <t>A19
+B19
+C19</t>
+  </si>
+  <si>
+    <t>A20
+B20
+C20</t>
+  </si>
+  <si>
+    <t>A21
+B21
+C21</t>
+  </si>
+  <si>
+    <t>A22
+B22
+C22</t>
+  </si>
+  <si>
+    <t>A23
+B23
+C23</t>
+  </si>
+  <si>
+    <t>A24
+B24
+C24</t>
+  </si>
+  <si>
+    <t>A25
+B25
+C25</t>
+  </si>
+  <si>
+    <t>A5
+B5
+C5</t>
+  </si>
+  <si>
+    <t>A6
+B6
+C6</t>
+  </si>
+  <si>
+    <t>Description
+| on multiple lines
+| for every choice</t>
+  </si>
+  <si>
+    <t>Description for every choice</t>
+  </si>
+  <si>
+    <t>testgrp1
+testgrp2
+testgrp3</t>
+  </si>
+  <si>
+    <t>testgrp2,testgrp3
+testgrp2,
+testgrp3,testgrp1</t>
+  </si>
+  <si>
+    <t>A7
+B7
+C7</t>
+  </si>
+  <si>
+    <t>A8
+B8
+C8</t>
+  </si>
+  <si>
+    <t>A9
+B9
+C9</t>
+  </si>
+  <si>
+    <t>A10
+B10
+C10</t>
+  </si>
+  <si>
+    <t>A11
+B11
+C11</t>
+  </si>
+  <si>
+    <t>A12
+B12
+C12</t>
+  </si>
+  <si>
+    <t>A13
+B13
+C13</t>
+  </si>
+  <si>
+    <t>A14
+B14
+C14</t>
+  </si>
+  <si>
+    <t>Description 1
+Description 2
+Description 1, but longer</t>
+  </si>
+  <si>
+    <t>#81cc18</t>
+  </si>
+  <si>
+    <t>8
+-2
+-3</t>
+  </si>
+  <si>
+    <t>#81cc18
+#ccbd18
+#cc2d18</t>
+  </si>
+  <si>
+    <t>-22
+14
+13</t>
+  </si>
+  <si>
+    <t>testgrp1
+testgrp1
+testgrp3</t>
+  </si>
+  <si>
+    <t>#cc18b1</t>
+  </si>
+  <si>
+    <t>#c3aefc
+#ccbd18
+#c3aefc</t>
+  </si>
+  <si>
+    <t>Description 4
+Description 5
+Super Long Description</t>
+  </si>
+  <si>
+    <t>Description for every choice 3</t>
+  </si>
+  <si>
+    <t>Description for every choice 2</t>
+  </si>
+  <si>
+    <t>Description 7
+Description 8
+Super Long Description 2</t>
+  </si>
+  <si>
+    <t>#fcaefa</t>
+  </si>
+  <si>
+    <t>FALSE
+FALSE
+TRUE</t>
+  </si>
+  <si>
+    <t>#c3aefc</t>
+  </si>
+  <si>
+    <t>Description
+| on multiple lines
+| for every choice 2</t>
+  </si>
+  <si>
+    <t>grp003, testgrp2</t>
+  </si>
+  <si>
+    <t>Desc999</t>
+  </si>
+  <si>
+    <t>#999999</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>TEST2
+TEST3</t>
+  </si>
+  <si>
+    <t>TEST4
+TEST5
+TEST6</t>
+  </si>
+  <si>
+    <t>TEST7
+TEST8
+TEST9</t>
+  </si>
+  <si>
+    <t>TEST10
+TEST11
+TEST12</t>
+  </si>
+  <si>
+    <t>TEST13
+TEST14
+TEST15
+TEST16
+TEST17</t>
+  </si>
+  <si>
+    <t>TEST21
+TEST22
+TEST23
+TEST24</t>
+  </si>
+  <si>
+    <t>Where is it?
+Who is it?
+What is it?</t>
+  </si>
+  <si>
+    <t>Question 2?
+Question 3?</t>
+  </si>
+  <si>
+    <t>Question 4?
+Question 5?
+Question 6?</t>
+  </si>
+  <si>
+    <t>Question 7?
+Question 8?
+Question 9?</t>
+  </si>
+  <si>
+    <t>Question 10?
+Question 11?
+Question 12?</t>
+  </si>
+  <si>
+    <t>Question 13?
+Question 14?
+Question 15?
+Question 16?
+Question 17?</t>
+  </si>
+  <si>
+    <t>Question 18?</t>
+  </si>
+  <si>
+    <t>Question 19?</t>
+  </si>
+  <si>
+    <t>Question 25?</t>
+  </si>
+  <si>
+    <t>Question 21?
+Question 22?
+Question 23?
+Question 24?</t>
+  </si>
+  <si>
+    <t>Why is it true?
+Who said that?
+What caused that?</t>
+  </si>
+  <si>
+    <t>Questions (Part 1)</t>
+  </si>
+  <si>
+    <t>Questions (Part 2)</t>
+  </si>
+  <si>
+    <t>Questions (Part 3)</t>
+  </si>
+  <si>
+    <t>Questions (Part 4)</t>
+  </si>
+  <si>
+    <t>Questions (Part 5)</t>
+  </si>
+  <si>
+    <t>Questions (Part 6)</t>
+  </si>
+  <si>
+    <t>Questions (Part 7)</t>
+  </si>
+  <si>
+    <t>Questions (Part 8)</t>
+  </si>
+  <si>
+    <t>Questions (Part 9)</t>
+  </si>
+  <si>
+    <t>Questions (Part 10)</t>
+  </si>
+  <si>
+    <t>Questions (Part 11)</t>
+  </si>
+  <si>
+    <t>depends_on</t>
+  </si>
+  <si>
+    <t>FALSE
+TRUE
+UNDEFINED</t>
+  </si>
+  <si>
+    <t>Description
+| on multiple lines
+| for Choice 1
+Description of Choice 2
+Description of Choice 3</t>
+  </si>
+  <si>
+    <t>#fcaeb6
+#aefcf5
+UNDEFINED</t>
+  </si>
+  <si>
+    <t>UNDEFINED
+UNDEFINED
+#00aa00</t>
+  </si>
+  <si>
+    <t>-22
+0
+13</t>
+  </si>
+  <si>
+    <t>testgrp3
+/UNDEFINED
+testgrp2, grp001</t>
+  </si>
+  <si>
+    <t>UNDEFINED
+7:1:1
+35:2:3,4</t>
+  </si>
+  <si>
+    <t>5:1:1,2,3</t>
+  </si>
+  <si>
+    <t>Is it true?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2598,6 +4113,39 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="18">
@@ -2879,7 +4427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2967,12 +4515,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3089,6 +4631,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3210,7 +4788,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="65">
+  <dxfs count="80">
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -3747,10 +5325,204 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3759,6 +5531,25 @@
           <color indexed="64"/>
         </left>
         <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -3986,6 +5777,26 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -4036,6 +5847,44 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -4252,51 +6101,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{549B97EC-A4EC-467D-95D4-C91A5E59F559}" name="Tableau1" displayName="Tableau1" ref="A1:P39" totalsRowShown="0" headerRowDxfId="64" dataDxfId="62" headerRowBorderDxfId="63" tableBorderDxfId="61" totalsRowBorderDxfId="60">
-  <autoFilter ref="A1:P39" xr:uid="{549B97EC-A4EC-467D-95D4-C91A5E59F559}"/>
-  <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{D7929412-2C04-48B2-B421-6EC19B1F374C}" name="assessable" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{BAC0F5CA-29D7-460A-BD72-3F9E24C9732F}" name="depth" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{92C5BE2B-42CA-458E-8D3C-CC37002D48BD}" name="ref_id" dataDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{9F7C5816-5FCC-476D-B6FA-AE433ADEABCC}" name="name" dataDxfId="56"/>
-    <tableColumn id="5" xr3:uid="{2650FBAE-CAA9-4751-AB1F-D901BDE6D752}" name="description" dataDxfId="55"/>
-    <tableColumn id="6" xr3:uid="{552D82DF-7C98-4797-9A2D-D4FDA52D98AF}" name="annotation" dataDxfId="54"/>
-    <tableColumn id="7" xr3:uid="{E61773D4-D778-4312-A49F-8A5758A995E8}" name="typical_evidence" dataDxfId="53"/>
-    <tableColumn id="8" xr3:uid="{41549C1C-81F1-4DC9-AF3E-D66557AB55EA}" name="implementation_groups" dataDxfId="52"/>
-    <tableColumn id="14" xr3:uid="{AFF985E6-291A-441C-8DEF-8F4448E20722}" name="questions" dataDxfId="51"/>
-    <tableColumn id="13" xr3:uid="{22C6C123-59A8-4006-974A-AEC9BDF7B9C5}" name="answer" dataDxfId="50"/>
-    <tableColumn id="15" xr3:uid="{98B369E5-A92E-4F40-ABC5-965BF81E342E}" name="threats" dataDxfId="49"/>
-    <tableColumn id="16" xr3:uid="{12E0FCEA-DE2D-4475-972C-17BB204562B1}" name="reference_controls" dataDxfId="48"/>
-    <tableColumn id="9" xr3:uid="{D92464D6-5A4E-46A6-B30C-5054FBC689EF}" name="name[fr]" dataDxfId="47"/>
-    <tableColumn id="10" xr3:uid="{582EF74A-B398-41A0-ACCF-D0452C1A56EF}" name="description[fr]" dataDxfId="46"/>
-    <tableColumn id="11" xr3:uid="{EA0E2718-3825-4A77-B686-8C594E64AC01}" name="annotation[fr]" dataDxfId="45"/>
-    <tableColumn id="12" xr3:uid="{CB66FA06-DCF3-44C6-A079-7B12A457972F}" name="typical_evidence[fr]" dataDxfId="44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{549B97EC-A4EC-467D-95D4-C91A5E59F559}" name="Tableau1" displayName="Tableau1" ref="A1:S51" totalsRowShown="0" headerRowDxfId="79" dataDxfId="77" headerRowBorderDxfId="78" tableBorderDxfId="76" totalsRowBorderDxfId="75">
+  <autoFilter ref="A1:S51" xr:uid="{549B97EC-A4EC-467D-95D4-C91A5E59F559}"/>
+  <tableColumns count="19">
+    <tableColumn id="1" xr3:uid="{D7929412-2C04-48B2-B421-6EC19B1F374C}" name="assessable" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{BAC0F5CA-29D7-460A-BD72-3F9E24C9732F}" name="depth" dataDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{92C5BE2B-42CA-458E-8D3C-CC37002D48BD}" name="ref_id" dataDxfId="72"/>
+    <tableColumn id="4" xr3:uid="{9F7C5816-5FCC-476D-B6FA-AE433ADEABCC}" name="name" dataDxfId="71"/>
+    <tableColumn id="5" xr3:uid="{2650FBAE-CAA9-4751-AB1F-D901BDE6D752}" name="description" dataDxfId="70"/>
+    <tableColumn id="6" xr3:uid="{552D82DF-7C98-4797-9A2D-D4FDA52D98AF}" name="annotation" dataDxfId="69"/>
+    <tableColumn id="7" xr3:uid="{E61773D4-D778-4312-A49F-8A5758A995E8}" name="typical_evidence" dataDxfId="68"/>
+    <tableColumn id="19" xr3:uid="{DFBF3465-BE6B-4017-8F87-57A82780A75B}" name="importance" dataDxfId="67"/>
+    <tableColumn id="18" xr3:uid="{12A7028D-E894-47CA-AEF9-9E602B1E4657}" name="weight" dataDxfId="66"/>
+    <tableColumn id="8" xr3:uid="{41549C1C-81F1-4DC9-AF3E-D66557AB55EA}" name="implementation_groups" dataDxfId="65"/>
+    <tableColumn id="14" xr3:uid="{AFF985E6-291A-441C-8DEF-8F4448E20722}" name="questions" dataDxfId="64"/>
+    <tableColumn id="13" xr3:uid="{22C6C123-59A8-4006-974A-AEC9BDF7B9C5}" name="answer" dataDxfId="63"/>
+    <tableColumn id="17" xr3:uid="{DF10B870-B9C4-4D6A-8C84-F0105D4909E5}" name="depends_on" dataDxfId="62"/>
+    <tableColumn id="15" xr3:uid="{98B369E5-A92E-4F40-ABC5-965BF81E342E}" name="threats" dataDxfId="61"/>
+    <tableColumn id="16" xr3:uid="{12E0FCEA-DE2D-4475-972C-17BB204562B1}" name="reference_controls" dataDxfId="60"/>
+    <tableColumn id="9" xr3:uid="{D92464D6-5A4E-46A6-B30C-5054FBC689EF}" name="name[fr]" dataDxfId="59"/>
+    <tableColumn id="10" xr3:uid="{582EF74A-B398-41A0-ACCF-D0452C1A56EF}" name="description[fr]" dataDxfId="58"/>
+    <tableColumn id="11" xr3:uid="{EA0E2718-3825-4A77-B686-8C594E64AC01}" name="annotation[fr]" dataDxfId="57"/>
+    <tableColumn id="12" xr3:uid="{CB66FA06-DCF3-44C6-A079-7B12A457972F}" name="typical_evidence[fr]" dataDxfId="56"/>
   </tableColumns>
-  <tableStyleInfo name="Style de tableau 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{095154CE-6DE0-439C-B5AB-1118C37DCAF4}" name="Tableau2" displayName="Tableau2" ref="A1:E5" totalsRowShown="0" dataDxfId="42" headerRowBorderDxfId="43" tableBorderDxfId="41" totalsRowBorderDxfId="40">
-  <autoFilter ref="A1:E5" xr:uid="{095154CE-6DE0-439C-B5AB-1118C37DCAF4}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{BB7E1ECB-4B2B-4222-B69C-FDF7FCF7F451}" name="ref_id" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{AA129DE3-6969-4BE8-8FD1-B74529AF31A8}" name="name" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{7980BF69-F795-4B15-9518-5B07FE2675D7}" name="description" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{245E3F68-8E07-4115-ADB2-6D2D1DB60F36}" name="name[fr]" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{7C50CF1F-76A2-4CDB-B985-67AE9549E305}" name="description[fr]" dataDxfId="35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{095154CE-6DE0-439C-B5AB-1118C37DCAF4}" name="Tableau2" displayName="Tableau2" ref="A1:F8" totalsRowShown="0" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53" totalsRowBorderDxfId="52">
+  <autoFilter ref="A1:F8" xr:uid="{095154CE-6DE0-439C-B5AB-1118C37DCAF4}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{BB7E1ECB-4B2B-4222-B69C-FDF7FCF7F451}" name="ref_id" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{AA129DE3-6969-4BE8-8FD1-B74529AF31A8}" name="name" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{7980BF69-F795-4B15-9518-5B07FE2675D7}" name="description" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{924732DF-B0AD-42F7-8C31-80F3FDB545EE}" name="default_selected" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{245E3F68-8E07-4115-ADB2-6D2D1DB60F36}" name="name[fr]" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{7C50CF1F-76A2-4CDB-B985-67AE9549E305}" name="description[fr]" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="Style de tableau 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C7B78881-4183-44AE-BDF4-F6BDECF9D936}" name="Tableau4" displayName="Tableau4" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="34">
-  <autoFilter ref="A1:C1048576" xr:uid="{C7B78881-4183-44AE-BDF4-F6BDECF9D936}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F801AE0F-E094-475A-BBD2-F4BED2F83A76}" name="id"/>
-    <tableColumn id="2" xr3:uid="{A757A91E-E1E2-42B6-B9FA-05A8E662DDFB}" name="question_type"/>
-    <tableColumn id="3" xr3:uid="{3B4BED2F-474E-4360-811D-84D93A45CD4B}" name="question_choices"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3429E788-61C1-4DE4-9CF3-671C9CE643FD}" name="Tableau4" displayName="Tableau4" ref="A1:H32" totalsRowShown="0" headerRowDxfId="45" headerRowBorderDxfId="44" tableBorderDxfId="43" totalsRowBorderDxfId="42">
+  <autoFilter ref="A1:H32" xr:uid="{3429E788-61C1-4DE4-9CF3-671C9CE643FD}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{162F889E-4877-4ACE-958A-41755715A824}" name="id" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{8EAFDB25-CF89-4029-A9FB-4244A3FEAF92}" name="question_type" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{6047ECFC-47B1-4CF1-856C-62F6C1E20455}" name="question_choices" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{70F917A4-A4E5-42C0-BA3B-5A06AF583DC2}" name="description" dataDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{A4A01147-E50D-4259-A705-6F2FDEB19F26}" name="select_implementation_groups" dataDxfId="37"/>
+    <tableColumn id="9" xr3:uid="{F9FB2847-10A0-4A69-ADCC-E8F7C6DF7416}" name="add_score" dataDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{FFF5444F-8BD1-4B79-95F0-B652925F370E}" name="compute_result" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{46F6EBDF-F10D-485F-B69E-C9B51DF11F40}" name="color" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="Style de tableau 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4658,380 +6516,380 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="17.109375" customWidth="1"/>
-    <col min="13" max="13" width="34.21875" customWidth="1"/>
+    <col min="13" max="13" width="34.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="62.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="105"/>
-    </row>
-    <row r="2" spans="1:13" ht="42.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="106" t="s">
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="115"/>
+    </row>
+    <row r="2" spans="1:13" ht="42.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="116" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="118"/>
+    </row>
+    <row r="3" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="100"/>
+    </row>
+    <row r="4" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="122" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="95" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="97"/>
+    </row>
+    <row r="5" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="104" t="s">
+        <v>258</v>
+      </c>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="95" t="s">
+        <v>265</v>
+      </c>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="97"/>
+    </row>
+    <row r="6" spans="1:13" ht="19.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="127" t="s">
+        <v>253</v>
+      </c>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="95" t="s">
+        <v>266</v>
+      </c>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="97"/>
+    </row>
+    <row r="7" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="126" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="95" t="s">
+        <v>276</v>
+      </c>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="97"/>
+    </row>
+    <row r="8" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="125" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" s="125"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="95" t="s">
+        <v>267</v>
+      </c>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="97"/>
+    </row>
+    <row r="9" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="124" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" s="124"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="124"/>
+      <c r="G9" s="95" t="s">
+        <v>270</v>
+      </c>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="97"/>
+    </row>
+    <row r="10" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="119" t="s">
+        <v>273</v>
+      </c>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="95" t="s">
         <v>269</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="108"/>
-    </row>
-    <row r="3" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="90"/>
-    </row>
-    <row r="4" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="112" t="s">
-        <v>258</v>
-      </c>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="85" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="87"/>
-    </row>
-    <row r="5" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="94" t="s">
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="97"/>
+    </row>
+    <row r="11" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="120" t="s">
+        <v>274</v>
+      </c>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="95" t="s">
+        <v>279</v>
+      </c>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="97"/>
+    </row>
+    <row r="12" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="121" t="s">
+        <v>275</v>
+      </c>
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="95" t="s">
+        <v>280</v>
+      </c>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="97"/>
+    </row>
+    <row r="13" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="89"/>
+      <c r="C13" s="90" t="s">
+        <v>546</v>
+      </c>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+    </row>
+    <row r="14" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="98" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="100"/>
+    </row>
+    <row r="15" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="110" t="s">
         <v>259</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="85" t="s">
-        <v>266</v>
-      </c>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="87"/>
-    </row>
-    <row r="6" spans="1:13" ht="19.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="117" t="s">
-        <v>254</v>
-      </c>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="85" t="s">
-        <v>267</v>
-      </c>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="87"/>
-    </row>
-    <row r="7" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="116" t="s">
-        <v>255</v>
-      </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="85" t="s">
-        <v>277</v>
-      </c>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="87"/>
-    </row>
-    <row r="8" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="115" t="s">
-        <v>256</v>
-      </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="85" t="s">
-        <v>268</v>
-      </c>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="87"/>
-    </row>
-    <row r="9" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="114" t="s">
-        <v>257</v>
-      </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="85" t="s">
-        <v>271</v>
-      </c>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="87"/>
-    </row>
-    <row r="10" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="109" t="s">
-        <v>274</v>
-      </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="85" t="s">
-        <v>270</v>
-      </c>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="87"/>
-    </row>
-    <row r="11" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="110" t="s">
-        <v>275</v>
-      </c>
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="85" t="s">
-        <v>280</v>
-      </c>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="87"/>
-    </row>
-    <row r="12" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="111" t="s">
-        <v>276</v>
-      </c>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="85" t="s">
-        <v>281</v>
-      </c>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="87"/>
-    </row>
-    <row r="13" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="80" t="s">
-        <v>547</v>
-      </c>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-    </row>
-    <row r="14" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="88" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="90"/>
-    </row>
-    <row r="15" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100" t="s">
+      <c r="B15" s="111"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="95" t="s">
+        <v>264</v>
+      </c>
+      <c r="H15" s="96"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="97"/>
+    </row>
+    <row r="16" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="104" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="95" t="s">
         <v>260</v>
       </c>
-      <c r="B15" s="101"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="87"/>
-    </row>
-    <row r="16" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="94" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="95"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="85" t="s">
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="97"/>
+    </row>
+    <row r="17" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="107" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="108"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="95" t="s">
         <v>261</v>
       </c>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="87"/>
-    </row>
-    <row r="17" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="97" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="85" t="s">
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="97"/>
+    </row>
+    <row r="18" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="101" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="102"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="95" t="s">
         <v>262</v>
       </c>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="87"/>
-    </row>
-    <row r="18" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="91" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="92"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="85" t="s">
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="97"/>
+    </row>
+    <row r="19" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="97"/>
+    </row>
+    <row r="20" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="89"/>
+      <c r="C20" s="90" t="s">
         <v>263</v>
       </c>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="87"/>
-    </row>
-    <row r="19" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="82" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="85" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="87"/>
-    </row>
-    <row r="20" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="79"/>
-      <c r="C20" s="80" t="s">
-        <v>264</v>
-      </c>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="81"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="91"/>
     </row>
     <row r="21" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -5089,19 +6947,19 @@
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.77734375" customWidth="1"/>
-    <col min="3" max="3" width="54.88671875" customWidth="1"/>
+    <col min="3" max="3" width="54.77734375" customWidth="1"/>
     <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="55.33203125" customWidth="1"/>
     <col min="6" max="6" width="22.109375" customWidth="1"/>
-    <col min="7" max="7" width="49.77734375" style="46" customWidth="1"/>
+    <col min="7" max="7" width="49.77734375" style="44" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>10</v>
@@ -5115,124 +6973,124 @@
       <c r="E1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="49"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="40">
+      <c r="A2" s="38">
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="F2" s="45"/>
+      <c r="G2" s="46"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="38">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3" s="45"/>
+      <c r="G3" s="46"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="38">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="D2" s="50" t="s">
+      <c r="C4" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="D4" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="E2" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="40">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="D3" s="50" t="s">
+      <c r="E4" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="F4" s="45"/>
+      <c r="G4" s="46"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="38">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="C5" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" s="49" t="s">
         <v>238</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="40">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>227</v>
-      </c>
-      <c r="E4" s="31" t="s">
+      <c r="F5" s="45"/>
+      <c r="G5" s="46"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="38">
+        <v>4</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="40">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>228</v>
-      </c>
-      <c r="E5" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="40">
-        <v>4</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" s="35" t="s">
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="38">
+        <v>5</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D7" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E7" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="40">
-        <v>5</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>230</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C8" s="46"/>
+      <c r="C8" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5263,8 +7121,8 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
-        <v>282</v>
+      <c r="B1" s="56" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -5272,7 +7130,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -5295,593 +7153,593 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="44" customWidth="1"/>
     <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="17.109375" style="46" customWidth="1"/>
+    <col min="9" max="10" width="17.109375" style="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="63" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="63" t="s">
-        <v>285</v>
-      </c>
-      <c r="B2" s="60" t="s">
-        <v>310</v>
+      <c r="A2" s="61" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>309</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>333</v>
-      </c>
-      <c r="E2" s="60" t="s">
+        <v>332</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>341</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="G2" s="31" t="s">
         <v>342</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>363</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>343</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="63" t="s">
-        <v>286</v>
-      </c>
-      <c r="B3" s="60" t="s">
-        <v>311</v>
+      <c r="A3" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>310</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D3" s="31"/>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="58" t="s">
+        <v>343</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="G3" s="31" t="s">
         <v>344</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>448</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>345</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="63" t="s">
-        <v>287</v>
-      </c>
-      <c r="B4" s="60" t="s">
-        <v>312</v>
+      <c r="A4" s="61" t="s">
+        <v>286</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>311</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="31" t="s">
-        <v>447</v>
-      </c>
-      <c r="E4" s="60" t="s">
-        <v>346</v>
+        <v>446</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>345</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="63" t="s">
-        <v>288</v>
-      </c>
-      <c r="B5" s="60" t="s">
-        <v>313</v>
+      <c r="A5" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>312</v>
       </c>
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
-      <c r="E5" s="60" t="s">
-        <v>347</v>
+      <c r="E5" s="58" t="s">
+        <v>346</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="63" t="s">
-        <v>289</v>
-      </c>
-      <c r="B6" s="60" t="s">
-        <v>384</v>
+      <c r="A6" s="61" t="s">
+        <v>288</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>383</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
-      <c r="E6" s="60" t="s">
-        <v>421</v>
+      <c r="E6" s="58" t="s">
+        <v>420</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="63" t="s">
-        <v>301</v>
-      </c>
-      <c r="B7" s="60" t="s">
-        <v>314</v>
+      <c r="A7" s="61" t="s">
+        <v>300</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>313</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
-      <c r="E7" s="60" t="s">
-        <v>348</v>
+      <c r="E7" s="58" t="s">
+        <v>347</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="63" t="s">
-        <v>302</v>
-      </c>
-      <c r="B8" s="60" t="s">
-        <v>315</v>
+      <c r="A8" s="61" t="s">
+        <v>301</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>314</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
-      <c r="E8" s="60" t="s">
-        <v>349</v>
+      <c r="E8" s="58" t="s">
+        <v>348</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="63" t="s">
-        <v>290</v>
-      </c>
-      <c r="B9" s="60" t="s">
-        <v>316</v>
+      <c r="A9" s="61" t="s">
+        <v>289</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>315</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
-      <c r="E9" s="60" t="s">
-        <v>364</v>
+      <c r="E9" s="58" t="s">
+        <v>363</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="63" t="s">
-        <v>291</v>
+      <c r="A10" s="61" t="s">
+        <v>290</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="31" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="63" t="s">
-        <v>292</v>
+      <c r="A11" s="61" t="s">
+        <v>291</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="63" t="s">
-        <v>293</v>
+      <c r="A12" s="61" t="s">
+        <v>292</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="31" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="63" t="s">
-        <v>294</v>
+      <c r="A13" s="61" t="s">
+        <v>293</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C13" s="31"/>
       <c r="D13" s="31" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="63" t="s">
-        <v>295</v>
+      <c r="A14" s="61" t="s">
+        <v>294</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="31" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="63" t="s">
-        <v>296</v>
+      <c r="A15" s="61" t="s">
+        <v>295</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D15" s="31"/>
       <c r="E15" s="31" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="63" t="s">
-        <v>297</v>
+      <c r="A16" s="61" t="s">
+        <v>296</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="31" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I16"/>
       <c r="J16"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="63" t="s">
-        <v>298</v>
+      <c r="A17" s="61" t="s">
+        <v>297</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D17" s="31"/>
       <c r="E17" s="31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I17"/>
       <c r="J17"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="63" t="s">
-        <v>299</v>
+      <c r="A18" s="61" t="s">
+        <v>298</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D18" s="31"/>
       <c r="E18" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="63" t="s">
-        <v>300</v>
+      <c r="A19" s="61" t="s">
+        <v>299</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
       <c r="E19" s="31" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I19"/>
       <c r="J19"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="63" t="s">
-        <v>303</v>
-      </c>
-      <c r="B20" s="60" t="s">
-        <v>385</v>
+      <c r="A20" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="B20" s="58" t="s">
+        <v>384</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>340</v>
-      </c>
-      <c r="E20" s="60" t="s">
-        <v>463</v>
+        <v>339</v>
+      </c>
+      <c r="E20" s="58" t="s">
+        <v>462</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G20" s="31" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="63" t="s">
-        <v>304</v>
-      </c>
-      <c r="B21" s="60" t="s">
-        <v>386</v>
+      <c r="A21" s="61" t="s">
+        <v>303</v>
+      </c>
+      <c r="B21" s="58" t="s">
+        <v>385</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D21" s="31"/>
-      <c r="E21" s="60" t="s">
-        <v>464</v>
+      <c r="E21" s="58" t="s">
+        <v>463</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I21"/>
       <c r="J21"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="63" t="s">
-        <v>305</v>
-      </c>
-      <c r="B22" s="60" t="s">
-        <v>387</v>
-      </c>
-      <c r="C22" s="66"/>
+      <c r="A22" s="61" t="s">
+        <v>304</v>
+      </c>
+      <c r="B22" s="58" t="s">
+        <v>386</v>
+      </c>
+      <c r="C22" s="64"/>
       <c r="D22" s="31" t="s">
-        <v>341</v>
-      </c>
-      <c r="E22" s="60" t="s">
-        <v>465</v>
-      </c>
-      <c r="F22" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="G22" s="66" t="s">
-        <v>351</v>
+        <v>340</v>
+      </c>
+      <c r="E22" s="58" t="s">
+        <v>464</v>
+      </c>
+      <c r="F22" s="64" t="s">
+        <v>344</v>
+      </c>
+      <c r="G22" s="64" t="s">
+        <v>350</v>
       </c>
       <c r="I22"/>
       <c r="J22"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="63" t="s">
-        <v>306</v>
-      </c>
-      <c r="B23" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="60" t="s">
-        <v>466</v>
-      </c>
-      <c r="F23" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="G23" s="66" t="s">
-        <v>345</v>
+      <c r="A23" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="B23" s="58" t="s">
+        <v>387</v>
+      </c>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="58" t="s">
+        <v>465</v>
+      </c>
+      <c r="F23" s="64" t="s">
+        <v>344</v>
+      </c>
+      <c r="G23" s="64" t="s">
+        <v>344</v>
       </c>
       <c r="I23"/>
       <c r="J23"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="63" t="s">
-        <v>307</v>
-      </c>
-      <c r="B24" s="60" t="s">
-        <v>389</v>
-      </c>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="60" t="s">
-        <v>467</v>
-      </c>
-      <c r="F24" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="G24" s="66" t="s">
-        <v>345</v>
+      <c r="A24" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="B24" s="58" t="s">
+        <v>388</v>
+      </c>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="58" t="s">
+        <v>466</v>
+      </c>
+      <c r="F24" s="64" t="s">
+        <v>344</v>
+      </c>
+      <c r="G24" s="64" t="s">
+        <v>344</v>
       </c>
       <c r="I24"/>
       <c r="J24"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="63" t="s">
-        <v>308</v>
-      </c>
-      <c r="B25" s="60" t="s">
-        <v>390</v>
+      <c r="A25" s="61" t="s">
+        <v>307</v>
+      </c>
+      <c r="B25" s="58" t="s">
+        <v>389</v>
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
-      <c r="E25" s="60" t="s">
-        <v>468</v>
+      <c r="E25" s="58" t="s">
+        <v>467</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I25"/>
       <c r="J25"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="63" t="s">
-        <v>309</v>
-      </c>
-      <c r="B26" s="60" t="s">
-        <v>391</v>
+      <c r="A26" s="61" t="s">
+        <v>308</v>
+      </c>
+      <c r="B26" s="58" t="s">
+        <v>390</v>
       </c>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
-      <c r="E26" s="60" t="s">
-        <v>469</v>
+      <c r="E26" s="58" t="s">
+        <v>468</v>
       </c>
       <c r="F26" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G26" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I26"/>
       <c r="J26"/>
@@ -5910,15 +7768,15 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="45.5546875" customWidth="1"/>
+    <col min="2" max="2" width="45.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
-        <v>392</v>
+      <c r="B1" s="56" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -5926,7 +7784,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -5950,653 +7808,653 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="31.77734375" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.77734375" customWidth="1"/>
-    <col min="5" max="5" width="33.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.109375" style="44" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="59" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="64" t="s">
-        <v>394</v>
-      </c>
-      <c r="D1" s="64" t="s">
+      <c r="C1" s="62" t="s">
         <v>393</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="D1" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="74" t="s">
+      <c r="F1" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="63" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
       <c r="E2" s="31" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
       <c r="E3" s="31" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F3" s="31"/>
       <c r="G3" s="31" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
       <c r="F4" s="31" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
       <c r="F5" s="31"/>
       <c r="G5" s="31" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
       <c r="F6" s="31"/>
       <c r="G6" s="31" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
       <c r="F7" s="31"/>
       <c r="G7" s="31" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D8" s="31"/>
       <c r="E8" s="31"/>
       <c r="F8" s="31"/>
       <c r="G8" s="31" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
+        <v>522</v>
+      </c>
+      <c r="B9" s="31" t="s">
         <v>523</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="C9" s="31" t="s">
+        <v>521</v>
+      </c>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="31" t="s">
         <v>524</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>522</v>
-      </c>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="31" t="s">
-        <v>525</v>
-      </c>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
+        <v>421</v>
+      </c>
+      <c r="B10" s="31" t="s">
         <v>422</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>423</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="31" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E10" s="31"/>
       <c r="F10" s="31"/>
       <c r="G10" s="31" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
+        <v>423</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>424</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>425</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="31" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E11" s="31"/>
       <c r="F11" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="31" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E12" s="31"/>
       <c r="F12" s="31" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C13" s="31"/>
       <c r="D13" s="31" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E13" s="31"/>
       <c r="F13" s="31" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C14" s="31"/>
       <c r="D14" s="31" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E14" s="31"/>
       <c r="F14" s="31" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C15" s="31"/>
       <c r="D15" s="31" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="31" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="31" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="31" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D18" s="31"/>
       <c r="E18" s="31" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F18" s="31"/>
       <c r="G18" s="31" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
       <c r="E19" s="31" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="31" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
       <c r="F20" s="31"/>
       <c r="G20" s="31" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="31" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
       <c r="E22" s="31" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F22" s="31"/>
       <c r="G22" s="31" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H22" s="31" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I22" s="31"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="31" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D23" s="31"/>
       <c r="E23" s="31"/>
       <c r="F23" s="31" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
       <c r="E24" s="31"/>
       <c r="F24" s="31"/>
       <c r="G24" s="31" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="31" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
       <c r="E25" s="31"/>
       <c r="F25" s="31"/>
       <c r="G25" s="31" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I25" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
       <c r="E26" s="31"/>
       <c r="F26" s="31"/>
       <c r="G26" s="31" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="31" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C27" s="31"/>
       <c r="D27" s="31"/>
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
       <c r="G27" s="31" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -6629,8 +8487,8 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
-        <v>375</v>
+      <c r="B1" s="56" t="s">
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -6657,34 +8515,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" s="66" t="s">
         <v>376</v>
-      </c>
-      <c r="B1" s="68" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="67" t="s">
-        <v>284</v>
+      <c r="B2" s="65" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="67" t="s">
-        <v>529</v>
+      <c r="B3" s="65" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="67" t="s">
-        <v>541</v>
+      <c r="B4" s="65" t="s">
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -6710,17 +8568,17 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="108.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="108.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
     </row>
@@ -6728,7 +8586,7 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="34" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6736,7 +8594,7 @@
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="34" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6744,7 +8602,7 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="34" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6752,7 +8610,7 @@
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="34" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6760,7 +8618,7 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="34" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6768,7 +8626,7 @@
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="35" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6776,7 +8634,7 @@
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="34" t="s">
         <v>15</v>
       </c>
     </row>
@@ -6784,7 +8642,7 @@
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="34" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6792,23 +8650,23 @@
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="34" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="76" t="s">
+        <v>538</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>539</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="34" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6816,7 +8674,7 @@
       <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="34" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6824,7 +8682,7 @@
       <c r="A14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="34" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6845,17 +8703,17 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="108.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="108.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="55" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6880,7 +8738,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -6895,7 +8753,7 @@
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="33" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6903,7 +8761,7 @@
       <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="51" t="s">
         <v>30</v>
       </c>
     </row>
@@ -6911,31 +8769,31 @@
       <c r="A8" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="52" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="B9" s="52" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="52" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="B9" s="54" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="52" t="s">
+      <c r="B10" s="53" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="B10" s="55" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="52" t="s">
-        <v>251</v>
-      </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="53" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6969,34 +8827,37 @@
   <sheetPr codeName="Feuil4">
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" style="29" customWidth="1"/>
     <col min="2" max="2" width="10.77734375" style="29" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="29" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.44140625" style="29" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.44140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5546875" style="29" customWidth="1"/>
-    <col min="9" max="9" width="43" style="29" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" style="71" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.109375" style="71" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5546875" style="29" customWidth="1"/>
-    <col min="14" max="14" width="31.88671875" style="29" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21" style="29" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="39.21875" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="29" customWidth="1"/>
+    <col min="10" max="10" width="27.44140625" style="29" customWidth="1"/>
+    <col min="11" max="11" width="44.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" style="29" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" style="69" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.109375" style="69" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" style="29" customWidth="1"/>
+    <col min="17" max="17" width="31.77734375" style="29" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21" style="29" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="39.109375" style="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>31</v>
       </c>
@@ -7018,1227 +8879,1746 @@
       <c r="G1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="J1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="K1" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="L1" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="K1" s="69" t="s">
-        <v>282</v>
-      </c>
-      <c r="L1" s="75" t="s">
-        <v>392</v>
-      </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="36" t="s">
+        <v>673</v>
+      </c>
+      <c r="N1" s="67" t="s">
+        <v>281</v>
+      </c>
+      <c r="O1" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="S1" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40">
+    <row r="2" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38">
         <v>1</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40" t="s">
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="42"/>
-    </row>
-    <row r="3" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40" t="s">
+      <c r="R2" s="38"/>
+      <c r="S2" s="40"/>
+    </row>
+    <row r="3" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="40" t="s">
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="N3" s="40" t="s">
+      <c r="Q3" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="O3" s="40" t="s">
+      <c r="R3" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="P3" s="40" t="s">
+      <c r="S3" s="38" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40" t="s">
+    <row r="4" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="40" t="s">
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="N4" s="40" t="s">
+      <c r="Q4" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="O4" s="40"/>
-      <c r="P4" s="42"/>
-    </row>
-    <row r="5" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
+      <c r="R4" s="38"/>
+      <c r="S4" s="40"/>
+    </row>
+    <row r="5" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40" t="s">
+      <c r="C5" s="38"/>
+      <c r="D5" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40" t="s">
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38" t="s">
+        <v>551</v>
+      </c>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38" t="s">
+        <v>682</v>
+      </c>
+      <c r="L5" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="M5" s="34"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q5" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="R5" s="38"/>
+      <c r="S5" s="40"/>
+    </row>
+    <row r="6" spans="1:19" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="38"/>
+      <c r="K6" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="L6" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="40" t="s">
+      <c r="M6" s="34"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q6" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="S6" s="40"/>
+    </row>
+    <row r="7" spans="1:19" s="30" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q7" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q8" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="S8" s="38" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38" t="s">
+        <v>552</v>
+      </c>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="40"/>
+    </row>
+    <row r="10" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="40"/>
+    </row>
+    <row r="11" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q11" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="R11" s="38"/>
+      <c r="S11" s="40"/>
+    </row>
+    <row r="12" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q12" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="R12" s="38"/>
+      <c r="S12" s="40"/>
+    </row>
+    <row r="13" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q13" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="R13" s="38"/>
+      <c r="S13" s="40"/>
+    </row>
+    <row r="14" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="37"/>
+      <c r="B14" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39" t="s">
+        <v>531</v>
+      </c>
+      <c r="P14" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="40"/>
+    </row>
+    <row r="15" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="38"/>
+      <c r="H15" s="37" t="s">
+        <v>554</v>
+      </c>
+      <c r="I15" s="37">
+        <v>5</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="74" t="s">
+        <v>529</v>
+      </c>
+      <c r="P15" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="S15" s="40"/>
+    </row>
+    <row r="16" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>554</v>
+      </c>
+      <c r="I16" s="37"/>
+      <c r="J16" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68" t="s">
+        <v>530</v>
+      </c>
+      <c r="P16" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68" t="s">
+        <v>532</v>
+      </c>
+      <c r="P17" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="S17" s="38" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="68" t="s">
+        <v>533</v>
+      </c>
+      <c r="P18" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="40"/>
+    </row>
+    <row r="19" spans="1:19" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="43" t="s">
+        <v>534</v>
+      </c>
+      <c r="O19" s="68" t="s">
+        <v>535</v>
+      </c>
+      <c r="P19" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="40"/>
+    </row>
+    <row r="20" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68" t="s">
+        <v>541</v>
+      </c>
+      <c r="P20" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="40"/>
+    </row>
+    <row r="21" spans="1:19" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39" t="s">
+        <v>542</v>
+      </c>
+      <c r="P21" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="40"/>
+    </row>
+    <row r="22" spans="1:19" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="37"/>
+      <c r="B22" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39" t="s">
+        <v>544</v>
+      </c>
+      <c r="P22" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q22" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="R22" s="38"/>
+      <c r="S22" s="40"/>
+    </row>
+    <row r="23" spans="1:19" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="39" t="s">
+        <v>380</v>
+      </c>
+      <c r="O23" s="39" t="s">
+        <v>543</v>
+      </c>
+      <c r="P23" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="40"/>
+    </row>
+    <row r="24" spans="1:19" s="30" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A24" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39" t="s">
+        <v>545</v>
+      </c>
+      <c r="P24" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="40"/>
+    </row>
+    <row r="25" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38" t="s">
+        <v>552</v>
+      </c>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="40"/>
+    </row>
+    <row r="26" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38" t="s">
+        <v>552</v>
+      </c>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="40"/>
+    </row>
+    <row r="27" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38" t="s">
+        <v>552</v>
+      </c>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="40"/>
+    </row>
+    <row r="28" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="37"/>
+      <c r="B28" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q28" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="R28" s="38"/>
+      <c r="S28" s="40"/>
+    </row>
+    <row r="29" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="37"/>
+      <c r="B29" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q29" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="R29" s="38"/>
+      <c r="S29" s="40"/>
+    </row>
+    <row r="30" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="37"/>
+      <c r="B30" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="O30" s="39"/>
+      <c r="P30" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q30" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="R30" s="38"/>
+      <c r="S30" s="40"/>
+    </row>
+    <row r="31" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="41"/>
+      <c r="B31" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="O31" s="43"/>
+      <c r="P31" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q31" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="R31" s="42"/>
+      <c r="S31" s="70"/>
+    </row>
+    <row r="32" spans="1:19" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="41"/>
+      <c r="B32" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="O32" s="43"/>
+      <c r="P32" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="70"/>
+    </row>
+    <row r="33" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="42"/>
+      <c r="D33" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42" t="s">
+        <v>553</v>
+      </c>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="L33" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="M33" s="42"/>
+      <c r="N33" s="43" t="s">
+        <v>380</v>
+      </c>
+      <c r="O33" s="43"/>
+      <c r="P33" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="N5" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="O5" s="40"/>
-      <c r="P5" s="42"/>
-    </row>
-    <row r="6" spans="1:16" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+      <c r="Q33" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="R33" s="42"/>
+      <c r="S33" s="70"/>
+    </row>
+    <row r="34" spans="1:19" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40" t="s">
+      <c r="B34" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="J6" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="40" t="s">
+      <c r="E34" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="J34" s="38"/>
+      <c r="K34" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="L34" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="N6" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="O6" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="P6" s="42"/>
-    </row>
-    <row r="7" spans="1:16" s="30" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
+      <c r="Q34" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="R34" s="38"/>
+      <c r="S34" s="40"/>
+    </row>
+    <row r="35" spans="1:19" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40" t="s">
+      <c r="B35" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41" t="s">
-        <v>206</v>
-      </c>
-      <c r="J7" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="40" t="s">
+      <c r="E35" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="L35" s="38" t="s">
+        <v>527</v>
+      </c>
+      <c r="M35" s="42"/>
+      <c r="N35" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="O35" s="43"/>
+      <c r="P35" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="N7" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
+      <c r="Q35" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="R35" s="38"/>
+      <c r="S35" s="40"/>
+    </row>
+    <row r="36" spans="1:19" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="41"/>
+      <c r="B36" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="43" t="s">
+        <v>381</v>
+      </c>
+      <c r="O36" s="43"/>
+      <c r="P36" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q36" s="38"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="40"/>
+    </row>
+    <row r="37" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="N8" s="40" t="s">
-        <v>159</v>
-      </c>
-      <c r="O8" s="40" t="s">
-        <v>166</v>
-      </c>
-      <c r="P8" s="40" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="39" t="s">
+      <c r="B37" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="O37" s="43"/>
+      <c r="P37" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q37" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="R37" s="38"/>
+      <c r="S37" s="40"/>
+    </row>
+    <row r="38" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="42"/>
-    </row>
-    <row r="10" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39" t="s">
+      <c r="B38" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38" t="s">
+        <v>549</v>
+      </c>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q38" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="R38" s="38"/>
+      <c r="S38" s="40"/>
+    </row>
+    <row r="39" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="42"/>
-    </row>
-    <row r="11" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
+      <c r="B39" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q39" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="R39" s="42"/>
+      <c r="S39" s="70"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40" s="37"/>
+      <c r="B40" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>644</v>
+      </c>
+      <c r="D40" s="38" t="s">
+        <v>643</v>
+      </c>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="39"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="38"/>
+      <c r="Q40" s="38"/>
+      <c r="R40" s="38"/>
+      <c r="S40" s="40"/>
+    </row>
+    <row r="41" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="N11" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="O11" s="40"/>
-      <c r="P11" s="42"/>
-    </row>
-    <row r="12" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="39" t="s">
+      <c r="B41" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38" t="s">
+        <v>662</v>
+      </c>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="L41" s="38" t="s">
+        <v>558</v>
+      </c>
+      <c r="M41" s="39" t="s">
+        <v>680</v>
+      </c>
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="38"/>
+      <c r="Q41" s="38"/>
+      <c r="R41" s="38"/>
+      <c r="S41" s="40"/>
+    </row>
+    <row r="42" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="N12" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="O12" s="40"/>
-      <c r="P12" s="42"/>
-    </row>
-    <row r="13" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="39" t="s">
+      <c r="B42" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38" t="s">
+        <v>663</v>
+      </c>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="39" t="s">
+        <v>652</v>
+      </c>
+      <c r="L42" s="39" t="s">
+        <v>645</v>
+      </c>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="38"/>
+      <c r="Q42" s="38"/>
+      <c r="R42" s="38"/>
+      <c r="S42" s="40"/>
+    </row>
+    <row r="43" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="N13" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="O13" s="40"/>
-      <c r="P13" s="42"/>
-    </row>
-    <row r="14" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="39"/>
-      <c r="B14" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41" t="s">
-        <v>532</v>
-      </c>
-      <c r="M14" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="42"/>
-    </row>
-    <row r="15" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="39" t="s">
+      <c r="B43" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38" t="s">
+        <v>664</v>
+      </c>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="39" t="s">
+        <v>653</v>
+      </c>
+      <c r="L43" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="M43" s="39" t="s">
+        <v>681</v>
+      </c>
+      <c r="N43" s="39"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="38"/>
+      <c r="Q43" s="38"/>
+      <c r="R43" s="38"/>
+      <c r="S43" s="40"/>
+    </row>
+    <row r="44" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" s="40"/>
-      <c r="H15" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="76" t="s">
-        <v>530</v>
-      </c>
-      <c r="M15" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="P15" s="42"/>
-    </row>
-    <row r="16" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="39" t="s">
+      <c r="B44" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38" t="s">
+        <v>665</v>
+      </c>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="39" t="s">
+        <v>654</v>
+      </c>
+      <c r="L44" s="39" t="s">
+        <v>647</v>
+      </c>
+      <c r="M44" s="39"/>
+      <c r="N44" s="39"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="38"/>
+      <c r="Q44" s="38"/>
+      <c r="R44" s="38"/>
+      <c r="S44" s="40"/>
+    </row>
+    <row r="45" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70" t="s">
-        <v>531</v>
-      </c>
-      <c r="M16" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
+      <c r="B45" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38" t="s">
+        <v>666</v>
+      </c>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="39" t="s">
+        <v>655</v>
+      </c>
+      <c r="L45" s="39" t="s">
+        <v>648</v>
+      </c>
+      <c r="M45" s="39"/>
+      <c r="N45" s="39"/>
+      <c r="O45" s="39"/>
+      <c r="P45" s="38"/>
+      <c r="Q45" s="38"/>
+      <c r="R45" s="38"/>
+      <c r="S45" s="40"/>
+    </row>
+    <row r="46" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+      <c r="A46" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70" t="s">
-        <v>533</v>
-      </c>
-      <c r="M17" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="P17" s="40" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="39" t="s">
+      <c r="B46" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="39" t="s">
+        <v>656</v>
+      </c>
+      <c r="L46" s="39" t="s">
+        <v>649</v>
+      </c>
+      <c r="M46" s="39"/>
+      <c r="N46" s="39"/>
+      <c r="O46" s="39"/>
+      <c r="P46" s="38"/>
+      <c r="Q46" s="38"/>
+      <c r="R46" s="38"/>
+      <c r="S46" s="40"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A47" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="70" t="s">
-        <v>534</v>
-      </c>
-      <c r="M18" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="42"/>
-    </row>
-    <row r="19" spans="1:16" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="39" t="s">
+      <c r="B47" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38" t="s">
+        <v>657</v>
+      </c>
+      <c r="L47" s="38" t="s">
+        <v>587</v>
+      </c>
+      <c r="M47" s="38"/>
+      <c r="N47" s="39"/>
+      <c r="O47" s="39"/>
+      <c r="P47" s="38"/>
+      <c r="Q47" s="38"/>
+      <c r="R47" s="38"/>
+      <c r="S47" s="40"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A48" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="45" t="s">
-        <v>535</v>
-      </c>
-      <c r="L19" s="70" t="s">
-        <v>536</v>
-      </c>
-      <c r="M19" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="42"/>
-    </row>
-    <row r="20" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="39" t="s">
+      <c r="B48" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38" t="s">
+        <v>669</v>
+      </c>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38" t="s">
+        <v>658</v>
+      </c>
+      <c r="L48" s="38" t="s">
+        <v>588</v>
+      </c>
+      <c r="M48" s="38"/>
+      <c r="N48" s="39"/>
+      <c r="O48" s="39"/>
+      <c r="P48" s="38"/>
+      <c r="Q48" s="38"/>
+      <c r="R48" s="38"/>
+      <c r="S48" s="40"/>
+    </row>
+    <row r="49" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70" t="s">
-        <v>542</v>
-      </c>
-      <c r="M20" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="42"/>
-    </row>
-    <row r="21" spans="1:16" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="39" t="s">
+      <c r="B49" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38" t="s">
+        <v>670</v>
+      </c>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="39" t="s">
+        <v>661</v>
+      </c>
+      <c r="L49" s="38" t="s">
+        <v>589</v>
+      </c>
+      <c r="M49" s="38"/>
+      <c r="N49" s="39"/>
+      <c r="O49" s="39"/>
+      <c r="P49" s="38"/>
+      <c r="Q49" s="38"/>
+      <c r="R49" s="38"/>
+      <c r="S49" s="40"/>
+    </row>
+    <row r="50" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41" t="s">
-        <v>543</v>
-      </c>
-      <c r="M21" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="42"/>
-    </row>
-    <row r="22" spans="1:16" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="39"/>
-      <c r="B22" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41" t="s">
-        <v>545</v>
-      </c>
-      <c r="M22" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="N22" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="O22" s="40"/>
-      <c r="P22" s="42"/>
-    </row>
-    <row r="23" spans="1:16" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="39" t="s">
+      <c r="B50" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38" t="s">
+        <v>671</v>
+      </c>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="39" t="s">
+        <v>660</v>
+      </c>
+      <c r="L50" s="39" t="s">
+        <v>650</v>
+      </c>
+      <c r="M50" s="39"/>
+      <c r="N50" s="39"/>
+      <c r="O50" s="39"/>
+      <c r="P50" s="38"/>
+      <c r="Q50" s="38"/>
+      <c r="R50" s="38"/>
+      <c r="S50" s="40"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A51" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="41" t="s">
-        <v>381</v>
-      </c>
-      <c r="L23" s="41" t="s">
-        <v>544</v>
-      </c>
-      <c r="M23" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="42"/>
-    </row>
-    <row r="24" spans="1:16" s="30" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A24" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41" t="s">
-        <v>546</v>
-      </c>
-      <c r="M24" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="42"/>
-    </row>
-    <row r="25" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="42"/>
-    </row>
-    <row r="26" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="42"/>
-    </row>
-    <row r="27" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="42"/>
-    </row>
-    <row r="28" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="39"/>
-      <c r="B28" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="E28" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="N28" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="O28" s="40"/>
-      <c r="P28" s="42"/>
-    </row>
-    <row r="29" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="39"/>
-      <c r="B29" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="E29" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="N29" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="O29" s="40"/>
-      <c r="P29" s="42"/>
-    </row>
-    <row r="30" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="39"/>
-      <c r="B30" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="E30" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="41" t="s">
-        <v>378</v>
-      </c>
-      <c r="L30" s="41"/>
-      <c r="M30" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="N30" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="O30" s="40"/>
-      <c r="P30" s="42"/>
-    </row>
-    <row r="31" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
-      <c r="B31" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="E31" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="45" t="s">
-        <v>379</v>
-      </c>
-      <c r="L31" s="45"/>
-      <c r="M31" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="N31" s="40" t="s">
-        <v>183</v>
-      </c>
-      <c r="O31" s="44"/>
-      <c r="P31" s="72"/>
-    </row>
-    <row r="32" spans="1:16" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="43"/>
-      <c r="B32" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="45" t="s">
-        <v>380</v>
-      </c>
-      <c r="L32" s="45"/>
-      <c r="M32" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="N32" s="44"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="72"/>
-    </row>
-    <row r="33" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="44" t="s">
+      <c r="B51" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="44" t="s">
-        <v>207</v>
-      </c>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44" t="s">
-        <v>278</v>
-      </c>
-      <c r="J33" s="44" t="s">
-        <v>213</v>
-      </c>
-      <c r="K33" s="45" t="s">
-        <v>381</v>
-      </c>
-      <c r="L33" s="45"/>
-      <c r="M33" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="N33" s="44" t="s">
-        <v>218</v>
-      </c>
-      <c r="O33" s="44"/>
-      <c r="P33" s="72"/>
-    </row>
-    <row r="34" spans="1:16" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="44" t="s">
-        <v>208</v>
-      </c>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="J34" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="N34" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="O34" s="40"/>
-      <c r="P34" s="42"/>
-    </row>
-    <row r="35" spans="1:16" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="E35" s="44" t="s">
-        <v>209</v>
-      </c>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="J35" s="40" t="s">
-        <v>528</v>
-      </c>
-      <c r="K35" s="45" t="s">
-        <v>380</v>
-      </c>
-      <c r="L35" s="45"/>
-      <c r="M35" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="N35" s="44" t="s">
-        <v>220</v>
-      </c>
-      <c r="O35" s="40"/>
-      <c r="P35" s="42"/>
-    </row>
-    <row r="36" spans="1:16" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="43"/>
-      <c r="B36" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="45" t="s">
-        <v>382</v>
-      </c>
-      <c r="L36" s="45"/>
-      <c r="M36" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="N36" s="40"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="42"/>
-    </row>
-    <row r="37" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" s="44" t="s">
-        <v>210</v>
-      </c>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="45" t="s">
-        <v>383</v>
-      </c>
-      <c r="L37" s="45"/>
-      <c r="M37" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="N37" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="O37" s="40"/>
-      <c r="P37" s="42"/>
-    </row>
-    <row r="38" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="44" t="s">
-        <v>211</v>
-      </c>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="N38" s="44" t="s">
-        <v>222</v>
-      </c>
-      <c r="O38" s="40"/>
-      <c r="P38" s="42"/>
-    </row>
-    <row r="39" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="N39" s="44" t="s">
-        <v>223</v>
-      </c>
-      <c r="O39" s="44"/>
-      <c r="P39" s="72"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38" t="s">
+        <v>672</v>
+      </c>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38" t="s">
+        <v>659</v>
+      </c>
+      <c r="L51" s="38" t="s">
+        <v>594</v>
+      </c>
+      <c r="M51" s="38"/>
+      <c r="N51" s="39"/>
+      <c r="O51" s="39"/>
+      <c r="P51" s="38"/>
+      <c r="Q51" s="38"/>
+      <c r="R51" s="38"/>
+      <c r="S51" s="40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError sqref="B3:B31 B32:B39" numberStoredAsText="1"/>
+    <ignoredError sqref="B3:B31 B32:B39 I6 I11 I34 I38 B40:B51" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
@@ -8258,7 +10638,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -8267,7 +10647,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="56" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8285,27 +10665,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Feuil6">
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="30" customWidth="1"/>
     <col min="2" max="2" width="15.77734375" style="30" customWidth="1"/>
     <col min="3" max="3" width="27.33203125" style="30" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.88671875" style="30" customWidth="1"/>
+    <col min="4" max="4" width="20" style="30" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.77734375" style="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>8</v>
       </c>
@@ -8315,14 +10696,17 @@
       <c r="C1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
+        <v>547</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>38</v>
       </c>
@@ -8332,14 +10716,15 @@
       <c r="C2" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>39</v>
       </c>
@@ -8349,14 +10734,15 @@
       <c r="C3" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="F3" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>40</v>
       </c>
@@ -8364,12 +10750,13 @@
         <v>96</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="18"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>124</v>
       </c>
@@ -8379,18 +10766,62 @@
       <c r="C5" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="25"/>
+      <c r="E5" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="F5" s="26" t="s">
         <v>127</v>
       </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>561</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="F6" s="26"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>562</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="F7" s="26"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>563</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="F8" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -8406,13 +10837,13 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="56" t="s">
         <v>188</v>
       </c>
     </row>
@@ -8421,7 +10852,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -8434,94 +10865,635 @@
   <sheetPr codeName="Feuil8">
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.21875" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="5" max="5" width="31.5546875" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="21" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="D1" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="78" t="s">
+        <v>556</v>
+      </c>
+      <c r="F1" s="78" t="s">
+        <v>555</v>
+      </c>
+      <c r="G1" s="78" t="s">
+        <v>557</v>
+      </c>
+      <c r="H1" s="78" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="35" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="D2" s="86"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+    </row>
+    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
         <v>199</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="C3" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+    </row>
+    <row r="4" spans="1:8" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="B5" s="36" t="s">
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+    </row>
+    <row r="5" spans="1:8" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="B5" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="C5" s="35" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="C5" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="79" t="s">
         <v>195</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="C6" s="36"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="C6" s="34"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="83" t="s">
         <v>197</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="84" t="s">
         <v>198</v>
       </c>
-      <c r="C7" s="36"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+    </row>
+    <row r="8" spans="1:8" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="79" t="s">
+        <v>558</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>595</v>
+      </c>
+      <c r="D8" s="81" t="s">
+        <v>613</v>
+      </c>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+    </row>
+    <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="79" t="s">
+        <v>559</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>596</v>
+      </c>
+      <c r="D9" s="81" t="s">
+        <v>624</v>
+      </c>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+    </row>
+    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="79" t="s">
+        <v>560</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>597</v>
+      </c>
+      <c r="D10" s="80" t="s">
+        <v>612</v>
+      </c>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+    </row>
+    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="79" t="s">
+        <v>572</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>598</v>
+      </c>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81" t="s">
+        <v>561</v>
+      </c>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+    </row>
+    <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="79" t="s">
+        <v>573</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>610</v>
+      </c>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81" t="s">
+        <v>614</v>
+      </c>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+    </row>
+    <row r="13" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="79" t="s">
+        <v>574</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>611</v>
+      </c>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81" t="s">
+        <v>615</v>
+      </c>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+    </row>
+    <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="79" t="s">
+        <v>575</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>616</v>
+      </c>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81">
+        <v>10</v>
+      </c>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+    </row>
+    <row r="15" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="79" t="s">
+        <v>577</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>617</v>
+      </c>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="87" t="s">
+        <v>626</v>
+      </c>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+    </row>
+    <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="79" t="s">
+        <v>578</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>618</v>
+      </c>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81" t="s">
+        <v>570</v>
+      </c>
+      <c r="H16" s="81"/>
+    </row>
+    <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="79" t="s">
+        <v>579</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>619</v>
+      </c>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81" t="s">
+        <v>571</v>
+      </c>
+      <c r="H17" s="81"/>
+    </row>
+    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="79" t="s">
+        <v>580</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>620</v>
+      </c>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81" t="s">
+        <v>674</v>
+      </c>
+      <c r="H18" s="81"/>
+    </row>
+    <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="79" t="s">
+        <v>581</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>621</v>
+      </c>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="79" t="s">
+        <v>582</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>622</v>
+      </c>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="79" t="s">
+        <v>583</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>623</v>
+      </c>
+      <c r="D21" s="81" t="s">
+        <v>634</v>
+      </c>
+      <c r="E21" s="81"/>
+      <c r="F21" s="87" t="s">
+        <v>628</v>
+      </c>
+      <c r="G21" s="81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="81"/>
+    </row>
+    <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="79" t="s">
+        <v>584</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>599</v>
+      </c>
+      <c r="D22" s="81" t="s">
+        <v>632</v>
+      </c>
+      <c r="E22" s="81" t="s">
+        <v>629</v>
+      </c>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="79" t="s">
+        <v>585</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>600</v>
+      </c>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81" t="s">
+        <v>563</v>
+      </c>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="81"/>
+    </row>
+    <row r="24" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="79" t="s">
+        <v>586</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>601</v>
+      </c>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="87" t="s">
+        <v>678</v>
+      </c>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="79" t="s">
+        <v>587</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>602</v>
+      </c>
+      <c r="D25" s="81" t="s">
+        <v>633</v>
+      </c>
+      <c r="E25" s="81" t="s">
+        <v>679</v>
+      </c>
+      <c r="F25" s="88">
+        <v>7</v>
+      </c>
+      <c r="G25" s="81" t="s">
+        <v>570</v>
+      </c>
+      <c r="H25" s="81" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="79" t="s">
+        <v>588</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>603</v>
+      </c>
+      <c r="D26" s="81" t="s">
+        <v>635</v>
+      </c>
+      <c r="E26" s="81" t="s">
+        <v>562</v>
+      </c>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="79" t="s">
+        <v>589</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>604</v>
+      </c>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+    </row>
+    <row r="28" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A28" s="79" t="s">
+        <v>590</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>605</v>
+      </c>
+      <c r="D28" s="80" t="s">
+        <v>675</v>
+      </c>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81">
+        <v>10</v>
+      </c>
+      <c r="G28" s="81" t="s">
+        <v>637</v>
+      </c>
+      <c r="H28" s="81" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="79" t="s">
+        <v>591</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>606</v>
+      </c>
+      <c r="D29" s="80" t="s">
+        <v>639</v>
+      </c>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="81"/>
+    </row>
+    <row r="30" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="79" t="s">
+        <v>592</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>607</v>
+      </c>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81" t="s">
+        <v>640</v>
+      </c>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="81" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="79" t="s">
+        <v>593</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>608</v>
+      </c>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81">
+        <v>1</v>
+      </c>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="79" t="s">
+        <v>594</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>609</v>
+      </c>
+      <c r="D32" s="81" t="s">
+        <v>641</v>
+      </c>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81">
+        <v>999</v>
+      </c>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81" t="s">
+        <v>642</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
@@ -8541,14 +11513,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
-        <v>224</v>
+      <c r="B1" s="56" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -8556,7 +11528,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/tools/example_framework.xlsx
+++ b/tools/example_framework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tarkadia\projects\intuitem\ciso-assistant-community\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F2B591-24A0-474F-BEAA-028420016CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA59B32F-CADC-46F5-9032-3B98C54E3E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="-15870" windowWidth="25440" windowHeight="15990" tabRatio="907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="36" windowWidth="18996" windowHeight="11136" tabRatio="907" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="6" r:id="rId1"/>
@@ -405,17 +405,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Format: "line_where_the_requirement_containing_the_question_is</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
+Format: "</t>
         </r>
         <r>
           <rPr>
@@ -467,7 +457,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{9DF94410-D1CA-448F-BD60-59EAD2557609}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{9DF94410-D1CA-448F-BD60-59EAD2557609}">
       <text>
         <r>
           <rPr>
@@ -491,7 +481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{781B3B90-5C6F-4C56-B7DD-C93B8542FECF}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{781B3B90-5C6F-4C56-B7DD-C93B8542FECF}">
       <text>
         <r>
           <rPr>
@@ -632,7 +622,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">) depends on the questions of the requirement at </t>
+          <t xml:space="preserve">) depends on the </t>
         </r>
         <r>
           <rPr>
@@ -642,16 +632,35 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Line 7 -</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">&gt; </t>
+          <t>Question 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Where is it?</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">) -&gt; </t>
         </r>
         <r>
           <rPr>
@@ -661,16 +670,16 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Question 1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (</t>
+          <t>Choice 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> of the question (</t>
         </r>
         <r>
           <rPr>
@@ -680,45 +689,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Is the Exception respected?</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">) -&gt; </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Choice 1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> of the question (</t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Yes</t>
+          <t>A1</t>
         </r>
         <r>
           <rPr>
@@ -786,7 +757,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">) depends on the questions of the requirement at </t>
+          <t xml:space="preserve">) depends on the </t>
         </r>
         <r>
           <rPr>
@@ -796,16 +767,35 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Line 35</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> -&gt; </t>
+          <t>Question 2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Who is it?</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">) -&gt; </t>
         </r>
         <r>
           <rPr>
@@ -815,16 +805,16 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Question 2</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (</t>
+          <t>Choice 1 or 3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> of the question (</t>
         </r>
         <r>
           <rPr>
@@ -834,35 +824,16 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Name of 2nd department?</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">) -&gt; </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Choice 3 or 4</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> of the question (</t>
+          <t>A1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> or </t>
         </r>
         <r>
           <rPr>
@@ -872,35 +843,16 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>SUZ-DQ</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> or </t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>COR-A9</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
+          <t>C1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>).</t>
         </r>
       </text>
     </comment>
@@ -914,7 +866,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">.: Line 1,2 &amp; 3 :.
+          <t xml:space="preserve">.: Line 1 :.
 </t>
         </r>
         <r>
@@ -924,6 +876,65 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>The</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1st Question</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Question 4?</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>) depends on nothing because a question cannot depend on itself.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+.: Line 2 &amp; 3 :.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t xml:space="preserve">Means that the </t>
         </r>
         <r>
@@ -934,7 +945,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>1st, 2nd and 3rd Questions</t>
+          <t>2nd and 3rd Questions</t>
         </r>
         <r>
           <rPr>
@@ -953,6 +964,63 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Question 5?</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> and </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Question 6?</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">) depends on the </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Question 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Question 4?</t>
         </r>
         <r>
@@ -962,6 +1030,44 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t xml:space="preserve">) -&gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Choice 1, 2 or 3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> of the question (</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>A4</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t xml:space="preserve"> ; </t>
         </r>
         <r>
@@ -972,7 +1078,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Question 5?</t>
+          <t>B4</t>
         </r>
         <r>
           <rPr>
@@ -991,149 +1097,16 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Question 6?</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">) depends on the questions of the requirement at </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Line 5</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> -&gt; </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Question 1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (</t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Is it true?</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">) -&gt; </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Choice 1, 2 or 3</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> of the question (</t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Yes</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> ; </t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>No</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> ; </t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>N/A</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
+          <t>C4</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>).</t>
         </r>
         <r>
           <rPr>
@@ -1547,7 +1520,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="688">
   <si>
     <t>type</t>
   </si>
@@ -3925,15 +3898,36 @@
 testgrp2, grp001</t>
   </si>
   <si>
+    <t>Is it true?</t>
+  </si>
+  <si>
+    <t>1:1,2,3</t>
+  </si>
+  <si>
     <t>UNDEFINED
-7:1:1
-35:2:3,4</t>
-  </si>
-  <si>
-    <t>5:1:1,2,3</t>
-  </si>
-  <si>
-    <t>Is it true?</t>
+1:1
+2:1,3</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>UNDEFINED
+any
+all</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>2:1,2
+UNDEFINED
+2:3</t>
+  </si>
+  <si>
+    <t>any
+UNDEFINED
+any</t>
   </si>
 </sst>
 </file>
@@ -4788,7 +4782,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="80">
+  <dxfs count="81">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -6101,67 +6115,68 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{549B97EC-A4EC-467D-95D4-C91A5E59F559}" name="Tableau1" displayName="Tableau1" ref="A1:S51" totalsRowShown="0" headerRowDxfId="79" dataDxfId="77" headerRowBorderDxfId="78" tableBorderDxfId="76" totalsRowBorderDxfId="75">
-  <autoFilter ref="A1:S51" xr:uid="{549B97EC-A4EC-467D-95D4-C91A5E59F559}"/>
-  <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{D7929412-2C04-48B2-B421-6EC19B1F374C}" name="assessable" dataDxfId="74"/>
-    <tableColumn id="2" xr3:uid="{BAC0F5CA-29D7-460A-BD72-3F9E24C9732F}" name="depth" dataDxfId="73"/>
-    <tableColumn id="3" xr3:uid="{92C5BE2B-42CA-458E-8D3C-CC37002D48BD}" name="ref_id" dataDxfId="72"/>
-    <tableColumn id="4" xr3:uid="{9F7C5816-5FCC-476D-B6FA-AE433ADEABCC}" name="name" dataDxfId="71"/>
-    <tableColumn id="5" xr3:uid="{2650FBAE-CAA9-4751-AB1F-D901BDE6D752}" name="description" dataDxfId="70"/>
-    <tableColumn id="6" xr3:uid="{552D82DF-7C98-4797-9A2D-D4FDA52D98AF}" name="annotation" dataDxfId="69"/>
-    <tableColumn id="7" xr3:uid="{E61773D4-D778-4312-A49F-8A5758A995E8}" name="typical_evidence" dataDxfId="68"/>
-    <tableColumn id="19" xr3:uid="{DFBF3465-BE6B-4017-8F87-57A82780A75B}" name="importance" dataDxfId="67"/>
-    <tableColumn id="18" xr3:uid="{12A7028D-E894-47CA-AEF9-9E602B1E4657}" name="weight" dataDxfId="66"/>
-    <tableColumn id="8" xr3:uid="{41549C1C-81F1-4DC9-AF3E-D66557AB55EA}" name="implementation_groups" dataDxfId="65"/>
-    <tableColumn id="14" xr3:uid="{AFF985E6-291A-441C-8DEF-8F4448E20722}" name="questions" dataDxfId="64"/>
-    <tableColumn id="13" xr3:uid="{22C6C123-59A8-4006-974A-AEC9BDF7B9C5}" name="answer" dataDxfId="63"/>
-    <tableColumn id="17" xr3:uid="{DF10B870-B9C4-4D6A-8C84-F0105D4909E5}" name="depends_on" dataDxfId="62"/>
-    <tableColumn id="15" xr3:uid="{98B369E5-A92E-4F40-ABC5-965BF81E342E}" name="threats" dataDxfId="61"/>
-    <tableColumn id="16" xr3:uid="{12E0FCEA-DE2D-4475-972C-17BB204562B1}" name="reference_controls" dataDxfId="60"/>
-    <tableColumn id="9" xr3:uid="{D92464D6-5A4E-46A6-B30C-5054FBC689EF}" name="name[fr]" dataDxfId="59"/>
-    <tableColumn id="10" xr3:uid="{582EF74A-B398-41A0-ACCF-D0452C1A56EF}" name="description[fr]" dataDxfId="58"/>
-    <tableColumn id="11" xr3:uid="{EA0E2718-3825-4A77-B686-8C594E64AC01}" name="annotation[fr]" dataDxfId="57"/>
-    <tableColumn id="12" xr3:uid="{CB66FA06-DCF3-44C6-A079-7B12A457972F}" name="typical_evidence[fr]" dataDxfId="56"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{549B97EC-A4EC-467D-95D4-C91A5E59F559}" name="Tableau1" displayName="Tableau1" ref="A1:T51" totalsRowShown="0" headerRowDxfId="80" dataDxfId="78" headerRowBorderDxfId="79" tableBorderDxfId="77" totalsRowBorderDxfId="76">
+  <autoFilter ref="A1:T51" xr:uid="{549B97EC-A4EC-467D-95D4-C91A5E59F559}"/>
+  <tableColumns count="20">
+    <tableColumn id="1" xr3:uid="{D7929412-2C04-48B2-B421-6EC19B1F374C}" name="assessable" dataDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{BAC0F5CA-29D7-460A-BD72-3F9E24C9732F}" name="depth" dataDxfId="74"/>
+    <tableColumn id="3" xr3:uid="{92C5BE2B-42CA-458E-8D3C-CC37002D48BD}" name="ref_id" dataDxfId="73"/>
+    <tableColumn id="4" xr3:uid="{9F7C5816-5FCC-476D-B6FA-AE433ADEABCC}" name="name" dataDxfId="72"/>
+    <tableColumn id="5" xr3:uid="{2650FBAE-CAA9-4751-AB1F-D901BDE6D752}" name="description" dataDxfId="71"/>
+    <tableColumn id="6" xr3:uid="{552D82DF-7C98-4797-9A2D-D4FDA52D98AF}" name="annotation" dataDxfId="70"/>
+    <tableColumn id="7" xr3:uid="{E61773D4-D778-4312-A49F-8A5758A995E8}" name="typical_evidence" dataDxfId="69"/>
+    <tableColumn id="19" xr3:uid="{DFBF3465-BE6B-4017-8F87-57A82780A75B}" name="importance" dataDxfId="68"/>
+    <tableColumn id="18" xr3:uid="{12A7028D-E894-47CA-AEF9-9E602B1E4657}" name="weight" dataDxfId="67"/>
+    <tableColumn id="8" xr3:uid="{41549C1C-81F1-4DC9-AF3E-D66557AB55EA}" name="implementation_groups" dataDxfId="66"/>
+    <tableColumn id="14" xr3:uid="{AFF985E6-291A-441C-8DEF-8F4448E20722}" name="questions" dataDxfId="65"/>
+    <tableColumn id="13" xr3:uid="{22C6C123-59A8-4006-974A-AEC9BDF7B9C5}" name="answer" dataDxfId="64"/>
+    <tableColumn id="17" xr3:uid="{DF10B870-B9C4-4D6A-8C84-F0105D4909E5}" name="depends_on" dataDxfId="63"/>
+    <tableColumn id="20" xr3:uid="{4DFC0890-3949-485D-8686-867538D659D0}" name="condition" dataDxfId="0"/>
+    <tableColumn id="15" xr3:uid="{98B369E5-A92E-4F40-ABC5-965BF81E342E}" name="threats" dataDxfId="62"/>
+    <tableColumn id="16" xr3:uid="{12E0FCEA-DE2D-4475-972C-17BB204562B1}" name="reference_controls" dataDxfId="61"/>
+    <tableColumn id="9" xr3:uid="{D92464D6-5A4E-46A6-B30C-5054FBC689EF}" name="name[fr]" dataDxfId="60"/>
+    <tableColumn id="10" xr3:uid="{582EF74A-B398-41A0-ACCF-D0452C1A56EF}" name="description[fr]" dataDxfId="59"/>
+    <tableColumn id="11" xr3:uid="{EA0E2718-3825-4A77-B686-8C594E64AC01}" name="annotation[fr]" dataDxfId="58"/>
+    <tableColumn id="12" xr3:uid="{CB66FA06-DCF3-44C6-A079-7B12A457972F}" name="typical_evidence[fr]" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{095154CE-6DE0-439C-B5AB-1118C37DCAF4}" name="Tableau2" displayName="Tableau2" ref="A1:F8" totalsRowShown="0" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53" totalsRowBorderDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{095154CE-6DE0-439C-B5AB-1118C37DCAF4}" name="Tableau2" displayName="Tableau2" ref="A1:F8" totalsRowShown="0" dataDxfId="55" headerRowBorderDxfId="56" tableBorderDxfId="54" totalsRowBorderDxfId="53">
   <autoFilter ref="A1:F8" xr:uid="{095154CE-6DE0-439C-B5AB-1118C37DCAF4}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{BB7E1ECB-4B2B-4222-B69C-FDF7FCF7F451}" name="ref_id" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{AA129DE3-6969-4BE8-8FD1-B74529AF31A8}" name="name" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{7980BF69-F795-4B15-9518-5B07FE2675D7}" name="description" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{924732DF-B0AD-42F7-8C31-80F3FDB545EE}" name="default_selected" dataDxfId="48"/>
-    <tableColumn id="4" xr3:uid="{245E3F68-8E07-4115-ADB2-6D2D1DB60F36}" name="name[fr]" dataDxfId="47"/>
-    <tableColumn id="5" xr3:uid="{7C50CF1F-76A2-4CDB-B985-67AE9549E305}" name="description[fr]" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{BB7E1ECB-4B2B-4222-B69C-FDF7FCF7F451}" name="ref_id" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{AA129DE3-6969-4BE8-8FD1-B74529AF31A8}" name="name" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{7980BF69-F795-4B15-9518-5B07FE2675D7}" name="description" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{924732DF-B0AD-42F7-8C31-80F3FDB545EE}" name="default_selected" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{245E3F68-8E07-4115-ADB2-6D2D1DB60F36}" name="name[fr]" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{7C50CF1F-76A2-4CDB-B985-67AE9549E305}" name="description[fr]" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="Style de tableau 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3429E788-61C1-4DE4-9CF3-671C9CE643FD}" name="Tableau4" displayName="Tableau4" ref="A1:H32" totalsRowShown="0" headerRowDxfId="45" headerRowBorderDxfId="44" tableBorderDxfId="43" totalsRowBorderDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3429E788-61C1-4DE4-9CF3-671C9CE643FD}" name="Tableau4" displayName="Tableau4" ref="A1:H32" totalsRowShown="0" headerRowDxfId="46" headerRowBorderDxfId="45" tableBorderDxfId="44" totalsRowBorderDxfId="43">
   <autoFilter ref="A1:H32" xr:uid="{3429E788-61C1-4DE4-9CF3-671C9CE643FD}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{162F889E-4877-4ACE-958A-41755715A824}" name="id" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{8EAFDB25-CF89-4029-A9FB-4244A3FEAF92}" name="question_type" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{6047ECFC-47B1-4CF1-856C-62F6C1E20455}" name="question_choices" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{70F917A4-A4E5-42C0-BA3B-5A06AF583DC2}" name="description" dataDxfId="38"/>
-    <tableColumn id="7" xr3:uid="{A4A01147-E50D-4259-A705-6F2FDEB19F26}" name="select_implementation_groups" dataDxfId="37"/>
-    <tableColumn id="9" xr3:uid="{F9FB2847-10A0-4A69-ADCC-E8F7C6DF7416}" name="add_score" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{FFF5444F-8BD1-4B79-95F0-B652925F370E}" name="compute_result" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{46F6EBDF-F10D-485F-B69E-C9B51DF11F40}" name="color" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{162F889E-4877-4ACE-958A-41755715A824}" name="id" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{8EAFDB25-CF89-4029-A9FB-4244A3FEAF92}" name="question_type" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{6047ECFC-47B1-4CF1-856C-62F6C1E20455}" name="question_choices" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{70F917A4-A4E5-42C0-BA3B-5A06AF583DC2}" name="description" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{A4A01147-E50D-4259-A705-6F2FDEB19F26}" name="select_implementation_groups" dataDxfId="38"/>
+    <tableColumn id="9" xr3:uid="{F9FB2847-10A0-4A69-ADCC-E8F7C6DF7416}" name="add_score" dataDxfId="37"/>
+    <tableColumn id="8" xr3:uid="{FFF5444F-8BD1-4B79-95F0-B652925F370E}" name="compute_result" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{46F6EBDF-F10D-485F-B69E-C9B51DF11F40}" name="color" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="Style de tableau 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8AB0205B-E51F-4004-809C-4673837E5B05}" name="Tableau5" displayName="Tableau5" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32" tableBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8AB0205B-E51F-4004-809C-4673837E5B05}" name="Tableau5" displayName="Tableau5" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="33" tableBorderDxfId="32">
   <autoFilter ref="A1:E1048576" xr:uid="{8AB0205B-E51F-4004-809C-4673837E5B05}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{881914C9-040C-42B4-91FE-05BC90988F70}" name="score"/>
@@ -6175,45 +6190,45 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{21DED0C8-7237-47BF-8873-738C4400D3DB}" name="Tableau14" displayName="Tableau14" ref="A1:G26" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="29" tableBorderDxfId="28" totalsRowBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{21DED0C8-7237-47BF-8873-738C4400D3DB}" name="Tableau14" displayName="Tableau14" ref="A1:G26" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="30" tableBorderDxfId="29" totalsRowBorderDxfId="28">
   <autoFilter ref="A1:G26" xr:uid="{32B00483-E3F9-4C14-B125-41886D9D0F23}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2F9E1637-D442-4022-8B78-23492F1B2FD4}" name="ref_id" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{1990900A-E9A9-4853-8F63-DC439067075E}" name="name" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{E03E16C2-E13E-458D-A24A-3C34A91E3DF2}" name="description" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{5ECFEFFA-B045-45BD-A6D7-4E11C3283380}" name="annotation" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{4F645D7B-245A-416B-9E6F-06323318E6E2}" name="name[fr]" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{E7094BA8-F77D-4F12-A3F8-7928936A0D2E}" name="description[fr]" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{B9C14FC4-B603-427E-A7F4-CACF10F7A085}" name="annotation[fr]" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{2F9E1637-D442-4022-8B78-23492F1B2FD4}" name="ref_id" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{1990900A-E9A9-4853-8F63-DC439067075E}" name="name" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{E03E16C2-E13E-458D-A24A-3C34A91E3DF2}" name="description" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{5ECFEFFA-B045-45BD-A6D7-4E11C3283380}" name="annotation" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{4F645D7B-245A-416B-9E6F-06323318E6E2}" name="name[fr]" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{E7094BA8-F77D-4F12-A3F8-7928936A0D2E}" name="description[fr]" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{B9C14FC4-B603-427E-A7F4-CACF10F7A085}" name="annotation[fr]" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="Style de tableau 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6DCAA1FD-DB86-4E15-8E31-AC99AB9F45D4}" name="Tableau3" displayName="Tableau3" ref="A1:I27" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6DCAA1FD-DB86-4E15-8E31-AC99AB9F45D4}" name="Tableau3" displayName="Tableau3" ref="A1:I27" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <autoFilter ref="A1:I27" xr:uid="{4748F8BA-F2F9-4976-90F0-1D6F9F26191B}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{15A5B4EF-24CA-4813-9A39-8D55A540B838}" name="ref_id" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{541E38F3-C3CB-49DA-B177-2A1749008A5B}" name="name" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{F2BC8545-6F89-4E86-8E77-5E4AA7C0033E}" name="category" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{2D6C7622-7C26-46E8-BA06-DC874E602ECA}" name="csf_function" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{8B114798-8119-45A5-AC98-80691A7F5743}" name="description" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{3B24CD29-2024-4E6C-8EA8-A2A27F71DB45}" name="annotation" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{6D87C08C-7195-4695-A258-EC8C5FBA7769}" name="name[fr]" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{05DA7DF2-5885-4810-9061-18E2243F317E}" name="description[fr]" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{4E63784C-6489-4DCD-AFDF-2126BE436F13}" name="annotation[fr]" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{15A5B4EF-24CA-4813-9A39-8D55A540B838}" name="ref_id" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{541E38F3-C3CB-49DA-B177-2A1749008A5B}" name="name" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{F2BC8545-6F89-4E86-8E77-5E4AA7C0033E}" name="category" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{2D6C7622-7C26-46E8-BA06-DC874E602ECA}" name="csf_function" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{8B114798-8119-45A5-AC98-80691A7F5743}" name="description" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{3B24CD29-2024-4E6C-8EA8-A2A27F71DB45}" name="annotation" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{6D87C08C-7195-4695-A258-EC8C5FBA7769}" name="name[fr]" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{05DA7DF2-5885-4810-9061-18E2243F317E}" name="description[fr]" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{4E63784C-6489-4DCD-AFDF-2126BE436F13}" name="annotation[fr]" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="Style de tableau 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D16BDFCB-B8D2-4F9D-906C-2230193C4279}" name="Tableau7" displayName="Tableau7" ref="A1:B4" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D16BDFCB-B8D2-4F9D-906C-2230193C4279}" name="Tableau7" displayName="Tableau7" ref="A1:B4" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A1:B4" xr:uid="{D16BDFCB-B8D2-4F9D-906C-2230193C4279}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{438C028E-BBB1-42A6-99B2-250AC16AFAC2}" name="prefix_id" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{A29B1659-A5F7-4CB7-96A6-4F3536BCB6B5}" name="prefix_value" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{438C028E-BBB1-42A6-99B2-250AC16AFAC2}" name="prefix_id" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{A29B1659-A5F7-4CB7-96A6-4F3536BCB6B5}" name="prefix_value" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="Style de tableau 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6509,7 +6524,7 @@
   </sheetPr>
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -8827,11 +8842,11 @@
   <sheetPr codeName="Feuil4">
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:S51"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8848,16 +8863,18 @@
     <col min="10" max="10" width="27.44140625" style="29" customWidth="1"/>
     <col min="11" max="11" width="44.44140625" style="29" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.44140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.44140625" style="29" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" style="69" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.109375" style="69" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" style="29" customWidth="1"/>
-    <col min="17" max="17" width="31.77734375" style="29" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21" style="29" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="39.109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="12.77734375" style="29" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" style="29" customWidth="1"/>
+    <col min="16" max="16" width="19.109375" style="69" customWidth="1"/>
+    <col min="17" max="17" width="23.109375" style="69" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5546875" style="29" customWidth="1"/>
+    <col min="19" max="19" width="31.77734375" style="29" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21" style="29" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="39.109375" style="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>31</v>
       </c>
@@ -8897,26 +8914,29 @@
       <c r="M1" s="36" t="s">
         <v>673</v>
       </c>
-      <c r="N1" s="67" t="s">
+      <c r="N1" s="36" t="s">
+        <v>683</v>
+      </c>
+      <c r="O1" s="67" t="s">
         <v>281</v>
       </c>
-      <c r="O1" s="73" t="s">
+      <c r="P1" s="73" t="s">
         <v>391</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="T1" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="37"/>
       <c r="B2" s="38">
         <v>1</v>
@@ -8936,16 +8956,17 @@
       <c r="K2" s="38"/>
       <c r="L2" s="38"/>
       <c r="M2" s="38"/>
-      <c r="N2" s="39"/>
+      <c r="N2" s="38"/>
       <c r="O2" s="39"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38" t="s">
+      <c r="P2" s="39"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="40"/>
-    </row>
-    <row r="3" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S2" s="38"/>
+      <c r="T2" s="40"/>
+    </row>
+    <row r="3" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37"/>
       <c r="B3" s="38" t="s">
         <v>52</v>
@@ -8969,22 +8990,23 @@
       <c r="K3" s="38"/>
       <c r="L3" s="38"/>
       <c r="M3" s="38"/>
-      <c r="N3" s="39"/>
+      <c r="N3" s="38"/>
       <c r="O3" s="39"/>
-      <c r="P3" s="38" t="s">
+      <c r="P3" s="39"/>
+      <c r="Q3" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="Q3" s="38" t="s">
+      <c r="R3" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="R3" s="38" t="s">
+      <c r="S3" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="S3" s="38" t="s">
+      <c r="T3" s="38" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="37"/>
       <c r="B4" s="38" t="s">
         <v>55</v>
@@ -9006,18 +9028,19 @@
       <c r="K4" s="38"/>
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
-      <c r="N4" s="39"/>
+      <c r="N4" s="38"/>
       <c r="O4" s="39"/>
-      <c r="P4" s="38" t="s">
+      <c r="P4" s="39"/>
+      <c r="Q4" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="Q4" s="38" t="s">
+      <c r="R4" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="R4" s="38"/>
-      <c r="S4" s="40"/>
-    </row>
-    <row r="5" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S4" s="38"/>
+      <c r="T4" s="40"/>
+    </row>
+    <row r="5" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
         <v>51</v>
       </c>
@@ -9039,24 +9062,25 @@
       <c r="I5" s="38"/>
       <c r="J5" s="38"/>
       <c r="K5" s="38" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>192</v>
       </c>
       <c r="M5" s="34"/>
-      <c r="N5" s="35"/>
+      <c r="N5" s="34"/>
       <c r="O5" s="35"/>
-      <c r="P5" s="38" t="s">
+      <c r="P5" s="35"/>
+      <c r="Q5" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="Q5" s="38" t="s">
+      <c r="R5" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="R5" s="38"/>
-      <c r="S5" s="40"/>
-    </row>
-    <row r="6" spans="1:19" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="S5" s="38"/>
+      <c r="T5" s="40"/>
+    </row>
+    <row r="6" spans="1:20" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
         <v>51</v>
       </c>
@@ -9086,20 +9110,21 @@
         <v>192</v>
       </c>
       <c r="M6" s="34"/>
-      <c r="N6" s="35"/>
+      <c r="N6" s="34"/>
       <c r="O6" s="35"/>
-      <c r="P6" s="38" t="s">
+      <c r="P6" s="35"/>
+      <c r="Q6" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="Q6" s="38" t="s">
+      <c r="R6" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="R6" s="38" t="s">
+      <c r="S6" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="S6" s="40"/>
-    </row>
-    <row r="7" spans="1:19" s="30" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T6" s="40"/>
+    </row>
+    <row r="7" spans="1:20" s="30" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
         <v>51</v>
       </c>
@@ -9129,18 +9154,19 @@
       <c r="M7" s="39"/>
       <c r="N7" s="39"/>
       <c r="O7" s="39"/>
-      <c r="P7" s="38" t="s">
+      <c r="P7" s="39"/>
+      <c r="Q7" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="Q7" s="38" t="s">
+      <c r="R7" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38" t="s">
+      <c r="S7" s="38"/>
+      <c r="T7" s="38" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
         <v>51</v>
       </c>
@@ -9166,22 +9192,23 @@
       <c r="K8" s="38"/>
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
-      <c r="N8" s="39"/>
+      <c r="N8" s="38"/>
       <c r="O8" s="39"/>
-      <c r="P8" s="38" t="s">
+      <c r="P8" s="39"/>
+      <c r="Q8" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="Q8" s="38" t="s">
+      <c r="R8" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="R8" s="38" t="s">
+      <c r="S8" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="S8" s="38" t="s">
+      <c r="T8" s="38" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
         <v>51</v>
       </c>
@@ -9203,16 +9230,17 @@
       <c r="K9" s="38"/>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
-      <c r="N9" s="39"/>
+      <c r="N9" s="38"/>
       <c r="O9" s="39"/>
-      <c r="P9" s="38" t="s">
+      <c r="P9" s="39"/>
+      <c r="Q9" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="Q9" s="38"/>
       <c r="R9" s="38"/>
-      <c r="S9" s="40"/>
-    </row>
-    <row r="10" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S9" s="38"/>
+      <c r="T9" s="40"/>
+    </row>
+    <row r="10" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
         <v>51</v>
       </c>
@@ -9232,16 +9260,17 @@
       <c r="K10" s="38"/>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
-      <c r="N10" s="39"/>
+      <c r="N10" s="38"/>
       <c r="O10" s="39"/>
-      <c r="P10" s="38" t="s">
+      <c r="P10" s="39"/>
+      <c r="Q10" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="Q10" s="38"/>
       <c r="R10" s="38"/>
-      <c r="S10" s="40"/>
-    </row>
-    <row r="11" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S10" s="38"/>
+      <c r="T10" s="40"/>
+    </row>
+    <row r="11" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
         <v>51</v>
       </c>
@@ -9265,18 +9294,19 @@
       <c r="K11" s="38"/>
       <c r="L11" s="38"/>
       <c r="M11" s="38"/>
-      <c r="N11" s="39"/>
+      <c r="N11" s="38"/>
       <c r="O11" s="39"/>
-      <c r="P11" s="38" t="s">
+      <c r="P11" s="39"/>
+      <c r="Q11" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="Q11" s="38" t="s">
+      <c r="R11" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="R11" s="38"/>
-      <c r="S11" s="40"/>
-    </row>
-    <row r="12" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S11" s="38"/>
+      <c r="T11" s="40"/>
+    </row>
+    <row r="12" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
         <v>51</v>
       </c>
@@ -9298,18 +9328,19 @@
       <c r="K12" s="38"/>
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
-      <c r="N12" s="39"/>
+      <c r="N12" s="38"/>
       <c r="O12" s="39"/>
-      <c r="P12" s="38" t="s">
+      <c r="P12" s="39"/>
+      <c r="Q12" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="Q12" s="38" t="s">
+      <c r="R12" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="R12" s="38"/>
-      <c r="S12" s="40"/>
-    </row>
-    <row r="13" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S12" s="38"/>
+      <c r="T12" s="40"/>
+    </row>
+    <row r="13" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
         <v>51</v>
       </c>
@@ -9333,18 +9364,19 @@
       <c r="K13" s="38"/>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
-      <c r="N13" s="39"/>
+      <c r="N13" s="38"/>
       <c r="O13" s="39"/>
-      <c r="P13" s="38" t="s">
+      <c r="P13" s="39"/>
+      <c r="Q13" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="Q13" s="38" t="s">
+      <c r="R13" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="R13" s="38"/>
-      <c r="S13" s="40"/>
-    </row>
-    <row r="14" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S13" s="38"/>
+      <c r="T13" s="40"/>
+    </row>
+    <row r="14" spans="1:20" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="37"/>
       <c r="B14" s="38" t="s">
         <v>57</v>
@@ -9362,18 +9394,19 @@
       <c r="K14" s="38"/>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39" t="s">
+      <c r="N14" s="38"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39" t="s">
         <v>531</v>
       </c>
-      <c r="P14" s="38" t="s">
+      <c r="Q14" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="Q14" s="38"/>
       <c r="R14" s="38"/>
-      <c r="S14" s="40"/>
-    </row>
-    <row r="15" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S14" s="38"/>
+      <c r="T14" s="40"/>
+    </row>
+    <row r="15" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="37" t="s">
         <v>51</v>
       </c>
@@ -9401,20 +9434,21 @@
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="74" t="s">
+      <c r="N15" s="17"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="74" t="s">
         <v>529</v>
       </c>
-      <c r="P15" s="38" t="s">
+      <c r="Q15" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38" t="s">
+      <c r="R15" s="38"/>
+      <c r="S15" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="S15" s="40"/>
-    </row>
-    <row r="16" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T15" s="40"/>
+    </row>
+    <row r="16" spans="1:20" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
         <v>51</v>
       </c>
@@ -9442,20 +9476,21 @@
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68" t="s">
+      <c r="N16" s="17"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68" t="s">
         <v>530</v>
       </c>
-      <c r="P16" s="38" t="s">
+      <c r="Q16" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="Q16" s="38"/>
       <c r="R16" s="38"/>
-      <c r="S16" s="38" t="s">
+      <c r="S16" s="38"/>
+      <c r="T16" s="38" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="30" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A17" s="37" t="s">
         <v>51</v>
       </c>
@@ -9483,22 +9518,23 @@
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68" t="s">
+      <c r="N17" s="17"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68" t="s">
         <v>532</v>
       </c>
-      <c r="P17" s="38" t="s">
+      <c r="Q17" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38" t="s">
+      <c r="R17" s="38"/>
+      <c r="S17" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="S17" s="38" t="s">
+      <c r="T17" s="38" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
         <v>51</v>
       </c>
@@ -9522,18 +9558,19 @@
       <c r="K18" s="38"/>
       <c r="L18" s="38"/>
       <c r="M18" s="38"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="68" t="s">
+      <c r="N18" s="38"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="68" t="s">
         <v>533</v>
       </c>
-      <c r="P18" s="38" t="s">
+      <c r="Q18" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="Q18" s="38"/>
       <c r="R18" s="38"/>
-      <c r="S18" s="40"/>
-    </row>
-    <row r="19" spans="1:19" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="S18" s="38"/>
+      <c r="T18" s="40"/>
+    </row>
+    <row r="19" spans="1:20" s="30" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
         <v>51</v>
       </c>
@@ -9557,20 +9594,21 @@
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
       <c r="M19" s="24"/>
-      <c r="N19" s="43" t="s">
+      <c r="N19" s="24"/>
+      <c r="O19" s="43" t="s">
         <v>534</v>
       </c>
-      <c r="O19" s="68" t="s">
+      <c r="P19" s="68" t="s">
         <v>535</v>
       </c>
-      <c r="P19" s="38" t="s">
+      <c r="Q19" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="Q19" s="38"/>
       <c r="R19" s="38"/>
-      <c r="S19" s="40"/>
-    </row>
-    <row r="20" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S19" s="38"/>
+      <c r="T19" s="40"/>
+    </row>
+    <row r="20" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
         <v>51</v>
       </c>
@@ -9594,18 +9632,19 @@
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68" t="s">
+      <c r="N20" s="17"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68" t="s">
         <v>541</v>
       </c>
-      <c r="P20" s="38" t="s">
+      <c r="Q20" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="Q20" s="38"/>
       <c r="R20" s="38"/>
-      <c r="S20" s="40"/>
-    </row>
-    <row r="21" spans="1:19" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="S20" s="38"/>
+      <c r="T20" s="40"/>
+    </row>
+    <row r="21" spans="1:20" s="30" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A21" s="37" t="s">
         <v>51</v>
       </c>
@@ -9625,18 +9664,19 @@
       <c r="K21" s="38"/>
       <c r="L21" s="38"/>
       <c r="M21" s="38"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39" t="s">
+      <c r="N21" s="38"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39" t="s">
         <v>542</v>
       </c>
-      <c r="P21" s="38" t="s">
+      <c r="Q21" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="Q21" s="38"/>
       <c r="R21" s="38"/>
-      <c r="S21" s="40"/>
-    </row>
-    <row r="22" spans="1:19" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="S21" s="38"/>
+      <c r="T21" s="40"/>
+    </row>
+    <row r="22" spans="1:20" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="37"/>
       <c r="B22" s="38" t="s">
         <v>68</v>
@@ -9658,20 +9698,21 @@
       <c r="K22" s="38"/>
       <c r="L22" s="38"/>
       <c r="M22" s="38"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39" t="s">
+      <c r="N22" s="38"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39" t="s">
         <v>544</v>
       </c>
-      <c r="P22" s="38" t="s">
+      <c r="Q22" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="Q22" s="38" t="s">
+      <c r="R22" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="R22" s="38"/>
-      <c r="S22" s="40"/>
-    </row>
-    <row r="23" spans="1:19" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="S22" s="38"/>
+      <c r="T22" s="40"/>
+    </row>
+    <row r="23" spans="1:20" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="37" t="s">
         <v>51</v>
       </c>
@@ -9691,20 +9732,21 @@
       <c r="K23" s="38"/>
       <c r="L23" s="38"/>
       <c r="M23" s="38"/>
-      <c r="N23" s="39" t="s">
+      <c r="N23" s="38"/>
+      <c r="O23" s="39" t="s">
         <v>380</v>
       </c>
-      <c r="O23" s="39" t="s">
+      <c r="P23" s="39" t="s">
         <v>543</v>
       </c>
-      <c r="P23" s="38" t="s">
+      <c r="Q23" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="Q23" s="38"/>
       <c r="R23" s="38"/>
-      <c r="S23" s="40"/>
-    </row>
-    <row r="24" spans="1:19" s="30" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="S23" s="38"/>
+      <c r="T23" s="40"/>
+    </row>
+    <row r="24" spans="1:20" s="30" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A24" s="37" t="s">
         <v>51</v>
       </c>
@@ -9724,18 +9766,19 @@
       <c r="K24" s="38"/>
       <c r="L24" s="38"/>
       <c r="M24" s="38"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39" t="s">
+      <c r="N24" s="38"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39" t="s">
         <v>545</v>
       </c>
-      <c r="P24" s="38" t="s">
+      <c r="Q24" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="Q24" s="38"/>
       <c r="R24" s="38"/>
-      <c r="S24" s="40"/>
-    </row>
-    <row r="25" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S24" s="38"/>
+      <c r="T24" s="40"/>
+    </row>
+    <row r="25" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="37" t="s">
         <v>51</v>
       </c>
@@ -9757,16 +9800,17 @@
       <c r="K25" s="38"/>
       <c r="L25" s="38"/>
       <c r="M25" s="38"/>
-      <c r="N25" s="39"/>
+      <c r="N25" s="38"/>
       <c r="O25" s="39"/>
-      <c r="P25" s="38" t="s">
+      <c r="P25" s="39"/>
+      <c r="Q25" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="Q25" s="38"/>
       <c r="R25" s="38"/>
-      <c r="S25" s="40"/>
-    </row>
-    <row r="26" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S25" s="38"/>
+      <c r="T25" s="40"/>
+    </row>
+    <row r="26" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="37" t="s">
         <v>51</v>
       </c>
@@ -9788,16 +9832,17 @@
       <c r="K26" s="38"/>
       <c r="L26" s="38"/>
       <c r="M26" s="38"/>
-      <c r="N26" s="39"/>
+      <c r="N26" s="38"/>
       <c r="O26" s="39"/>
-      <c r="P26" s="38" t="s">
+      <c r="P26" s="39"/>
+      <c r="Q26" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="Q26" s="38"/>
       <c r="R26" s="38"/>
-      <c r="S26" s="40"/>
-    </row>
-    <row r="27" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S26" s="38"/>
+      <c r="T26" s="40"/>
+    </row>
+    <row r="27" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="37" t="s">
         <v>51</v>
       </c>
@@ -9819,16 +9864,17 @@
       <c r="K27" s="38"/>
       <c r="L27" s="38"/>
       <c r="M27" s="38"/>
-      <c r="N27" s="39"/>
+      <c r="N27" s="38"/>
       <c r="O27" s="39"/>
-      <c r="P27" s="38" t="s">
+      <c r="P27" s="39"/>
+      <c r="Q27" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="Q27" s="38"/>
       <c r="R27" s="38"/>
-      <c r="S27" s="40"/>
-    </row>
-    <row r="28" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S27" s="38"/>
+      <c r="T27" s="40"/>
+    </row>
+    <row r="28" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="37"/>
       <c r="B28" s="38" t="s">
         <v>55</v>
@@ -9848,18 +9894,19 @@
       <c r="K28" s="38"/>
       <c r="L28" s="38"/>
       <c r="M28" s="38"/>
-      <c r="N28" s="39"/>
+      <c r="N28" s="38"/>
       <c r="O28" s="39"/>
-      <c r="P28" s="38" t="s">
+      <c r="P28" s="39"/>
+      <c r="Q28" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="Q28" s="38" t="s">
+      <c r="R28" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="R28" s="38"/>
-      <c r="S28" s="40"/>
-    </row>
-    <row r="29" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S28" s="38"/>
+      <c r="T28" s="40"/>
+    </row>
+    <row r="29" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="37"/>
       <c r="B29" s="38" t="s">
         <v>55</v>
@@ -9881,18 +9928,19 @@
       <c r="K29" s="38"/>
       <c r="L29" s="38"/>
       <c r="M29" s="38"/>
-      <c r="N29" s="39"/>
+      <c r="N29" s="38"/>
       <c r="O29" s="39"/>
-      <c r="P29" s="38" t="s">
+      <c r="P29" s="39"/>
+      <c r="Q29" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="Q29" s="38" t="s">
+      <c r="R29" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="R29" s="38"/>
-      <c r="S29" s="40"/>
-    </row>
-    <row r="30" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S29" s="38"/>
+      <c r="T29" s="40"/>
+    </row>
+    <row r="30" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="37"/>
       <c r="B30" s="38" t="s">
         <v>55</v>
@@ -9914,20 +9962,21 @@
       <c r="K30" s="38"/>
       <c r="L30" s="38"/>
       <c r="M30" s="38"/>
-      <c r="N30" s="39" t="s">
+      <c r="N30" s="38"/>
+      <c r="O30" s="39" t="s">
         <v>377</v>
       </c>
-      <c r="O30" s="39"/>
-      <c r="P30" s="38" t="s">
+      <c r="P30" s="39"/>
+      <c r="Q30" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="Q30" s="38" t="s">
+      <c r="R30" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="R30" s="38"/>
-      <c r="S30" s="40"/>
-    </row>
-    <row r="31" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S30" s="38"/>
+      <c r="T30" s="40"/>
+    </row>
+    <row r="31" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="41"/>
       <c r="B31" s="42" t="s">
         <v>55</v>
@@ -9949,20 +9998,21 @@
       <c r="K31" s="42"/>
       <c r="L31" s="42"/>
       <c r="M31" s="42"/>
-      <c r="N31" s="43" t="s">
+      <c r="N31" s="42"/>
+      <c r="O31" s="43" t="s">
         <v>378</v>
       </c>
-      <c r="O31" s="43"/>
-      <c r="P31" s="42" t="s">
+      <c r="P31" s="43"/>
+      <c r="Q31" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="Q31" s="38" t="s">
+      <c r="R31" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="R31" s="42"/>
-      <c r="S31" s="70"/>
-    </row>
-    <row r="32" spans="1:19" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="S31" s="42"/>
+      <c r="T31" s="70"/>
+    </row>
+    <row r="32" spans="1:20" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="41"/>
       <c r="B32" s="42" t="s">
         <v>5</v>
@@ -9980,18 +10030,19 @@
       <c r="K32" s="42"/>
       <c r="L32" s="42"/>
       <c r="M32" s="42"/>
-      <c r="N32" s="43" t="s">
+      <c r="N32" s="42"/>
+      <c r="O32" s="43" t="s">
         <v>379</v>
       </c>
-      <c r="O32" s="43"/>
-      <c r="P32" s="42" t="s">
+      <c r="P32" s="43"/>
+      <c r="Q32" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="Q32" s="42"/>
       <c r="R32" s="42"/>
-      <c r="S32" s="70"/>
-    </row>
-    <row r="33" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S32" s="42"/>
+      <c r="T32" s="70"/>
+    </row>
+    <row r="33" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="41" t="s">
         <v>51</v>
       </c>
@@ -10019,20 +10070,21 @@
         <v>212</v>
       </c>
       <c r="M33" s="42"/>
-      <c r="N33" s="43" t="s">
+      <c r="N33" s="42"/>
+      <c r="O33" s="43" t="s">
         <v>380</v>
       </c>
-      <c r="O33" s="43"/>
-      <c r="P33" s="38" t="s">
+      <c r="P33" s="43"/>
+      <c r="Q33" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="Q33" s="42" t="s">
+      <c r="R33" s="42" t="s">
         <v>217</v>
       </c>
-      <c r="R33" s="42"/>
-      <c r="S33" s="70"/>
-    </row>
-    <row r="34" spans="1:19" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="S33" s="42"/>
+      <c r="T33" s="70"/>
+    </row>
+    <row r="34" spans="1:21" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="41" t="s">
         <v>51</v>
       </c>
@@ -10062,16 +10114,17 @@
       <c r="M34" s="43"/>
       <c r="N34" s="43"/>
       <c r="O34" s="43"/>
-      <c r="P34" s="38" t="s">
+      <c r="P34" s="43"/>
+      <c r="Q34" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="Q34" s="42" t="s">
+      <c r="R34" s="42" t="s">
         <v>218</v>
       </c>
-      <c r="R34" s="38"/>
-      <c r="S34" s="40"/>
-    </row>
-    <row r="35" spans="1:19" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="S34" s="38"/>
+      <c r="T34" s="40"/>
+    </row>
+    <row r="35" spans="1:21" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="41" t="s">
         <v>51</v>
       </c>
@@ -10097,20 +10150,21 @@
         <v>527</v>
       </c>
       <c r="M35" s="42"/>
-      <c r="N35" s="43" t="s">
+      <c r="N35" s="42"/>
+      <c r="O35" s="43" t="s">
         <v>379</v>
       </c>
-      <c r="O35" s="43"/>
-      <c r="P35" s="38" t="s">
+      <c r="P35" s="43"/>
+      <c r="Q35" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="Q35" s="42" t="s">
+      <c r="R35" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="R35" s="38"/>
-      <c r="S35" s="40"/>
-    </row>
-    <row r="36" spans="1:19" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="S35" s="38"/>
+      <c r="T35" s="40"/>
+    </row>
+    <row r="36" spans="1:21" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="41"/>
       <c r="B36" s="38" t="s">
         <v>5</v>
@@ -10128,18 +10182,19 @@
       <c r="K36" s="38"/>
       <c r="L36" s="38"/>
       <c r="M36" s="42"/>
-      <c r="N36" s="43" t="s">
+      <c r="N36" s="42"/>
+      <c r="O36" s="43" t="s">
         <v>381</v>
       </c>
-      <c r="O36" s="43"/>
-      <c r="P36" s="38" t="s">
+      <c r="P36" s="43"/>
+      <c r="Q36" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="Q36" s="38"/>
       <c r="R36" s="38"/>
-      <c r="S36" s="40"/>
-    </row>
-    <row r="37" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S36" s="38"/>
+      <c r="T36" s="40"/>
+    </row>
+    <row r="37" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="41" t="s">
         <v>51</v>
       </c>
@@ -10161,20 +10216,21 @@
       <c r="K37" s="38"/>
       <c r="L37" s="38"/>
       <c r="M37" s="42"/>
-      <c r="N37" s="43" t="s">
+      <c r="N37" s="42"/>
+      <c r="O37" s="43" t="s">
         <v>382</v>
       </c>
-      <c r="O37" s="43"/>
-      <c r="P37" s="38" t="s">
+      <c r="P37" s="43"/>
+      <c r="Q37" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="Q37" s="42" t="s">
+      <c r="R37" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="R37" s="38"/>
-      <c r="S37" s="40"/>
-    </row>
-    <row r="38" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S37" s="38"/>
+      <c r="T37" s="40"/>
+    </row>
+    <row r="38" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="41" t="s">
         <v>51</v>
       </c>
@@ -10198,18 +10254,19 @@
       <c r="K38" s="38"/>
       <c r="L38" s="38"/>
       <c r="M38" s="38"/>
-      <c r="N38" s="39"/>
+      <c r="N38" s="38"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="38" t="s">
+      <c r="P38" s="39"/>
+      <c r="Q38" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="Q38" s="42" t="s">
+      <c r="R38" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="R38" s="38"/>
-      <c r="S38" s="40"/>
-    </row>
-    <row r="39" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S38" s="38"/>
+      <c r="T38" s="40"/>
+    </row>
+    <row r="39" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="41" t="s">
         <v>51</v>
       </c>
@@ -10231,18 +10288,19 @@
       <c r="K39" s="42"/>
       <c r="L39" s="42"/>
       <c r="M39" s="42"/>
-      <c r="N39" s="43"/>
+      <c r="N39" s="42"/>
       <c r="O39" s="43"/>
-      <c r="P39" s="38" t="s">
+      <c r="P39" s="43"/>
+      <c r="Q39" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="Q39" s="42" t="s">
+      <c r="R39" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="R39" s="42"/>
-      <c r="S39" s="70"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S39" s="42"/>
+      <c r="T39" s="70"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="37"/>
       <c r="B40" s="38" t="s">
         <v>5</v>
@@ -10262,14 +10320,16 @@
       <c r="K40" s="38"/>
       <c r="L40" s="38"/>
       <c r="M40" s="38"/>
-      <c r="N40" s="39"/>
+      <c r="N40" s="38"/>
       <c r="O40" s="39"/>
-      <c r="P40" s="38"/>
+      <c r="P40" s="39"/>
       <c r="Q40" s="38"/>
       <c r="R40" s="38"/>
-      <c r="S40" s="40"/>
-    </row>
-    <row r="41" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="S40" s="38"/>
+      <c r="T40" s="40"/>
+      <c r="U40"/>
+    </row>
+    <row r="41" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="37" t="s">
         <v>51</v>
       </c>
@@ -10293,16 +10353,20 @@
         <v>558</v>
       </c>
       <c r="M41" s="39" t="s">
-        <v>680</v>
-      </c>
-      <c r="N41" s="39"/>
+        <v>682</v>
+      </c>
+      <c r="N41" s="39" t="s">
+        <v>685</v>
+      </c>
       <c r="O41" s="39"/>
-      <c r="P41" s="38"/>
+      <c r="P41" s="39"/>
       <c r="Q41" s="38"/>
       <c r="R41" s="38"/>
-      <c r="S41" s="40"/>
-    </row>
-    <row r="42" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="S41" s="38"/>
+      <c r="T41" s="40"/>
+      <c r="U41"/>
+    </row>
+    <row r="42" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="37" t="s">
         <v>51</v>
       </c>
@@ -10328,12 +10392,14 @@
       <c r="M42" s="39"/>
       <c r="N42" s="39"/>
       <c r="O42" s="39"/>
-      <c r="P42" s="38"/>
+      <c r="P42" s="39"/>
       <c r="Q42" s="38"/>
       <c r="R42" s="38"/>
-      <c r="S42" s="40"/>
-    </row>
-    <row r="43" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="S42" s="38"/>
+      <c r="T42" s="40"/>
+      <c r="U42"/>
+    </row>
+    <row r="43" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="37" t="s">
         <v>51</v>
       </c>
@@ -10359,14 +10425,18 @@
       <c r="M43" s="39" t="s">
         <v>681</v>
       </c>
-      <c r="N43" s="39"/>
+      <c r="N43" s="39" t="s">
+        <v>684</v>
+      </c>
       <c r="O43" s="39"/>
-      <c r="P43" s="38"/>
+      <c r="P43" s="39"/>
       <c r="Q43" s="38"/>
       <c r="R43" s="38"/>
-      <c r="S43" s="40"/>
-    </row>
-    <row r="44" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="S43" s="38"/>
+      <c r="T43" s="40"/>
+      <c r="U43"/>
+    </row>
+    <row r="44" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="37" t="s">
         <v>51</v>
       </c>
@@ -10389,15 +10459,21 @@
       <c r="L44" s="39" t="s">
         <v>647</v>
       </c>
-      <c r="M44" s="39"/>
-      <c r="N44" s="39"/>
+      <c r="M44" s="39" t="s">
+        <v>686</v>
+      </c>
+      <c r="N44" s="39" t="s">
+        <v>687</v>
+      </c>
       <c r="O44" s="39"/>
-      <c r="P44" s="38"/>
+      <c r="P44" s="39"/>
       <c r="Q44" s="38"/>
       <c r="R44" s="38"/>
-      <c r="S44" s="40"/>
-    </row>
-    <row r="45" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="S44" s="38"/>
+      <c r="T44" s="40"/>
+      <c r="U44"/>
+    </row>
+    <row r="45" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="37" t="s">
         <v>51</v>
       </c>
@@ -10423,12 +10499,14 @@
       <c r="M45" s="39"/>
       <c r="N45" s="39"/>
       <c r="O45" s="39"/>
-      <c r="P45" s="38"/>
+      <c r="P45" s="39"/>
       <c r="Q45" s="38"/>
       <c r="R45" s="38"/>
-      <c r="S45" s="40"/>
-    </row>
-    <row r="46" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+      <c r="S45" s="38"/>
+      <c r="T45" s="40"/>
+      <c r="U45"/>
+    </row>
+    <row r="46" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A46" s="37" t="s">
         <v>51</v>
       </c>
@@ -10454,12 +10532,14 @@
       <c r="M46" s="39"/>
       <c r="N46" s="39"/>
       <c r="O46" s="39"/>
-      <c r="P46" s="38"/>
+      <c r="P46" s="39"/>
       <c r="Q46" s="38"/>
       <c r="R46" s="38"/>
-      <c r="S46" s="40"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S46" s="38"/>
+      <c r="T46" s="40"/>
+      <c r="U46"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="37" t="s">
         <v>51</v>
       </c>
@@ -10483,14 +10563,16 @@
         <v>587</v>
       </c>
       <c r="M47" s="38"/>
-      <c r="N47" s="39"/>
+      <c r="N47" s="38"/>
       <c r="O47" s="39"/>
-      <c r="P47" s="38"/>
+      <c r="P47" s="39"/>
       <c r="Q47" s="38"/>
       <c r="R47" s="38"/>
-      <c r="S47" s="40"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S47" s="38"/>
+      <c r="T47" s="40"/>
+      <c r="U47"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="37" t="s">
         <v>51</v>
       </c>
@@ -10514,14 +10596,16 @@
         <v>588</v>
       </c>
       <c r="M48" s="38"/>
-      <c r="N48" s="39"/>
+      <c r="N48" s="38"/>
       <c r="O48" s="39"/>
-      <c r="P48" s="38"/>
+      <c r="P48" s="39"/>
       <c r="Q48" s="38"/>
       <c r="R48" s="38"/>
-      <c r="S48" s="40"/>
-    </row>
-    <row r="49" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="S48" s="38"/>
+      <c r="T48" s="40"/>
+      <c r="U48"/>
+    </row>
+    <row r="49" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="37" t="s">
         <v>51</v>
       </c>
@@ -10545,14 +10629,16 @@
         <v>589</v>
       </c>
       <c r="M49" s="38"/>
-      <c r="N49" s="39"/>
+      <c r="N49" s="38"/>
       <c r="O49" s="39"/>
-      <c r="P49" s="38"/>
+      <c r="P49" s="39"/>
       <c r="Q49" s="38"/>
       <c r="R49" s="38"/>
-      <c r="S49" s="40"/>
-    </row>
-    <row r="50" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="S49" s="38"/>
+      <c r="T49" s="40"/>
+      <c r="U49"/>
+    </row>
+    <row r="50" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A50" s="37" t="s">
         <v>51</v>
       </c>
@@ -10578,12 +10664,14 @@
       <c r="M50" s="39"/>
       <c r="N50" s="39"/>
       <c r="O50" s="39"/>
-      <c r="P50" s="38"/>
+      <c r="P50" s="39"/>
       <c r="Q50" s="38"/>
       <c r="R50" s="38"/>
-      <c r="S50" s="40"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S50" s="38"/>
+      <c r="T50" s="40"/>
+      <c r="U50"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="37" t="s">
         <v>51</v>
       </c>
@@ -10607,12 +10695,14 @@
         <v>594</v>
       </c>
       <c r="M51" s="38"/>
-      <c r="N51" s="39"/>
+      <c r="N51" s="38"/>
       <c r="O51" s="39"/>
-      <c r="P51" s="38"/>
+      <c r="P51" s="39"/>
       <c r="Q51" s="38"/>
       <c r="R51" s="38"/>
-      <c r="S51" s="40"/>
+      <c r="S51" s="38"/>
+      <c r="T51" s="40"/>
+      <c r="U51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
@@ -10868,8 +10958,8 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/tools/example_framework.xlsx
+++ b/tools/example_framework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tarkadia\projects\intuitem\ciso-assistant-community\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA59B32F-CADC-46F5-9032-3B98C54E3E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87A7793-45E9-43AE-9EE8-37EFED941508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="36" windowWidth="18996" windowHeight="11136" tabRatio="907" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="6" r:id="rId1"/>
@@ -169,7 +169,7 @@
     <author>.</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{63F3DD49-AC84-4453-83B9-904214676A75}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{940F0AB1-F4B0-4737-B66D-3373AA35955C}">
       <text>
         <r>
           <rPr>
@@ -179,7 +179,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>.: About assessable :.</t>
+          <t xml:space="preserve">.: About assessable :.
+</t>
         </r>
         <r>
           <rPr>
@@ -188,8 +189,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-Must be "x" or empty. If "x", the requirement will be assessable. </t>
+          <t xml:space="preserve">Must be "x" or empty. If "x", the requirement will be assessable. </t>
         </r>
       </text>
     </comment>
@@ -241,7 +241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{ABA1387F-AC1B-4F67-88A8-C88D9838F6BE}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{83FBDFDD-E613-4BF3-A6A5-A89F19C9C7AB}">
       <text>
         <r>
           <rPr>
@@ -251,7 +251,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>.: About description :.</t>
+          <t xml:space="preserve">.: About description :.
+</t>
         </r>
         <r>
           <rPr>
@@ -260,60 +261,20 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-The "name" value can be left empty, but only if "ref_id" and/or "name" is not empty.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{436E4881-F554-4666-9FED-63D11D71ADAB}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>.: About importance :.</t>
+          <t xml:space="preserve">The </t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">
-One among "mandatory"/"recommended"/"nice to have"/"undefined" or empty (= "undefined"). Default value is "undefined".</t>
+          <t>"description" value can be left empty, but only if "ref_id" and/or "name" is not empty.</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{47BB6C26-1C2C-476B-B204-9DEB3EA261AE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>.: About weight :.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Positive integer "&gt;= 1". Used for score weighting. The default weight (if undefined) is "1".</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{347BCED0-BF7D-4AC6-B110-E741C99D2332}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{347BCED0-BF7D-4AC6-B110-E741C99D2332}">
       <text>
         <r>
           <rPr>
@@ -337,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{79FD3605-3568-455D-9CFD-FA756BC48EBD}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{79FD3605-3568-455D-9CFD-FA756BC48EBD}">
       <text>
         <r>
           <rPr>
@@ -361,7 +322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{6C4C16E2-0266-48C9-A7E3-FE00882B887F}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{6C4C16E2-0266-48C9-A7E3-FE00882B887F}">
       <text>
         <r>
           <rPr>
@@ -385,79 +346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{C45248D8-529C-468A-A61B-363749C41ACC}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>.: About depends_on :.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Format: "</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>question_line</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">choice_lines"
-Set "undefined" if the question depends on nothing. See cell notes at </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>lines 41 and 43</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> of this column for better understanding.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{9DF94410-D1CA-448F-BD60-59EAD2557609}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{9DF94410-D1CA-448F-BD60-59EAD2557609}">
       <text>
         <r>
           <rPr>
@@ -481,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{781B3B90-5C6F-4C56-B7DD-C93B8542FECF}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{781B3B90-5C6F-4C56-B7DD-C93B8542FECF}">
       <text>
         <r>
           <rPr>
@@ -505,660 +394,11 @@
         </r>
       </text>
     </comment>
-    <comment ref="M41" authorId="0" shapeId="0" xr:uid="{9ED5C739-3B16-4DDF-A345-DAEEB2310E3C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>.: 1st Line :.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Means that the </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1st question</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (</t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Where is it?</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">) depends on nothing.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>.: 2nd Line :.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Means that the </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2nd question</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (</t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Who is it?</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">) depends on the </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Question 1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (</t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Where is it?</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">) -&gt; </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Choice 1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> of the question (</t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>A1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">).
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>.: 3rd Line :.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Means that the </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>3rd question</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (</t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>What is it?</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">) depends on the </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Question 2</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (</t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Who is it?</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">) -&gt; </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Choice 1 or 3</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> of the question (</t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>A1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> or </t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>C1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M43" authorId="0" shapeId="0" xr:uid="{9A8B5413-B6B8-4CA6-B461-03079E5EAE3E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">.: Line 1 :.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>The</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 1st Question</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (</t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Question 4?</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>) depends on nothing because a question cannot depend on itself.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-.: Line 2 &amp; 3 :.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Means that the </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2nd and 3rd Questions</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (</t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Question 5?</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> and </t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Question 6?</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">) depends on the </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Question 1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (</t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Question 4?</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">) -&gt; </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Choice 1, 2 or 3</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> of the question (</t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>A4</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> ; </t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>B4</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> ; </t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>C4</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>).</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>.</author>
-  </authors>
-  <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{528F70AA-3317-4E0C-99F6-00A856BC63D0}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>.: About default_selected :.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Must be "x" or empty. If "x", the implementation group is selected by default when creating an audit with the framework.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>.</author>
@@ -1212,153 +452,11 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{A9E4409E-42F7-4B20-A435-566D8695840C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>.: About description :.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Usable if question_type is "unique_choice" or "multiple_choice".
-Each description is separated by line breaks. To make a description written on several lines, start the next line with a "|".</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{EB4FB77D-3033-4671-B0DF-7B3CD8887562}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>.:  About select_implementation_groups :.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Usable if question_type is "unique_choice" or "multiple_choice".
-A choice provokes the selection of the indicated Implementation Groups (IG). For the same choice, separate IGs with commas. To define IGs for each choice, separate IG groups with line breaks. Set "/undefined" or an empty cell for no IG.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{B1BF6062-D04D-48C0-98D0-C1380202D75F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>.: About add_score :.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Usable if question_type is "unique_choice" or "multiple_choice".
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Positive or negative integer. The score is calculated based on this choice. All values selected within a requirement assessment are summed, and the sum is clipped by the scale. Each score is separated by line breaks.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{764BF123-22CA-46E9-8EAE-45D094A28C7E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>.: Aboout compute_result :.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Usable if question_type is "unique_choice" or "multiple_choice".
-Boolean/None. True = "true" ; False = "false" ; None = "undefined" or empty cell. If true, this choice contributes to compliance. If false, this choice contributes to non-compliance. If empty, the choice contributes to nothing. Each boolean is separated by line breaks.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{61FB1504-7F3D-4363-831E-3E126EF71EE7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>.: About color :.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Hexadecimal value. Format = "#xxxxxx" ; None = "undefined" or empty cell. Each choice color is separated by line breaks.</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>.</author>
@@ -1416,7 +514,7 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>.</author>
@@ -1520,7 +618,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="548">
   <si>
     <t>type</t>
   </si>
@@ -2185,6 +1283,9 @@
   </si>
   <si>
     <t>answer</t>
+  </si>
+  <si>
+    <t>Is it true ?</t>
   </si>
   <si>
     <t>Is a) respected?
@@ -3376,565 +2477,12 @@
   <si>
     <t>When creating a library, keep only the tabs that are necessary. For example, if no implementation groups are used, remove the corresponding tabs.</t>
   </si>
-  <si>
-    <t>default_selected</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>importance</t>
-  </si>
-  <si>
-    <t>mandatory</t>
-  </si>
-  <si>
-    <t>nice to have</t>
-  </si>
-  <si>
-    <t>undefined</t>
-  </si>
-  <si>
-    <t>recommended</t>
-  </si>
-  <si>
-    <t>add_score</t>
-  </si>
-  <si>
-    <t>select_implementation_groups</t>
-  </si>
-  <si>
-    <t>compute_result</t>
-  </si>
-  <si>
-    <t>TEST1</t>
-  </si>
-  <si>
-    <t>TEST2</t>
-  </si>
-  <si>
-    <t>TEST3</t>
-  </si>
-  <si>
-    <t>testgrp1</t>
-  </si>
-  <si>
-    <t>testgrp2</t>
-  </si>
-  <si>
-    <t>testgrp3</t>
-  </si>
-  <si>
-    <t>Test Group 1</t>
-  </si>
-  <si>
-    <t>Test Group 2</t>
-  </si>
-  <si>
-    <t>Test Group 3</t>
-  </si>
-  <si>
-    <t>Groupe de Test 1</t>
-  </si>
-  <si>
-    <t>Groupe de Test 2</t>
-  </si>
-  <si>
-    <t>Groupe de Test 3</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>FALSE</t>
-  </si>
-  <si>
-    <t>TEST4</t>
-  </si>
-  <si>
-    <t>TEST5</t>
-  </si>
-  <si>
-    <t>TEST6</t>
-  </si>
-  <si>
-    <t>TEST7</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>TEST8</t>
-  </si>
-  <si>
-    <t>TEST9</t>
-  </si>
-  <si>
-    <t>TEST10</t>
-  </si>
-  <si>
-    <t>TEST11</t>
-  </si>
-  <si>
-    <t>TEST12</t>
-  </si>
-  <si>
-    <t>TEST13</t>
-  </si>
-  <si>
-    <t>TEST14</t>
-  </si>
-  <si>
-    <t>TEST15</t>
-  </si>
-  <si>
-    <t>TEST16</t>
-  </si>
-  <si>
-    <t>TEST17</t>
-  </si>
-  <si>
-    <t>TEST18</t>
-  </si>
-  <si>
-    <t>TEST19</t>
-  </si>
-  <si>
-    <t>TEST20</t>
-  </si>
-  <si>
-    <t>TEST21</t>
-  </si>
-  <si>
-    <t>TEST22</t>
-  </si>
-  <si>
-    <t>TEST23</t>
-  </si>
-  <si>
-    <t>TEST24</t>
-  </si>
-  <si>
-    <t>TEST25</t>
-  </si>
-  <si>
-    <t>A1
-B1
-C1</t>
-  </si>
-  <si>
-    <t>A2
-B2
-C2</t>
-  </si>
-  <si>
-    <t>A3
-B3
-C3</t>
-  </si>
-  <si>
-    <t>A4
-B4
-C4</t>
-  </si>
-  <si>
-    <t>A15
-B15
-C15</t>
-  </si>
-  <si>
-    <t>A16
-B16
-C16</t>
-  </si>
-  <si>
-    <t>A17
-B17
-C17</t>
-  </si>
-  <si>
-    <t>A18
-B18
-C18</t>
-  </si>
-  <si>
-    <t>A19
-B19
-C19</t>
-  </si>
-  <si>
-    <t>A20
-B20
-C20</t>
-  </si>
-  <si>
-    <t>A21
-B21
-C21</t>
-  </si>
-  <si>
-    <t>A22
-B22
-C22</t>
-  </si>
-  <si>
-    <t>A23
-B23
-C23</t>
-  </si>
-  <si>
-    <t>A24
-B24
-C24</t>
-  </si>
-  <si>
-    <t>A25
-B25
-C25</t>
-  </si>
-  <si>
-    <t>A5
-B5
-C5</t>
-  </si>
-  <si>
-    <t>A6
-B6
-C6</t>
-  </si>
-  <si>
-    <t>Description
-| on multiple lines
-| for every choice</t>
-  </si>
-  <si>
-    <t>Description for every choice</t>
-  </si>
-  <si>
-    <t>testgrp1
-testgrp2
-testgrp3</t>
-  </si>
-  <si>
-    <t>testgrp2,testgrp3
-testgrp2,
-testgrp3,testgrp1</t>
-  </si>
-  <si>
-    <t>A7
-B7
-C7</t>
-  </si>
-  <si>
-    <t>A8
-B8
-C8</t>
-  </si>
-  <si>
-    <t>A9
-B9
-C9</t>
-  </si>
-  <si>
-    <t>A10
-B10
-C10</t>
-  </si>
-  <si>
-    <t>A11
-B11
-C11</t>
-  </si>
-  <si>
-    <t>A12
-B12
-C12</t>
-  </si>
-  <si>
-    <t>A13
-B13
-C13</t>
-  </si>
-  <si>
-    <t>A14
-B14
-C14</t>
-  </si>
-  <si>
-    <t>Description 1
-Description 2
-Description 1, but longer</t>
-  </si>
-  <si>
-    <t>#81cc18</t>
-  </si>
-  <si>
-    <t>8
--2
--3</t>
-  </si>
-  <si>
-    <t>#81cc18
-#ccbd18
-#cc2d18</t>
-  </si>
-  <si>
-    <t>-22
-14
-13</t>
-  </si>
-  <si>
-    <t>testgrp1
-testgrp1
-testgrp3</t>
-  </si>
-  <si>
-    <t>#cc18b1</t>
-  </si>
-  <si>
-    <t>#c3aefc
-#ccbd18
-#c3aefc</t>
-  </si>
-  <si>
-    <t>Description 4
-Description 5
-Super Long Description</t>
-  </si>
-  <si>
-    <t>Description for every choice 3</t>
-  </si>
-  <si>
-    <t>Description for every choice 2</t>
-  </si>
-  <si>
-    <t>Description 7
-Description 8
-Super Long Description 2</t>
-  </si>
-  <si>
-    <t>#fcaefa</t>
-  </si>
-  <si>
-    <t>FALSE
-FALSE
-TRUE</t>
-  </si>
-  <si>
-    <t>#c3aefc</t>
-  </si>
-  <si>
-    <t>Description
-| on multiple lines
-| for every choice 2</t>
-  </si>
-  <si>
-    <t>grp003, testgrp2</t>
-  </si>
-  <si>
-    <t>Desc999</t>
-  </si>
-  <si>
-    <t>#999999</t>
-  </si>
-  <si>
-    <t>Questions</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>TEST2
-TEST3</t>
-  </si>
-  <si>
-    <t>TEST4
-TEST5
-TEST6</t>
-  </si>
-  <si>
-    <t>TEST7
-TEST8
-TEST9</t>
-  </si>
-  <si>
-    <t>TEST10
-TEST11
-TEST12</t>
-  </si>
-  <si>
-    <t>TEST13
-TEST14
-TEST15
-TEST16
-TEST17</t>
-  </si>
-  <si>
-    <t>TEST21
-TEST22
-TEST23
-TEST24</t>
-  </si>
-  <si>
-    <t>Where is it?
-Who is it?
-What is it?</t>
-  </si>
-  <si>
-    <t>Question 2?
-Question 3?</t>
-  </si>
-  <si>
-    <t>Question 4?
-Question 5?
-Question 6?</t>
-  </si>
-  <si>
-    <t>Question 7?
-Question 8?
-Question 9?</t>
-  </si>
-  <si>
-    <t>Question 10?
-Question 11?
-Question 12?</t>
-  </si>
-  <si>
-    <t>Question 13?
-Question 14?
-Question 15?
-Question 16?
-Question 17?</t>
-  </si>
-  <si>
-    <t>Question 18?</t>
-  </si>
-  <si>
-    <t>Question 19?</t>
-  </si>
-  <si>
-    <t>Question 25?</t>
-  </si>
-  <si>
-    <t>Question 21?
-Question 22?
-Question 23?
-Question 24?</t>
-  </si>
-  <si>
-    <t>Why is it true?
-Who said that?
-What caused that?</t>
-  </si>
-  <si>
-    <t>Questions (Part 1)</t>
-  </si>
-  <si>
-    <t>Questions (Part 2)</t>
-  </si>
-  <si>
-    <t>Questions (Part 3)</t>
-  </si>
-  <si>
-    <t>Questions (Part 4)</t>
-  </si>
-  <si>
-    <t>Questions (Part 5)</t>
-  </si>
-  <si>
-    <t>Questions (Part 6)</t>
-  </si>
-  <si>
-    <t>Questions (Part 7)</t>
-  </si>
-  <si>
-    <t>Questions (Part 8)</t>
-  </si>
-  <si>
-    <t>Questions (Part 9)</t>
-  </si>
-  <si>
-    <t>Questions (Part 10)</t>
-  </si>
-  <si>
-    <t>Questions (Part 11)</t>
-  </si>
-  <si>
-    <t>depends_on</t>
-  </si>
-  <si>
-    <t>FALSE
-TRUE
-UNDEFINED</t>
-  </si>
-  <si>
-    <t>Description
-| on multiple lines
-| for Choice 1
-Description of Choice 2
-Description of Choice 3</t>
-  </si>
-  <si>
-    <t>#fcaeb6
-#aefcf5
-UNDEFINED</t>
-  </si>
-  <si>
-    <t>UNDEFINED
-UNDEFINED
-#00aa00</t>
-  </si>
-  <si>
-    <t>-22
-0
-13</t>
-  </si>
-  <si>
-    <t>testgrp3
-/UNDEFINED
-testgrp2, grp001</t>
-  </si>
-  <si>
-    <t>Is it true?</t>
-  </si>
-  <si>
-    <t>1:1,2,3</t>
-  </si>
-  <si>
-    <t>UNDEFINED
-1:1
-2:1,3</t>
-  </si>
-  <si>
-    <t>condition</t>
-  </si>
-  <si>
-    <t>UNDEFINED
-any
-all</t>
-  </si>
-  <si>
-    <t>any</t>
-  </si>
-  <si>
-    <t>2:1,2
-UNDEFINED
-2:3</t>
-  </si>
-  <si>
-    <t>any
-UNDEFINED
-any</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4109,33 +2657,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -4421,7 +2942,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4509,6 +3030,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4625,41 +3152,77 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4679,24 +3242,6 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4706,15 +3251,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4731,78 +3267,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="81">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="65">
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -5339,204 +3810,10 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -5545,25 +3822,6 @@
           <color indexed="64"/>
         </left>
         <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -5791,26 +4049,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -5861,44 +4099,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -6114,69 +4314,63 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{549B97EC-A4EC-467D-95D4-C91A5E59F559}" name="Tableau1" displayName="Tableau1" ref="A1:T51" totalsRowShown="0" headerRowDxfId="80" dataDxfId="78" headerRowBorderDxfId="79" tableBorderDxfId="77" totalsRowBorderDxfId="76">
-  <autoFilter ref="A1:T51" xr:uid="{549B97EC-A4EC-467D-95D4-C91A5E59F559}"/>
-  <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{D7929412-2C04-48B2-B421-6EC19B1F374C}" name="assessable" dataDxfId="75"/>
-    <tableColumn id="2" xr3:uid="{BAC0F5CA-29D7-460A-BD72-3F9E24C9732F}" name="depth" dataDxfId="74"/>
-    <tableColumn id="3" xr3:uid="{92C5BE2B-42CA-458E-8D3C-CC37002D48BD}" name="ref_id" dataDxfId="73"/>
-    <tableColumn id="4" xr3:uid="{9F7C5816-5FCC-476D-B6FA-AE433ADEABCC}" name="name" dataDxfId="72"/>
-    <tableColumn id="5" xr3:uid="{2650FBAE-CAA9-4751-AB1F-D901BDE6D752}" name="description" dataDxfId="71"/>
-    <tableColumn id="6" xr3:uid="{552D82DF-7C98-4797-9A2D-D4FDA52D98AF}" name="annotation" dataDxfId="70"/>
-    <tableColumn id="7" xr3:uid="{E61773D4-D778-4312-A49F-8A5758A995E8}" name="typical_evidence" dataDxfId="69"/>
-    <tableColumn id="19" xr3:uid="{DFBF3465-BE6B-4017-8F87-57A82780A75B}" name="importance" dataDxfId="68"/>
-    <tableColumn id="18" xr3:uid="{12A7028D-E894-47CA-AEF9-9E602B1E4657}" name="weight" dataDxfId="67"/>
-    <tableColumn id="8" xr3:uid="{41549C1C-81F1-4DC9-AF3E-D66557AB55EA}" name="implementation_groups" dataDxfId="66"/>
-    <tableColumn id="14" xr3:uid="{AFF985E6-291A-441C-8DEF-8F4448E20722}" name="questions" dataDxfId="65"/>
-    <tableColumn id="13" xr3:uid="{22C6C123-59A8-4006-974A-AEC9BDF7B9C5}" name="answer" dataDxfId="64"/>
-    <tableColumn id="17" xr3:uid="{DF10B870-B9C4-4D6A-8C84-F0105D4909E5}" name="depends_on" dataDxfId="63"/>
-    <tableColumn id="20" xr3:uid="{4DFC0890-3949-485D-8686-867538D659D0}" name="condition" dataDxfId="0"/>
-    <tableColumn id="15" xr3:uid="{98B369E5-A92E-4F40-ABC5-965BF81E342E}" name="threats" dataDxfId="62"/>
-    <tableColumn id="16" xr3:uid="{12E0FCEA-DE2D-4475-972C-17BB204562B1}" name="reference_controls" dataDxfId="61"/>
-    <tableColumn id="9" xr3:uid="{D92464D6-5A4E-46A6-B30C-5054FBC689EF}" name="name[fr]" dataDxfId="60"/>
-    <tableColumn id="10" xr3:uid="{582EF74A-B398-41A0-ACCF-D0452C1A56EF}" name="description[fr]" dataDxfId="59"/>
-    <tableColumn id="11" xr3:uid="{EA0E2718-3825-4A77-B686-8C594E64AC01}" name="annotation[fr]" dataDxfId="58"/>
-    <tableColumn id="12" xr3:uid="{CB66FA06-DCF3-44C6-A079-7B12A457972F}" name="typical_evidence[fr]" dataDxfId="57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{549B97EC-A4EC-467D-95D4-C91A5E59F559}" name="Tableau1" displayName="Tableau1" ref="A1:P39" totalsRowShown="0" headerRowDxfId="64" dataDxfId="62" headerRowBorderDxfId="63" tableBorderDxfId="61" totalsRowBorderDxfId="60">
+  <autoFilter ref="A1:P39" xr:uid="{549B97EC-A4EC-467D-95D4-C91A5E59F559}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{D7929412-2C04-48B2-B421-6EC19B1F374C}" name="assessable" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{BAC0F5CA-29D7-460A-BD72-3F9E24C9732F}" name="depth" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{92C5BE2B-42CA-458E-8D3C-CC37002D48BD}" name="ref_id" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{9F7C5816-5FCC-476D-B6FA-AE433ADEABCC}" name="name" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{2650FBAE-CAA9-4751-AB1F-D901BDE6D752}" name="description" dataDxfId="55"/>
+    <tableColumn id="6" xr3:uid="{552D82DF-7C98-4797-9A2D-D4FDA52D98AF}" name="annotation" dataDxfId="54"/>
+    <tableColumn id="7" xr3:uid="{E61773D4-D778-4312-A49F-8A5758A995E8}" name="typical_evidence" dataDxfId="53"/>
+    <tableColumn id="8" xr3:uid="{41549C1C-81F1-4DC9-AF3E-D66557AB55EA}" name="implementation_groups" dataDxfId="52"/>
+    <tableColumn id="14" xr3:uid="{AFF985E6-291A-441C-8DEF-8F4448E20722}" name="questions" dataDxfId="51"/>
+    <tableColumn id="13" xr3:uid="{22C6C123-59A8-4006-974A-AEC9BDF7B9C5}" name="answer" dataDxfId="50"/>
+    <tableColumn id="15" xr3:uid="{98B369E5-A92E-4F40-ABC5-965BF81E342E}" name="threats" dataDxfId="49"/>
+    <tableColumn id="16" xr3:uid="{12E0FCEA-DE2D-4475-972C-17BB204562B1}" name="reference_controls" dataDxfId="48"/>
+    <tableColumn id="9" xr3:uid="{D92464D6-5A4E-46A6-B30C-5054FBC689EF}" name="name[fr]" dataDxfId="47"/>
+    <tableColumn id="10" xr3:uid="{582EF74A-B398-41A0-ACCF-D0452C1A56EF}" name="description[fr]" dataDxfId="46"/>
+    <tableColumn id="11" xr3:uid="{EA0E2718-3825-4A77-B686-8C594E64AC01}" name="annotation[fr]" dataDxfId="45"/>
+    <tableColumn id="12" xr3:uid="{CB66FA06-DCF3-44C6-A079-7B12A457972F}" name="typical_evidence[fr]" dataDxfId="44"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="Style de tableau 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{095154CE-6DE0-439C-B5AB-1118C37DCAF4}" name="Tableau2" displayName="Tableau2" ref="A1:F8" totalsRowShown="0" dataDxfId="55" headerRowBorderDxfId="56" tableBorderDxfId="54" totalsRowBorderDxfId="53">
-  <autoFilter ref="A1:F8" xr:uid="{095154CE-6DE0-439C-B5AB-1118C37DCAF4}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{BB7E1ECB-4B2B-4222-B69C-FDF7FCF7F451}" name="ref_id" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{AA129DE3-6969-4BE8-8FD1-B74529AF31A8}" name="name" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{7980BF69-F795-4B15-9518-5B07FE2675D7}" name="description" dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{924732DF-B0AD-42F7-8C31-80F3FDB545EE}" name="default_selected" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{245E3F68-8E07-4115-ADB2-6D2D1DB60F36}" name="name[fr]" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{7C50CF1F-76A2-4CDB-B985-67AE9549E305}" name="description[fr]" dataDxfId="47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{095154CE-6DE0-439C-B5AB-1118C37DCAF4}" name="Tableau2" displayName="Tableau2" ref="A1:E5" totalsRowShown="0" dataDxfId="42" headerRowBorderDxfId="43" tableBorderDxfId="41" totalsRowBorderDxfId="40">
+  <autoFilter ref="A1:E5" xr:uid="{095154CE-6DE0-439C-B5AB-1118C37DCAF4}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{BB7E1ECB-4B2B-4222-B69C-FDF7FCF7F451}" name="ref_id" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{AA129DE3-6969-4BE8-8FD1-B74529AF31A8}" name="name" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{7980BF69-F795-4B15-9518-5B07FE2675D7}" name="description" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{245E3F68-8E07-4115-ADB2-6D2D1DB60F36}" name="name[fr]" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{7C50CF1F-76A2-4CDB-B985-67AE9549E305}" name="description[fr]" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="Style de tableau 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3429E788-61C1-4DE4-9CF3-671C9CE643FD}" name="Tableau4" displayName="Tableau4" ref="A1:H32" totalsRowShown="0" headerRowDxfId="46" headerRowBorderDxfId="45" tableBorderDxfId="44" totalsRowBorderDxfId="43">
-  <autoFilter ref="A1:H32" xr:uid="{3429E788-61C1-4DE4-9CF3-671C9CE643FD}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{162F889E-4877-4ACE-958A-41755715A824}" name="id" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{8EAFDB25-CF89-4029-A9FB-4244A3FEAF92}" name="question_type" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{6047ECFC-47B1-4CF1-856C-62F6C1E20455}" name="question_choices" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{70F917A4-A4E5-42C0-BA3B-5A06AF583DC2}" name="description" dataDxfId="39"/>
-    <tableColumn id="7" xr3:uid="{A4A01147-E50D-4259-A705-6F2FDEB19F26}" name="select_implementation_groups" dataDxfId="38"/>
-    <tableColumn id="9" xr3:uid="{F9FB2847-10A0-4A69-ADCC-E8F7C6DF7416}" name="add_score" dataDxfId="37"/>
-    <tableColumn id="8" xr3:uid="{FFF5444F-8BD1-4B79-95F0-B652925F370E}" name="compute_result" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{46F6EBDF-F10D-485F-B69E-C9B51DF11F40}" name="color" dataDxfId="35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C7B78881-4183-44AE-BDF4-F6BDECF9D936}" name="Tableau4" displayName="Tableau4" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="34">
+  <autoFilter ref="A1:C1048576" xr:uid="{C7B78881-4183-44AE-BDF4-F6BDECF9D936}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F801AE0F-E094-475A-BBD2-F4BED2F83A76}" name="id"/>
+    <tableColumn id="2" xr3:uid="{A757A91E-E1E2-42B6-B9FA-05A8E662DDFB}" name="question_type"/>
+    <tableColumn id="3" xr3:uid="{3B4BED2F-474E-4360-811D-84D93A45CD4B}" name="question_choices"/>
   </tableColumns>
   <tableStyleInfo name="Style de tableau 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8AB0205B-E51F-4004-809C-4673837E5B05}" name="Tableau5" displayName="Tableau5" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="33" tableBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8AB0205B-E51F-4004-809C-4673837E5B05}" name="Tableau5" displayName="Tableau5" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32" tableBorderDxfId="31">
   <autoFilter ref="A1:E1048576" xr:uid="{8AB0205B-E51F-4004-809C-4673837E5B05}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{881914C9-040C-42B4-91FE-05BC90988F70}" name="score"/>
@@ -6190,45 +4384,45 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{21DED0C8-7237-47BF-8873-738C4400D3DB}" name="Tableau14" displayName="Tableau14" ref="A1:G26" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="30" tableBorderDxfId="29" totalsRowBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{21DED0C8-7237-47BF-8873-738C4400D3DB}" name="Tableau14" displayName="Tableau14" ref="A1:G26" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="29" tableBorderDxfId="28" totalsRowBorderDxfId="27">
   <autoFilter ref="A1:G26" xr:uid="{32B00483-E3F9-4C14-B125-41886D9D0F23}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2F9E1637-D442-4022-8B78-23492F1B2FD4}" name="ref_id" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{1990900A-E9A9-4853-8F63-DC439067075E}" name="name" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{E03E16C2-E13E-458D-A24A-3C34A91E3DF2}" name="description" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{5ECFEFFA-B045-45BD-A6D7-4E11C3283380}" name="annotation" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{4F645D7B-245A-416B-9E6F-06323318E6E2}" name="name[fr]" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{E7094BA8-F77D-4F12-A3F8-7928936A0D2E}" name="description[fr]" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{B9C14FC4-B603-427E-A7F4-CACF10F7A085}" name="annotation[fr]" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{2F9E1637-D442-4022-8B78-23492F1B2FD4}" name="ref_id" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{1990900A-E9A9-4853-8F63-DC439067075E}" name="name" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{E03E16C2-E13E-458D-A24A-3C34A91E3DF2}" name="description" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{5ECFEFFA-B045-45BD-A6D7-4E11C3283380}" name="annotation" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{4F645D7B-245A-416B-9E6F-06323318E6E2}" name="name[fr]" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{E7094BA8-F77D-4F12-A3F8-7928936A0D2E}" name="description[fr]" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{B9C14FC4-B603-427E-A7F4-CACF10F7A085}" name="annotation[fr]" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="Style de tableau 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6DCAA1FD-DB86-4E15-8E31-AC99AB9F45D4}" name="Tableau3" displayName="Tableau3" ref="A1:I27" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6DCAA1FD-DB86-4E15-8E31-AC99AB9F45D4}" name="Tableau3" displayName="Tableau3" ref="A1:I27" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
   <autoFilter ref="A1:I27" xr:uid="{4748F8BA-F2F9-4976-90F0-1D6F9F26191B}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{15A5B4EF-24CA-4813-9A39-8D55A540B838}" name="ref_id" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{541E38F3-C3CB-49DA-B177-2A1749008A5B}" name="name" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{F2BC8545-6F89-4E86-8E77-5E4AA7C0033E}" name="category" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{2D6C7622-7C26-46E8-BA06-DC874E602ECA}" name="csf_function" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{8B114798-8119-45A5-AC98-80691A7F5743}" name="description" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{3B24CD29-2024-4E6C-8EA8-A2A27F71DB45}" name="annotation" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{6D87C08C-7195-4695-A258-EC8C5FBA7769}" name="name[fr]" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{05DA7DF2-5885-4810-9061-18E2243F317E}" name="description[fr]" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{4E63784C-6489-4DCD-AFDF-2126BE436F13}" name="annotation[fr]" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{15A5B4EF-24CA-4813-9A39-8D55A540B838}" name="ref_id" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{541E38F3-C3CB-49DA-B177-2A1749008A5B}" name="name" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{F2BC8545-6F89-4E86-8E77-5E4AA7C0033E}" name="category" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{2D6C7622-7C26-46E8-BA06-DC874E602ECA}" name="csf_function" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{8B114798-8119-45A5-AC98-80691A7F5743}" name="description" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{3B24CD29-2024-4E6C-8EA8-A2A27F71DB45}" name="annotation" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{6D87C08C-7195-4695-A258-EC8C5FBA7769}" name="name[fr]" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{05DA7DF2-5885-4810-9061-18E2243F317E}" name="description[fr]" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{4E63784C-6489-4DCD-AFDF-2126BE436F13}" name="annotation[fr]" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="Style de tableau 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D16BDFCB-B8D2-4F9D-906C-2230193C4279}" name="Tableau7" displayName="Tableau7" ref="A1:B4" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D16BDFCB-B8D2-4F9D-906C-2230193C4279}" name="Tableau7" displayName="Tableau7" ref="A1:B4" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <autoFilter ref="A1:B4" xr:uid="{D16BDFCB-B8D2-4F9D-906C-2230193C4279}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{438C028E-BBB1-42A6-99B2-250AC16AFAC2}" name="prefix_id" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{A29B1659-A5F7-4CB7-96A6-4F3536BCB6B5}" name="prefix_value" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{438C028E-BBB1-42A6-99B2-250AC16AFAC2}" name="prefix_id" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{A29B1659-A5F7-4CB7-96A6-4F3536BCB6B5}" name="prefix_value" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Style de tableau 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6524,391 +4718,411 @@
   </sheetPr>
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="17.109375" customWidth="1"/>
-    <col min="13" max="13" width="34.109375" customWidth="1"/>
+    <col min="13" max="13" width="34.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="62.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="115"/>
-    </row>
-    <row r="2" spans="1:13" ht="42.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="116" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="96"/>
+    </row>
+    <row r="2" spans="1:13" ht="42.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="97" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="99"/>
+    </row>
+    <row r="3" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="100" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="102"/>
+    </row>
+    <row r="4" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="85" t="s">
+        <v>258</v>
+      </c>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="81"/>
+    </row>
+    <row r="5" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="90" t="s">
+        <v>259</v>
+      </c>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="79" t="s">
+        <v>266</v>
+      </c>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="81"/>
+    </row>
+    <row r="6" spans="1:13" ht="19.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="93" t="s">
+        <v>254</v>
+      </c>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="79" t="s">
+        <v>267</v>
+      </c>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="81"/>
+    </row>
+    <row r="7" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="89" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="79" t="s">
+        <v>277</v>
+      </c>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="81"/>
+    </row>
+    <row r="8" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="88" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="79" t="s">
         <v>268</v>
       </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="118"/>
-    </row>
-    <row r="3" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="100"/>
-    </row>
-    <row r="4" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="122" t="s">
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="81"/>
+    </row>
+    <row r="9" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="87" t="s">
         <v>257</v>
       </c>
-      <c r="B4" s="123"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="95" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="97"/>
-    </row>
-    <row r="5" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="104" t="s">
-        <v>258</v>
-      </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="95" t="s">
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="79" t="s">
+        <v>271</v>
+      </c>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="81"/>
+    </row>
+    <row r="10" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="82" t="s">
+        <v>274</v>
+      </c>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="79" t="s">
+        <v>270</v>
+      </c>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="81"/>
+    </row>
+    <row r="11" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="83" t="s">
+        <v>275</v>
+      </c>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="79" t="s">
+        <v>280</v>
+      </c>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="81"/>
+    </row>
+    <row r="12" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="84" t="s">
+        <v>276</v>
+      </c>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="79" t="s">
+        <v>281</v>
+      </c>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="81"/>
+    </row>
+    <row r="13" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="103" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="103"/>
+      <c r="C13" s="104" t="s">
+        <v>547</v>
+      </c>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="105"/>
+    </row>
+    <row r="14" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="102"/>
+    </row>
+    <row r="15" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="115" t="s">
+        <v>260</v>
+      </c>
+      <c r="B15" s="116"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="79" t="s">
         <v>265</v>
       </c>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="97"/>
-    </row>
-    <row r="6" spans="1:13" ht="19.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="127" t="s">
-        <v>253</v>
-      </c>
-      <c r="B6" s="127"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="95" t="s">
-        <v>266</v>
-      </c>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="97"/>
-    </row>
-    <row r="7" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="126" t="s">
-        <v>254</v>
-      </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="95" t="s">
-        <v>276</v>
-      </c>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="97"/>
-    </row>
-    <row r="8" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="125" t="s">
-        <v>255</v>
-      </c>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="95" t="s">
-        <v>267</v>
-      </c>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="97"/>
-    </row>
-    <row r="9" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="124" t="s">
-        <v>256</v>
-      </c>
-      <c r="B9" s="124"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="124"/>
-      <c r="G9" s="95" t="s">
-        <v>270</v>
-      </c>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="97"/>
-    </row>
-    <row r="10" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="119" t="s">
-        <v>273</v>
-      </c>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="95" t="s">
-        <v>269</v>
-      </c>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="97"/>
-    </row>
-    <row r="11" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="120" t="s">
-        <v>274</v>
-      </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="95" t="s">
-        <v>279</v>
-      </c>
-      <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="97"/>
-    </row>
-    <row r="12" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="121" t="s">
-        <v>275</v>
-      </c>
-      <c r="B12" s="121"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="95" t="s">
-        <v>280</v>
-      </c>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="97"/>
-    </row>
-    <row r="13" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="89" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="89"/>
-      <c r="C13" s="90" t="s">
-        <v>546</v>
-      </c>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
-    </row>
-    <row r="14" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="98" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="99"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="100"/>
-    </row>
-    <row r="15" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="110" t="s">
-        <v>259</v>
-      </c>
-      <c r="B15" s="111"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="95" t="s">
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="81"/>
+    </row>
+    <row r="16" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="90" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="81"/>
+    </row>
+    <row r="17" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="112" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="79" t="s">
+        <v>262</v>
+      </c>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="81"/>
+    </row>
+    <row r="18" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="109" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="110"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="79" t="s">
+        <v>263</v>
+      </c>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="81"/>
+    </row>
+    <row r="19" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="106" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="107"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="81"/>
+    </row>
+    <row r="20" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="103" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="103"/>
+      <c r="C20" s="104" t="s">
         <v>264</v>
       </c>
-      <c r="H15" s="96"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="96"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="97"/>
-    </row>
-    <row r="16" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="105"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="95" t="s">
-        <v>260</v>
-      </c>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="97"/>
-    </row>
-    <row r="17" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="107" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="108"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="95" t="s">
-        <v>261</v>
-      </c>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="97"/>
-    </row>
-    <row r="18" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="101" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="102"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="95" t="s">
-        <v>262</v>
-      </c>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="97"/>
-    </row>
-    <row r="19" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="92" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="97"/>
-    </row>
-    <row r="20" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="89"/>
-      <c r="C20" s="90" t="s">
-        <v>263</v>
-      </c>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="91"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="105"/>
+      <c r="L20" s="105"/>
+      <c r="M20" s="105"/>
     </row>
     <row r="21" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:M19"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:M13"/>
+    <mergeCell ref="A14:M14"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:M16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:M17"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:M15"/>
+    <mergeCell ref="G7:M7"/>
+    <mergeCell ref="G8:M8"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
     <mergeCell ref="G9:M9"/>
     <mergeCell ref="G12:M12"/>
     <mergeCell ref="G4:M4"/>
@@ -6925,26 +5139,6 @@
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="G5:M5"/>
     <mergeCell ref="G6:M6"/>
-    <mergeCell ref="G7:M7"/>
-    <mergeCell ref="G8:M8"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:M19"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:M13"/>
-    <mergeCell ref="A14:M14"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:M18"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:M16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:M17"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6962,19 +5156,19 @@
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.77734375" customWidth="1"/>
-    <col min="3" max="3" width="54.77734375" customWidth="1"/>
+    <col min="3" max="3" width="54.88671875" customWidth="1"/>
     <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="55.33203125" customWidth="1"/>
     <col min="6" max="6" width="22.109375" customWidth="1"/>
-    <col min="7" max="7" width="49.77734375" style="44" customWidth="1"/>
+    <col min="7" max="7" width="49.77734375" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>10</v>
@@ -6988,124 +5182,124 @@
       <c r="E1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="47"/>
+      <c r="G1" s="49"/>
     </row>
     <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="38">
+      <c r="A2" s="40">
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2" s="47"/>
+      <c r="G2" s="48"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="40">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" s="47"/>
+      <c r="G3" s="48"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="40">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="40">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" s="47"/>
+      <c r="G5" s="48"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="40">
+        <v>4</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>229</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="40">
+        <v>5</v>
+      </c>
+      <c r="B7" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C7" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="D2" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="E2" s="49" t="s">
-        <v>236</v>
-      </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="46"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="38">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>243</v>
-      </c>
-      <c r="D3" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>237</v>
-      </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="38">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>239</v>
-      </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="46"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="38">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>227</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>238</v>
-      </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="46"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="38">
-        <v>4</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>246</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>228</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="38">
-        <v>5</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>247</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C8" s="44"/>
+      <c r="C8" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7136,8 +5330,8 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
-        <v>281</v>
+      <c r="B1" s="58" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -7145,7 +5339,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -7168,593 +5362,593 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="44" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="46" customWidth="1"/>
     <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="17.109375" style="44" customWidth="1"/>
+    <col min="9" max="10" width="17.109375" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="65" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
-        <v>284</v>
-      </c>
-      <c r="B2" s="58" t="s">
-        <v>309</v>
+      <c r="A2" s="63" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>310</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>332</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>341</v>
+        <v>333</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>342</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="61" t="s">
-        <v>285</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>310</v>
+      <c r="A3" s="63" t="s">
+        <v>286</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>311</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D3" s="31"/>
-      <c r="E3" s="58" t="s">
-        <v>343</v>
+      <c r="E3" s="60" t="s">
+        <v>344</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="61" t="s">
-        <v>286</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>311</v>
+      <c r="A4" s="63" t="s">
+        <v>287</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>312</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="31" t="s">
-        <v>446</v>
-      </c>
-      <c r="E4" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="F4" s="31" t="s">
         <v>345</v>
       </c>
-      <c r="F4" s="31" t="s">
-        <v>344</v>
-      </c>
       <c r="G4" s="31" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="61" t="s">
-        <v>287</v>
-      </c>
-      <c r="B5" s="58" t="s">
-        <v>312</v>
+      <c r="A5" s="63" t="s">
+        <v>288</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>313</v>
       </c>
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
-      <c r="E5" s="58" t="s">
-        <v>346</v>
+      <c r="E5" s="60" t="s">
+        <v>347</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="61" t="s">
-        <v>288</v>
-      </c>
-      <c r="B6" s="58" t="s">
-        <v>383</v>
+      <c r="A6" s="63" t="s">
+        <v>289</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>384</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
-      <c r="E6" s="58" t="s">
-        <v>420</v>
+      <c r="E6" s="60" t="s">
+        <v>421</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="61" t="s">
-        <v>300</v>
-      </c>
-      <c r="B7" s="58" t="s">
-        <v>313</v>
+      <c r="A7" s="63" t="s">
+        <v>301</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>314</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
-      <c r="E7" s="58" t="s">
-        <v>347</v>
+      <c r="E7" s="60" t="s">
+        <v>348</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="61" t="s">
-        <v>301</v>
-      </c>
-      <c r="B8" s="58" t="s">
-        <v>314</v>
+      <c r="A8" s="63" t="s">
+        <v>302</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>315</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
-      <c r="E8" s="58" t="s">
-        <v>348</v>
+      <c r="E8" s="60" t="s">
+        <v>349</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="61" t="s">
-        <v>289</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>315</v>
+      <c r="A9" s="63" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>316</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
-      <c r="E9" s="58" t="s">
-        <v>363</v>
+      <c r="E9" s="60" t="s">
+        <v>364</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="61" t="s">
-        <v>290</v>
+      <c r="A10" s="63" t="s">
+        <v>291</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="31" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="61" t="s">
-        <v>291</v>
+      <c r="A11" s="63" t="s">
+        <v>292</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="31" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="61" t="s">
-        <v>292</v>
+      <c r="A12" s="63" t="s">
+        <v>293</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="31" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="61" t="s">
-        <v>293</v>
+      <c r="A13" s="63" t="s">
+        <v>294</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C13" s="31"/>
       <c r="D13" s="31" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="61" t="s">
-        <v>294</v>
+      <c r="A14" s="63" t="s">
+        <v>295</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="31" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="61" t="s">
-        <v>295</v>
+      <c r="A15" s="63" t="s">
+        <v>296</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D15" s="31"/>
       <c r="E15" s="31" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="61" t="s">
-        <v>296</v>
+      <c r="A16" s="63" t="s">
+        <v>297</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="31" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I16"/>
       <c r="J16"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="61" t="s">
-        <v>297</v>
+      <c r="A17" s="63" t="s">
+        <v>298</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D17" s="31"/>
       <c r="E17" s="31" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I17"/>
       <c r="J17"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="61" t="s">
-        <v>298</v>
+      <c r="A18" s="63" t="s">
+        <v>299</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D18" s="31"/>
       <c r="E18" s="31" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="61" t="s">
-        <v>299</v>
+      <c r="A19" s="63" t="s">
+        <v>300</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
       <c r="E19" s="31" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I19"/>
       <c r="J19"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="61" t="s">
-        <v>302</v>
-      </c>
-      <c r="B20" s="58" t="s">
-        <v>384</v>
+      <c r="A20" s="63" t="s">
+        <v>303</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>385</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>339</v>
-      </c>
-      <c r="E20" s="58" t="s">
-        <v>462</v>
+        <v>340</v>
+      </c>
+      <c r="E20" s="60" t="s">
+        <v>463</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G20" s="31" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="61" t="s">
-        <v>303</v>
-      </c>
-      <c r="B21" s="58" t="s">
-        <v>385</v>
+      <c r="A21" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="B21" s="60" t="s">
+        <v>386</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D21" s="31"/>
-      <c r="E21" s="58" t="s">
-        <v>463</v>
+      <c r="E21" s="60" t="s">
+        <v>464</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I21"/>
       <c r="J21"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
-        <v>304</v>
-      </c>
-      <c r="B22" s="58" t="s">
-        <v>386</v>
-      </c>
-      <c r="C22" s="64"/>
+      <c r="A22" s="63" t="s">
+        <v>305</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="C22" s="66"/>
       <c r="D22" s="31" t="s">
-        <v>340</v>
-      </c>
-      <c r="E22" s="58" t="s">
-        <v>464</v>
-      </c>
-      <c r="F22" s="64" t="s">
-        <v>344</v>
-      </c>
-      <c r="G22" s="64" t="s">
-        <v>350</v>
+        <v>341</v>
+      </c>
+      <c r="E22" s="60" t="s">
+        <v>465</v>
+      </c>
+      <c r="F22" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="G22" s="66" t="s">
+        <v>351</v>
       </c>
       <c r="I22"/>
       <c r="J22"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="61" t="s">
-        <v>305</v>
-      </c>
-      <c r="B23" s="58" t="s">
-        <v>387</v>
-      </c>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="58" t="s">
-        <v>465</v>
-      </c>
-      <c r="F23" s="64" t="s">
-        <v>344</v>
-      </c>
-      <c r="G23" s="64" t="s">
-        <v>344</v>
+      <c r="A23" s="63" t="s">
+        <v>306</v>
+      </c>
+      <c r="B23" s="60" t="s">
+        <v>388</v>
+      </c>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="60" t="s">
+        <v>466</v>
+      </c>
+      <c r="F23" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="G23" s="66" t="s">
+        <v>345</v>
       </c>
       <c r="I23"/>
       <c r="J23"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="61" t="s">
-        <v>306</v>
-      </c>
-      <c r="B24" s="58" t="s">
-        <v>388</v>
-      </c>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="58" t="s">
-        <v>466</v>
-      </c>
-      <c r="F24" s="64" t="s">
-        <v>344</v>
-      </c>
-      <c r="G24" s="64" t="s">
-        <v>344</v>
+      <c r="A24" s="63" t="s">
+        <v>307</v>
+      </c>
+      <c r="B24" s="60" t="s">
+        <v>389</v>
+      </c>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="60" t="s">
+        <v>467</v>
+      </c>
+      <c r="F24" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="G24" s="66" t="s">
+        <v>345</v>
       </c>
       <c r="I24"/>
       <c r="J24"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="61" t="s">
-        <v>307</v>
-      </c>
-      <c r="B25" s="58" t="s">
-        <v>389</v>
+      <c r="A25" s="63" t="s">
+        <v>308</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>390</v>
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
-      <c r="E25" s="58" t="s">
-        <v>467</v>
+      <c r="E25" s="60" t="s">
+        <v>468</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I25"/>
       <c r="J25"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="61" t="s">
-        <v>308</v>
-      </c>
-      <c r="B26" s="58" t="s">
-        <v>390</v>
+      <c r="A26" s="63" t="s">
+        <v>309</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>391</v>
       </c>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
-      <c r="E26" s="58" t="s">
-        <v>468</v>
+      <c r="E26" s="60" t="s">
+        <v>469</v>
       </c>
       <c r="F26" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G26" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I26"/>
       <c r="J26"/>
@@ -7783,15 +5977,15 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="45.44140625" customWidth="1"/>
+    <col min="2" max="2" width="45.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
-        <v>391</v>
+      <c r="B1" s="58" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -7799,7 +5993,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -7815,7 +6009,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B4" sqref="B4"/>
       <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
@@ -7823,653 +6017,653 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="31.77734375" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.77734375" customWidth="1"/>
-    <col min="5" max="5" width="33.109375" style="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.21875" style="46" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:9" s="59" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="64" t="s">
+        <v>394</v>
+      </c>
+      <c r="D1" s="64" t="s">
         <v>393</v>
       </c>
-      <c r="D1" s="62" t="s">
-        <v>392</v>
-      </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="65" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
       <c r="E2" s="31" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
       <c r="E3" s="31" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F3" s="31"/>
       <c r="G3" s="31" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
       <c r="F4" s="31" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
       <c r="F5" s="31"/>
       <c r="G5" s="31" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
       <c r="F6" s="31"/>
       <c r="G6" s="31" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
       <c r="F7" s="31"/>
       <c r="G7" s="31" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D8" s="31"/>
       <c r="E8" s="31"/>
       <c r="F8" s="31"/>
       <c r="G8" s="31" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
+        <v>523</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>524</v>
+      </c>
+      <c r="C9" s="31" t="s">
         <v>522</v>
       </c>
-      <c r="B9" s="31" t="s">
-        <v>523</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>521</v>
-      </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
       <c r="G9" s="31" t="s">
-        <v>524</v>
-      </c>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
+        <v>525</v>
+      </c>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="31" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E10" s="31"/>
       <c r="F10" s="31"/>
       <c r="G10" s="31" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="31" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E11" s="31"/>
       <c r="F11" s="31" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="31" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E12" s="31"/>
       <c r="F12" s="31" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C13" s="31"/>
       <c r="D13" s="31" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E13" s="31"/>
       <c r="F13" s="31" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C14" s="31"/>
       <c r="D14" s="31" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E14" s="31"/>
       <c r="F14" s="31" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C15" s="31"/>
       <c r="D15" s="31" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="31" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="31" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="31" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D18" s="31"/>
       <c r="E18" s="31" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F18" s="31"/>
       <c r="G18" s="31" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="31" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
       <c r="E19" s="31" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="31" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
       <c r="F20" s="31"/>
       <c r="G20" s="31" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="31" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
       <c r="E22" s="31" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F22" s="31"/>
       <c r="G22" s="31" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H22" s="31" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="I22" s="31"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="31" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D23" s="31"/>
       <c r="E23" s="31"/>
       <c r="F23" s="31" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
       <c r="E24" s="31"/>
       <c r="F24" s="31"/>
       <c r="G24" s="31" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="31" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
       <c r="E25" s="31"/>
       <c r="F25" s="31"/>
       <c r="G25" s="31" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I25" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
       <c r="E26" s="31"/>
       <c r="F26" s="31"/>
       <c r="G26" s="31" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="31" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C27" s="31"/>
       <c r="D27" s="31"/>
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
       <c r="G27" s="31" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -8502,8 +6696,8 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
-        <v>374</v>
+      <c r="B1" s="58" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -8530,34 +6724,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>375</v>
-      </c>
-      <c r="B1" s="66" t="s">
         <v>376</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="65" t="s">
-        <v>283</v>
+      <c r="B2" s="67" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="65" t="s">
-        <v>528</v>
+      <c r="B3" s="67" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="65" t="s">
-        <v>540</v>
+      <c r="B4" s="67" t="s">
+        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -8583,17 +6777,17 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="108.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="108.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
     </row>
@@ -8601,7 +6795,7 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="36" t="s">
         <v>3</v>
       </c>
     </row>
@@ -8609,7 +6803,7 @@
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="36" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8617,7 +6811,7 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="36" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8625,7 +6819,7 @@
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="36" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8633,7 +6827,7 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="36" t="s">
         <v>11</v>
       </c>
     </row>
@@ -8641,7 +6835,7 @@
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="37" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8649,7 +6843,7 @@
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="36" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8657,7 +6851,7 @@
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="36" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8665,23 +6859,23 @@
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="36" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="76" t="s">
-        <v>538</v>
+      <c r="A11" s="78" t="s">
+        <v>539</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="36" t="s">
         <v>20</v>
       </c>
     </row>
@@ -8689,7 +6883,7 @@
       <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="36" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8697,7 +6891,7 @@
       <c r="A14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="36" t="s">
         <v>24</v>
       </c>
     </row>
@@ -8718,17 +6912,17 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="108.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="108.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="57" t="s">
         <v>25</v>
       </c>
     </row>
@@ -8753,7 +6947,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -8768,7 +6962,7 @@
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="35" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8776,7 +6970,7 @@
       <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="53" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8784,31 +6978,31 @@
       <c r="A8" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="54" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="52" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="52" t="s">
+        <v>250</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="52" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="50" t="s">
-        <v>248</v>
-      </c>
-      <c r="B9" s="52" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="50" t="s">
-        <v>249</v>
-      </c>
-      <c r="B10" s="53" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="50" t="s">
-        <v>250</v>
-      </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="55" t="s">
         <v>68</v>
       </c>
     </row>
@@ -8842,39 +7036,34 @@
   <sheetPr codeName="Feuil4">
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:U51"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M43" sqref="M43"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" style="29" customWidth="1"/>
     <col min="2" max="2" width="10.77734375" style="29" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="29" customWidth="1"/>
-    <col min="4" max="4" width="18" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.44140625" style="29" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.44140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="29" customWidth="1"/>
-    <col min="10" max="10" width="27.44140625" style="29" customWidth="1"/>
-    <col min="11" max="11" width="44.44140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="12.77734375" style="29" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" style="29" customWidth="1"/>
-    <col min="16" max="16" width="19.109375" style="69" customWidth="1"/>
-    <col min="17" max="17" width="23.109375" style="69" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5546875" style="29" customWidth="1"/>
-    <col min="19" max="19" width="31.77734375" style="29" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21" style="29" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="39.109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5546875" style="29" customWidth="1"/>
+    <col min="9" max="9" width="43" style="29" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" style="71" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.109375" style="71" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" style="29" customWidth="1"/>
+    <col min="14" max="14" width="31.88671875" style="29" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21" style="29" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="39.21875" style="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>31</v>
       </c>
@@ -8896,1819 +7085,1227 @@
       <c r="G1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>550</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>548</v>
-      </c>
-      <c r="J1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="I1" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="J1" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="M1" s="36" t="s">
-        <v>673</v>
-      </c>
-      <c r="N1" s="36" t="s">
-        <v>683</v>
-      </c>
-      <c r="O1" s="67" t="s">
-        <v>281</v>
-      </c>
-      <c r="P1" s="73" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q1" s="14" t="s">
+      <c r="K1" s="69" t="s">
+        <v>282</v>
+      </c>
+      <c r="L1" s="75" t="s">
+        <v>392</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="P1" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38">
+    <row r="2" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="39"/>
+      <c r="B2" s="40">
         <v>1</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38" t="s">
+      <c r="D2" s="40"/>
+      <c r="E2" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38" t="s">
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="S2" s="38"/>
-      <c r="T2" s="40"/>
-    </row>
-    <row r="3" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38" t="s">
+      <c r="O2" s="40"/>
+      <c r="P2" s="42"/>
+    </row>
+    <row r="3" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="39"/>
+      <c r="B3" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="38" t="s">
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="R3" s="38" t="s">
+      <c r="N3" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="S3" s="38" t="s">
+      <c r="O3" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="T3" s="38" t="s">
+      <c r="P3" s="40" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38" t="s">
+    <row r="4" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="39"/>
+      <c r="B4" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="38" t="s">
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="R4" s="38" t="s">
+      <c r="N4" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="S4" s="38"/>
-      <c r="T4" s="40"/>
-    </row>
-    <row r="5" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="O4" s="40"/>
+      <c r="P4" s="42"/>
+    </row>
+    <row r="5" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38" t="s">
-        <v>551</v>
-      </c>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38" t="s">
-        <v>680</v>
-      </c>
-      <c r="L5" s="34" t="s">
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="J5" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="38" t="s">
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="R5" s="38" t="s">
+      <c r="N5" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="S5" s="38"/>
-      <c r="T5" s="40"/>
-    </row>
-    <row r="6" spans="1:20" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="O5" s="40"/>
+      <c r="P5" s="42"/>
+    </row>
+    <row r="6" spans="1:16" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38" t="s">
+      <c r="C6" s="40"/>
+      <c r="D6" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38" t="s">
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="N6" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="O6" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="P6" s="42"/>
+    </row>
+    <row r="7" spans="1:16" s="30" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="J7" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="N7" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="N8" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="O8" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="42"/>
+    </row>
+    <row r="10" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="42"/>
+    </row>
+    <row r="11" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="N11" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="O11" s="40"/>
+      <c r="P11" s="42"/>
+    </row>
+    <row r="12" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="N12" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="O12" s="40"/>
+      <c r="P12" s="42"/>
+    </row>
+    <row r="13" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="N13" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="O13" s="40"/>
+      <c r="P13" s="42"/>
+    </row>
+    <row r="14" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="39"/>
+      <c r="B14" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41" t="s">
+        <v>532</v>
+      </c>
+      <c r="M14" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="42"/>
+    </row>
+    <row r="15" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="40"/>
+      <c r="H15" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="76" t="s">
+        <v>530</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="P15" s="42"/>
+    </row>
+    <row r="16" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70" t="s">
+        <v>531</v>
+      </c>
+      <c r="M16" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70" t="s">
+        <v>533</v>
+      </c>
+      <c r="M17" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="P17" s="40" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="70" t="s">
+        <v>534</v>
+      </c>
+      <c r="M18" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="42"/>
+    </row>
+    <row r="19" spans="1:16" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="45" t="s">
+        <v>535</v>
+      </c>
+      <c r="L19" s="70" t="s">
+        <v>536</v>
+      </c>
+      <c r="M19" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="42"/>
+    </row>
+    <row r="20" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70" t="s">
+        <v>542</v>
+      </c>
+      <c r="M20" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="42"/>
+    </row>
+    <row r="21" spans="1:16" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41" t="s">
+        <v>543</v>
+      </c>
+      <c r="M21" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="42"/>
+    </row>
+    <row r="22" spans="1:16" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="39"/>
+      <c r="B22" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41" t="s">
+        <v>545</v>
+      </c>
+      <c r="M22" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="N22" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="O22" s="40"/>
+      <c r="P22" s="42"/>
+    </row>
+    <row r="23" spans="1:16" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="L23" s="41" t="s">
+        <v>544</v>
+      </c>
+      <c r="M23" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="42"/>
+    </row>
+    <row r="24" spans="1:16" s="30" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A24" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41" t="s">
+        <v>546</v>
+      </c>
+      <c r="M24" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="42"/>
+    </row>
+    <row r="25" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="42"/>
+    </row>
+    <row r="26" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="42"/>
+    </row>
+    <row r="27" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="42"/>
+    </row>
+    <row r="28" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="39"/>
+      <c r="B28" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="N28" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="O28" s="40"/>
+      <c r="P28" s="42"/>
+    </row>
+    <row r="29" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="39"/>
+      <c r="B29" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="N29" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="O29" s="40"/>
+      <c r="P29" s="42"/>
+    </row>
+    <row r="30" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="39"/>
+      <c r="B30" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="L30" s="41"/>
+      <c r="M30" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="N30" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="O30" s="40"/>
+      <c r="P30" s="42"/>
+    </row>
+    <row r="31" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="43"/>
+      <c r="B31" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="45" t="s">
+        <v>379</v>
+      </c>
+      <c r="L31" s="45"/>
+      <c r="M31" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="N31" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="O31" s="44"/>
+      <c r="P31" s="72"/>
+    </row>
+    <row r="32" spans="1:16" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="43"/>
+      <c r="B32" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="L32" s="45"/>
+      <c r="M32" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="72"/>
+    </row>
+    <row r="33" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="L6" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="38" t="s">
+      <c r="C33" s="44"/>
+      <c r="D33" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="J33" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="K33" s="45" t="s">
+        <v>381</v>
+      </c>
+      <c r="L33" s="45"/>
+      <c r="M33" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="N33" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="O33" s="44"/>
+      <c r="P33" s="72"/>
+    </row>
+    <row r="34" spans="1:16" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="45" t="s">
+        <v>279</v>
+      </c>
+      <c r="J34" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="R6" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="S6" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="T6" s="40"/>
-    </row>
-    <row r="7" spans="1:20" s="30" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
+      <c r="N34" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="O34" s="40"/>
+      <c r="P34" s="42"/>
+    </row>
+    <row r="35" spans="1:16" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38" t="s">
+      <c r="B35" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="L7" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="38" t="s">
+      <c r="E35" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="J35" s="40" t="s">
+        <v>528</v>
+      </c>
+      <c r="K35" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="L35" s="45"/>
+      <c r="M35" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="R7" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="37" t="s">
+      <c r="N35" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="O35" s="40"/>
+      <c r="P35" s="42"/>
+    </row>
+    <row r="36" spans="1:16" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="43"/>
+      <c r="B36" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="45" t="s">
+        <v>382</v>
+      </c>
+      <c r="L36" s="45"/>
+      <c r="M36" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="42"/>
+    </row>
+    <row r="37" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="R8" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="S8" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="T8" s="38" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
+      <c r="B37" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="45" t="s">
+        <v>383</v>
+      </c>
+      <c r="L37" s="45"/>
+      <c r="M37" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="N37" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="O37" s="40"/>
+      <c r="P37" s="42"/>
+    </row>
+    <row r="38" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38" t="s">
-        <v>552</v>
-      </c>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="40"/>
-    </row>
-    <row r="10" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="37" t="s">
+      <c r="B38" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="N38" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="O38" s="40"/>
+      <c r="P38" s="42"/>
+    </row>
+    <row r="39" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="40"/>
-    </row>
-    <row r="11" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="R11" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="S11" s="38"/>
-      <c r="T11" s="40"/>
-    </row>
-    <row r="12" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="R12" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="S12" s="38"/>
-      <c r="T12" s="40"/>
-    </row>
-    <row r="13" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="R13" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="S13" s="38"/>
-      <c r="T13" s="40"/>
-    </row>
-    <row r="14" spans="1:20" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
-      <c r="B14" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39" t="s">
-        <v>531</v>
-      </c>
-      <c r="Q14" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="40"/>
-    </row>
-    <row r="15" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" s="38"/>
-      <c r="H15" s="37" t="s">
-        <v>554</v>
-      </c>
-      <c r="I15" s="37">
-        <v>5</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="74" t="s">
-        <v>529</v>
-      </c>
-      <c r="Q15" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="T15" s="40"/>
-    </row>
-    <row r="16" spans="1:20" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="H16" s="37" t="s">
-        <v>554</v>
-      </c>
-      <c r="I16" s="37"/>
-      <c r="J16" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68" t="s">
-        <v>530</v>
-      </c>
-      <c r="Q16" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" s="30" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68" t="s">
-        <v>532</v>
-      </c>
-      <c r="Q17" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="T17" s="38" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="68" t="s">
-        <v>533</v>
-      </c>
-      <c r="Q18" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="40"/>
-    </row>
-    <row r="19" spans="1:20" s="30" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A19" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="43" t="s">
-        <v>534</v>
-      </c>
-      <c r="P19" s="68" t="s">
-        <v>535</v>
-      </c>
-      <c r="Q19" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="40"/>
-    </row>
-    <row r="20" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68" t="s">
-        <v>541</v>
-      </c>
-      <c r="Q20" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="40"/>
-    </row>
-    <row r="21" spans="1:20" s="30" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q21" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="40"/>
-    </row>
-    <row r="22" spans="1:20" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="37"/>
-      <c r="B22" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39" t="s">
-        <v>544</v>
-      </c>
-      <c r="Q22" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="R22" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="S22" s="38"/>
-      <c r="T22" s="40"/>
-    </row>
-    <row r="23" spans="1:20" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="39" t="s">
-        <v>380</v>
-      </c>
-      <c r="P23" s="39" t="s">
-        <v>543</v>
-      </c>
-      <c r="Q23" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="R23" s="38"/>
-      <c r="S23" s="38"/>
-      <c r="T23" s="40"/>
-    </row>
-    <row r="24" spans="1:20" s="30" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39" t="s">
-        <v>545</v>
-      </c>
-      <c r="Q24" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="40"/>
-    </row>
-    <row r="25" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38" t="s">
-        <v>552</v>
-      </c>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="40"/>
-    </row>
-    <row r="26" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38" t="s">
-        <v>552</v>
-      </c>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="40"/>
-    </row>
-    <row r="27" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38" t="s">
-        <v>552</v>
-      </c>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="R27" s="38"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="40"/>
-    </row>
-    <row r="28" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
-      <c r="B28" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="R28" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="S28" s="38"/>
-      <c r="T28" s="40"/>
-    </row>
-    <row r="29" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
-      <c r="B29" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="E29" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="R29" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="S29" s="38"/>
-      <c r="T29" s="40"/>
-    </row>
-    <row r="30" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="37"/>
-      <c r="B30" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="E30" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="39" t="s">
-        <v>377</v>
-      </c>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="R30" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="S30" s="38"/>
-      <c r="T30" s="40"/>
-    </row>
-    <row r="31" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="41"/>
-      <c r="B31" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="E31" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="43" t="s">
-        <v>378</v>
-      </c>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="R31" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="S31" s="42"/>
-      <c r="T31" s="70"/>
-    </row>
-    <row r="32" spans="1:20" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="41"/>
-      <c r="B32" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="43" t="s">
-        <v>379</v>
-      </c>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="R32" s="42"/>
-      <c r="S32" s="42"/>
-      <c r="T32" s="70"/>
-    </row>
-    <row r="33" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="42" t="s">
+      <c r="B39" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="42"/>
-      <c r="D33" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42" t="s">
-        <v>553</v>
-      </c>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="L33" s="42" t="s">
+      <c r="C39" s="44"/>
+      <c r="D39" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="43" t="s">
-        <v>380</v>
-      </c>
-      <c r="P33" s="43"/>
-      <c r="Q33" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="R33" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="S33" s="42"/>
-      <c r="T33" s="70"/>
-    </row>
-    <row r="34" spans="1:21" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="J34" s="38"/>
-      <c r="K34" s="43" t="s">
-        <v>278</v>
-      </c>
-      <c r="L34" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="43"/>
-      <c r="Q34" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="R34" s="42" t="s">
-        <v>218</v>
-      </c>
-      <c r="S34" s="38"/>
-      <c r="T34" s="40"/>
-    </row>
-    <row r="35" spans="1:21" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="E35" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="39" t="s">
-        <v>216</v>
-      </c>
-      <c r="L35" s="38" t="s">
-        <v>527</v>
-      </c>
-      <c r="M35" s="42"/>
-      <c r="N35" s="42"/>
-      <c r="O35" s="43" t="s">
-        <v>379</v>
-      </c>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="38" t="s">
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="R35" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="S35" s="38"/>
-      <c r="T35" s="40"/>
-    </row>
-    <row r="36" spans="1:21" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="41"/>
-      <c r="B36" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="43" t="s">
-        <v>381</v>
-      </c>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="R36" s="38"/>
-      <c r="S36" s="38"/>
-      <c r="T36" s="40"/>
-    </row>
-    <row r="37" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" s="42" t="s">
-        <v>209</v>
-      </c>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="43" t="s">
-        <v>382</v>
-      </c>
-      <c r="P37" s="43"/>
-      <c r="Q37" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="R37" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="S37" s="38"/>
-      <c r="T37" s="40"/>
-    </row>
-    <row r="38" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38" t="s">
-        <v>549</v>
-      </c>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="38"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="39"/>
-      <c r="Q38" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="R38" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="S38" s="38"/>
-      <c r="T38" s="40"/>
-    </row>
-    <row r="39" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="42"/>
-      <c r="N39" s="42"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="R39" s="42" t="s">
-        <v>222</v>
-      </c>
-      <c r="S39" s="42"/>
-      <c r="T39" s="70"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A40" s="37"/>
-      <c r="B40" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="38" t="s">
-        <v>644</v>
-      </c>
-      <c r="D40" s="38" t="s">
-        <v>643</v>
-      </c>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="39"/>
-      <c r="Q40" s="38"/>
-      <c r="R40" s="38"/>
-      <c r="S40" s="38"/>
-      <c r="T40" s="40"/>
-      <c r="U40"/>
-    </row>
-    <row r="41" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38" t="s">
-        <v>662</v>
-      </c>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="L41" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="M41" s="39" t="s">
-        <v>682</v>
-      </c>
-      <c r="N41" s="39" t="s">
-        <v>685</v>
-      </c>
-      <c r="O41" s="39"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="38"/>
-      <c r="R41" s="38"/>
-      <c r="S41" s="38"/>
-      <c r="T41" s="40"/>
-      <c r="U41"/>
-    </row>
-    <row r="42" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38" t="s">
-        <v>663</v>
-      </c>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="39" t="s">
-        <v>652</v>
-      </c>
-      <c r="L42" s="39" t="s">
-        <v>645</v>
-      </c>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="38"/>
-      <c r="R42" s="38"/>
-      <c r="S42" s="38"/>
-      <c r="T42" s="40"/>
-      <c r="U42"/>
-    </row>
-    <row r="43" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38" t="s">
-        <v>664</v>
-      </c>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="39" t="s">
-        <v>653</v>
-      </c>
-      <c r="L43" s="39" t="s">
-        <v>646</v>
-      </c>
-      <c r="M43" s="39" t="s">
-        <v>681</v>
-      </c>
-      <c r="N43" s="39" t="s">
-        <v>684</v>
-      </c>
-      <c r="O43" s="39"/>
-      <c r="P43" s="39"/>
-      <c r="Q43" s="38"/>
-      <c r="R43" s="38"/>
-      <c r="S43" s="38"/>
-      <c r="T43" s="40"/>
-      <c r="U43"/>
-    </row>
-    <row r="44" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38" t="s">
-        <v>665</v>
-      </c>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="39" t="s">
-        <v>654</v>
-      </c>
-      <c r="L44" s="39" t="s">
-        <v>647</v>
-      </c>
-      <c r="M44" s="39" t="s">
-        <v>686</v>
-      </c>
-      <c r="N44" s="39" t="s">
-        <v>687</v>
-      </c>
-      <c r="O44" s="39"/>
-      <c r="P44" s="39"/>
-      <c r="Q44" s="38"/>
-      <c r="R44" s="38"/>
-      <c r="S44" s="38"/>
-      <c r="T44" s="40"/>
-      <c r="U44"/>
-    </row>
-    <row r="45" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38" t="s">
-        <v>666</v>
-      </c>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="39" t="s">
-        <v>655</v>
-      </c>
-      <c r="L45" s="39" t="s">
-        <v>648</v>
-      </c>
-      <c r="M45" s="39"/>
-      <c r="N45" s="39"/>
-      <c r="O45" s="39"/>
-      <c r="P45" s="39"/>
-      <c r="Q45" s="38"/>
-      <c r="R45" s="38"/>
-      <c r="S45" s="38"/>
-      <c r="T45" s="40"/>
-      <c r="U45"/>
-    </row>
-    <row r="46" spans="1:21" ht="72" x14ac:dyDescent="0.3">
-      <c r="A46" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38" t="s">
-        <v>667</v>
-      </c>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="39" t="s">
-        <v>656</v>
-      </c>
-      <c r="L46" s="39" t="s">
-        <v>649</v>
-      </c>
-      <c r="M46" s="39"/>
-      <c r="N46" s="39"/>
-      <c r="O46" s="39"/>
-      <c r="P46" s="39"/>
-      <c r="Q46" s="38"/>
-      <c r="R46" s="38"/>
-      <c r="S46" s="38"/>
-      <c r="T46" s="40"/>
-      <c r="U46"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A47" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38" t="s">
-        <v>668</v>
-      </c>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38" t="s">
-        <v>657</v>
-      </c>
-      <c r="L47" s="38" t="s">
-        <v>587</v>
-      </c>
-      <c r="M47" s="38"/>
-      <c r="N47" s="38"/>
-      <c r="O47" s="39"/>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="38"/>
-      <c r="R47" s="38"/>
-      <c r="S47" s="38"/>
-      <c r="T47" s="40"/>
-      <c r="U47"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A48" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38" t="s">
-        <v>669</v>
-      </c>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="38" t="s">
-        <v>658</v>
-      </c>
-      <c r="L48" s="38" t="s">
-        <v>588</v>
-      </c>
-      <c r="M48" s="38"/>
-      <c r="N48" s="38"/>
-      <c r="O48" s="39"/>
-      <c r="P48" s="39"/>
-      <c r="Q48" s="38"/>
-      <c r="R48" s="38"/>
-      <c r="S48" s="38"/>
-      <c r="T48" s="40"/>
-      <c r="U48"/>
-    </row>
-    <row r="49" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38" t="s">
-        <v>670</v>
-      </c>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="38"/>
-      <c r="K49" s="39" t="s">
-        <v>661</v>
-      </c>
-      <c r="L49" s="38" t="s">
-        <v>589</v>
-      </c>
-      <c r="M49" s="38"/>
-      <c r="N49" s="38"/>
-      <c r="O49" s="39"/>
-      <c r="P49" s="39"/>
-      <c r="Q49" s="38"/>
-      <c r="R49" s="38"/>
-      <c r="S49" s="38"/>
-      <c r="T49" s="40"/>
-      <c r="U49"/>
-    </row>
-    <row r="50" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38" t="s">
-        <v>671</v>
-      </c>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="39" t="s">
-        <v>660</v>
-      </c>
-      <c r="L50" s="39" t="s">
-        <v>650</v>
-      </c>
-      <c r="M50" s="39"/>
-      <c r="N50" s="39"/>
-      <c r="O50" s="39"/>
-      <c r="P50" s="39"/>
-      <c r="Q50" s="38"/>
-      <c r="R50" s="38"/>
-      <c r="S50" s="38"/>
-      <c r="T50" s="40"/>
-      <c r="U50"/>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A51" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38" t="s">
-        <v>672</v>
-      </c>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="38"/>
-      <c r="K51" s="38" t="s">
-        <v>659</v>
-      </c>
-      <c r="L51" s="38" t="s">
-        <v>594</v>
-      </c>
-      <c r="M51" s="38"/>
-      <c r="N51" s="38"/>
-      <c r="O51" s="39"/>
-      <c r="P51" s="39"/>
-      <c r="Q51" s="38"/>
-      <c r="R51" s="38"/>
-      <c r="S51" s="38"/>
-      <c r="T51" s="40"/>
-      <c r="U51"/>
+      <c r="N39" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="O39" s="44"/>
+      <c r="P39" s="72"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError sqref="B3:B31 B32:B39 I6 I11 I34 I38 B40:B51" numberStoredAsText="1"/>
+    <ignoredError sqref="B3:B31 B32:B39" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
@@ -10728,7 +8325,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -10737,7 +8334,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="58" t="s">
         <v>35</v>
       </c>
     </row>
@@ -10755,28 +8352,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Feuil6">
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="30" customWidth="1"/>
     <col min="2" max="2" width="15.77734375" style="30" customWidth="1"/>
     <col min="3" max="3" width="27.33203125" style="30" customWidth="1"/>
-    <col min="4" max="4" width="20" style="30" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.77734375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.88671875" style="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>8</v>
       </c>
@@ -10786,17 +8382,14 @@
       <c r="C1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>547</v>
-      </c>
-      <c r="E1" s="22" t="s">
+      <c r="D1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>38</v>
       </c>
@@ -10806,15 +8399,14 @@
       <c r="C2" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="E2" s="18" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>39</v>
       </c>
@@ -10824,15 +8416,14 @@
       <c r="C3" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="E3" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>40</v>
       </c>
@@ -10840,13 +8431,12 @@
         <v>96</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F4" s="18"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>124</v>
       </c>
@@ -10856,62 +8446,18 @@
       <c r="C5" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25" t="s">
+      <c r="D5" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="E5" s="26" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>561</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="F6" s="26"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>562</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="F7" s="26"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
-        <v>563</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="F8" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
@@ -10927,13 +8473,13 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="58" t="s">
         <v>188</v>
       </c>
     </row>
@@ -10942,7 +8488,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -10955,635 +8501,94 @@
   <sheetPr codeName="Feuil8">
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" customWidth="1"/>
-    <col min="5" max="5" width="31.5546875" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="D1" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="78" t="s">
-        <v>556</v>
-      </c>
-      <c r="F1" s="78" t="s">
-        <v>555</v>
-      </c>
-      <c r="G1" s="78" t="s">
-        <v>557</v>
-      </c>
-      <c r="H1" s="78" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="79" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-    </row>
-    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>199</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C3" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-    </row>
-    <row r="4" spans="1:8" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>212</v>
+    </row>
+    <row r="4" spans="1:3" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-    </row>
-    <row r="5" spans="1:8" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>527</v>
-      </c>
-      <c r="B5" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="B5" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="C5" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="79" t="s">
+      <c r="C5" s="35" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="83" t="s">
+      <c r="C6" s="36"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-    </row>
-    <row r="8" spans="1:8" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="79" t="s">
-        <v>558</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>595</v>
-      </c>
-      <c r="D8" s="81" t="s">
-        <v>613</v>
-      </c>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-    </row>
-    <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="79" t="s">
-        <v>559</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>596</v>
-      </c>
-      <c r="D9" s="81" t="s">
-        <v>624</v>
-      </c>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-    </row>
-    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="79" t="s">
-        <v>560</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>597</v>
-      </c>
-      <c r="D10" s="80" t="s">
-        <v>612</v>
-      </c>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-    </row>
-    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="79" t="s">
-        <v>572</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>598</v>
-      </c>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81" t="s">
-        <v>561</v>
-      </c>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-    </row>
-    <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="79" t="s">
-        <v>573</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>610</v>
-      </c>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81" t="s">
-        <v>614</v>
-      </c>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-    </row>
-    <row r="13" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="79" t="s">
-        <v>574</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>611</v>
-      </c>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81" t="s">
-        <v>615</v>
-      </c>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-    </row>
-    <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="79" t="s">
-        <v>575</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>616</v>
-      </c>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81">
-        <v>10</v>
-      </c>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-    </row>
-    <row r="15" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="79" t="s">
-        <v>577</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>617</v>
-      </c>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="87" t="s">
-        <v>626</v>
-      </c>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-    </row>
-    <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="79" t="s">
-        <v>578</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>618</v>
-      </c>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81" t="s">
-        <v>570</v>
-      </c>
-      <c r="H16" s="81"/>
-    </row>
-    <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="79" t="s">
-        <v>579</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>619</v>
-      </c>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81" t="s">
-        <v>571</v>
-      </c>
-      <c r="H17" s="81"/>
-    </row>
-    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="79" t="s">
-        <v>580</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>620</v>
-      </c>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81" t="s">
-        <v>674</v>
-      </c>
-      <c r="H18" s="81"/>
-    </row>
-    <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="79" t="s">
-        <v>581</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>621</v>
-      </c>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="79" t="s">
-        <v>582</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>622</v>
-      </c>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="79" t="s">
-        <v>583</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>623</v>
-      </c>
-      <c r="D21" s="81" t="s">
-        <v>634</v>
-      </c>
-      <c r="E21" s="81"/>
-      <c r="F21" s="87" t="s">
-        <v>628</v>
-      </c>
-      <c r="G21" s="81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="81"/>
-    </row>
-    <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="79" t="s">
-        <v>584</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>599</v>
-      </c>
-      <c r="D22" s="81" t="s">
-        <v>632</v>
-      </c>
-      <c r="E22" s="81" t="s">
-        <v>629</v>
-      </c>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="79" t="s">
-        <v>585</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>600</v>
-      </c>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81" t="s">
-        <v>563</v>
-      </c>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="81"/>
-    </row>
-    <row r="24" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="79" t="s">
-        <v>586</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>601</v>
-      </c>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="87" t="s">
-        <v>678</v>
-      </c>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="79" t="s">
-        <v>587</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>602</v>
-      </c>
-      <c r="D25" s="81" t="s">
-        <v>633</v>
-      </c>
-      <c r="E25" s="81" t="s">
-        <v>679</v>
-      </c>
-      <c r="F25" s="88">
-        <v>7</v>
-      </c>
-      <c r="G25" s="81" t="s">
-        <v>570</v>
-      </c>
-      <c r="H25" s="81" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="79" t="s">
-        <v>588</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="C26" s="35" t="s">
-        <v>603</v>
-      </c>
-      <c r="D26" s="81" t="s">
-        <v>635</v>
-      </c>
-      <c r="E26" s="81" t="s">
-        <v>562</v>
-      </c>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="79" t="s">
-        <v>589</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>604</v>
-      </c>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-    </row>
-    <row r="28" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A28" s="79" t="s">
-        <v>590</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>605</v>
-      </c>
-      <c r="D28" s="80" t="s">
-        <v>675</v>
-      </c>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81">
-        <v>10</v>
-      </c>
-      <c r="G28" s="81" t="s">
-        <v>637</v>
-      </c>
-      <c r="H28" s="81" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="79" t="s">
-        <v>591</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C29" s="35" t="s">
-        <v>606</v>
-      </c>
-      <c r="D29" s="80" t="s">
-        <v>639</v>
-      </c>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="81"/>
-    </row>
-    <row r="30" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="79" t="s">
-        <v>592</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="C30" s="35" t="s">
-        <v>607</v>
-      </c>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81" t="s">
-        <v>640</v>
-      </c>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="81" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="79" t="s">
-        <v>593</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C31" s="35" t="s">
-        <v>608</v>
-      </c>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="81">
-        <v>1</v>
-      </c>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="79" t="s">
-        <v>594</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="C32" s="35" t="s">
-        <v>609</v>
-      </c>
-      <c r="D32" s="81" t="s">
-        <v>641</v>
-      </c>
-      <c r="E32" s="81"/>
-      <c r="F32" s="81">
-        <v>999</v>
-      </c>
-      <c r="G32" s="81"/>
-      <c r="H32" s="81" t="s">
-        <v>642</v>
-      </c>
+      <c r="C7" s="36"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
@@ -11603,14 +8608,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
-        <v>223</v>
+      <c r="B1" s="58" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -11618,7 +8623,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/tools/example_framework.xlsx
+++ b/tools/example_framework.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tarkadia\projects\intuitem\ciso-assistant-community\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87A7793-45E9-43AE-9EE8-37EFED941508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4555D90F-56C7-4C28-84D2-704721252C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -268,13 +268,61 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>"description" value can be left empty, but only if "ref_id" and/or "name" is not empty.</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{347BCED0-BF7D-4AC6-B110-E741C99D2332}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{DB9354B9-010E-442F-98C9-17255CCA12AD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.: About importance :.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+One among "mandatory"/"recommended"/"nice to have"/"undefined" or empty (= "undefined"). Default value is "undefined".</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{28F2EF0B-15B6-4995-A393-1A85699772DF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.: About weight :.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Positive integer "&gt;= 1". Used for score weighting. The default weight (if undefined) is "1".</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{347BCED0-BF7D-4AC6-B110-E741C99D2332}">
       <text>
         <r>
           <rPr>
@@ -298,7 +346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{79FD3605-3568-455D-9CFD-FA756BC48EBD}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{79FD3605-3568-455D-9CFD-FA756BC48EBD}">
       <text>
         <r>
           <rPr>
@@ -322,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{6C4C16E2-0266-48C9-A7E3-FE00882B887F}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{6C4C16E2-0266-48C9-A7E3-FE00882B887F}">
       <text>
         <r>
           <rPr>
@@ -346,7 +394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{9DF94410-D1CA-448F-BD60-59EAD2557609}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{9DF94410-D1CA-448F-BD60-59EAD2557609}">
       <text>
         <r>
           <rPr>
@@ -370,7 +418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{781B3B90-5C6F-4C56-B7DD-C93B8542FECF}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{781B3B90-5C6F-4C56-B7DD-C93B8542FECF}">
       <text>
         <r>
           <rPr>
@@ -618,7 +666,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="554">
   <si>
     <t>type</t>
   </si>
@@ -665,9 +713,6 @@
   </si>
   <si>
     <t>copyright</t>
-  </si>
-  <si>
-    <t>© Example Organization</t>
   </si>
   <si>
     <t>provider</t>
@@ -1640,9 +1685,6 @@
     <t>Answers description</t>
   </si>
   <si>
-    <t>This complete example framework provides a better understanding of the structure of a CISO Assistant framework. You can convert it with "convert_library_v2.py" and add it to CISO Assistant to see how it looks like.</t>
-  </si>
-  <si>
     <t>Threats description</t>
   </si>
   <si>
@@ -1683,9 +1725,6 @@
     <t>threats</t>
   </si>
   <si>
-    <t>my-framework_example.1</t>
-  </si>
-  <si>
     <t>urn:intuitem:risk:threat:my-framework_example.1</t>
   </si>
   <si>
@@ -2476,13 +2515,41 @@
   </si>
   <si>
     <t>When creating a library, keep only the tabs that are necessary. For example, if no implementation groups are used, remove the corresponding tabs.</t>
+  </si>
+  <si>
+    <t>This complete example framework provides a better understanding of the structure of a CISO Assistant framework.
+You can convert it with "convert_library_v2.py" and add it to CISO Assistant to see how it looks like.</t>
+  </si>
+  <si>
+    <t>© 2025 Example Organization</t>
+  </si>
+  <si>
+    <t>importance</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>mandatory</t>
+  </si>
+  <si>
+    <t>nice to have</t>
+  </si>
+  <si>
+    <t>recommended</t>
+  </si>
+  <si>
+    <t>undefined</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2655,12 +2722,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="18">
@@ -2942,7 +3003,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3152,6 +3213,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3273,7 +3340,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="65">
+  <dxfs count="67">
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -4099,6 +4166,46 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -4314,21 +4421,19 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{549B97EC-A4EC-467D-95D4-C91A5E59F559}" name="Tableau1" displayName="Tableau1" ref="A1:P39" totalsRowShown="0" headerRowDxfId="64" dataDxfId="62" headerRowBorderDxfId="63" tableBorderDxfId="61" totalsRowBorderDxfId="60">
-  <autoFilter ref="A1:P39" xr:uid="{549B97EC-A4EC-467D-95D4-C91A5E59F559}"/>
-  <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{D7929412-2C04-48B2-B421-6EC19B1F374C}" name="assessable" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{BAC0F5CA-29D7-460A-BD72-3F9E24C9732F}" name="depth" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{92C5BE2B-42CA-458E-8D3C-CC37002D48BD}" name="ref_id" dataDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{9F7C5816-5FCC-476D-B6FA-AE433ADEABCC}" name="name" dataDxfId="56"/>
-    <tableColumn id="5" xr3:uid="{2650FBAE-CAA9-4751-AB1F-D901BDE6D752}" name="description" dataDxfId="55"/>
-    <tableColumn id="6" xr3:uid="{552D82DF-7C98-4797-9A2D-D4FDA52D98AF}" name="annotation" dataDxfId="54"/>
-    <tableColumn id="7" xr3:uid="{E61773D4-D778-4312-A49F-8A5758A995E8}" name="typical_evidence" dataDxfId="53"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{549B97EC-A4EC-467D-95D4-C91A5E59F559}" name="Tableau1" displayName="Tableau1" ref="A1:R39" totalsRowShown="0" headerRowDxfId="66" dataDxfId="64" headerRowBorderDxfId="65" tableBorderDxfId="63" totalsRowBorderDxfId="62">
+  <autoFilter ref="A1:R39" xr:uid="{549B97EC-A4EC-467D-95D4-C91A5E59F559}"/>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{D7929412-2C04-48B2-B421-6EC19B1F374C}" name="assessable" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{BAC0F5CA-29D7-460A-BD72-3F9E24C9732F}" name="depth" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{92C5BE2B-42CA-458E-8D3C-CC37002D48BD}" name="ref_id" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{9F7C5816-5FCC-476D-B6FA-AE433ADEABCC}" name="name" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{2650FBAE-CAA9-4751-AB1F-D901BDE6D752}" name="description" dataDxfId="57"/>
+    <tableColumn id="6" xr3:uid="{552D82DF-7C98-4797-9A2D-D4FDA52D98AF}" name="annotation" dataDxfId="56"/>
+    <tableColumn id="7" xr3:uid="{E61773D4-D778-4312-A49F-8A5758A995E8}" name="typical_evidence" dataDxfId="55"/>
+    <tableColumn id="18" xr3:uid="{B81C882B-0E05-4883-AAC0-A9708505EABA}" name="importance" dataDxfId="54"/>
+    <tableColumn id="17" xr3:uid="{87B98E78-198B-4AAF-BD74-A0DD4AE4E732}" name="weight" dataDxfId="53"/>
     <tableColumn id="8" xr3:uid="{41549C1C-81F1-4DC9-AF3E-D66557AB55EA}" name="implementation_groups" dataDxfId="52"/>
     <tableColumn id="14" xr3:uid="{AFF985E6-291A-441C-8DEF-8F4448E20722}" name="questions" dataDxfId="51"/>
     <tableColumn id="13" xr3:uid="{22C6C123-59A8-4006-974A-AEC9BDF7B9C5}" name="answer" dataDxfId="50"/>
@@ -4339,7 +4444,7 @@
     <tableColumn id="11" xr3:uid="{EA0E2718-3825-4A77-B686-8C594E64AC01}" name="annotation[fr]" dataDxfId="45"/>
     <tableColumn id="12" xr3:uid="{CB66FA06-DCF3-44C6-A079-7B12A457972F}" name="typical_evidence[fr]" dataDxfId="44"/>
   </tableColumns>
-  <tableStyleInfo name="Style de tableau 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -4729,376 +4834,376 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="62.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="96"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="98"/>
     </row>
     <row r="2" spans="1:13" ht="42.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="99" t="s">
+        <v>545</v>
+      </c>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="101"/>
+    </row>
+    <row r="3" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="102" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="104"/>
+    </row>
+    <row r="4" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="87" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="83"/>
+    </row>
+    <row r="5" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="92" t="s">
+        <v>258</v>
+      </c>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="83"/>
+    </row>
+    <row r="6" spans="1:13" ht="19.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="95" t="s">
+        <v>253</v>
+      </c>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="81" t="s">
+        <v>266</v>
+      </c>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="83"/>
+    </row>
+    <row r="7" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="91" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="81" t="s">
+        <v>275</v>
+      </c>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="83"/>
+    </row>
+    <row r="8" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="90" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="81" t="s">
+        <v>267</v>
+      </c>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="83"/>
+    </row>
+    <row r="9" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="89" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="81" t="s">
         <v>269</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="99"/>
-    </row>
-    <row r="3" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="100" t="s">
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="83"/>
+    </row>
+    <row r="10" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="84" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="81" t="s">
+        <v>268</v>
+      </c>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="83"/>
+    </row>
+    <row r="11" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="85" t="s">
+        <v>273</v>
+      </c>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="81" t="s">
+        <v>278</v>
+      </c>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="83"/>
+    </row>
+    <row r="12" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="86" t="s">
+        <v>274</v>
+      </c>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="83"/>
+    </row>
+    <row r="13" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="102"/>
-    </row>
-    <row r="4" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="85" t="s">
-        <v>258</v>
-      </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="79" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="81"/>
-    </row>
-    <row r="5" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="90" t="s">
+      <c r="B13" s="105"/>
+      <c r="C13" s="106" t="s">
+        <v>544</v>
+      </c>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="107"/>
+      <c r="M13" s="107"/>
+    </row>
+    <row r="14" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="102" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="103"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="104"/>
+    </row>
+    <row r="15" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="117" t="s">
         <v>259</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="79" t="s">
-        <v>266</v>
-      </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="81"/>
-    </row>
-    <row r="6" spans="1:13" ht="19.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="93" t="s">
-        <v>254</v>
-      </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="79" t="s">
-        <v>267</v>
-      </c>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="81"/>
-    </row>
-    <row r="7" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="89" t="s">
-        <v>255</v>
-      </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="79" t="s">
-        <v>277</v>
-      </c>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="81"/>
-    </row>
-    <row r="8" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="88" t="s">
-        <v>256</v>
-      </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="79" t="s">
-        <v>268</v>
-      </c>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="81"/>
-    </row>
-    <row r="9" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="87" t="s">
-        <v>257</v>
-      </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="79" t="s">
-        <v>271</v>
-      </c>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="81"/>
-    </row>
-    <row r="10" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="82" t="s">
-        <v>274</v>
-      </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="79" t="s">
-        <v>270</v>
-      </c>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="81"/>
-    </row>
-    <row r="11" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="83" t="s">
-        <v>275</v>
-      </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="79" t="s">
-        <v>280</v>
-      </c>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="81"/>
-    </row>
-    <row r="12" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="84" t="s">
-        <v>276</v>
-      </c>
-      <c r="B12" s="84"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="79" t="s">
-        <v>281</v>
-      </c>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="81"/>
-    </row>
-    <row r="13" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="103" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="103"/>
-      <c r="C13" s="104" t="s">
-        <v>547</v>
-      </c>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="105"/>
-      <c r="L13" s="105"/>
-      <c r="M13" s="105"/>
-    </row>
-    <row r="14" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="100" t="s">
+      <c r="B15" s="118"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="81" t="s">
+        <v>264</v>
+      </c>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="83"/>
+    </row>
+    <row r="16" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="92" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="93"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="81" t="s">
+        <v>260</v>
+      </c>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="83"/>
+    </row>
+    <row r="17" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="114" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="115"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="81" t="s">
+        <v>261</v>
+      </c>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="83"/>
+    </row>
+    <row r="18" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="101"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="102"/>
-    </row>
-    <row r="15" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="115" t="s">
-        <v>260</v>
-      </c>
-      <c r="B15" s="116"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="79" t="s">
-        <v>265</v>
-      </c>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="81"/>
-    </row>
-    <row r="16" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="90" t="s">
+      <c r="B18" s="112"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="81" t="s">
+        <v>262</v>
+      </c>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="83"/>
+    </row>
+    <row r="19" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="79" t="s">
-        <v>261</v>
-      </c>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="81"/>
-    </row>
-    <row r="17" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="112" t="s">
+      <c r="B19" s="109"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="83"/>
+    </row>
+    <row r="20" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="113"/>
-      <c r="C17" s="113"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="79" t="s">
-        <v>262</v>
-      </c>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="81"/>
-    </row>
-    <row r="18" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="109" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="110"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="79" t="s">
+      <c r="B20" s="105"/>
+      <c r="C20" s="106" t="s">
         <v>263</v>
       </c>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="81"/>
-    </row>
-    <row r="19" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="106" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="107"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="79" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="81"/>
-    </row>
-    <row r="20" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="103" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="103"/>
-      <c r="C20" s="104" t="s">
-        <v>264</v>
-      </c>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="105"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="105"/>
-      <c r="L20" s="105"/>
-      <c r="M20" s="105"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="107"/>
     </row>
     <row r="21" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -5168,7 +5273,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>10</v>
@@ -5177,10 +5282,10 @@
         <v>12</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G1" s="49"/>
     </row>
@@ -5189,16 +5294,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F2" s="47"/>
       <c r="G2" s="48"/>
@@ -5208,16 +5313,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" s="50" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>234</v>
-      </c>
       <c r="E3" s="51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F3" s="47"/>
       <c r="G3" s="48"/>
@@ -5227,16 +5332,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="48"/>
@@ -5246,16 +5351,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E5" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="48"/>
@@ -5265,16 +5370,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F6" s="48"/>
       <c r="G6" s="48"/>
@@ -5284,16 +5389,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F7" s="48"/>
       <c r="G7" s="48"/>
@@ -5331,15 +5436,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -5382,573 +5487,573 @@
         <v>12</v>
       </c>
       <c r="D1" s="64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" s="65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" s="65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G1" s="65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="63" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E2" s="60" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="63" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D3" s="31"/>
       <c r="E3" s="60" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="63" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="31" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="63" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
       <c r="E5" s="60" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="63" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
       <c r="E6" s="60" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="63" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
       <c r="E7" s="60" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="63" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
       <c r="E8" s="60" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="63" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
       <c r="E9" s="60" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="63" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="31" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="63" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="31" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="63" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="31" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="63" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C13" s="31"/>
       <c r="D13" s="31" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="63" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="31" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="63" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D15" s="31"/>
       <c r="E15" s="31" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="63" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="31" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I16"/>
       <c r="J16"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="63" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D17" s="31"/>
       <c r="E17" s="31" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I17"/>
       <c r="J17"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="63" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D18" s="31"/>
       <c r="E18" s="31" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="63" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
       <c r="E19" s="31" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I19"/>
       <c r="J19"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="63" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B20" s="60" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E20" s="60" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G20" s="31" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="63" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D21" s="31"/>
       <c r="E21" s="60" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I21"/>
       <c r="J21"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="63" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C22" s="66"/>
       <c r="D22" s="31" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E22" s="60" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F22" s="66" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G22" s="66" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I22"/>
       <c r="J22"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="63" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C23" s="66"/>
       <c r="D23" s="66"/>
       <c r="E23" s="60" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F23" s="66" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G23" s="66" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I23"/>
       <c r="J23"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="63" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C24" s="66"/>
       <c r="D24" s="66"/>
       <c r="E24" s="60" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F24" s="66" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G24" s="66" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I24"/>
       <c r="J24"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="63" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B25" s="60" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
       <c r="E25" s="60" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I25"/>
       <c r="J25"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="63" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
       <c r="E26" s="60" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F26" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G26" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I26"/>
       <c r="J26"/>
@@ -5985,15 +6090,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -6035,635 +6140,635 @@
         <v>10</v>
       </c>
       <c r="C1" s="64" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D1" s="64" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E1" s="62" t="s">
         <v>12</v>
       </c>
       <c r="F1" s="74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G1" s="65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" s="65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I1" s="65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
       <c r="E2" s="31" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
       <c r="E3" s="31" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F3" s="31"/>
       <c r="G3" s="31" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
       <c r="F4" s="31" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
       <c r="F5" s="31"/>
       <c r="G5" s="31" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
       <c r="F6" s="31"/>
       <c r="G6" s="31" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
       <c r="F7" s="31"/>
       <c r="G7" s="31" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D8" s="31"/>
       <c r="E8" s="31"/>
       <c r="F8" s="31"/>
       <c r="G8" s="31" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D9" s="66"/>
       <c r="E9" s="66"/>
       <c r="F9" s="66"/>
       <c r="G9" s="31" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="H9" s="66"/>
       <c r="I9" s="66"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="31" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E10" s="31"/>
       <c r="F10" s="31"/>
       <c r="G10" s="31" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="31" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E11" s="31"/>
       <c r="F11" s="31" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="31" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E12" s="31"/>
       <c r="F12" s="31" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C13" s="31"/>
       <c r="D13" s="31" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E13" s="31"/>
       <c r="F13" s="31" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C14" s="31"/>
       <c r="D14" s="31" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E14" s="31"/>
       <c r="F14" s="31" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C15" s="31"/>
       <c r="D15" s="31" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="31" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="31" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="31" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D18" s="31"/>
       <c r="E18" s="31" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F18" s="31"/>
       <c r="G18" s="31" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="31" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
       <c r="E19" s="31" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="31" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
       <c r="F20" s="31"/>
       <c r="G20" s="31" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="31" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
       <c r="E22" s="31" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F22" s="31"/>
       <c r="G22" s="31" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H22" s="31" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="I22" s="31"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="31" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D23" s="31"/>
       <c r="E23" s="31"/>
       <c r="F23" s="31" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
       <c r="E24" s="31"/>
       <c r="F24" s="31"/>
       <c r="G24" s="31" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="31" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
       <c r="E25" s="31"/>
       <c r="F25" s="31"/>
       <c r="G25" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I25" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
       <c r="E26" s="31"/>
       <c r="F26" s="31"/>
       <c r="G26" s="31" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="31" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C27" s="31"/>
       <c r="D27" s="31"/>
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
       <c r="G27" s="31" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -6697,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -6724,10 +6829,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B1" s="68" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -6735,15 +6840,15 @@
         <v>5</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="67" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -6751,7 +6856,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="67" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -6844,55 +6949,55 @@
         <v>14</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>15</v>
+        <v>546</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="36" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="78" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="36" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="B13" s="37" t="s">
         <v>21</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="36" t="s">
         <v>23</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -6923,15 +7028,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -6939,15 +7044,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>283</v>
+      <c r="B4" s="36" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -6968,58 +7073,58 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="53" t="s">
         <v>29</v>
-      </c>
-      <c r="B7" s="53" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="52" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B9" s="54" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="52" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="52" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="7" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="B13" s="35" t="s">
         <v>21</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -7036,7 +7141,7 @@
   <sheetPr codeName="Feuil4">
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7052,23 +7157,25 @@
     <col min="5" max="5" width="36.44140625" style="29" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.44140625" style="29" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5546875" style="29" customWidth="1"/>
-    <col min="9" max="9" width="43" style="29" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" style="71" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.109375" style="71" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5546875" style="29" customWidth="1"/>
-    <col min="14" max="14" width="31.88671875" style="29" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21" style="29" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="39.21875" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5546875" style="29" customWidth="1"/>
+    <col min="11" max="11" width="43" style="29" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" style="71" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.109375" style="71" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" style="29" customWidth="1"/>
+    <col min="16" max="16" width="33.88671875" style="29" customWidth="1"/>
+    <col min="17" max="17" width="22.33203125" style="29" customWidth="1"/>
+    <col min="18" max="18" width="41.21875" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>32</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>8</v>
@@ -7080,315 +7187,343 @@
         <v>12</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="J1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="K1" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="M1" s="69" t="s">
+        <v>280</v>
+      </c>
+      <c r="N1" s="75" t="s">
+        <v>389</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="J1" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="K1" s="69" t="s">
-        <v>282</v>
-      </c>
-      <c r="L1" s="75" t="s">
-        <v>392</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="14" t="s">
+      <c r="R1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="39"/>
       <c r="B2" s="40">
         <v>1</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D2" s="40"/>
       <c r="E2" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F2" s="40"/>
       <c r="G2" s="40"/>
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40" t="s">
-        <v>153</v>
-      </c>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
       <c r="O2" s="40"/>
-      <c r="P2" s="42"/>
-    </row>
-    <row r="3" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P2" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="42"/>
+    </row>
+    <row r="3" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="39"/>
       <c r="B3" s="40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="40" t="s">
         <v>84</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>85</v>
       </c>
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="N3" s="40" t="s">
-        <v>154</v>
-      </c>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
       <c r="O3" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="P3" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q3" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="R3" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="P3" s="40" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="39"/>
       <c r="B4" s="40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F4" s="40"/>
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
       <c r="I4" s="40"/>
       <c r="J4" s="40"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="N4" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="O4" s="40"/>
-      <c r="P4" s="42"/>
-    </row>
-    <row r="5" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="P4" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="42"/>
+    </row>
+    <row r="5" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="40"/>
       <c r="D5" s="40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40" t="s">
-        <v>203</v>
-      </c>
-      <c r="J5" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="N5" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="O5" s="40"/>
-      <c r="P5" s="42"/>
-    </row>
-    <row r="6" spans="1:16" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H5" s="40" t="s">
+        <v>549</v>
+      </c>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="P5" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="42"/>
+    </row>
+    <row r="6" spans="1:18" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="40"/>
       <c r="D6" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
-      <c r="I6" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="J6" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="N6" s="40" t="s">
-        <v>157</v>
-      </c>
+      <c r="I6" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="40"/>
+      <c r="K6" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
       <c r="O6" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="P6" s="42"/>
-    </row>
-    <row r="7" spans="1:16" s="30" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q6" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="R6" s="42"/>
+    </row>
+    <row r="7" spans="1:18" s="30" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="40"/>
       <c r="D7" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F7" s="40"/>
       <c r="G7" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H7" s="40"/>
-      <c r="I7" s="41" t="s">
-        <v>206</v>
-      </c>
-      <c r="J7" s="41" t="s">
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="N7" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="O7" s="40"/>
+      <c r="L7" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="40" t="s">
+        <v>132</v>
+      </c>
       <c r="P7" s="40" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="40"/>
       <c r="D8" s="40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H8" s="40"/>
       <c r="I8" s="40"/>
       <c r="J8" s="40"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="N8" s="40" t="s">
-        <v>159</v>
-      </c>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
       <c r="O8" s="40" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="P8" s="40" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="Q8" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="R8" s="40" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="40"/>
       <c r="D9" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9" s="40"/>
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
+      <c r="H9" s="40" t="s">
+        <v>550</v>
+      </c>
       <c r="I9" s="40"/>
       <c r="J9" s="40"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="42"/>
-    </row>
-    <row r="10" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="42"/>
+    </row>
+    <row r="10" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="40"/>
       <c r="D10" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="40"/>
@@ -7396,115 +7531,125 @@
       <c r="H10" s="40"/>
       <c r="I10" s="40"/>
       <c r="J10" s="40"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="42"/>
-    </row>
-    <row r="11" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="42"/>
+    </row>
+    <row r="11" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
       <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
+      <c r="I11" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="N11" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="O11" s="40"/>
-      <c r="P11" s="42"/>
-    </row>
-    <row r="12" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="P11" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="42"/>
+    </row>
+    <row r="12" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="40"/>
       <c r="D12" s="40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
       <c r="I12" s="40"/>
       <c r="J12" s="40"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="N12" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="O12" s="40"/>
-      <c r="P12" s="42"/>
-    </row>
-    <row r="13" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="P12" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="42"/>
+    </row>
+    <row r="13" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
       <c r="H13" s="40"/>
       <c r="I13" s="40"/>
       <c r="J13" s="40"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="N13" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="O13" s="40"/>
-      <c r="P13" s="42"/>
-    </row>
-    <row r="14" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="P13" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="42"/>
+    </row>
+    <row r="14" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="39"/>
       <c r="B14" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
@@ -7512,235 +7657,255 @@
       <c r="H14" s="40"/>
       <c r="I14" s="40"/>
       <c r="J14" s="40"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41" t="s">
-        <v>532</v>
-      </c>
-      <c r="M14" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="42"/>
-    </row>
-    <row r="15" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41" t="s">
+        <v>529</v>
+      </c>
+      <c r="O14" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="42"/>
+    </row>
+    <row r="15" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="40"/>
       <c r="D15" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" s="40"/>
       <c r="F15" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G15" s="40"/>
-      <c r="H15" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="76" t="s">
-        <v>530</v>
-      </c>
-      <c r="M15" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="N15" s="40"/>
+      <c r="H15" s="39" t="s">
+        <v>551</v>
+      </c>
+      <c r="I15" s="39">
+        <v>5</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="76" t="s">
+        <v>527</v>
+      </c>
       <c r="O15" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="P15" s="42"/>
-    </row>
-    <row r="16" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="R15" s="42"/>
+    </row>
+    <row r="16" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="40" t="s">
         <v>68</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>69</v>
       </c>
       <c r="E16" s="40"/>
       <c r="F16" s="40"/>
       <c r="G16" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70" t="s">
-        <v>531</v>
-      </c>
-      <c r="M16" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>551</v>
+      </c>
+      <c r="I16" s="39"/>
+      <c r="J16" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70" t="s">
+        <v>528</v>
+      </c>
+      <c r="O16" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" s="40"/>
       <c r="F17" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70" t="s">
-        <v>533</v>
-      </c>
-      <c r="M17" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="N17" s="40"/>
+        <v>88</v>
+      </c>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70" t="s">
+        <v>530</v>
+      </c>
       <c r="O17" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="P17" s="40" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="R17" s="40" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E18" s="40"/>
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
-      <c r="H18" s="40" t="s">
-        <v>39</v>
-      </c>
+      <c r="H18" s="40"/>
       <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="70" t="s">
-        <v>534</v>
-      </c>
-      <c r="M18" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="42"/>
-    </row>
-    <row r="19" spans="1:16" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J18" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="70" t="s">
+        <v>531</v>
+      </c>
+      <c r="O18" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="42"/>
+    </row>
+    <row r="19" spans="1:18" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E19" s="40"/>
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
-      <c r="H19" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="45" t="s">
-        <v>535</v>
-      </c>
-      <c r="L19" s="70" t="s">
-        <v>536</v>
-      </c>
-      <c r="M19" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="42"/>
-    </row>
-    <row r="20" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="45" t="s">
+        <v>532</v>
+      </c>
+      <c r="N19" s="70" t="s">
+        <v>533</v>
+      </c>
+      <c r="O19" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="42"/>
+    </row>
+    <row r="20" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E20" s="40"/>
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
-      <c r="H20" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70" t="s">
-        <v>542</v>
-      </c>
-      <c r="M20" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="42"/>
-    </row>
-    <row r="21" spans="1:16" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70" t="s">
+        <v>539</v>
+      </c>
+      <c r="O20" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="42"/>
+    </row>
+    <row r="21" spans="1:18" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="40"/>
       <c r="D21" s="40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E21" s="40"/>
       <c r="F21" s="40"/>
@@ -7748,59 +7913,63 @@
       <c r="H21" s="40"/>
       <c r="I21" s="40"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41" t="s">
-        <v>543</v>
-      </c>
-      <c r="M21" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="42"/>
-    </row>
-    <row r="22" spans="1:16" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41" t="s">
+        <v>540</v>
+      </c>
+      <c r="O21" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="42"/>
+    </row>
+    <row r="22" spans="1:18" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="39"/>
       <c r="B22" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="40"/>
       <c r="D22" s="40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E22" s="40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
-      <c r="H22" s="40" t="s">
-        <v>124</v>
-      </c>
+      <c r="H22" s="40"/>
       <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41" t="s">
-        <v>545</v>
-      </c>
-      <c r="M22" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="N22" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="O22" s="40"/>
-      <c r="P22" s="42"/>
-    </row>
-    <row r="23" spans="1:16" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J22" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41" t="s">
+        <v>542</v>
+      </c>
+      <c r="O22" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="P22" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="42"/>
+    </row>
+    <row r="23" spans="1:18" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23" s="40"/>
       <c r="D23" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E23" s="40"/>
       <c r="F23" s="40"/>
@@ -7808,29 +7977,31 @@
       <c r="H23" s="40"/>
       <c r="I23" s="40"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="41" t="s">
-        <v>381</v>
-      </c>
-      <c r="L23" s="41" t="s">
-        <v>544</v>
-      </c>
-      <c r="M23" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="42"/>
-    </row>
-    <row r="24" spans="1:16" s="30" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="N23" s="41" t="s">
+        <v>541</v>
+      </c>
+      <c r="O23" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="42"/>
+    </row>
+    <row r="24" spans="1:18" s="30" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="40"/>
       <c r="D24" s="40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E24" s="40"/>
       <c r="F24" s="40"/>
@@ -7838,227 +8009,247 @@
       <c r="H24" s="40"/>
       <c r="I24" s="40"/>
       <c r="J24" s="40"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41" t="s">
-        <v>546</v>
-      </c>
-      <c r="M24" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="42"/>
-    </row>
-    <row r="25" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41" t="s">
+        <v>543</v>
+      </c>
+      <c r="O24" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="42"/>
+    </row>
+    <row r="25" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C25" s="40"/>
       <c r="D25" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E25" s="40"/>
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
+      <c r="H25" s="40" t="s">
+        <v>550</v>
+      </c>
       <c r="I25" s="40"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="42"/>
-    </row>
-    <row r="26" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="42"/>
+    </row>
+    <row r="26" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C26" s="40"/>
       <c r="D26" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E26" s="40"/>
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
+      <c r="H26" s="40" t="s">
+        <v>550</v>
+      </c>
       <c r="I26" s="40"/>
       <c r="J26" s="40"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="42"/>
-    </row>
-    <row r="27" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="42"/>
+    </row>
+    <row r="27" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="40"/>
       <c r="D27" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E27" s="40"/>
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
+      <c r="H27" s="40" t="s">
+        <v>550</v>
+      </c>
       <c r="I27" s="40"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="42"/>
-    </row>
-    <row r="28" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="42"/>
+    </row>
+    <row r="28" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="39"/>
       <c r="B28" s="40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" s="40"/>
-      <c r="D28" s="40" t="s">
-        <v>120</v>
-      </c>
+      <c r="D28" s="40"/>
       <c r="E28" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F28" s="40"/>
       <c r="G28" s="40"/>
-      <c r="H28" s="40" t="s">
-        <v>124</v>
-      </c>
+      <c r="H28" s="40"/>
       <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="N28" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="O28" s="40"/>
-      <c r="P28" s="42"/>
-    </row>
-    <row r="29" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J28" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="P28" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="42"/>
+    </row>
+    <row r="29" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="39"/>
       <c r="B29" s="40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="40"/>
       <c r="D29" s="40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E29" s="40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F29" s="40"/>
       <c r="G29" s="40"/>
-      <c r="H29" s="40" t="s">
-        <v>124</v>
-      </c>
+      <c r="H29" s="40"/>
       <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="N29" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="O29" s="40"/>
-      <c r="P29" s="42"/>
-    </row>
-    <row r="30" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J29" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="P29" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="42"/>
+    </row>
+    <row r="30" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="39"/>
       <c r="B30" s="40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30" s="40"/>
       <c r="D30" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F30" s="40"/>
       <c r="G30" s="40"/>
-      <c r="H30" s="40" t="s">
-        <v>128</v>
-      </c>
+      <c r="H30" s="40"/>
       <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="41" t="s">
-        <v>378</v>
-      </c>
-      <c r="L30" s="41"/>
-      <c r="M30" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="N30" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="O30" s="40"/>
-      <c r="P30" s="42"/>
-    </row>
-    <row r="31" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J30" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="41" t="s">
+        <v>375</v>
+      </c>
+      <c r="N30" s="41"/>
+      <c r="O30" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="P30" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="42"/>
+    </row>
+    <row r="31" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="43"/>
       <c r="B31" s="44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" s="44"/>
       <c r="D31" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E31" s="40" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
-      <c r="H31" s="44" t="s">
-        <v>124</v>
-      </c>
+      <c r="H31" s="44"/>
       <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="45" t="s">
-        <v>379</v>
-      </c>
-      <c r="L31" s="45"/>
-      <c r="M31" s="44" t="s">
+      <c r="J31" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="N31" s="40" t="s">
-        <v>183</v>
-      </c>
-      <c r="O31" s="44"/>
-      <c r="P31" s="72"/>
-    </row>
-    <row r="32" spans="1:16" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="45" t="s">
+        <v>376</v>
+      </c>
+      <c r="N31" s="45"/>
+      <c r="O31" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="P31" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="72"/>
+    </row>
+    <row r="32" spans="1:18" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="43"/>
       <c r="B32" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="44"/>
       <c r="D32" s="44" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E32" s="44"/>
       <c r="F32" s="44"/>
@@ -8066,131 +8257,143 @@
       <c r="H32" s="44"/>
       <c r="I32" s="44"/>
       <c r="J32" s="44"/>
-      <c r="K32" s="45" t="s">
-        <v>380</v>
-      </c>
-      <c r="L32" s="45"/>
-      <c r="M32" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="N32" s="44"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="72"/>
-    </row>
-    <row r="33" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="45" t="s">
+        <v>377</v>
+      </c>
+      <c r="N32" s="45"/>
+      <c r="O32" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="72"/>
+    </row>
+    <row r="33" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="44" t="s">
         <v>51</v>
-      </c>
-      <c r="B33" s="44" t="s">
-        <v>52</v>
       </c>
       <c r="C33" s="44"/>
       <c r="D33" s="40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F33" s="44"/>
       <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44" t="s">
-        <v>278</v>
-      </c>
-      <c r="J33" s="44" t="s">
-        <v>213</v>
-      </c>
-      <c r="K33" s="45" t="s">
-        <v>381</v>
-      </c>
-      <c r="L33" s="45"/>
-      <c r="M33" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="N33" s="44" t="s">
-        <v>218</v>
-      </c>
-      <c r="O33" s="44"/>
-      <c r="P33" s="72"/>
-    </row>
-    <row r="34" spans="1:16" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H33" s="44" t="s">
+        <v>552</v>
+      </c>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44" t="s">
+        <v>276</v>
+      </c>
+      <c r="L33" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="M33" s="45" t="s">
+        <v>378</v>
+      </c>
+      <c r="N33" s="45"/>
+      <c r="O33" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="P33" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="72"/>
+    </row>
+    <row r="34" spans="1:18" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="44" t="s">
         <v>51</v>
-      </c>
-      <c r="B34" s="44" t="s">
-        <v>52</v>
       </c>
       <c r="C34" s="40"/>
       <c r="D34" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E34" s="44" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
       <c r="H34" s="40"/>
-      <c r="I34" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="J34" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="N34" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="O34" s="40"/>
-      <c r="P34" s="42"/>
-    </row>
-    <row r="35" spans="1:16" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="I34" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="J34" s="40"/>
+      <c r="K34" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="L34" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="P34" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="42"/>
+    </row>
+    <row r="35" spans="1:18" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="44" t="s">
         <v>51</v>
-      </c>
-      <c r="B35" s="44" t="s">
-        <v>52</v>
       </c>
       <c r="C35" s="40"/>
       <c r="D35" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E35" s="44" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
       <c r="H35" s="40"/>
-      <c r="I35" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="J35" s="40" t="s">
-        <v>528</v>
-      </c>
-      <c r="K35" s="45" t="s">
-        <v>380</v>
-      </c>
-      <c r="L35" s="45"/>
-      <c r="M35" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="N35" s="44" t="s">
-        <v>220</v>
-      </c>
-      <c r="O35" s="40"/>
-      <c r="P35" s="42"/>
-    </row>
-    <row r="36" spans="1:16" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="L35" s="40" t="s">
+        <v>525</v>
+      </c>
+      <c r="M35" s="45" t="s">
+        <v>377</v>
+      </c>
+      <c r="N35" s="45"/>
+      <c r="O35" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="P35" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="42"/>
+    </row>
+    <row r="36" spans="1:18" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="43"/>
       <c r="B36" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="40"/>
       <c r="D36" s="40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E36" s="40"/>
       <c r="F36" s="40"/>
@@ -8198,114 +8401,364 @@
       <c r="H36" s="40"/>
       <c r="I36" s="40"/>
       <c r="J36" s="40"/>
-      <c r="K36" s="45" t="s">
-        <v>382</v>
-      </c>
-      <c r="L36" s="45"/>
-      <c r="M36" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="N36" s="40"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="42"/>
-    </row>
-    <row r="37" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="45" t="s">
+        <v>379</v>
+      </c>
+      <c r="N36" s="45"/>
+      <c r="O36" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="42"/>
+    </row>
+    <row r="37" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="40" t="s">
         <v>51</v>
-      </c>
-      <c r="B37" s="40" t="s">
-        <v>52</v>
       </c>
       <c r="C37" s="40"/>
       <c r="D37" s="40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E37" s="44" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F37" s="40"/>
       <c r="G37" s="40"/>
       <c r="H37" s="40"/>
       <c r="I37" s="40"/>
       <c r="J37" s="40"/>
-      <c r="K37" s="45" t="s">
-        <v>383</v>
-      </c>
-      <c r="L37" s="45"/>
-      <c r="M37" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="N37" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="O37" s="40"/>
-      <c r="P37" s="42"/>
-    </row>
-    <row r="38" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="N37" s="45"/>
+      <c r="O37" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="P37" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="42"/>
+    </row>
+    <row r="38" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="40" t="s">
         <v>51</v>
-      </c>
-      <c r="B38" s="40" t="s">
-        <v>52</v>
       </c>
       <c r="C38" s="40"/>
       <c r="D38" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E38" s="44" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F38" s="40"/>
       <c r="G38" s="40"/>
       <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
+      <c r="I38" s="40" t="s">
+        <v>553</v>
+      </c>
       <c r="J38" s="40"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="N38" s="44" t="s">
-        <v>222</v>
-      </c>
-      <c r="O38" s="40"/>
-      <c r="P38" s="42"/>
-    </row>
-    <row r="39" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="P38" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="42"/>
+    </row>
+    <row r="39" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="44" t="s">
         <v>51</v>
-      </c>
-      <c r="B39" s="40" t="s">
-        <v>52</v>
       </c>
       <c r="C39" s="44"/>
       <c r="D39" s="44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E39" s="44" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F39" s="44"/>
       <c r="G39" s="44"/>
       <c r="H39" s="44"/>
       <c r="I39" s="44"/>
       <c r="J39" s="44"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="N39" s="44" t="s">
-        <v>223</v>
-      </c>
-      <c r="O39" s="44"/>
-      <c r="P39" s="72"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="P39" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q39" s="44"/>
+      <c r="R39" s="72"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A40" s="79"/>
+      <c r="B40" s="79"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="79"/>
+      <c r="I40" s="79"/>
+      <c r="J40" s="79"/>
+      <c r="K40" s="79"/>
+      <c r="L40" s="79"/>
+      <c r="M40" s="80"/>
+      <c r="N40" s="80"/>
+      <c r="O40" s="79"/>
+      <c r="P40" s="79"/>
+      <c r="Q40" s="79"/>
+      <c r="R40" s="79"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A41" s="79"/>
+      <c r="B41" s="79"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="79"/>
+      <c r="K41" s="79"/>
+      <c r="L41" s="79"/>
+      <c r="M41" s="80"/>
+      <c r="N41" s="80"/>
+      <c r="O41" s="79"/>
+      <c r="P41" s="79"/>
+      <c r="Q41" s="79"/>
+      <c r="R41" s="79"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A42" s="79"/>
+      <c r="B42" s="79"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="79"/>
+      <c r="H42" s="79"/>
+      <c r="I42" s="79"/>
+      <c r="J42" s="79"/>
+      <c r="K42" s="79"/>
+      <c r="L42" s="79"/>
+      <c r="M42" s="80"/>
+      <c r="N42" s="80"/>
+      <c r="O42" s="79"/>
+      <c r="P42" s="79"/>
+      <c r="Q42" s="79"/>
+      <c r="R42" s="79"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A43" s="79"/>
+      <c r="B43" s="79"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="79"/>
+      <c r="I43" s="79"/>
+      <c r="J43" s="79"/>
+      <c r="K43" s="79"/>
+      <c r="L43" s="79"/>
+      <c r="M43" s="80"/>
+      <c r="N43" s="80"/>
+      <c r="O43" s="79"/>
+      <c r="P43" s="79"/>
+      <c r="Q43" s="79"/>
+      <c r="R43" s="79"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A44" s="79"/>
+      <c r="B44" s="79"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="79"/>
+      <c r="H44" s="79"/>
+      <c r="I44" s="79"/>
+      <c r="J44" s="79"/>
+      <c r="K44" s="79"/>
+      <c r="L44" s="79"/>
+      <c r="M44" s="80"/>
+      <c r="N44" s="80"/>
+      <c r="O44" s="79"/>
+      <c r="P44" s="79"/>
+      <c r="Q44" s="79"/>
+      <c r="R44" s="79"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A45" s="79"/>
+      <c r="B45" s="79"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="79"/>
+      <c r="G45" s="79"/>
+      <c r="H45" s="79"/>
+      <c r="I45" s="79"/>
+      <c r="J45" s="79"/>
+      <c r="K45" s="79"/>
+      <c r="L45" s="79"/>
+      <c r="M45" s="80"/>
+      <c r="N45" s="80"/>
+      <c r="O45" s="79"/>
+      <c r="P45" s="79"/>
+      <c r="Q45" s="79"/>
+      <c r="R45" s="79"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A46" s="79"/>
+      <c r="B46" s="79"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="79"/>
+      <c r="G46" s="79"/>
+      <c r="H46" s="79"/>
+      <c r="I46" s="79"/>
+      <c r="J46" s="79"/>
+      <c r="K46" s="79"/>
+      <c r="L46" s="79"/>
+      <c r="M46" s="80"/>
+      <c r="N46" s="80"/>
+      <c r="O46" s="79"/>
+      <c r="P46" s="79"/>
+      <c r="Q46" s="79"/>
+      <c r="R46" s="79"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A47" s="79"/>
+      <c r="B47" s="79"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="79"/>
+      <c r="G47" s="79"/>
+      <c r="H47" s="79"/>
+      <c r="I47" s="79"/>
+      <c r="J47" s="79"/>
+      <c r="K47" s="79"/>
+      <c r="L47" s="79"/>
+      <c r="M47" s="80"/>
+      <c r="N47" s="80"/>
+      <c r="O47" s="79"/>
+      <c r="P47" s="79"/>
+      <c r="Q47" s="79"/>
+      <c r="R47" s="79"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A48" s="79"/>
+      <c r="B48" s="79"/>
+      <c r="C48" s="79"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="79"/>
+      <c r="H48" s="79"/>
+      <c r="I48" s="79"/>
+      <c r="J48" s="79"/>
+      <c r="K48" s="79"/>
+      <c r="L48" s="79"/>
+      <c r="M48" s="80"/>
+      <c r="N48" s="80"/>
+      <c r="O48" s="79"/>
+      <c r="P48" s="79"/>
+      <c r="Q48" s="79"/>
+      <c r="R48" s="79"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A49" s="79"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="79"/>
+      <c r="G49" s="79"/>
+      <c r="H49" s="79"/>
+      <c r="I49" s="79"/>
+      <c r="J49" s="79"/>
+      <c r="K49" s="79"/>
+      <c r="L49" s="79"/>
+      <c r="M49" s="80"/>
+      <c r="N49" s="80"/>
+      <c r="O49" s="79"/>
+      <c r="P49" s="79"/>
+      <c r="Q49" s="79"/>
+      <c r="R49" s="79"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A50" s="79"/>
+      <c r="B50" s="79"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="79"/>
+      <c r="G50" s="79"/>
+      <c r="H50" s="79"/>
+      <c r="I50" s="79"/>
+      <c r="J50" s="79"/>
+      <c r="K50" s="79"/>
+      <c r="L50" s="79"/>
+      <c r="M50" s="80"/>
+      <c r="N50" s="80"/>
+      <c r="O50" s="79"/>
+      <c r="P50" s="79"/>
+      <c r="Q50" s="79"/>
+      <c r="R50" s="79"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A51" s="79"/>
+      <c r="B51" s="79"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="79"/>
+      <c r="G51" s="79"/>
+      <c r="H51" s="79"/>
+      <c r="I51" s="79"/>
+      <c r="J51" s="79"/>
+      <c r="K51" s="79"/>
+      <c r="L51" s="79"/>
+      <c r="M51" s="80"/>
+      <c r="N51" s="80"/>
+      <c r="O51" s="79"/>
+      <c r="P51" s="79"/>
+      <c r="Q51" s="79"/>
+      <c r="R51" s="79"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError sqref="B3:B31 B32:B39" numberStoredAsText="1"/>
+    <ignoredError sqref="B3:B31 B32:B39 I11 I6 I34 I38" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
@@ -8335,7 +8788,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -8343,7 +8796,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -8383,74 +8836,74 @@
         <v>12</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="C5" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="D5" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="26" t="s">
         <v>126</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -8480,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -8488,7 +8941,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -8517,74 +8970,74 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="C1" s="34" t="s">
         <v>190</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="C2" s="37" t="s">
         <v>193</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>199</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C4" s="35" t="s">
         <v>213</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="36" t="s">
         <v>195</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>196</v>
       </c>
       <c r="C6" s="36"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="36" t="s">
         <v>197</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>198</v>
       </c>
       <c r="C7" s="36"/>
     </row>
@@ -8615,7 +9068,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -8623,7 +9076,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/tools/example_framework.xlsx
+++ b/tools/example_framework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tarkadia\projects\intuitem\ciso-assistant-community\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4555D90F-56C7-4C28-84D2-704721252C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B82BEC1-C307-46E4-84FF-7E6F0115A23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1485" yWindow="-15870" windowWidth="25440" windowHeight="15990" tabRatio="907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="6" r:id="rId1"/>
@@ -666,7 +666,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="553">
   <si>
     <t>type</t>
   </si>
@@ -1328,9 +1328,6 @@
   </si>
   <si>
     <t>answer</t>
-  </si>
-  <si>
-    <t>Is it true ?</t>
   </si>
   <si>
     <t>Is a) respected?
@@ -2539,10 +2536,10 @@
     <t>recommended</t>
   </si>
   <si>
-    <t>undefined</t>
-  </si>
-  <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>Is it true?</t>
   </si>
 </sst>
 </file>
@@ -3003,7 +3000,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3213,11 +3210,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3228,6 +3237,69 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3252,88 +3324,7 @@
     <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4834,400 +4825,380 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="62.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="98"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="105"/>
     </row>
     <row r="2" spans="1:13" ht="42.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="99" t="s">
-        <v>545</v>
-      </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="101"/>
+      <c r="A2" s="106" t="s">
+        <v>544</v>
+      </c>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="108"/>
     </row>
     <row r="3" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="104"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="90"/>
     </row>
     <row r="4" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="112" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="87"/>
+    </row>
+    <row r="5" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="94" t="s">
         <v>257</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="83"/>
-    </row>
-    <row r="5" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="92" t="s">
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="85" t="s">
+        <v>264</v>
+      </c>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="87"/>
+    </row>
+    <row r="6" spans="1:13" ht="19.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="117" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="87"/>
+    </row>
+    <row r="7" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="116" t="s">
+        <v>253</v>
+      </c>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="87"/>
+    </row>
+    <row r="8" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="115" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="85" t="s">
+        <v>266</v>
+      </c>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="87"/>
+    </row>
+    <row r="9" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="114" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" s="114"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="85" t="s">
+        <v>268</v>
+      </c>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="87"/>
+    </row>
+    <row r="10" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="109" t="s">
+        <v>271</v>
+      </c>
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="85" t="s">
+        <v>267</v>
+      </c>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="87"/>
+    </row>
+    <row r="11" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="110" t="s">
+        <v>272</v>
+      </c>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="85" t="s">
+        <v>277</v>
+      </c>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="87"/>
+    </row>
+    <row r="12" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="111" t="s">
+        <v>273</v>
+      </c>
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="85" t="s">
+        <v>278</v>
+      </c>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="87"/>
+    </row>
+    <row r="13" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="79"/>
+      <c r="C13" s="80" t="s">
+        <v>543</v>
+      </c>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
+    </row>
+    <row r="14" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="88" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="89"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="90"/>
+    </row>
+    <row r="15" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="100" t="s">
         <v>258</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="81" t="s">
-        <v>265</v>
-      </c>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="83"/>
-    </row>
-    <row r="6" spans="1:13" ht="19.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="95" t="s">
-        <v>253</v>
-      </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="81" t="s">
-        <v>266</v>
-      </c>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="83"/>
-    </row>
-    <row r="7" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="91" t="s">
-        <v>254</v>
-      </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="81" t="s">
-        <v>275</v>
-      </c>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="83"/>
-    </row>
-    <row r="8" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="90" t="s">
-        <v>255</v>
-      </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="81" t="s">
-        <v>267</v>
-      </c>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="83"/>
-    </row>
-    <row r="9" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="89" t="s">
-        <v>256</v>
-      </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="81" t="s">
-        <v>269</v>
-      </c>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="83"/>
-    </row>
-    <row r="10" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="84" t="s">
-        <v>272</v>
-      </c>
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="81" t="s">
-        <v>268</v>
-      </c>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="83"/>
-    </row>
-    <row r="11" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="85" t="s">
-        <v>273</v>
-      </c>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="81" t="s">
-        <v>278</v>
-      </c>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="83"/>
-    </row>
-    <row r="12" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="86" t="s">
-        <v>274</v>
-      </c>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="81" t="s">
-        <v>279</v>
-      </c>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="83"/>
-    </row>
-    <row r="13" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="105" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="105"/>
-      <c r="C13" s="106" t="s">
-        <v>544</v>
-      </c>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
-      <c r="L13" s="107"/>
-      <c r="M13" s="107"/>
-    </row>
-    <row r="14" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="102" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="103"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="104"/>
-    </row>
-    <row r="15" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="117" t="s">
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="85" t="s">
+        <v>263</v>
+      </c>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="87"/>
+    </row>
+    <row r="16" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="85" t="s">
         <v>259</v>
       </c>
-      <c r="B15" s="118"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="81" t="s">
-        <v>264</v>
-      </c>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="83"/>
-    </row>
-    <row r="16" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="92" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="93"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="81" t="s">
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="87"/>
+    </row>
+    <row r="17" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="97" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="85" t="s">
         <v>260</v>
       </c>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="83"/>
-    </row>
-    <row r="17" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="114" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="115"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="81" t="s">
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="87"/>
+    </row>
+    <row r="18" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="85" t="s">
         <v>261</v>
       </c>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="83"/>
-    </row>
-    <row r="18" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="111" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="112"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="81" t="s">
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="87"/>
+    </row>
+    <row r="19" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="83"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="87"/>
+    </row>
+    <row r="20" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="79"/>
+      <c r="C20" s="80" t="s">
         <v>262</v>
       </c>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="83"/>
-    </row>
-    <row r="19" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="108" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="109"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="81" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="83"/>
-    </row>
-    <row r="20" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="105"/>
-      <c r="C20" s="106" t="s">
-        <v>263</v>
-      </c>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="107"/>
-      <c r="L20" s="107"/>
-      <c r="M20" s="107"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="81"/>
     </row>
     <row r="21" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:M19"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:M13"/>
-    <mergeCell ref="A14:M14"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:M18"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:M16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:M17"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:M15"/>
-    <mergeCell ref="G7:M7"/>
-    <mergeCell ref="G8:M8"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:M3"/>
     <mergeCell ref="G9:M9"/>
     <mergeCell ref="G12:M12"/>
     <mergeCell ref="G4:M4"/>
@@ -5244,6 +5215,26 @@
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="G5:M5"/>
     <mergeCell ref="G6:M6"/>
+    <mergeCell ref="G7:M7"/>
+    <mergeCell ref="G8:M8"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:M19"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:M13"/>
+    <mergeCell ref="A14:M14"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:M16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:M17"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5273,7 +5264,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>10</v>
@@ -5294,16 +5285,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F2" s="47"/>
       <c r="G2" s="48"/>
@@ -5313,16 +5304,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" s="50" t="s">
         <v>232</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>233</v>
-      </c>
       <c r="E3" s="51" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F3" s="47"/>
       <c r="G3" s="48"/>
@@ -5332,16 +5323,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="48"/>
@@ -5351,16 +5342,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E5" s="51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="48"/>
@@ -5370,16 +5361,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F6" s="48"/>
       <c r="G6" s="48"/>
@@ -5389,16 +5380,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F7" s="48"/>
       <c r="G7" s="48"/>
@@ -5436,7 +5427,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -5444,7 +5435,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -5501,559 +5492,559 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="63" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E2" s="60" t="s">
+        <v>338</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="G2" s="31" t="s">
         <v>339</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>360</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>340</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="63" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D3" s="31"/>
       <c r="E3" s="60" t="s">
+        <v>340</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>444</v>
+      </c>
+      <c r="G3" s="31" t="s">
         <v>341</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>445</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>342</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="63" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="31" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="63" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
       <c r="E5" s="60" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="63" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
       <c r="E6" s="60" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="63" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
       <c r="E7" s="60" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="63" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
       <c r="E8" s="60" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="63" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
       <c r="E9" s="60" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="63" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="63" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="63" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="31" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="63" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C13" s="31"/>
       <c r="D13" s="31" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="63" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="31" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="63" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D15" s="31"/>
       <c r="E15" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="63" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="31" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I16"/>
       <c r="J16"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="63" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D17" s="31"/>
       <c r="E17" s="31" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I17"/>
       <c r="J17"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="63" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D18" s="31"/>
       <c r="E18" s="31" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="63" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
       <c r="E19" s="31" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I19"/>
       <c r="J19"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="63" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B20" s="60" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E20" s="60" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G20" s="31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="63" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D21" s="31"/>
       <c r="E21" s="60" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I21"/>
       <c r="J21"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="63" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C22" s="66"/>
       <c r="D22" s="31" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E22" s="60" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F22" s="66" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G22" s="66" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I22"/>
       <c r="J22"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="63" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C23" s="66"/>
       <c r="D23" s="66"/>
       <c r="E23" s="60" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F23" s="66" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G23" s="66" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I23"/>
       <c r="J23"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="63" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C24" s="66"/>
       <c r="D24" s="66"/>
       <c r="E24" s="60" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F24" s="66" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G24" s="66" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I24"/>
       <c r="J24"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="63" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B25" s="60" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
       <c r="E25" s="60" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I25"/>
       <c r="J25"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="63" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
       <c r="E26" s="60" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F26" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G26" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I26"/>
       <c r="J26"/>
@@ -6090,7 +6081,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -6098,7 +6089,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -6140,10 +6131,10 @@
         <v>10</v>
       </c>
       <c r="C1" s="64" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D1" s="64" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E1" s="62" t="s">
         <v>12</v>
@@ -6163,612 +6154,612 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
       <c r="E2" s="31" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
       <c r="E3" s="31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F3" s="31"/>
       <c r="G3" s="31" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
       <c r="F4" s="31" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
       <c r="F5" s="31"/>
       <c r="G5" s="31" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
       <c r="F6" s="31"/>
       <c r="G6" s="31" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
       <c r="F7" s="31"/>
       <c r="G7" s="31" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D8" s="31"/>
       <c r="E8" s="31"/>
       <c r="F8" s="31"/>
       <c r="G8" s="31" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
+        <v>519</v>
+      </c>
+      <c r="B9" s="31" t="s">
         <v>520</v>
       </c>
-      <c r="B9" s="31" t="s">
-        <v>521</v>
-      </c>
       <c r="C9" s="31" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D9" s="66"/>
       <c r="E9" s="66"/>
       <c r="F9" s="66"/>
       <c r="G9" s="31" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H9" s="66"/>
       <c r="I9" s="66"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
+        <v>418</v>
+      </c>
+      <c r="B10" s="31" t="s">
         <v>419</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>420</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="31" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E10" s="31"/>
       <c r="F10" s="31"/>
       <c r="G10" s="31" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
+        <v>420</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>421</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>422</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="31" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E11" s="31"/>
       <c r="F11" s="31" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="31" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E12" s="31"/>
       <c r="F12" s="31" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C13" s="31"/>
       <c r="D13" s="31" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E13" s="31"/>
       <c r="F13" s="31" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C14" s="31"/>
       <c r="D14" s="31" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E14" s="31"/>
       <c r="F14" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C15" s="31"/>
       <c r="D15" s="31" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="31" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="31" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="31" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D18" s="31"/>
       <c r="E18" s="31" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F18" s="31"/>
       <c r="G18" s="31" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="31" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
       <c r="E19" s="31" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="31" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
       <c r="F20" s="31"/>
       <c r="G20" s="31" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="31" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
       <c r="E22" s="31" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F22" s="31"/>
       <c r="G22" s="31" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H22" s="31" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I22" s="31"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="31" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D23" s="31"/>
       <c r="E23" s="31"/>
       <c r="F23" s="31" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
       <c r="E24" s="31"/>
       <c r="F24" s="31"/>
       <c r="G24" s="31" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="31" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
       <c r="E25" s="31"/>
       <c r="F25" s="31"/>
       <c r="G25" s="31" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I25" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
       <c r="E26" s="31"/>
       <c r="F26" s="31"/>
       <c r="G26" s="31" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="31" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C27" s="31"/>
       <c r="D27" s="31"/>
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
       <c r="G27" s="31" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -6802,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -6829,10 +6820,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="B1" s="68" t="s">
         <v>373</v>
-      </c>
-      <c r="B1" s="68" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -6840,7 +6831,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -6848,7 +6839,7 @@
         <v>51</v>
       </c>
       <c r="B3" s="67" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -6856,7 +6847,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="67" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -6949,7 +6940,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -6970,10 +6961,10 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="78" t="s">
+        <v>535</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>536</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -7084,28 +7075,28 @@
         <v>186</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="52" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B9" s="54" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="52" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="52" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B11" s="55" t="s">
         <v>67</v>
@@ -7141,7 +7132,7 @@
   <sheetPr codeName="Feuil4">
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7193,10 +7184,10 @@
         <v>33</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>547</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>548</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>34</v>
@@ -7208,10 +7199,10 @@
         <v>201</v>
       </c>
       <c r="M1" s="69" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N1" s="75" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="O1" s="14" t="s">
         <v>18</v>
@@ -7341,12 +7332,12 @@
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
       <c r="H5" s="40" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I5" s="40"/>
       <c r="J5" s="40"/>
       <c r="K5" s="40" t="s">
-        <v>202</v>
+        <v>552</v>
       </c>
       <c r="L5" s="36" t="s">
         <v>191</v>
@@ -7386,7 +7377,7 @@
       </c>
       <c r="J6" s="40"/>
       <c r="K6" s="41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L6" s="36" t="s">
         <v>191</v>
@@ -7426,10 +7417,10 @@
       <c r="I7" s="40"/>
       <c r="J7" s="40"/>
       <c r="K7" s="41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L7" s="41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M7" s="41"/>
       <c r="N7" s="41"/>
@@ -7499,7 +7490,7 @@
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
       <c r="H9" s="40" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I9" s="40"/>
       <c r="J9" s="40"/>
@@ -7661,7 +7652,7 @@
       <c r="L14" s="40"/>
       <c r="M14" s="41"/>
       <c r="N14" s="41" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="O14" s="40" t="s">
         <v>139</v>
@@ -7687,7 +7678,7 @@
       </c>
       <c r="G15" s="40"/>
       <c r="H15" s="39" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I15" s="39">
         <v>5</v>
@@ -7699,7 +7690,7 @@
       <c r="L15" s="17"/>
       <c r="M15" s="70"/>
       <c r="N15" s="76" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="O15" s="40" t="s">
         <v>140</v>
@@ -7729,7 +7720,7 @@
         <v>87</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I16" s="39"/>
       <c r="J16" s="17" t="s">
@@ -7739,7 +7730,7 @@
       <c r="L16" s="17"/>
       <c r="M16" s="70"/>
       <c r="N16" s="70" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="O16" s="40" t="s">
         <v>141</v>
@@ -7779,7 +7770,7 @@
       <c r="L17" s="17"/>
       <c r="M17" s="70"/>
       <c r="N17" s="70" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="O17" s="40" t="s">
         <v>142</v>
@@ -7817,7 +7808,7 @@
       <c r="L18" s="40"/>
       <c r="M18" s="41"/>
       <c r="N18" s="70" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="O18" s="40" t="s">
         <v>143</v>
@@ -7850,10 +7841,10 @@
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
       <c r="M19" s="45" t="s">
+        <v>531</v>
+      </c>
+      <c r="N19" s="70" t="s">
         <v>532</v>
-      </c>
-      <c r="N19" s="70" t="s">
-        <v>533</v>
       </c>
       <c r="O19" s="40" t="s">
         <v>144</v>
@@ -7887,7 +7878,7 @@
       <c r="L20" s="17"/>
       <c r="M20" s="70"/>
       <c r="N20" s="70" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="O20" s="40" t="s">
         <v>145</v>
@@ -7917,7 +7908,7 @@
       <c r="L21" s="40"/>
       <c r="M21" s="41"/>
       <c r="N21" s="41" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="O21" s="40" t="s">
         <v>146</v>
@@ -7949,7 +7940,7 @@
       <c r="L22" s="40"/>
       <c r="M22" s="41"/>
       <c r="N22" s="41" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="O22" s="40" t="s">
         <v>118</v>
@@ -7980,10 +7971,10 @@
       <c r="K23" s="40"/>
       <c r="L23" s="40"/>
       <c r="M23" s="41" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N23" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="O23" s="40" t="s">
         <v>147</v>
@@ -8013,7 +8004,7 @@
       <c r="L24" s="40"/>
       <c r="M24" s="41"/>
       <c r="N24" s="41" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="O24" s="40" t="s">
         <v>148</v>
@@ -8037,7 +8028,7 @@
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
       <c r="H25" s="40" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I25" s="40"/>
       <c r="J25" s="40"/>
@@ -8067,7 +8058,7 @@
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
       <c r="H26" s="40" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I26" s="40"/>
       <c r="J26" s="40"/>
@@ -8097,7 +8088,7 @@
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
       <c r="H27" s="40" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I27" s="40"/>
       <c r="J27" s="40"/>
@@ -8196,7 +8187,7 @@
       <c r="K30" s="40"/>
       <c r="L30" s="40"/>
       <c r="M30" s="41" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N30" s="41"/>
       <c r="O30" s="40" t="s">
@@ -8230,7 +8221,7 @@
       <c r="K31" s="44"/>
       <c r="L31" s="44"/>
       <c r="M31" s="45" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N31" s="45"/>
       <c r="O31" s="44" t="s">
@@ -8260,7 +8251,7 @@
       <c r="K32" s="44"/>
       <c r="L32" s="44"/>
       <c r="M32" s="45" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N32" s="45"/>
       <c r="O32" s="44" t="s">
@@ -8282,30 +8273,28 @@
         <v>55</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F33" s="44"/>
       <c r="G33" s="44"/>
-      <c r="H33" s="44" t="s">
-        <v>552</v>
-      </c>
+      <c r="H33" s="44"/>
       <c r="I33" s="44"/>
       <c r="J33" s="44"/>
       <c r="K33" s="44" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L33" s="44" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M33" s="45" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N33" s="45"/>
       <c r="O33" s="40" t="s">
         <v>130</v>
       </c>
       <c r="P33" s="44" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q33" s="44"/>
       <c r="R33" s="72"/>
@@ -8322,7 +8311,7 @@
         <v>57</v>
       </c>
       <c r="E34" s="44" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
@@ -8332,10 +8321,10 @@
       </c>
       <c r="J34" s="40"/>
       <c r="K34" s="45" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L34" s="41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M34" s="45"/>
       <c r="N34" s="45"/>
@@ -8343,7 +8332,7 @@
         <v>131</v>
       </c>
       <c r="P34" s="44" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q34" s="40"/>
       <c r="R34" s="42"/>
@@ -8360,7 +8349,7 @@
         <v>58</v>
       </c>
       <c r="E35" s="44" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
@@ -8368,20 +8357,20 @@
       <c r="I35" s="40"/>
       <c r="J35" s="40"/>
       <c r="K35" s="41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L35" s="40" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="M35" s="45" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N35" s="45"/>
       <c r="O35" s="40" t="s">
         <v>132</v>
       </c>
       <c r="P35" s="44" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q35" s="40"/>
       <c r="R35" s="42"/>
@@ -8404,7 +8393,7 @@
       <c r="K36" s="40"/>
       <c r="L36" s="40"/>
       <c r="M36" s="45" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N36" s="45"/>
       <c r="O36" s="40" t="s">
@@ -8426,7 +8415,7 @@
         <v>55</v>
       </c>
       <c r="E37" s="44" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F37" s="40"/>
       <c r="G37" s="40"/>
@@ -8436,14 +8425,14 @@
       <c r="K37" s="40"/>
       <c r="L37" s="40"/>
       <c r="M37" s="45" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N37" s="45"/>
       <c r="O37" s="40" t="s">
         <v>130</v>
       </c>
       <c r="P37" s="44" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q37" s="40"/>
       <c r="R37" s="42"/>
@@ -8460,13 +8449,13 @@
         <v>57</v>
       </c>
       <c r="E38" s="44" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F38" s="40"/>
       <c r="G38" s="40"/>
       <c r="H38" s="40"/>
       <c r="I38" s="40" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J38" s="40"/>
       <c r="K38" s="40"/>
@@ -8477,7 +8466,7 @@
         <v>131</v>
       </c>
       <c r="P38" s="44" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q38" s="40"/>
       <c r="R38" s="42"/>
@@ -8494,7 +8483,7 @@
         <v>58</v>
       </c>
       <c r="E39" s="44" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F39" s="44"/>
       <c r="G39" s="44"/>
@@ -8509,250 +8498,10 @@
         <v>132</v>
       </c>
       <c r="P39" s="44" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q39" s="44"/>
       <c r="R39" s="72"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A40" s="79"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79"/>
-      <c r="I40" s="79"/>
-      <c r="J40" s="79"/>
-      <c r="K40" s="79"/>
-      <c r="L40" s="79"/>
-      <c r="M40" s="80"/>
-      <c r="N40" s="80"/>
-      <c r="O40" s="79"/>
-      <c r="P40" s="79"/>
-      <c r="Q40" s="79"/>
-      <c r="R40" s="79"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A41" s="79"/>
-      <c r="B41" s="79"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="79"/>
-      <c r="I41" s="79"/>
-      <c r="J41" s="79"/>
-      <c r="K41" s="79"/>
-      <c r="L41" s="79"/>
-      <c r="M41" s="80"/>
-      <c r="N41" s="80"/>
-      <c r="O41" s="79"/>
-      <c r="P41" s="79"/>
-      <c r="Q41" s="79"/>
-      <c r="R41" s="79"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A42" s="79"/>
-      <c r="B42" s="79"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="79"/>
-      <c r="H42" s="79"/>
-      <c r="I42" s="79"/>
-      <c r="J42" s="79"/>
-      <c r="K42" s="79"/>
-      <c r="L42" s="79"/>
-      <c r="M42" s="80"/>
-      <c r="N42" s="80"/>
-      <c r="O42" s="79"/>
-      <c r="P42" s="79"/>
-      <c r="Q42" s="79"/>
-      <c r="R42" s="79"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A43" s="79"/>
-      <c r="B43" s="79"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="79"/>
-      <c r="H43" s="79"/>
-      <c r="I43" s="79"/>
-      <c r="J43" s="79"/>
-      <c r="K43" s="79"/>
-      <c r="L43" s="79"/>
-      <c r="M43" s="80"/>
-      <c r="N43" s="80"/>
-      <c r="O43" s="79"/>
-      <c r="P43" s="79"/>
-      <c r="Q43" s="79"/>
-      <c r="R43" s="79"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A44" s="79"/>
-      <c r="B44" s="79"/>
-      <c r="C44" s="79"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="79"/>
-      <c r="H44" s="79"/>
-      <c r="I44" s="79"/>
-      <c r="J44" s="79"/>
-      <c r="K44" s="79"/>
-      <c r="L44" s="79"/>
-      <c r="M44" s="80"/>
-      <c r="N44" s="80"/>
-      <c r="O44" s="79"/>
-      <c r="P44" s="79"/>
-      <c r="Q44" s="79"/>
-      <c r="R44" s="79"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A45" s="79"/>
-      <c r="B45" s="79"/>
-      <c r="C45" s="79"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="79"/>
-      <c r="F45" s="79"/>
-      <c r="G45" s="79"/>
-      <c r="H45" s="79"/>
-      <c r="I45" s="79"/>
-      <c r="J45" s="79"/>
-      <c r="K45" s="79"/>
-      <c r="L45" s="79"/>
-      <c r="M45" s="80"/>
-      <c r="N45" s="80"/>
-      <c r="O45" s="79"/>
-      <c r="P45" s="79"/>
-      <c r="Q45" s="79"/>
-      <c r="R45" s="79"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A46" s="79"/>
-      <c r="B46" s="79"/>
-      <c r="C46" s="79"/>
-      <c r="D46" s="79"/>
-      <c r="E46" s="79"/>
-      <c r="F46" s="79"/>
-      <c r="G46" s="79"/>
-      <c r="H46" s="79"/>
-      <c r="I46" s="79"/>
-      <c r="J46" s="79"/>
-      <c r="K46" s="79"/>
-      <c r="L46" s="79"/>
-      <c r="M46" s="80"/>
-      <c r="N46" s="80"/>
-      <c r="O46" s="79"/>
-      <c r="P46" s="79"/>
-      <c r="Q46" s="79"/>
-      <c r="R46" s="79"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A47" s="79"/>
-      <c r="B47" s="79"/>
-      <c r="C47" s="79"/>
-      <c r="D47" s="79"/>
-      <c r="E47" s="79"/>
-      <c r="F47" s="79"/>
-      <c r="G47" s="79"/>
-      <c r="H47" s="79"/>
-      <c r="I47" s="79"/>
-      <c r="J47" s="79"/>
-      <c r="K47" s="79"/>
-      <c r="L47" s="79"/>
-      <c r="M47" s="80"/>
-      <c r="N47" s="80"/>
-      <c r="O47" s="79"/>
-      <c r="P47" s="79"/>
-      <c r="Q47" s="79"/>
-      <c r="R47" s="79"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A48" s="79"/>
-      <c r="B48" s="79"/>
-      <c r="C48" s="79"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="79"/>
-      <c r="F48" s="79"/>
-      <c r="G48" s="79"/>
-      <c r="H48" s="79"/>
-      <c r="I48" s="79"/>
-      <c r="J48" s="79"/>
-      <c r="K48" s="79"/>
-      <c r="L48" s="79"/>
-      <c r="M48" s="80"/>
-      <c r="N48" s="80"/>
-      <c r="O48" s="79"/>
-      <c r="P48" s="79"/>
-      <c r="Q48" s="79"/>
-      <c r="R48" s="79"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A49" s="79"/>
-      <c r="B49" s="79"/>
-      <c r="C49" s="79"/>
-      <c r="D49" s="79"/>
-      <c r="E49" s="79"/>
-      <c r="F49" s="79"/>
-      <c r="G49" s="79"/>
-      <c r="H49" s="79"/>
-      <c r="I49" s="79"/>
-      <c r="J49" s="79"/>
-      <c r="K49" s="79"/>
-      <c r="L49" s="79"/>
-      <c r="M49" s="80"/>
-      <c r="N49" s="80"/>
-      <c r="O49" s="79"/>
-      <c r="P49" s="79"/>
-      <c r="Q49" s="79"/>
-      <c r="R49" s="79"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A50" s="79"/>
-      <c r="B50" s="79"/>
-      <c r="C50" s="79"/>
-      <c r="D50" s="79"/>
-      <c r="E50" s="79"/>
-      <c r="F50" s="79"/>
-      <c r="G50" s="79"/>
-      <c r="H50" s="79"/>
-      <c r="I50" s="79"/>
-      <c r="J50" s="79"/>
-      <c r="K50" s="79"/>
-      <c r="L50" s="79"/>
-      <c r="M50" s="80"/>
-      <c r="N50" s="80"/>
-      <c r="O50" s="79"/>
-      <c r="P50" s="79"/>
-      <c r="Q50" s="79"/>
-      <c r="R50" s="79"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A51" s="79"/>
-      <c r="B51" s="79"/>
-      <c r="C51" s="79"/>
-      <c r="D51" s="79"/>
-      <c r="E51" s="79"/>
-      <c r="F51" s="79"/>
-      <c r="G51" s="79"/>
-      <c r="H51" s="79"/>
-      <c r="I51" s="79"/>
-      <c r="J51" s="79"/>
-      <c r="K51" s="79"/>
-      <c r="L51" s="79"/>
-      <c r="M51" s="80"/>
-      <c r="N51" s="80"/>
-      <c r="O51" s="79"/>
-      <c r="P51" s="79"/>
-      <c r="Q51" s="79"/>
-      <c r="R51" s="79"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
@@ -8941,7 +8690,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -8995,7 +8744,7 @@
         <v>198</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>199</v>
@@ -9003,24 +8752,24 @@
     </row>
     <row r="4" spans="1:3" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" s="35" t="s">
         <v>212</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B5" s="36" t="s">
         <v>192</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -9068,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -9076,7 +8825,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/tools/example_framework.xlsx
+++ b/tools/example_framework.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tarkadia\projects\intuitem\ciso-assistant-community\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B82BEC1-C307-46E4-84FF-7E6F0115A23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7D06A4-364F-4269-B04A-0E7DDF3E8828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1485" yWindow="-15870" windowWidth="25440" windowHeight="15990" tabRatio="907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -294,7 +294,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-One among "mandatory"/"recommended"/"nice to have"/"undefined" or empty (= "undefined"). Default value is "undefined".</t>
+One among "mandatory"/"recommended"/"nice to have" or empty cell (= undefined). Default value is "undefined".</t>
         </r>
       </text>
     </comment>
@@ -3210,6 +3210,78 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3228,24 +3300,6 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3255,15 +3309,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3280,51 +3325,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4825,380 +4825,400 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="62.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="105"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="96"/>
     </row>
     <row r="2" spans="1:13" ht="42.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="97" t="s">
         <v>544</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="108"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="99"/>
     </row>
     <row r="3" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="90"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="102"/>
     </row>
     <row r="4" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="85" t="s">
         <v>256</v>
       </c>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="85" t="s">
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="87"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="81"/>
     </row>
     <row r="5" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="90" t="s">
         <v>257</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="85" t="s">
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="79" t="s">
         <v>264</v>
       </c>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="87"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="81"/>
     </row>
     <row r="6" spans="1:13" ht="19.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="93" t="s">
         <v>252</v>
       </c>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="85" t="s">
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="79" t="s">
         <v>265</v>
       </c>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="87"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="81"/>
     </row>
     <row r="7" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="89" t="s">
         <v>253</v>
       </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="85" t="s">
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="79" t="s">
         <v>274</v>
       </c>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="87"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="81"/>
     </row>
     <row r="8" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="115" t="s">
+      <c r="A8" s="88" t="s">
         <v>254</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="85" t="s">
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="79" t="s">
         <v>266</v>
       </c>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="87"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="81"/>
     </row>
     <row r="9" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="114" t="s">
+      <c r="A9" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="85" t="s">
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="79" t="s">
         <v>268</v>
       </c>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="87"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="81"/>
     </row>
     <row r="10" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="82" t="s">
         <v>271</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="85" t="s">
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="79" t="s">
         <v>267</v>
       </c>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="87"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="81"/>
     </row>
     <row r="11" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="83" t="s">
         <v>272</v>
       </c>
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="85" t="s">
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="79" t="s">
         <v>277</v>
       </c>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="87"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="81"/>
     </row>
     <row r="12" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="111" t="s">
+      <c r="A12" s="84" t="s">
         <v>273</v>
       </c>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="85" t="s">
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="79" t="s">
         <v>278</v>
       </c>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="87"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="81"/>
     </row>
     <row r="13" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="80" t="s">
+      <c r="B13" s="103"/>
+      <c r="C13" s="104" t="s">
         <v>543</v>
       </c>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="105"/>
     </row>
     <row r="14" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="90"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="102"/>
     </row>
     <row r="15" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100" t="s">
+      <c r="A15" s="115" t="s">
         <v>258</v>
       </c>
-      <c r="B15" s="101"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="85" t="s">
+      <c r="B15" s="116"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="79" t="s">
         <v>263</v>
       </c>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="87"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="81"/>
     </row>
     <row r="16" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="94" t="s">
+      <c r="A16" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="95"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="85" t="s">
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="79" t="s">
         <v>259</v>
       </c>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="87"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="81"/>
     </row>
     <row r="17" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="97" t="s">
+      <c r="A17" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="85" t="s">
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="79" t="s">
         <v>260</v>
       </c>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="87"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="81"/>
     </row>
     <row r="18" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="91" t="s">
+      <c r="A18" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="92"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="85" t="s">
+      <c r="B18" s="110"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="79" t="s">
         <v>261</v>
       </c>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="87"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="81"/>
     </row>
     <row r="19" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="82" t="s">
+      <c r="A19" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="85" t="s">
+      <c r="B19" s="107"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="87"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="81"/>
     </row>
     <row r="20" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="79"/>
-      <c r="C20" s="80" t="s">
+      <c r="B20" s="103"/>
+      <c r="C20" s="104" t="s">
         <v>262</v>
       </c>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="81"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="105"/>
+      <c r="L20" s="105"/>
+      <c r="M20" s="105"/>
     </row>
     <row r="21" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:M19"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:M13"/>
+    <mergeCell ref="A14:M14"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:M16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:M17"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:M15"/>
+    <mergeCell ref="G7:M7"/>
+    <mergeCell ref="G8:M8"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
     <mergeCell ref="G9:M9"/>
     <mergeCell ref="G12:M12"/>
     <mergeCell ref="G4:M4"/>
@@ -5215,26 +5235,6 @@
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="G5:M5"/>
     <mergeCell ref="G6:M6"/>
-    <mergeCell ref="G7:M7"/>
-    <mergeCell ref="G8:M8"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:M19"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:M13"/>
-    <mergeCell ref="A14:M14"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:M18"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:M16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:M17"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tools/example_framework.xlsx
+++ b/tools/example_framework.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tarkadia\projects\intuitem\ciso-assistant-community\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7D06A4-364F-4269-B04A-0E7DDF3E8828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD03E5E-6A8B-47A7-B87F-4B1841CF3A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1485" yWindow="-15870" windowWidth="25440" windowHeight="15990" tabRatio="907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2530,9 +2530,6 @@
     <t>mandatory</t>
   </si>
   <si>
-    <t>nice to have</t>
-  </si>
-  <si>
     <t>recommended</t>
   </si>
   <si>
@@ -2540,6 +2537,9 @@
   </si>
   <si>
     <t>Is it true?</t>
+  </si>
+  <si>
+    <t>nice_to_have</t>
   </si>
 </sst>
 </file>
@@ -3210,6 +3210,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3219,6 +3237,69 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3243,88 +3324,7 @@
     <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4825,400 +4825,380 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="62.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="96"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="105"/>
     </row>
     <row r="2" spans="1:13" ht="42.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="106" t="s">
         <v>544</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="99"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="108"/>
     </row>
     <row r="3" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="102"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="90"/>
     </row>
     <row r="4" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="112" t="s">
         <v>256</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="79" t="s">
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="81"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="87"/>
     </row>
     <row r="5" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="94" t="s">
         <v>257</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="79" t="s">
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="85" t="s">
         <v>264</v>
       </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="81"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="87"/>
     </row>
     <row r="6" spans="1:13" ht="19.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="117" t="s">
         <v>252</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="79" t="s">
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="85" t="s">
         <v>265</v>
       </c>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="81"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="87"/>
     </row>
     <row r="7" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="116" t="s">
         <v>253</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="79" t="s">
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="85" t="s">
         <v>274</v>
       </c>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="81"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="87"/>
     </row>
     <row r="8" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="115" t="s">
         <v>254</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="79" t="s">
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="85" t="s">
         <v>266</v>
       </c>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="81"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="87"/>
     </row>
     <row r="9" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="114" t="s">
         <v>255</v>
       </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="79" t="s">
+      <c r="B9" s="114"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="85" t="s">
         <v>268</v>
       </c>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="81"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="87"/>
     </row>
     <row r="10" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="82" t="s">
+      <c r="A10" s="109" t="s">
         <v>271</v>
       </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="79" t="s">
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="85" t="s">
         <v>267</v>
       </c>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="81"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="87"/>
     </row>
     <row r="11" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="110" t="s">
         <v>272</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="79" t="s">
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="85" t="s">
         <v>277</v>
       </c>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="81"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="87"/>
     </row>
     <row r="12" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="111" t="s">
         <v>273</v>
       </c>
-      <c r="B12" s="84"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="79" t="s">
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="85" t="s">
         <v>278</v>
       </c>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="81"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="87"/>
     </row>
     <row r="13" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="103" t="s">
+      <c r="A13" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="103"/>
-      <c r="C13" s="104" t="s">
+      <c r="B13" s="79"/>
+      <c r="C13" s="80" t="s">
         <v>543</v>
       </c>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="105"/>
-      <c r="L13" s="105"/>
-      <c r="M13" s="105"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
     </row>
     <row r="14" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="100" t="s">
+      <c r="A14" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="101"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="102"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="90"/>
     </row>
     <row r="15" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="115" t="s">
+      <c r="A15" s="100" t="s">
         <v>258</v>
       </c>
-      <c r="B15" s="116"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="79" t="s">
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="85" t="s">
         <v>263</v>
       </c>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="81"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="87"/>
     </row>
     <row r="16" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="79" t="s">
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="85" t="s">
         <v>259</v>
       </c>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="81"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="87"/>
     </row>
     <row r="17" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="112" t="s">
+      <c r="A17" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="113"/>
-      <c r="C17" s="113"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="79" t="s">
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="85" t="s">
         <v>260</v>
       </c>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="81"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="87"/>
     </row>
     <row r="18" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="109" t="s">
+      <c r="A18" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="110"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="79" t="s">
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="85" t="s">
         <v>261</v>
       </c>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="81"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="87"/>
     </row>
     <row r="19" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="106" t="s">
+      <c r="A19" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="107"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="79" t="s">
+      <c r="B19" s="83"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="81"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="87"/>
     </row>
     <row r="20" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="103" t="s">
+      <c r="A20" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="103"/>
-      <c r="C20" s="104" t="s">
+      <c r="B20" s="79"/>
+      <c r="C20" s="80" t="s">
         <v>262</v>
       </c>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="105"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="105"/>
-      <c r="L20" s="105"/>
-      <c r="M20" s="105"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="81"/>
     </row>
     <row r="21" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:M19"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:M13"/>
-    <mergeCell ref="A14:M14"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:M18"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:M16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:M17"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:M15"/>
-    <mergeCell ref="G7:M7"/>
-    <mergeCell ref="G8:M8"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:M3"/>
     <mergeCell ref="G9:M9"/>
     <mergeCell ref="G12:M12"/>
     <mergeCell ref="G4:M4"/>
@@ -5235,6 +5215,26 @@
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="G5:M5"/>
     <mergeCell ref="G6:M6"/>
+    <mergeCell ref="G7:M7"/>
+    <mergeCell ref="G8:M8"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:M19"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:M13"/>
+    <mergeCell ref="A14:M14"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:M16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:M17"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7337,7 +7337,7 @@
       <c r="I5" s="40"/>
       <c r="J5" s="40"/>
       <c r="K5" s="40" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L5" s="36" t="s">
         <v>191</v>
@@ -7490,7 +7490,7 @@
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
       <c r="H9" s="40" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="I9" s="40"/>
       <c r="J9" s="40"/>
@@ -7678,7 +7678,7 @@
       </c>
       <c r="G15" s="40"/>
       <c r="H15" s="39" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I15" s="39">
         <v>5</v>
@@ -7720,7 +7720,7 @@
         <v>87</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I16" s="39"/>
       <c r="J16" s="17" t="s">
@@ -8028,7 +8028,7 @@
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
       <c r="H25" s="40" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="I25" s="40"/>
       <c r="J25" s="40"/>
@@ -8058,7 +8058,7 @@
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
       <c r="H26" s="40" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="I26" s="40"/>
       <c r="J26" s="40"/>
@@ -8088,7 +8088,7 @@
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
       <c r="H27" s="40" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="I27" s="40"/>
       <c r="J27" s="40"/>
@@ -8455,7 +8455,7 @@
       <c r="G38" s="40"/>
       <c r="H38" s="40"/>
       <c r="I38" s="40" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="J38" s="40"/>
       <c r="K38" s="40"/>

--- a/tools/example_framework.xlsx
+++ b/tools/example_framework.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tarkadia\projects\intuitem\ciso-assistant-community\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD03E5E-6A8B-47A7-B87F-4B1841CF3A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E84F6D-1951-4647-B96B-120B76A95CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1485" yWindow="-15870" windowWidth="25440" windowHeight="15990" tabRatio="907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2730,18 +2730,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF5050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2821,6 +2809,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCC3399"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3002,14 +3002,14 @@
   </cellStyleXfs>
   <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3021,28 +3021,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3052,19 +3052,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3076,10 +3076,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3087,11 +3087,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3103,7 +3103,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3145,44 +3145,44 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3194,40 +3194,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3237,13 +3219,76 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3255,77 +3300,32 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4825,380 +4825,400 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="62.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="105"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="114"/>
     </row>
     <row r="2" spans="1:13" ht="42.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="115" t="s">
         <v>544</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="108"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="117"/>
     </row>
     <row r="3" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="90"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="96"/>
     </row>
     <row r="4" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="85" t="s">
         <v>256</v>
       </c>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="85" t="s">
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="87"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="81"/>
     </row>
     <row r="5" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="90" t="s">
         <v>257</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="85" t="s">
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="79" t="s">
         <v>264</v>
       </c>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="87"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="81"/>
     </row>
     <row r="6" spans="1:13" ht="19.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="93" t="s">
         <v>252</v>
       </c>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="85" t="s">
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="79" t="s">
         <v>265</v>
       </c>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="87"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="81"/>
     </row>
     <row r="7" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="89" t="s">
         <v>253</v>
       </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="85" t="s">
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="79" t="s">
         <v>274</v>
       </c>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="87"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="81"/>
     </row>
     <row r="8" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="115" t="s">
+      <c r="A8" s="88" t="s">
         <v>254</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="85" t="s">
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="79" t="s">
         <v>266</v>
       </c>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="87"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="81"/>
     </row>
     <row r="9" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="114" t="s">
+      <c r="A9" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="85" t="s">
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="79" t="s">
         <v>268</v>
       </c>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="87"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="81"/>
     </row>
     <row r="10" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="82" t="s">
         <v>271</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="85" t="s">
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="79" t="s">
         <v>267</v>
       </c>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="87"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="81"/>
     </row>
     <row r="11" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="83" t="s">
         <v>272</v>
       </c>
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="85" t="s">
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="79" t="s">
         <v>277</v>
       </c>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="87"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="81"/>
     </row>
     <row r="12" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="111" t="s">
+      <c r="A12" s="84" t="s">
         <v>273</v>
       </c>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="85" t="s">
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="79" t="s">
         <v>278</v>
       </c>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="87"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="81"/>
     </row>
     <row r="13" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="80" t="s">
+      <c r="B13" s="97"/>
+      <c r="C13" s="98" t="s">
         <v>543</v>
       </c>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
     </row>
     <row r="14" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="90"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="96"/>
     </row>
     <row r="15" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100" t="s">
+      <c r="A15" s="109" t="s">
         <v>258</v>
       </c>
-      <c r="B15" s="101"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="85" t="s">
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="79" t="s">
         <v>263</v>
       </c>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="87"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="81"/>
     </row>
     <row r="16" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="94" t="s">
+      <c r="A16" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="95"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="85" t="s">
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="79" t="s">
         <v>259</v>
       </c>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="87"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="81"/>
     </row>
     <row r="17" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="97" t="s">
+      <c r="A17" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="85" t="s">
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="79" t="s">
         <v>260</v>
       </c>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="87"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="81"/>
     </row>
     <row r="18" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="91" t="s">
+      <c r="A18" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="92"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="85" t="s">
+      <c r="B18" s="104"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="79" t="s">
         <v>261</v>
       </c>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="87"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="81"/>
     </row>
     <row r="19" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="82" t="s">
+      <c r="A19" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="85" t="s">
+      <c r="B19" s="101"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="87"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="81"/>
     </row>
     <row r="20" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="79"/>
-      <c r="C20" s="80" t="s">
+      <c r="B20" s="97"/>
+      <c r="C20" s="98" t="s">
         <v>262</v>
       </c>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="81"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
     </row>
     <row r="21" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:M19"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:M13"/>
+    <mergeCell ref="A14:M14"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:M16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:M17"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:M15"/>
+    <mergeCell ref="G7:M7"/>
+    <mergeCell ref="G8:M8"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
     <mergeCell ref="G9:M9"/>
     <mergeCell ref="G12:M12"/>
     <mergeCell ref="G4:M4"/>
@@ -5215,26 +5235,6 @@
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="G5:M5"/>
     <mergeCell ref="G6:M6"/>
-    <mergeCell ref="G7:M7"/>
-    <mergeCell ref="G8:M8"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:M19"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:M13"/>
-    <mergeCell ref="A14:M14"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:M18"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:M16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:M17"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tools/example_framework.xlsx
+++ b/tools/example_framework.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianDoloir\Desktop\Repos\intuitem\ciso-assistant-community\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tarkadia\projects\intuitem\ciso-assistant-community\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5479025A-69C5-4707-88FE-501C490C8E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E84F6D-1951-4647-B96B-120B76A95CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1485" yWindow="-15870" windowWidth="25440" windowHeight="15990" tabRatio="907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="6" r:id="rId1"/>
@@ -169,6 +169,30 @@
     <author>.</author>
   </authors>
   <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{940F0AB1-F4B0-4737-B66D-3373AA35955C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.: About assessable :.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Must be "x" or empty. If "x", the requirement will be assessable. </t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C1" authorId="0" shapeId="0" xr:uid="{D9836FA5-3AEC-4395-A2F8-F1B7C26BF91B}">
       <text>
         <r>
@@ -189,7 +213,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The "ref_id" value can be left empty, but only if "name" is not empty.</t>
+          <t>The "ref_id" value can be left empty, but only if "name" and/or "description" is not empty.</t>
         </r>
       </text>
     </comment>
@@ -213,11 +237,92 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The "name" value can be left empty, but only if "ref_id" is not empty.</t>
+          <t>The "name" value can be left empty, but only if "ref_id" and/or "description" is not empty.</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{347BCED0-BF7D-4AC6-B110-E741C99D2332}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{83FBDFDD-E613-4BF3-A6A5-A89F19C9C7AB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.: About description :.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>"description" value can be left empty, but only if "ref_id" and/or "name" is not empty.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{DB9354B9-010E-442F-98C9-17255CCA12AD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.: About importance :.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+One among "mandatory"/"recommended"/"nice to have" or empty cell (= undefined). Default value is "undefined".</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{28F2EF0B-15B6-4995-A393-1A85699772DF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.: About weight :.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Positive integer "&gt;= 1". Used for score weighting. The default weight (if undefined) is "1".</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{347BCED0-BF7D-4AC6-B110-E741C99D2332}">
       <text>
         <r>
           <rPr>
@@ -241,7 +346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{79FD3605-3568-455D-9CFD-FA756BC48EBD}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{79FD3605-3568-455D-9CFD-FA756BC48EBD}">
       <text>
         <r>
           <rPr>
@@ -265,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{6C4C16E2-0266-48C9-A7E3-FE00882B887F}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{6C4C16E2-0266-48C9-A7E3-FE00882B887F}">
       <text>
         <r>
           <rPr>
@@ -289,7 +394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{9DF94410-D1CA-448F-BD60-59EAD2557609}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{9DF94410-D1CA-448F-BD60-59EAD2557609}">
       <text>
         <r>
           <rPr>
@@ -313,7 +418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{781B3B90-5C6F-4C56-B7DD-C93B8542FECF}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{781B3B90-5C6F-4C56-B7DD-C93B8542FECF}">
       <text>
         <r>
           <rPr>
@@ -391,7 +496,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Necessary if question_type is "unique_choice" or "multiple_choice"</t>
+          <t>Necessary if question_type is "unique_choice" or "multiple_choice". Each choice is separated by line breaks. To make a choice written on several lines, start the next line with a "|".</t>
         </r>
       </text>
     </comment>
@@ -561,7 +666,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="553">
   <si>
     <t>type</t>
   </si>
@@ -608,9 +713,6 @@
   </si>
   <si>
     <t>copyright</t>
-  </si>
-  <si>
-    <t>© Example Organization</t>
   </si>
   <si>
     <t>provider</t>
@@ -1226,9 +1328,6 @@
   </si>
   <si>
     <t>answer</t>
-  </si>
-  <si>
-    <t>Is it true ?</t>
   </si>
   <si>
     <t>Is a) respected?
@@ -1583,9 +1682,6 @@
     <t>Answers description</t>
   </si>
   <si>
-    <t>This complete example framework provides a better understanding of the structure of a CISO Assistant framework. You can convert it with "convert_library_v2.py" and add it to CISO Assistant to see how it looks like.</t>
-  </si>
-  <si>
     <t>Threats description</t>
   </si>
   <si>
@@ -1626,9 +1722,6 @@
     <t>threats</t>
   </si>
   <si>
-    <t>my-framework_example.1</t>
-  </si>
-  <si>
     <t>urn:intuitem:risk:threat:my-framework_example.1</t>
   </si>
   <si>
@@ -2419,6 +2512,34 @@
   </si>
   <si>
     <t>When creating a library, keep only the tabs that are necessary. For example, if no implementation groups are used, remove the corresponding tabs.</t>
+  </si>
+  <si>
+    <t>This complete example framework provides a better understanding of the structure of a CISO Assistant framework.
+You can convert it with "convert_library_v2.py" and add it to CISO Assistant to see how it looks like.</t>
+  </si>
+  <si>
+    <t>© 2025 Example Organization</t>
+  </si>
+  <si>
+    <t>importance</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>mandatory</t>
+  </si>
+  <si>
+    <t>recommended</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Is it true?</t>
+  </si>
+  <si>
+    <t>nice_to_have</t>
   </si>
 </sst>
 </file>
@@ -2609,18 +2730,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF5050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2700,6 +2809,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCC3399"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2881,14 +3002,14 @@
   </cellStyleXfs>
   <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2900,28 +3021,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2931,19 +3052,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2955,10 +3076,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2966,11 +3087,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2982,7 +3103,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3024,44 +3145,44 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3073,40 +3194,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3116,13 +3219,76 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3134,83 +3300,38 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="65">
+  <dxfs count="67">
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -4036,6 +4157,46 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -4252,16 +4413,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{549B97EC-A4EC-467D-95D4-C91A5E59F559}" name="Tableau1" displayName="Tableau1" ref="A1:P39" totalsRowShown="0" headerRowDxfId="64" dataDxfId="62" headerRowBorderDxfId="63" tableBorderDxfId="61" totalsRowBorderDxfId="60">
-  <autoFilter ref="A1:P39" xr:uid="{549B97EC-A4EC-467D-95D4-C91A5E59F559}"/>
-  <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{D7929412-2C04-48B2-B421-6EC19B1F374C}" name="assessable" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{BAC0F5CA-29D7-460A-BD72-3F9E24C9732F}" name="depth" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{92C5BE2B-42CA-458E-8D3C-CC37002D48BD}" name="ref_id" dataDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{9F7C5816-5FCC-476D-B6FA-AE433ADEABCC}" name="name" dataDxfId="56"/>
-    <tableColumn id="5" xr3:uid="{2650FBAE-CAA9-4751-AB1F-D901BDE6D752}" name="description" dataDxfId="55"/>
-    <tableColumn id="6" xr3:uid="{552D82DF-7C98-4797-9A2D-D4FDA52D98AF}" name="annotation" dataDxfId="54"/>
-    <tableColumn id="7" xr3:uid="{E61773D4-D778-4312-A49F-8A5758A995E8}" name="typical_evidence" dataDxfId="53"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{549B97EC-A4EC-467D-95D4-C91A5E59F559}" name="Tableau1" displayName="Tableau1" ref="A1:R39" totalsRowShown="0" headerRowDxfId="66" dataDxfId="64" headerRowBorderDxfId="65" tableBorderDxfId="63" totalsRowBorderDxfId="62">
+  <autoFilter ref="A1:R39" xr:uid="{549B97EC-A4EC-467D-95D4-C91A5E59F559}"/>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{D7929412-2C04-48B2-B421-6EC19B1F374C}" name="assessable" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{BAC0F5CA-29D7-460A-BD72-3F9E24C9732F}" name="depth" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{92C5BE2B-42CA-458E-8D3C-CC37002D48BD}" name="ref_id" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{9F7C5816-5FCC-476D-B6FA-AE433ADEABCC}" name="name" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{2650FBAE-CAA9-4751-AB1F-D901BDE6D752}" name="description" dataDxfId="57"/>
+    <tableColumn id="6" xr3:uid="{552D82DF-7C98-4797-9A2D-D4FDA52D98AF}" name="annotation" dataDxfId="56"/>
+    <tableColumn id="7" xr3:uid="{E61773D4-D778-4312-A49F-8A5758A995E8}" name="typical_evidence" dataDxfId="55"/>
+    <tableColumn id="18" xr3:uid="{B81C882B-0E05-4883-AAC0-A9708505EABA}" name="importance" dataDxfId="54"/>
+    <tableColumn id="17" xr3:uid="{87B98E78-198B-4AAF-BD74-A0DD4AE4E732}" name="weight" dataDxfId="53"/>
     <tableColumn id="8" xr3:uid="{41549C1C-81F1-4DC9-AF3E-D66557AB55EA}" name="implementation_groups" dataDxfId="52"/>
     <tableColumn id="14" xr3:uid="{AFF985E6-291A-441C-8DEF-8F4448E20722}" name="questions" dataDxfId="51"/>
     <tableColumn id="13" xr3:uid="{22C6C123-59A8-4006-974A-AEC9BDF7B9C5}" name="answer" dataDxfId="50"/>
@@ -4272,7 +4435,7 @@
     <tableColumn id="11" xr3:uid="{EA0E2718-3825-4A77-B686-8C594E64AC01}" name="annotation[fr]" dataDxfId="45"/>
     <tableColumn id="12" xr3:uid="{CB66FA06-DCF3-44C6-A079-7B12A457972F}" name="typical_evidence[fr]" dataDxfId="44"/>
   </tableColumns>
-  <tableStyleInfo name="Style de tableau 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -4662,380 +4825,400 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="62.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="105"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="114"/>
     </row>
     <row r="2" spans="1:13" ht="42.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="106" t="s">
-        <v>269</v>
-      </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="108"/>
+      <c r="A2" s="115" t="s">
+        <v>544</v>
+      </c>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="117"/>
     </row>
     <row r="3" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="94" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="96"/>
+    </row>
+    <row r="4" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="85" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="81"/>
+    </row>
+    <row r="5" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="90" t="s">
+        <v>257</v>
+      </c>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="79" t="s">
+        <v>264</v>
+      </c>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="81"/>
+    </row>
+    <row r="6" spans="1:13" ht="19.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="93" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="79" t="s">
+        <v>265</v>
+      </c>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="81"/>
+    </row>
+    <row r="7" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="89" t="s">
+        <v>253</v>
+      </c>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="79" t="s">
+        <v>274</v>
+      </c>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="81"/>
+    </row>
+    <row r="8" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="88" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="79" t="s">
+        <v>266</v>
+      </c>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="81"/>
+    </row>
+    <row r="9" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="87" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="79" t="s">
+        <v>268</v>
+      </c>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="81"/>
+    </row>
+    <row r="10" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="82" t="s">
+        <v>271</v>
+      </c>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="79" t="s">
+        <v>267</v>
+      </c>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="81"/>
+    </row>
+    <row r="11" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="83" t="s">
+        <v>272</v>
+      </c>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="79" t="s">
+        <v>277</v>
+      </c>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="81"/>
+    </row>
+    <row r="12" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="84" t="s">
+        <v>273</v>
+      </c>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="79" t="s">
+        <v>278</v>
+      </c>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="81"/>
+    </row>
+    <row r="13" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="90"/>
-    </row>
-    <row r="4" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="112" t="s">
+      <c r="B13" s="97"/>
+      <c r="C13" s="98" t="s">
+        <v>543</v>
+      </c>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+    </row>
+    <row r="14" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="96"/>
+    </row>
+    <row r="15" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="109" t="s">
         <v>258</v>
       </c>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="85" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="87"/>
-    </row>
-    <row r="5" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="94" t="s">
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="79" t="s">
+        <v>263</v>
+      </c>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="81"/>
+    </row>
+    <row r="16" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="79" t="s">
         <v>259</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="85" t="s">
-        <v>266</v>
-      </c>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="87"/>
-    </row>
-    <row r="6" spans="1:13" ht="19.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="117" t="s">
-        <v>254</v>
-      </c>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="85" t="s">
-        <v>267</v>
-      </c>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="87"/>
-    </row>
-    <row r="7" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="116" t="s">
-        <v>255</v>
-      </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="85" t="s">
-        <v>277</v>
-      </c>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="87"/>
-    </row>
-    <row r="8" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="115" t="s">
-        <v>256</v>
-      </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="85" t="s">
-        <v>268</v>
-      </c>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="87"/>
-    </row>
-    <row r="9" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="114" t="s">
-        <v>257</v>
-      </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="85" t="s">
-        <v>271</v>
-      </c>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="87"/>
-    </row>
-    <row r="10" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="109" t="s">
-        <v>274</v>
-      </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="85" t="s">
-        <v>270</v>
-      </c>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="87"/>
-    </row>
-    <row r="11" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="110" t="s">
-        <v>275</v>
-      </c>
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="85" t="s">
-        <v>280</v>
-      </c>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="87"/>
-    </row>
-    <row r="12" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="111" t="s">
-        <v>276</v>
-      </c>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="85" t="s">
-        <v>281</v>
-      </c>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="87"/>
-    </row>
-    <row r="13" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="80" t="s">
-        <v>547</v>
-      </c>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-    </row>
-    <row r="14" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="88" t="s">
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="81"/>
+    </row>
+    <row r="17" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="106" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="79" t="s">
+        <v>260</v>
+      </c>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="81"/>
+    </row>
+    <row r="18" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="90"/>
-    </row>
-    <row r="15" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100" t="s">
-        <v>260</v>
-      </c>
-      <c r="B15" s="101"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="87"/>
-    </row>
-    <row r="16" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="94" t="s">
+      <c r="B18" s="104"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="81"/>
+    </row>
+    <row r="19" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="95"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="85" t="s">
-        <v>261</v>
-      </c>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="87"/>
-    </row>
-    <row r="17" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="97" t="s">
+      <c r="B19" s="101"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="81"/>
+    </row>
+    <row r="20" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="85" t="s">
+      <c r="B20" s="97"/>
+      <c r="C20" s="98" t="s">
         <v>262</v>
       </c>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="87"/>
-    </row>
-    <row r="18" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="91" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="92"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="85" t="s">
-        <v>263</v>
-      </c>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="87"/>
-    </row>
-    <row r="19" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="82" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="85" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="87"/>
-    </row>
-    <row r="20" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="79"/>
-      <c r="C20" s="80" t="s">
-        <v>264</v>
-      </c>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="81"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
     </row>
     <row r="21" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:M19"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:M13"/>
+    <mergeCell ref="A14:M14"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:M16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:M17"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:M15"/>
+    <mergeCell ref="G7:M7"/>
+    <mergeCell ref="G8:M8"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
     <mergeCell ref="G9:M9"/>
     <mergeCell ref="G12:M12"/>
     <mergeCell ref="G4:M4"/>
@@ -5052,26 +5235,6 @@
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="G5:M5"/>
     <mergeCell ref="G6:M6"/>
-    <mergeCell ref="G7:M7"/>
-    <mergeCell ref="G8:M8"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:M19"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:M13"/>
-    <mergeCell ref="A14:M14"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:M18"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:M16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:M17"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5101,7 +5264,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>10</v>
@@ -5110,10 +5273,10 @@
         <v>12</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G1" s="49"/>
     </row>
@@ -5122,16 +5285,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F2" s="47"/>
       <c r="G2" s="48"/>
@@ -5141,16 +5304,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E3" s="51" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F3" s="47"/>
       <c r="G3" s="48"/>
@@ -5160,16 +5323,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="48"/>
@@ -5179,16 +5342,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E5" s="51" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="48"/>
@@ -5198,16 +5361,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F6" s="48"/>
       <c r="G6" s="48"/>
@@ -5217,16 +5380,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F7" s="48"/>
       <c r="G7" s="48"/>
@@ -5264,15 +5427,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -5315,573 +5478,573 @@
         <v>12</v>
       </c>
       <c r="D1" s="64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" s="65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" s="65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G1" s="65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="63" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E2" s="60" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="63" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D3" s="31"/>
       <c r="E3" s="60" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="63" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="31" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="63" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
       <c r="E5" s="60" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="63" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
       <c r="E6" s="60" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="63" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
       <c r="E7" s="60" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="63" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
       <c r="E8" s="60" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="63" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
       <c r="E9" s="60" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="63" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="31" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="63" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="31" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="63" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="31" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="63" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C13" s="31"/>
       <c r="D13" s="31" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="63" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="31" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="63" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D15" s="31"/>
       <c r="E15" s="31" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="63" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="31" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I16"/>
       <c r="J16"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="63" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D17" s="31"/>
       <c r="E17" s="31" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I17"/>
       <c r="J17"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="63" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D18" s="31"/>
       <c r="E18" s="31" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="63" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
       <c r="E19" s="31" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I19"/>
       <c r="J19"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="63" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B20" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E20" s="60" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G20" s="31" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="63" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D21" s="31"/>
       <c r="E21" s="60" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I21"/>
       <c r="J21"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="63" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C22" s="66"/>
       <c r="D22" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="E22" s="60" t="s">
+        <v>461</v>
+      </c>
+      <c r="F22" s="66" t="s">
         <v>341</v>
       </c>
-      <c r="E22" s="60" t="s">
-        <v>465</v>
-      </c>
-      <c r="F22" s="66" t="s">
-        <v>345</v>
-      </c>
       <c r="G22" s="66" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I22"/>
       <c r="J22"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="63" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C23" s="66"/>
       <c r="D23" s="66"/>
       <c r="E23" s="60" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F23" s="66" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G23" s="66" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I23"/>
       <c r="J23"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="63" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C24" s="66"/>
       <c r="D24" s="66"/>
       <c r="E24" s="60" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F24" s="66" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G24" s="66" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I24"/>
       <c r="J24"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="63" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B25" s="60" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
       <c r="E25" s="60" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I25"/>
       <c r="J25"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="63" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
       <c r="E26" s="60" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F26" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G26" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I26"/>
       <c r="J26"/>
@@ -5918,15 +6081,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -5942,7 +6105,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B4" sqref="B4"/>
       <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
@@ -5968,635 +6131,635 @@
         <v>10</v>
       </c>
       <c r="C1" s="64" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D1" s="64" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E1" s="62" t="s">
         <v>12</v>
       </c>
       <c r="F1" s="74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G1" s="65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" s="65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I1" s="65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
       <c r="E2" s="31" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
       <c r="E3" s="31" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F3" s="31"/>
       <c r="G3" s="31" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
       <c r="F4" s="31" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
       <c r="F5" s="31"/>
       <c r="G5" s="31" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
       <c r="F6" s="31"/>
       <c r="G6" s="31" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
       <c r="F7" s="31"/>
       <c r="G7" s="31" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D8" s="31"/>
       <c r="E8" s="31"/>
       <c r="F8" s="31"/>
       <c r="G8" s="31" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D9" s="66"/>
       <c r="E9" s="66"/>
       <c r="F9" s="66"/>
       <c r="G9" s="31" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="H9" s="66"/>
       <c r="I9" s="66"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="31" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E10" s="31"/>
       <c r="F10" s="31"/>
       <c r="G10" s="31" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="31" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E11" s="31"/>
       <c r="F11" s="31" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="31" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E12" s="31"/>
       <c r="F12" s="31" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C13" s="31"/>
       <c r="D13" s="31" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E13" s="31"/>
       <c r="F13" s="31" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C14" s="31"/>
       <c r="D14" s="31" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E14" s="31"/>
       <c r="F14" s="31" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C15" s="31"/>
       <c r="D15" s="31" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="31" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="31" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="31" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D18" s="31"/>
       <c r="E18" s="31" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F18" s="31"/>
       <c r="G18" s="31" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="31" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
       <c r="E19" s="31" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="31" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
       <c r="F20" s="31"/>
       <c r="G20" s="31" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="31" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
       <c r="E22" s="31" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F22" s="31"/>
       <c r="G22" s="31" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H22" s="31" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="I22" s="31"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="31" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D23" s="31"/>
       <c r="E23" s="31"/>
       <c r="F23" s="31" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
       <c r="E24" s="31"/>
       <c r="F24" s="31"/>
       <c r="G24" s="31" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="31" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
       <c r="E25" s="31"/>
       <c r="F25" s="31"/>
       <c r="G25" s="31" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I25" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
       <c r="E26" s="31"/>
       <c r="F26" s="31"/>
       <c r="G26" s="31" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="31" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C27" s="31"/>
       <c r="D27" s="31"/>
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
       <c r="G27" s="31" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -6630,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -6657,10 +6820,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B1" s="68" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -6668,15 +6831,15 @@
         <v>5</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="67" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -6684,7 +6847,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="67" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -6777,55 +6940,55 @@
         <v>14</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>15</v>
+        <v>545</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="36" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="78" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="36" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="B13" s="37" t="s">
         <v>21</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="36" t="s">
         <v>23</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -6856,15 +7019,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -6872,15 +7035,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>283</v>
+      <c r="B4" s="36" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -6901,58 +7064,58 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="53" t="s">
         <v>29</v>
-      </c>
-      <c r="B7" s="53" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="52" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B9" s="54" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="52" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="52" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="7" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="B13" s="35" t="s">
         <v>21</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -6969,9 +7132,9 @@
   <sheetPr codeName="Feuil4">
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -6985,23 +7148,25 @@
     <col min="5" max="5" width="36.44140625" style="29" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.44140625" style="29" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5546875" style="29" customWidth="1"/>
-    <col min="9" max="9" width="43" style="29" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" style="71" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.109375" style="71" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5546875" style="29" customWidth="1"/>
-    <col min="14" max="14" width="31.88671875" style="29" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21" style="29" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="39.21875" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5546875" style="29" customWidth="1"/>
+    <col min="11" max="11" width="43" style="29" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" style="71" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.109375" style="71" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" style="29" customWidth="1"/>
+    <col min="16" max="16" width="33.88671875" style="29" customWidth="1"/>
+    <col min="17" max="17" width="22.33203125" style="29" customWidth="1"/>
+    <col min="18" max="18" width="41.21875" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>32</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>8</v>
@@ -7013,315 +7178,343 @@
         <v>12</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="J1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="K1" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="M1" s="69" t="s">
+        <v>279</v>
+      </c>
+      <c r="N1" s="75" t="s">
+        <v>388</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="J1" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="K1" s="69" t="s">
-        <v>282</v>
-      </c>
-      <c r="L1" s="75" t="s">
-        <v>392</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="14" t="s">
+      <c r="R1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="39"/>
       <c r="B2" s="40">
         <v>1</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D2" s="40"/>
       <c r="E2" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F2" s="40"/>
       <c r="G2" s="40"/>
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40" t="s">
-        <v>153</v>
-      </c>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
       <c r="O2" s="40"/>
-      <c r="P2" s="42"/>
-    </row>
-    <row r="3" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P2" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="42"/>
+    </row>
+    <row r="3" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="39"/>
       <c r="B3" s="40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="40" t="s">
         <v>84</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>85</v>
       </c>
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="N3" s="40" t="s">
-        <v>154</v>
-      </c>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
       <c r="O3" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="P3" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q3" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="R3" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="P3" s="40" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="39"/>
       <c r="B4" s="40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F4" s="40"/>
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
       <c r="I4" s="40"/>
       <c r="J4" s="40"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="N4" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="O4" s="40"/>
-      <c r="P4" s="42"/>
-    </row>
-    <row r="5" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="P4" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="42"/>
+    </row>
+    <row r="5" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="40"/>
       <c r="D5" s="40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40" t="s">
-        <v>203</v>
-      </c>
-      <c r="J5" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="N5" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="O5" s="40"/>
-      <c r="P5" s="42"/>
-    </row>
-    <row r="6" spans="1:16" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H5" s="40" t="s">
+        <v>548</v>
+      </c>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40" t="s">
+        <v>551</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="P5" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="42"/>
+    </row>
+    <row r="6" spans="1:18" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="40"/>
       <c r="D6" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
-      <c r="I6" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="J6" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="N6" s="40" t="s">
-        <v>157</v>
-      </c>
+      <c r="I6" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="40"/>
+      <c r="K6" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
       <c r="O6" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="P6" s="42"/>
-    </row>
-    <row r="7" spans="1:16" s="30" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q6" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="R6" s="42"/>
+    </row>
+    <row r="7" spans="1:18" s="30" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="40"/>
       <c r="D7" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F7" s="40"/>
       <c r="G7" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H7" s="40"/>
-      <c r="I7" s="41" t="s">
-        <v>206</v>
-      </c>
-      <c r="J7" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="N7" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="O7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="L7" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="40" t="s">
+        <v>132</v>
+      </c>
       <c r="P7" s="40" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="40"/>
       <c r="D8" s="40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H8" s="40"/>
       <c r="I8" s="40"/>
       <c r="J8" s="40"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="N8" s="40" t="s">
-        <v>159</v>
-      </c>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
       <c r="O8" s="40" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="P8" s="40" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="Q8" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="R8" s="40" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="40"/>
       <c r="D9" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9" s="40"/>
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
+      <c r="H9" s="40" t="s">
+        <v>552</v>
+      </c>
       <c r="I9" s="40"/>
       <c r="J9" s="40"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="42"/>
-    </row>
-    <row r="10" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="42"/>
+    </row>
+    <row r="10" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="40"/>
       <c r="D10" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="40"/>
@@ -7329,115 +7522,125 @@
       <c r="H10" s="40"/>
       <c r="I10" s="40"/>
       <c r="J10" s="40"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="42"/>
-    </row>
-    <row r="11" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="42"/>
+    </row>
+    <row r="11" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
       <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
+      <c r="I11" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="N11" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="O11" s="40"/>
-      <c r="P11" s="42"/>
-    </row>
-    <row r="12" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="P11" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="42"/>
+    </row>
+    <row r="12" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="40"/>
       <c r="D12" s="40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
       <c r="I12" s="40"/>
       <c r="J12" s="40"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="N12" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="O12" s="40"/>
-      <c r="P12" s="42"/>
-    </row>
-    <row r="13" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="P12" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="42"/>
+    </row>
+    <row r="13" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
       <c r="H13" s="40"/>
       <c r="I13" s="40"/>
       <c r="J13" s="40"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="N13" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="O13" s="40"/>
-      <c r="P13" s="42"/>
-    </row>
-    <row r="14" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="P13" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="42"/>
+    </row>
+    <row r="14" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="39"/>
       <c r="B14" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
@@ -7445,235 +7648,255 @@
       <c r="H14" s="40"/>
       <c r="I14" s="40"/>
       <c r="J14" s="40"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41" t="s">
-        <v>532</v>
-      </c>
-      <c r="M14" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="42"/>
-    </row>
-    <row r="15" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41" t="s">
+        <v>528</v>
+      </c>
+      <c r="O14" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="42"/>
+    </row>
+    <row r="15" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="40"/>
       <c r="D15" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" s="40"/>
       <c r="F15" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G15" s="40"/>
-      <c r="H15" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="76" t="s">
-        <v>530</v>
-      </c>
-      <c r="M15" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="N15" s="40"/>
+      <c r="H15" s="39" t="s">
+        <v>549</v>
+      </c>
+      <c r="I15" s="39">
+        <v>5</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="76" t="s">
+        <v>526</v>
+      </c>
       <c r="O15" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="P15" s="42"/>
-    </row>
-    <row r="16" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="R15" s="42"/>
+    </row>
+    <row r="16" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="40" t="s">
         <v>68</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>69</v>
       </c>
       <c r="E16" s="40"/>
       <c r="F16" s="40"/>
       <c r="G16" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70" t="s">
-        <v>531</v>
-      </c>
-      <c r="M16" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>549</v>
+      </c>
+      <c r="I16" s="39"/>
+      <c r="J16" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70" t="s">
+        <v>527</v>
+      </c>
+      <c r="O16" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" s="40"/>
       <c r="F17" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70" t="s">
-        <v>533</v>
-      </c>
-      <c r="M17" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="N17" s="40"/>
+        <v>88</v>
+      </c>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70" t="s">
+        <v>529</v>
+      </c>
       <c r="O17" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="P17" s="40" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="R17" s="40" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E18" s="40"/>
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
-      <c r="H18" s="40" t="s">
-        <v>39</v>
-      </c>
+      <c r="H18" s="40"/>
       <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="70" t="s">
-        <v>534</v>
-      </c>
-      <c r="M18" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="42"/>
-    </row>
-    <row r="19" spans="1:16" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J18" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="70" t="s">
+        <v>530</v>
+      </c>
+      <c r="O18" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="42"/>
+    </row>
+    <row r="19" spans="1:18" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E19" s="40"/>
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
-      <c r="H19" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="45" t="s">
-        <v>535</v>
-      </c>
-      <c r="L19" s="70" t="s">
-        <v>536</v>
-      </c>
-      <c r="M19" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="42"/>
-    </row>
-    <row r="20" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="45" t="s">
+        <v>531</v>
+      </c>
+      <c r="N19" s="70" t="s">
+        <v>532</v>
+      </c>
+      <c r="O19" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="42"/>
+    </row>
+    <row r="20" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E20" s="40"/>
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
-      <c r="H20" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70" t="s">
-        <v>542</v>
-      </c>
-      <c r="M20" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="42"/>
-    </row>
-    <row r="21" spans="1:16" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70" t="s">
+        <v>538</v>
+      </c>
+      <c r="O20" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="42"/>
+    </row>
+    <row r="21" spans="1:18" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="40"/>
       <c r="D21" s="40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E21" s="40"/>
       <c r="F21" s="40"/>
@@ -7681,59 +7904,63 @@
       <c r="H21" s="40"/>
       <c r="I21" s="40"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41" t="s">
-        <v>543</v>
-      </c>
-      <c r="M21" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="42"/>
-    </row>
-    <row r="22" spans="1:16" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41" t="s">
+        <v>539</v>
+      </c>
+      <c r="O21" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="42"/>
+    </row>
+    <row r="22" spans="1:18" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="39"/>
       <c r="B22" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="40"/>
       <c r="D22" s="40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E22" s="40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
-      <c r="H22" s="40" t="s">
-        <v>124</v>
-      </c>
+      <c r="H22" s="40"/>
       <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41" t="s">
-        <v>545</v>
-      </c>
-      <c r="M22" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="N22" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="O22" s="40"/>
-      <c r="P22" s="42"/>
-    </row>
-    <row r="23" spans="1:16" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J22" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41" t="s">
+        <v>541</v>
+      </c>
+      <c r="O22" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="P22" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="42"/>
+    </row>
+    <row r="23" spans="1:18" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23" s="40"/>
       <c r="D23" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E23" s="40"/>
       <c r="F23" s="40"/>
@@ -7741,29 +7968,31 @@
       <c r="H23" s="40"/>
       <c r="I23" s="40"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="41" t="s">
-        <v>381</v>
-      </c>
-      <c r="L23" s="41" t="s">
-        <v>544</v>
-      </c>
-      <c r="M23" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="42"/>
-    </row>
-    <row r="24" spans="1:16" s="30" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="N23" s="41" t="s">
+        <v>540</v>
+      </c>
+      <c r="O23" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="42"/>
+    </row>
+    <row r="24" spans="1:18" s="30" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="40"/>
       <c r="D24" s="40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E24" s="40"/>
       <c r="F24" s="40"/>
@@ -7771,227 +8000,247 @@
       <c r="H24" s="40"/>
       <c r="I24" s="40"/>
       <c r="J24" s="40"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41" t="s">
-        <v>546</v>
-      </c>
-      <c r="M24" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="42"/>
-    </row>
-    <row r="25" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41" t="s">
+        <v>542</v>
+      </c>
+      <c r="O24" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="42"/>
+    </row>
+    <row r="25" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C25" s="40"/>
       <c r="D25" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E25" s="40"/>
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
+      <c r="H25" s="40" t="s">
+        <v>552</v>
+      </c>
       <c r="I25" s="40"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="42"/>
-    </row>
-    <row r="26" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="42"/>
+    </row>
+    <row r="26" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C26" s="40"/>
       <c r="D26" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E26" s="40"/>
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
+      <c r="H26" s="40" t="s">
+        <v>552</v>
+      </c>
       <c r="I26" s="40"/>
       <c r="J26" s="40"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="42"/>
-    </row>
-    <row r="27" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="42"/>
+    </row>
+    <row r="27" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="40"/>
       <c r="D27" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E27" s="40"/>
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
+      <c r="H27" s="40" t="s">
+        <v>552</v>
+      </c>
       <c r="I27" s="40"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="42"/>
-    </row>
-    <row r="28" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="42"/>
+    </row>
+    <row r="28" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="39"/>
       <c r="B28" s="40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" s="40"/>
-      <c r="D28" s="40" t="s">
-        <v>120</v>
-      </c>
+      <c r="D28" s="40"/>
       <c r="E28" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F28" s="40"/>
       <c r="G28" s="40"/>
-      <c r="H28" s="40" t="s">
-        <v>124</v>
-      </c>
+      <c r="H28" s="40"/>
       <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="N28" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="O28" s="40"/>
-      <c r="P28" s="42"/>
-    </row>
-    <row r="29" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J28" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="P28" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="42"/>
+    </row>
+    <row r="29" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="39"/>
       <c r="B29" s="40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="40"/>
       <c r="D29" s="40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E29" s="40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F29" s="40"/>
       <c r="G29" s="40"/>
-      <c r="H29" s="40" t="s">
-        <v>124</v>
-      </c>
+      <c r="H29" s="40"/>
       <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="N29" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="O29" s="40"/>
-      <c r="P29" s="42"/>
-    </row>
-    <row r="30" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J29" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="P29" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="42"/>
+    </row>
+    <row r="30" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="39"/>
       <c r="B30" s="40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30" s="40"/>
       <c r="D30" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F30" s="40"/>
       <c r="G30" s="40"/>
-      <c r="H30" s="40" t="s">
-        <v>128</v>
-      </c>
+      <c r="H30" s="40"/>
       <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="41" t="s">
-        <v>378</v>
-      </c>
-      <c r="L30" s="41"/>
-      <c r="M30" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="N30" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="O30" s="40"/>
-      <c r="P30" s="42"/>
-    </row>
-    <row r="31" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J30" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="N30" s="41"/>
+      <c r="O30" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="P30" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="42"/>
+    </row>
+    <row r="31" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="43"/>
       <c r="B31" s="44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" s="44"/>
       <c r="D31" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E31" s="40" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
-      <c r="H31" s="44" t="s">
-        <v>124</v>
-      </c>
+      <c r="H31" s="44"/>
       <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="45" t="s">
-        <v>379</v>
-      </c>
-      <c r="L31" s="45"/>
-      <c r="M31" s="44" t="s">
+      <c r="J31" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="N31" s="40" t="s">
-        <v>183</v>
-      </c>
-      <c r="O31" s="44"/>
-      <c r="P31" s="72"/>
-    </row>
-    <row r="32" spans="1:16" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="45" t="s">
+        <v>375</v>
+      </c>
+      <c r="N31" s="45"/>
+      <c r="O31" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="P31" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="72"/>
+    </row>
+    <row r="32" spans="1:18" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="43"/>
       <c r="B32" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="44"/>
       <c r="D32" s="44" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E32" s="44"/>
       <c r="F32" s="44"/>
@@ -7999,131 +8248,141 @@
       <c r="H32" s="44"/>
       <c r="I32" s="44"/>
       <c r="J32" s="44"/>
-      <c r="K32" s="45" t="s">
-        <v>380</v>
-      </c>
-      <c r="L32" s="45"/>
-      <c r="M32" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="N32" s="44"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="72"/>
-    </row>
-    <row r="33" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="45" t="s">
+        <v>376</v>
+      </c>
+      <c r="N32" s="45"/>
+      <c r="O32" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="72"/>
+    </row>
+    <row r="33" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="44" t="s">
         <v>51</v>
-      </c>
-      <c r="B33" s="44" t="s">
-        <v>52</v>
       </c>
       <c r="C33" s="44"/>
       <c r="D33" s="40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F33" s="44"/>
       <c r="G33" s="44"/>
       <c r="H33" s="44"/>
-      <c r="I33" s="44" t="s">
-        <v>278</v>
-      </c>
-      <c r="J33" s="44" t="s">
-        <v>213</v>
-      </c>
-      <c r="K33" s="45" t="s">
-        <v>381</v>
-      </c>
-      <c r="L33" s="45"/>
-      <c r="M33" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="N33" s="44" t="s">
-        <v>218</v>
-      </c>
-      <c r="O33" s="44"/>
-      <c r="P33" s="72"/>
-    </row>
-    <row r="34" spans="1:16" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="L33" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="M33" s="45" t="s">
+        <v>377</v>
+      </c>
+      <c r="N33" s="45"/>
+      <c r="O33" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="P33" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="72"/>
+    </row>
+    <row r="34" spans="1:18" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="44" t="s">
         <v>51</v>
-      </c>
-      <c r="B34" s="44" t="s">
-        <v>52</v>
       </c>
       <c r="C34" s="40"/>
       <c r="D34" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E34" s="44" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
       <c r="H34" s="40"/>
-      <c r="I34" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="J34" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="N34" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="O34" s="40"/>
-      <c r="P34" s="42"/>
-    </row>
-    <row r="35" spans="1:16" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="I34" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="J34" s="40"/>
+      <c r="K34" s="45" t="s">
+        <v>276</v>
+      </c>
+      <c r="L34" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="P34" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="42"/>
+    </row>
+    <row r="35" spans="1:18" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="44" t="s">
         <v>51</v>
-      </c>
-      <c r="B35" s="44" t="s">
-        <v>52</v>
       </c>
       <c r="C35" s="40"/>
       <c r="D35" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E35" s="44" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
       <c r="H35" s="40"/>
-      <c r="I35" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="J35" s="40" t="s">
-        <v>528</v>
-      </c>
-      <c r="K35" s="45" t="s">
-        <v>380</v>
-      </c>
-      <c r="L35" s="45"/>
-      <c r="M35" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="N35" s="44" t="s">
-        <v>220</v>
-      </c>
-      <c r="O35" s="40"/>
-      <c r="P35" s="42"/>
-    </row>
-    <row r="36" spans="1:16" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="L35" s="40" t="s">
+        <v>524</v>
+      </c>
+      <c r="M35" s="45" t="s">
+        <v>376</v>
+      </c>
+      <c r="N35" s="45"/>
+      <c r="O35" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="P35" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="42"/>
+    </row>
+    <row r="36" spans="1:18" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="43"/>
       <c r="B36" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="40"/>
       <c r="D36" s="40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E36" s="40"/>
       <c r="F36" s="40"/>
@@ -8131,114 +8390,124 @@
       <c r="H36" s="40"/>
       <c r="I36" s="40"/>
       <c r="J36" s="40"/>
-      <c r="K36" s="45" t="s">
-        <v>382</v>
-      </c>
-      <c r="L36" s="45"/>
-      <c r="M36" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="N36" s="40"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="42"/>
-    </row>
-    <row r="37" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="45" t="s">
+        <v>378</v>
+      </c>
+      <c r="N36" s="45"/>
+      <c r="O36" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="42"/>
+    </row>
+    <row r="37" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="40" t="s">
         <v>51</v>
-      </c>
-      <c r="B37" s="40" t="s">
-        <v>52</v>
       </c>
       <c r="C37" s="40"/>
       <c r="D37" s="40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E37" s="44" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F37" s="40"/>
       <c r="G37" s="40"/>
       <c r="H37" s="40"/>
       <c r="I37" s="40"/>
       <c r="J37" s="40"/>
-      <c r="K37" s="45" t="s">
-        <v>383</v>
-      </c>
-      <c r="L37" s="45"/>
-      <c r="M37" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="N37" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="O37" s="40"/>
-      <c r="P37" s="42"/>
-    </row>
-    <row r="38" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="45" t="s">
+        <v>379</v>
+      </c>
+      <c r="N37" s="45"/>
+      <c r="O37" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="P37" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="42"/>
+    </row>
+    <row r="38" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="40" t="s">
         <v>51</v>
-      </c>
-      <c r="B38" s="40" t="s">
-        <v>52</v>
       </c>
       <c r="C38" s="40"/>
       <c r="D38" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E38" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F38" s="40"/>
       <c r="G38" s="40"/>
       <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
+      <c r="I38" s="40" t="s">
+        <v>550</v>
+      </c>
       <c r="J38" s="40"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="N38" s="44" t="s">
-        <v>222</v>
-      </c>
-      <c r="O38" s="40"/>
-      <c r="P38" s="42"/>
-    </row>
-    <row r="39" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="P38" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="42"/>
+    </row>
+    <row r="39" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="44" t="s">
         <v>51</v>
-      </c>
-      <c r="B39" s="40" t="s">
-        <v>52</v>
       </c>
       <c r="C39" s="44"/>
       <c r="D39" s="44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E39" s="44" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F39" s="44"/>
       <c r="G39" s="44"/>
       <c r="H39" s="44"/>
       <c r="I39" s="44"/>
       <c r="J39" s="44"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="N39" s="44" t="s">
-        <v>223</v>
-      </c>
-      <c r="O39" s="44"/>
-      <c r="P39" s="72"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="P39" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q39" s="44"/>
+      <c r="R39" s="72"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError sqref="B3:B31 B32:B39" numberStoredAsText="1"/>
+    <ignoredError sqref="B3:B31 B32:B39 I11 I6 I34 I38" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
@@ -8268,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -8276,7 +8545,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -8316,74 +8585,74 @@
         <v>12</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="C5" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="D5" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="26" t="s">
         <v>126</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -8413,7 +8682,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -8421,7 +8690,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -8438,7 +8707,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8450,74 +8719,74 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="C1" s="34" t="s">
         <v>190</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="C2" s="37" t="s">
         <v>193</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>199</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="36" t="s">
         <v>195</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>196</v>
       </c>
       <c r="C6" s="36"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="36" t="s">
         <v>197</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>198</v>
       </c>
       <c r="C7" s="36"/>
     </row>
@@ -8548,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -8556,7 +8825,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/tools/example_framework.xlsx
+++ b/tools/example_framework.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tarkadia\projects\intuitem\ciso-assistant-community\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E84F6D-1951-4647-B96B-120B76A95CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1C6024-1613-47E4-AAEF-428390C867CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1485" yWindow="-15870" windowWidth="25440" windowHeight="15990" tabRatio="907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,7 +77,32 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{8377CD80-173C-4910-ABAF-16B301C42544}">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{FCDB3F77-8B06-4998-BCDC-B60DCE09EC36}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">.: About label :.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Works like the hashtag system in social media. Labels mustn't contains spaces. They are  separated by line breaks or commas.
+All labels will be forced to uppercase in the resulting YAML file.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{8377CD80-173C-4910-ABAF-16B301C42544}">
       <text>
         <r>
           <rPr>
@@ -666,7 +691,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="555">
   <si>
     <t>type</t>
   </si>
@@ -2541,12 +2566,18 @@
   <si>
     <t>nice_to_have</t>
   </si>
+  <si>
+    <t>labels</t>
+  </si>
+  <si>
+    <t>example_framework, framework1, my-very-cool-framework, I-LOVE-MY-FRAMEWORK</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2719,6 +2750,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="18">
@@ -3255,6 +3293,24 @@
     <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3308,24 +3364,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4825,55 +4863,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="62.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="114"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="96"/>
     </row>
     <row r="2" spans="1:13" ht="42.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="97" t="s">
         <v>544</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="117"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="99"/>
     </row>
     <row r="3" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="96"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="102"/>
     </row>
     <row r="4" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="85" t="s">
@@ -5047,50 +5085,50 @@
       <c r="M12" s="81"/>
     </row>
     <row r="13" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="97" t="s">
+      <c r="A13" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="97"/>
-      <c r="C13" s="98" t="s">
+      <c r="B13" s="103"/>
+      <c r="C13" s="104" t="s">
         <v>543</v>
       </c>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="105"/>
     </row>
     <row r="14" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="94" t="s">
+      <c r="A14" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="96"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="102"/>
     </row>
     <row r="15" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="109" t="s">
+      <c r="A15" s="115" t="s">
         <v>258</v>
       </c>
-      <c r="B15" s="110"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="111"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="117"/>
       <c r="G15" s="79" t="s">
         <v>263</v>
       </c>
@@ -5121,14 +5159,14 @@
       <c r="M16" s="81"/>
     </row>
     <row r="17" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="106" t="s">
+      <c r="A17" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="107"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="108"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="114"/>
       <c r="G17" s="79" t="s">
         <v>260</v>
       </c>
@@ -5140,14 +5178,14 @@
       <c r="M17" s="81"/>
     </row>
     <row r="18" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="103" t="s">
+      <c r="A18" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="104"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="105"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="111"/>
       <c r="G18" s="79" t="s">
         <v>261</v>
       </c>
@@ -5159,14 +5197,14 @@
       <c r="M18" s="81"/>
     </row>
     <row r="19" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="100" t="s">
+      <c r="A19" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="101"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="102"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="108"/>
       <c r="G19" s="79" t="s">
         <v>47</v>
       </c>
@@ -5178,23 +5216,23 @@
       <c r="M19" s="81"/>
     </row>
     <row r="20" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="97" t="s">
+      <c r="A20" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="97"/>
-      <c r="C20" s="98" t="s">
+      <c r="B20" s="103"/>
+      <c r="C20" s="104" t="s">
         <v>262</v>
       </c>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="105"/>
+      <c r="L20" s="105"/>
+      <c r="M20" s="105"/>
     </row>
     <row r="21" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -6867,10 +6905,10 @@
   <sheetPr codeName="Feuil2">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6961,33 +6999,41 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="78" t="s">
+        <v>553</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="78" t="s">
         <v>535</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B12" s="31" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B13" s="36" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+    <row r="14" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B14" s="37" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B15" s="36" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7134,9 +7180,9 @@
   </sheetPr>
   <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
